--- a/xls/penta/penta_originario.xlsx
+++ b/xls/penta/penta_originario.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookmarconi/Desktop/Workspace/arteInLuceImport/xls/penta/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE25ADFE-2165-874D-A234-3C6438F0D715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37420" yWindow="-4580" windowWidth="33600" windowHeight="20540"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -18,13 +12,13 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$P$933</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -11803,11 +11797,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12089,7 +12083,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
-    <cellStyle name="Normale 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normale 2" xfId="2"/>
     <cellStyle name="Valuta" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -12394,37 +12388,39 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P933"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="26.83203125" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" customWidth="1"/>
     <col min="5" max="5" width="41.1640625" customWidth="1"/>
     <col min="6" max="6" width="42.83203125" customWidth="1"/>
-    <col min="7" max="8" width="12.83203125" customWidth="1"/>
-    <col min="9" max="9" width="34" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="6.5" customWidth="1"/>
     <col min="12" max="12" width="36.5" customWidth="1"/>
     <col min="13" max="13" width="27.5" customWidth="1"/>
     <col min="14" max="14" width="8.33203125" style="16" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17">
+    <row r="1" spans="1:16" ht="15">
       <c r="A1" s="1" t="s">
         <v>1335</v>
       </c>
@@ -12474,7 +12470,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="36.75" hidden="1" customHeight="1">
+    <row r="2" spans="1:16" ht="36.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>183</v>
       </c>
@@ -12513,7 +12509,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="57" hidden="1">
+    <row r="3" spans="1:16" ht="45">
       <c r="A3" s="6" t="s">
         <v>184</v>
       </c>
@@ -12549,7 +12545,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="57" hidden="1">
+    <row r="4" spans="1:16" ht="45">
       <c r="A4" s="6" t="s">
         <v>185</v>
       </c>
@@ -12585,7 +12581,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="57" hidden="1">
+    <row r="5" spans="1:16" ht="45">
       <c r="A5" s="6" t="s">
         <v>186</v>
       </c>
@@ -12621,7 +12617,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="57" hidden="1">
+    <row r="6" spans="1:16" ht="45">
       <c r="A6" s="6" t="s">
         <v>187</v>
       </c>
@@ -12657,7 +12653,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="57" hidden="1">
+    <row r="7" spans="1:16" ht="45">
       <c r="A7" s="6" t="s">
         <v>188</v>
       </c>
@@ -12693,7 +12689,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="38" hidden="1">
+    <row r="8" spans="1:16" ht="30">
       <c r="A8" s="6" t="s">
         <v>189</v>
       </c>
@@ -12723,7 +12719,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="38" hidden="1">
+    <row r="9" spans="1:16" ht="30">
       <c r="A9" s="21" t="s">
         <v>1168</v>
       </c>
@@ -12753,7 +12749,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="19" hidden="1">
+    <row r="10" spans="1:16" ht="15">
       <c r="A10" s="6" t="s">
         <v>191</v>
       </c>
@@ -12787,7 +12783,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="19" hidden="1">
+    <row r="11" spans="1:16" ht="15">
       <c r="A11" s="6" t="s">
         <v>192</v>
       </c>
@@ -12821,7 +12817,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="19" hidden="1">
+    <row r="12" spans="1:16" ht="15">
       <c r="A12" s="6" t="s">
         <v>193</v>
       </c>
@@ -12855,7 +12851,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="19" hidden="1">
+    <row r="13" spans="1:16" ht="15">
       <c r="A13" s="6" t="s">
         <v>194</v>
       </c>
@@ -12889,7 +12885,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="19" hidden="1">
+    <row r="14" spans="1:16" ht="15">
       <c r="A14" s="6" t="s">
         <v>195</v>
       </c>
@@ -12923,7 +12919,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="19" hidden="1">
+    <row r="15" spans="1:16" ht="15">
       <c r="A15" s="6" t="s">
         <v>196</v>
       </c>
@@ -12957,7 +12953,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="19">
+    <row r="16" spans="1:16" ht="15">
       <c r="A16" s="6" t="s">
         <v>197</v>
       </c>
@@ -12993,7 +12989,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="19">
+    <row r="17" spans="1:16" ht="15">
       <c r="A17" s="6" t="s">
         <v>198</v>
       </c>
@@ -13029,7 +13025,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="19">
+    <row r="18" spans="1:16" ht="15">
       <c r="A18" s="6" t="s">
         <v>199</v>
       </c>
@@ -13065,7 +13061,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="38">
+    <row r="19" spans="1:16" ht="30">
       <c r="A19" s="6" t="s">
         <v>200</v>
       </c>
@@ -13101,7 +13097,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="38">
+    <row r="20" spans="1:16" ht="30">
       <c r="A20" s="6" t="s">
         <v>201</v>
       </c>
@@ -13137,7 +13133,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="38">
+    <row r="21" spans="1:16" ht="30">
       <c r="A21" s="6" t="s">
         <v>202</v>
       </c>
@@ -13173,7 +13169,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="38">
+    <row r="22" spans="1:16" ht="15">
       <c r="A22" s="6" t="s">
         <v>203</v>
       </c>
@@ -13209,7 +13205,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="38">
+    <row r="23" spans="1:16" ht="15">
       <c r="A23" s="6" t="s">
         <v>204</v>
       </c>
@@ -13245,7 +13241,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="38">
+    <row r="24" spans="1:16" ht="15">
       <c r="A24" s="6" t="s">
         <v>205</v>
       </c>
@@ -13281,7 +13277,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="19" hidden="1">
+    <row r="25" spans="1:16" ht="15">
       <c r="A25" s="6" t="s">
         <v>206</v>
       </c>
@@ -13315,7 +13311,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="19" hidden="1">
+    <row r="26" spans="1:16" ht="15">
       <c r="A26" s="6" t="s">
         <v>207</v>
       </c>
@@ -13349,7 +13345,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="19" hidden="1">
+    <row r="27" spans="1:16" ht="15">
       <c r="A27" s="6" t="s">
         <v>208</v>
       </c>
@@ -13383,7 +13379,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="19" hidden="1">
+    <row r="28" spans="1:16" ht="15">
       <c r="A28" s="6" t="s">
         <v>209</v>
       </c>
@@ -13417,7 +13413,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="19" hidden="1">
+    <row r="29" spans="1:16" ht="15">
       <c r="A29" s="6" t="s">
         <v>210</v>
       </c>
@@ -13451,7 +13447,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="19" hidden="1">
+    <row r="30" spans="1:16" ht="15">
       <c r="A30" s="6" t="s">
         <v>211</v>
       </c>
@@ -13485,7 +13481,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="19">
+    <row r="31" spans="1:16" ht="15">
       <c r="A31" s="6" t="s">
         <v>212</v>
       </c>
@@ -13521,7 +13517,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="19">
+    <row r="32" spans="1:16" ht="15">
       <c r="A32" s="6" t="s">
         <v>213</v>
       </c>
@@ -13557,7 +13553,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="19">
+    <row r="33" spans="1:16" ht="15">
       <c r="A33" s="6" t="s">
         <v>214</v>
       </c>
@@ -13593,7 +13589,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="38">
+    <row r="34" spans="1:16" ht="30">
       <c r="A34" s="6" t="s">
         <v>215</v>
       </c>
@@ -13629,7 +13625,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="38">
+    <row r="35" spans="1:16" ht="30">
       <c r="A35" s="6" t="s">
         <v>216</v>
       </c>
@@ -13665,7 +13661,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="38">
+    <row r="36" spans="1:16" ht="30">
       <c r="A36" s="6" t="s">
         <v>217</v>
       </c>
@@ -13701,7 +13697,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="38">
+    <row r="37" spans="1:16" ht="15">
       <c r="A37" s="6" t="s">
         <v>218</v>
       </c>
@@ -13737,7 +13733,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="38">
+    <row r="38" spans="1:16" ht="15">
       <c r="A38" s="6" t="s">
         <v>219</v>
       </c>
@@ -13773,7 +13769,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="38">
+    <row r="39" spans="1:16" ht="15">
       <c r="A39" s="6" t="s">
         <v>220</v>
       </c>
@@ -13809,7 +13805,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="19" hidden="1">
+    <row r="40" spans="1:16" ht="15">
       <c r="A40" s="6" t="s">
         <v>221</v>
       </c>
@@ -13843,7 +13839,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="19" hidden="1">
+    <row r="41" spans="1:16" ht="15">
       <c r="A41" s="6" t="s">
         <v>222</v>
       </c>
@@ -13877,7 +13873,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="19" hidden="1">
+    <row r="42" spans="1:16" ht="15">
       <c r="A42" s="6" t="s">
         <v>223</v>
       </c>
@@ -13911,7 +13907,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="19" hidden="1">
+    <row r="43" spans="1:16" ht="15">
       <c r="A43" s="6" t="s">
         <v>224</v>
       </c>
@@ -13945,7 +13941,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="19" hidden="1">
+    <row r="44" spans="1:16" ht="15">
       <c r="A44" s="6" t="s">
         <v>225</v>
       </c>
@@ -13979,7 +13975,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="19" hidden="1">
+    <row r="45" spans="1:16" ht="15">
       <c r="A45" s="6" t="s">
         <v>226</v>
       </c>
@@ -14013,7 +14009,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="19">
+    <row r="46" spans="1:16" ht="15">
       <c r="A46" s="6" t="s">
         <v>227</v>
       </c>
@@ -14049,7 +14045,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="19">
+    <row r="47" spans="1:16" ht="15">
       <c r="A47" s="6" t="s">
         <v>228</v>
       </c>
@@ -14085,7 +14081,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="19">
+    <row r="48" spans="1:16" ht="15">
       <c r="A48" s="6" t="s">
         <v>229</v>
       </c>
@@ -14121,7 +14117,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="38">
+    <row r="49" spans="1:16" ht="30">
       <c r="A49" s="6" t="s">
         <v>230</v>
       </c>
@@ -14157,7 +14153,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="38">
+    <row r="50" spans="1:16" ht="30">
       <c r="A50" s="6" t="s">
         <v>231</v>
       </c>
@@ -14193,7 +14189,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="38">
+    <row r="51" spans="1:16" ht="30">
       <c r="A51" s="6" t="s">
         <v>232</v>
       </c>
@@ -14229,7 +14225,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="38">
+    <row r="52" spans="1:16" ht="15">
       <c r="A52" s="6" t="s">
         <v>233</v>
       </c>
@@ -14265,7 +14261,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="38">
+    <row r="53" spans="1:16" ht="15">
       <c r="A53" s="6" t="s">
         <v>234</v>
       </c>
@@ -14301,7 +14297,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="38">
+    <row r="54" spans="1:16" ht="15">
       <c r="A54" s="6" t="s">
         <v>235</v>
       </c>
@@ -14337,7 +14333,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="19" hidden="1">
+    <row r="55" spans="1:16" ht="15">
       <c r="A55" s="6" t="s">
         <v>236</v>
       </c>
@@ -14371,7 +14367,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="19" hidden="1">
+    <row r="56" spans="1:16" ht="15">
       <c r="A56" s="6" t="s">
         <v>237</v>
       </c>
@@ -14405,7 +14401,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="19" hidden="1">
+    <row r="57" spans="1:16" ht="15">
       <c r="A57" s="6" t="s">
         <v>238</v>
       </c>
@@ -14439,7 +14435,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="19" hidden="1">
+    <row r="58" spans="1:16" ht="15">
       <c r="A58" s="6" t="s">
         <v>239</v>
       </c>
@@ -14473,7 +14469,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="19" hidden="1">
+    <row r="59" spans="1:16" ht="15">
       <c r="A59" s="6" t="s">
         <v>240</v>
       </c>
@@ -14507,7 +14503,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="19" hidden="1">
+    <row r="60" spans="1:16" ht="15">
       <c r="A60" s="6" t="s">
         <v>241</v>
       </c>
@@ -14541,7 +14537,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="19">
+    <row r="61" spans="1:16" ht="15">
       <c r="A61" s="6" t="s">
         <v>242</v>
       </c>
@@ -14577,7 +14573,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="19">
+    <row r="62" spans="1:16" ht="15">
       <c r="A62" s="6" t="s">
         <v>243</v>
       </c>
@@ -14613,7 +14609,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="19">
+    <row r="63" spans="1:16" ht="15">
       <c r="A63" s="6" t="s">
         <v>244</v>
       </c>
@@ -14649,7 +14645,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="38">
+    <row r="64" spans="1:16" ht="30">
       <c r="A64" s="6" t="s">
         <v>245</v>
       </c>
@@ -14685,7 +14681,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="38">
+    <row r="65" spans="1:16" ht="30">
       <c r="A65" s="6" t="s">
         <v>246</v>
       </c>
@@ -14721,7 +14717,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="38">
+    <row r="66" spans="1:16" ht="30">
       <c r="A66" s="6" t="s">
         <v>247</v>
       </c>
@@ -14757,7 +14753,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="38">
+    <row r="67" spans="1:16" ht="15">
       <c r="A67" s="6" t="s">
         <v>248</v>
       </c>
@@ -14793,7 +14789,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="38">
+    <row r="68" spans="1:16" ht="15">
       <c r="A68" s="6" t="s">
         <v>249</v>
       </c>
@@ -14829,7 +14825,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="38">
+    <row r="69" spans="1:16" ht="15">
       <c r="A69" s="6" t="s">
         <v>250</v>
       </c>
@@ -14865,7 +14861,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="19" hidden="1">
+    <row r="70" spans="1:16" ht="15">
       <c r="A70" s="6" t="s">
         <v>251</v>
       </c>
@@ -14899,7 +14895,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="19" hidden="1">
+    <row r="71" spans="1:16" ht="15">
       <c r="A71" s="6" t="s">
         <v>252</v>
       </c>
@@ -14933,7 +14929,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="19" hidden="1">
+    <row r="72" spans="1:16" ht="15">
       <c r="A72" s="6" t="s">
         <v>253</v>
       </c>
@@ -14967,7 +14963,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="19" hidden="1">
+    <row r="73" spans="1:16" ht="15">
       <c r="A73" s="6" t="s">
         <v>254</v>
       </c>
@@ -15001,7 +14997,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="19" hidden="1">
+    <row r="74" spans="1:16" ht="15">
       <c r="A74" s="6" t="s">
         <v>255</v>
       </c>
@@ -15035,7 +15031,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="19" hidden="1">
+    <row r="75" spans="1:16" ht="15">
       <c r="A75" s="6" t="s">
         <v>256</v>
       </c>
@@ -15069,7 +15065,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="19">
+    <row r="76" spans="1:16" ht="15">
       <c r="A76" s="6" t="s">
         <v>257</v>
       </c>
@@ -15105,7 +15101,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="19">
+    <row r="77" spans="1:16" ht="15">
       <c r="A77" s="6" t="s">
         <v>258</v>
       </c>
@@ -15141,7 +15137,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="19">
+    <row r="78" spans="1:16" ht="15">
       <c r="A78" s="6" t="s">
         <v>259</v>
       </c>
@@ -15177,7 +15173,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="38">
+    <row r="79" spans="1:16" ht="30">
       <c r="A79" s="6" t="s">
         <v>260</v>
       </c>
@@ -15213,7 +15209,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="38">
+    <row r="80" spans="1:16" ht="30">
       <c r="A80" s="6" t="s">
         <v>261</v>
       </c>
@@ -15249,7 +15245,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="38">
+    <row r="81" spans="1:16" ht="30">
       <c r="A81" s="6" t="s">
         <v>262</v>
       </c>
@@ -15285,7 +15281,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="38">
+    <row r="82" spans="1:16" ht="15">
       <c r="A82" s="6" t="s">
         <v>263</v>
       </c>
@@ -15321,7 +15317,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="38">
+    <row r="83" spans="1:16" ht="15">
       <c r="A83" s="6" t="s">
         <v>264</v>
       </c>
@@ -15357,7 +15353,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="38">
+    <row r="84" spans="1:16" ht="15">
       <c r="A84" s="6" t="s">
         <v>265</v>
       </c>
@@ -15393,7 +15389,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="19" hidden="1">
+    <row r="85" spans="1:16" ht="15">
       <c r="A85" s="6" t="s">
         <v>266</v>
       </c>
@@ -15427,7 +15423,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="19" hidden="1">
+    <row r="86" spans="1:16" ht="15">
       <c r="A86" s="6" t="s">
         <v>267</v>
       </c>
@@ -15461,7 +15457,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="19" hidden="1">
+    <row r="87" spans="1:16" ht="15">
       <c r="A87" s="6" t="s">
         <v>268</v>
       </c>
@@ -15495,7 +15491,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="19" hidden="1">
+    <row r="88" spans="1:16" ht="15">
       <c r="A88" s="6" t="s">
         <v>269</v>
       </c>
@@ -15529,7 +15525,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="19" hidden="1">
+    <row r="89" spans="1:16" ht="15">
       <c r="A89" s="6" t="s">
         <v>270</v>
       </c>
@@ -15563,7 +15559,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="19" hidden="1">
+    <row r="90" spans="1:16" ht="15">
       <c r="A90" s="6" t="s">
         <v>271</v>
       </c>
@@ -15597,7 +15593,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="19">
+    <row r="91" spans="1:16" ht="15">
       <c r="A91" s="6" t="s">
         <v>272</v>
       </c>
@@ -15633,7 +15629,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="19">
+    <row r="92" spans="1:16" ht="15">
       <c r="A92" s="6" t="s">
         <v>273</v>
       </c>
@@ -15669,7 +15665,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="19">
+    <row r="93" spans="1:16" ht="15">
       <c r="A93" s="6" t="s">
         <v>274</v>
       </c>
@@ -15705,7 +15701,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="38">
+    <row r="94" spans="1:16" ht="30">
       <c r="A94" s="6" t="s">
         <v>275</v>
       </c>
@@ -15741,7 +15737,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="38">
+    <row r="95" spans="1:16" ht="30">
       <c r="A95" s="6" t="s">
         <v>276</v>
       </c>
@@ -15777,7 +15773,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="38">
+    <row r="96" spans="1:16" ht="30">
       <c r="A96" s="6" t="s">
         <v>277</v>
       </c>
@@ -15813,7 +15809,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="38">
+    <row r="97" spans="1:16" ht="15">
       <c r="A97" s="6" t="s">
         <v>278</v>
       </c>
@@ -15849,7 +15845,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="38">
+    <row r="98" spans="1:16" ht="15">
       <c r="A98" s="6" t="s">
         <v>279</v>
       </c>
@@ -15885,7 +15881,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="38">
+    <row r="99" spans="1:16" ht="15">
       <c r="A99" s="6" t="s">
         <v>280</v>
       </c>
@@ -15921,7 +15917,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="38" hidden="1">
+    <row r="100" spans="1:16" ht="30">
       <c r="A100" s="6" t="s">
         <v>281</v>
       </c>
@@ -15955,7 +15951,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="38" hidden="1">
+    <row r="101" spans="1:16" ht="30">
       <c r="A101" s="6" t="s">
         <v>282</v>
       </c>
@@ -15989,7 +15985,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="38" hidden="1">
+    <row r="102" spans="1:16" ht="30">
       <c r="A102" s="6" t="s">
         <v>283</v>
       </c>
@@ -16023,7 +16019,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="38" hidden="1">
+    <row r="103" spans="1:16" ht="30">
       <c r="A103" s="6" t="s">
         <v>284</v>
       </c>
@@ -16057,7 +16053,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="38" hidden="1">
+    <row r="104" spans="1:16" ht="30">
       <c r="A104" s="6" t="s">
         <v>285</v>
       </c>
@@ -16091,7 +16087,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="38" hidden="1">
+    <row r="105" spans="1:16" ht="30">
       <c r="A105" s="6" t="s">
         <v>286</v>
       </c>
@@ -16125,7 +16121,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="38">
+    <row r="106" spans="1:16" ht="30">
       <c r="A106" s="6" t="s">
         <v>287</v>
       </c>
@@ -16159,7 +16155,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="38">
+    <row r="107" spans="1:16" ht="30">
       <c r="A107" s="6" t="s">
         <v>288</v>
       </c>
@@ -16193,7 +16189,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="19" hidden="1">
+    <row r="108" spans="1:16" ht="15">
       <c r="A108" s="6" t="s">
         <v>289</v>
       </c>
@@ -16227,7 +16223,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="19" hidden="1">
+    <row r="109" spans="1:16" ht="15">
       <c r="A109" s="6" t="s">
         <v>290</v>
       </c>
@@ -16261,7 +16257,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="38" hidden="1">
+    <row r="110" spans="1:16" ht="30">
       <c r="A110" s="6" t="s">
         <v>291</v>
       </c>
@@ -16295,7 +16291,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="19" hidden="1">
+    <row r="111" spans="1:16" ht="15">
       <c r="A111" s="6" t="s">
         <v>292</v>
       </c>
@@ -16329,7 +16325,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="19" hidden="1">
+    <row r="112" spans="1:16" ht="15">
       <c r="A112" s="6" t="s">
         <v>293</v>
       </c>
@@ -16363,7 +16359,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="19" hidden="1">
+    <row r="113" spans="1:16" ht="15">
       <c r="A113" s="6" t="s">
         <v>294</v>
       </c>
@@ -16397,7 +16393,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="38" hidden="1">
+    <row r="114" spans="1:16" ht="30">
       <c r="A114" s="6" t="s">
         <v>295</v>
       </c>
@@ -16431,7 +16427,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="19" hidden="1">
+    <row r="115" spans="1:16" ht="15">
       <c r="A115" s="6" t="s">
         <v>296</v>
       </c>
@@ -16465,7 +16461,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="19" hidden="1">
+    <row r="116" spans="1:16" ht="15">
       <c r="A116" s="6" t="s">
         <v>297</v>
       </c>
@@ -16499,7 +16495,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="19" hidden="1">
+    <row r="117" spans="1:16" ht="15">
       <c r="A117" s="6" t="s">
         <v>298</v>
       </c>
@@ -16533,7 +16529,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="38" hidden="1">
+    <row r="118" spans="1:16" ht="30">
       <c r="A118" s="6" t="s">
         <v>299</v>
       </c>
@@ -16567,7 +16563,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="19" hidden="1">
+    <row r="119" spans="1:16" ht="15">
       <c r="A119" s="6" t="s">
         <v>300</v>
       </c>
@@ -16601,7 +16597,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="19" hidden="1">
+    <row r="120" spans="1:16" ht="15">
       <c r="A120" s="6" t="s">
         <v>301</v>
       </c>
@@ -16637,7 +16633,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="19" hidden="1">
+    <row r="121" spans="1:16" ht="15">
       <c r="A121" s="6" t="s">
         <v>302</v>
       </c>
@@ -16673,7 +16669,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="38" hidden="1">
+    <row r="122" spans="1:16" ht="30">
       <c r="A122" s="6" t="s">
         <v>303</v>
       </c>
@@ -16709,7 +16705,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="19" hidden="1">
+    <row r="123" spans="1:16" ht="15">
       <c r="A123" s="6" t="s">
         <v>304</v>
       </c>
@@ -16745,7 +16741,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="19" hidden="1">
+    <row r="124" spans="1:16" ht="15">
       <c r="A124" s="6" t="s">
         <v>305</v>
       </c>
@@ -16779,7 +16775,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="19" hidden="1">
+    <row r="125" spans="1:16" ht="15">
       <c r="A125" s="6" t="s">
         <v>306</v>
       </c>
@@ -16813,7 +16809,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="19" hidden="1">
+    <row r="126" spans="1:16" ht="15">
       <c r="A126" s="6" t="s">
         <v>307</v>
       </c>
@@ -16847,7 +16843,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="19" hidden="1">
+    <row r="127" spans="1:16" ht="15">
       <c r="A127" s="6" t="s">
         <v>308</v>
       </c>
@@ -16881,7 +16877,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="19" hidden="1">
+    <row r="128" spans="1:16" ht="15">
       <c r="A128" s="6" t="s">
         <v>309</v>
       </c>
@@ -16915,7 +16911,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="38" hidden="1">
+    <row r="129" spans="1:16" ht="30">
       <c r="A129" s="6" t="s">
         <v>310</v>
       </c>
@@ -16949,7 +16945,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="19" hidden="1">
+    <row r="130" spans="1:16" ht="15">
       <c r="A130" s="6" t="s">
         <v>311</v>
       </c>
@@ -16983,7 +16979,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="19" hidden="1">
+    <row r="131" spans="1:16" ht="15">
       <c r="A131" s="6" t="s">
         <v>312</v>
       </c>
@@ -17017,7 +17013,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="19" hidden="1">
+    <row r="132" spans="1:16" ht="15">
       <c r="A132" s="6" t="s">
         <v>313</v>
       </c>
@@ -17051,7 +17047,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="38" hidden="1">
+    <row r="133" spans="1:16" ht="30">
       <c r="A133" s="6" t="s">
         <v>314</v>
       </c>
@@ -17085,7 +17081,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="19" hidden="1">
+    <row r="134" spans="1:16" ht="15">
       <c r="A134" s="6" t="s">
         <v>315</v>
       </c>
@@ -17119,7 +17115,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="19" hidden="1">
+    <row r="135" spans="1:16" ht="15">
       <c r="A135" s="6" t="s">
         <v>316</v>
       </c>
@@ -17153,7 +17149,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="19" hidden="1">
+    <row r="136" spans="1:16" ht="15">
       <c r="A136" s="6" t="s">
         <v>317</v>
       </c>
@@ -17187,7 +17183,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="38" hidden="1">
+    <row r="137" spans="1:16" ht="30">
       <c r="A137" s="6" t="s">
         <v>318</v>
       </c>
@@ -17221,7 +17217,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="19" hidden="1">
+    <row r="138" spans="1:16" ht="15">
       <c r="A138" s="6" t="s">
         <v>319</v>
       </c>
@@ -17255,7 +17251,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="19" hidden="1">
+    <row r="139" spans="1:16" ht="15">
       <c r="A139" s="6" t="s">
         <v>320</v>
       </c>
@@ -17289,7 +17285,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="19" hidden="1">
+    <row r="140" spans="1:16" ht="15">
       <c r="A140" s="6" t="s">
         <v>321</v>
       </c>
@@ -17323,7 +17319,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="38" hidden="1">
+    <row r="141" spans="1:16" ht="30">
       <c r="A141" s="6" t="s">
         <v>322</v>
       </c>
@@ -17357,7 +17353,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="19" hidden="1">
+    <row r="142" spans="1:16" ht="15">
       <c r="A142" s="6" t="s">
         <v>323</v>
       </c>
@@ -17391,7 +17387,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="19" hidden="1">
+    <row r="143" spans="1:16" ht="15">
       <c r="A143" s="6" t="s">
         <v>324</v>
       </c>
@@ -17425,7 +17421,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="19" hidden="1">
+    <row r="144" spans="1:16" ht="15">
       <c r="A144" s="6" t="s">
         <v>325</v>
       </c>
@@ -17459,7 +17455,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="38" hidden="1">
+    <row r="145" spans="1:16" ht="30">
       <c r="A145" s="6" t="s">
         <v>326</v>
       </c>
@@ -17493,7 +17489,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="19" hidden="1">
+    <row r="146" spans="1:16" ht="15">
       <c r="A146" s="6" t="s">
         <v>327</v>
       </c>
@@ -17527,7 +17523,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="19" hidden="1">
+    <row r="147" spans="1:16" ht="15">
       <c r="A147" s="6" t="s">
         <v>328</v>
       </c>
@@ -17561,7 +17557,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="19" hidden="1">
+    <row r="148" spans="1:16" ht="15">
       <c r="A148" s="6" t="s">
         <v>329</v>
       </c>
@@ -17595,7 +17591,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="38" hidden="1">
+    <row r="149" spans="1:16" ht="30">
       <c r="A149" s="6" t="s">
         <v>330</v>
       </c>
@@ -17629,7 +17625,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="19" hidden="1">
+    <row r="150" spans="1:16" ht="15">
       <c r="A150" s="6" t="s">
         <v>331</v>
       </c>
@@ -17663,7 +17659,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="38" hidden="1">
+    <row r="151" spans="1:16" ht="30">
       <c r="A151" s="6" t="s">
         <v>332</v>
       </c>
@@ -17697,7 +17693,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="19" hidden="1">
+    <row r="152" spans="1:16" ht="15">
       <c r="A152" s="6" t="s">
         <v>333</v>
       </c>
@@ -17731,7 +17727,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="19" hidden="1">
+    <row r="153" spans="1:16" ht="15">
       <c r="A153" s="6" t="s">
         <v>334</v>
       </c>
@@ -17765,7 +17761,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="19" hidden="1">
+    <row r="154" spans="1:16" ht="15">
       <c r="A154" s="6" t="s">
         <v>335</v>
       </c>
@@ -17797,7 +17793,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="19" hidden="1">
+    <row r="155" spans="1:16" ht="15">
       <c r="A155" s="6" t="s">
         <v>336</v>
       </c>
@@ -17829,7 +17825,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="38" hidden="1">
+    <row r="156" spans="1:16" ht="30">
       <c r="A156" s="6" t="s">
         <v>337</v>
       </c>
@@ -17861,7 +17857,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="19" hidden="1">
+    <row r="157" spans="1:16" ht="15">
       <c r="A157" s="6" t="s">
         <v>338</v>
       </c>
@@ -17893,7 +17889,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="38" hidden="1">
+    <row r="158" spans="1:16" ht="30">
       <c r="A158" s="6" t="s">
         <v>339</v>
       </c>
@@ -17925,7 +17921,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="19" hidden="1">
+    <row r="159" spans="1:16" ht="15">
       <c r="A159" s="6" t="s">
         <v>340</v>
       </c>
@@ -17957,7 +17953,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="19" hidden="1">
+    <row r="160" spans="1:16" ht="15">
       <c r="A160" s="6" t="s">
         <v>341</v>
       </c>
@@ -17989,7 +17985,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="19" hidden="1">
+    <row r="161" spans="1:16" ht="15">
       <c r="A161" s="6" t="s">
         <v>342</v>
       </c>
@@ -18023,7 +18019,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="19" hidden="1">
+    <row r="162" spans="1:16" ht="15">
       <c r="A162" s="6" t="s">
         <v>343</v>
       </c>
@@ -18057,7 +18053,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="38" hidden="1">
+    <row r="163" spans="1:16" ht="30">
       <c r="A163" s="6" t="s">
         <v>344</v>
       </c>
@@ -18091,7 +18087,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="19" hidden="1">
+    <row r="164" spans="1:16" ht="15">
       <c r="A164" s="6" t="s">
         <v>345</v>
       </c>
@@ -18125,7 +18121,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="38" hidden="1">
+    <row r="165" spans="1:16" ht="30">
       <c r="A165" s="6" t="s">
         <v>346</v>
       </c>
@@ -18159,7 +18155,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="19" hidden="1">
+    <row r="166" spans="1:16" ht="15">
       <c r="A166" s="6" t="s">
         <v>347</v>
       </c>
@@ -18193,7 +18189,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="19" hidden="1">
+    <row r="167" spans="1:16" ht="15">
       <c r="A167" s="6" t="s">
         <v>348</v>
       </c>
@@ -18227,7 +18223,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="19" hidden="1">
+    <row r="168" spans="1:16" ht="15">
       <c r="A168" s="6" t="s">
         <v>349</v>
       </c>
@@ -18261,7 +18257,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="19" hidden="1">
+    <row r="169" spans="1:16" ht="15">
       <c r="A169" s="6" t="s">
         <v>350</v>
       </c>
@@ -18295,7 +18291,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="38" hidden="1">
+    <row r="170" spans="1:16" ht="30">
       <c r="A170" s="6" t="s">
         <v>351</v>
       </c>
@@ -18329,7 +18325,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="19" hidden="1">
+    <row r="171" spans="1:16" ht="15">
       <c r="A171" s="6" t="s">
         <v>352</v>
       </c>
@@ -18363,7 +18359,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="38" hidden="1">
+    <row r="172" spans="1:16" ht="30">
       <c r="A172" s="6" t="s">
         <v>353</v>
       </c>
@@ -18397,7 +18393,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="19" hidden="1">
+    <row r="173" spans="1:16" ht="15">
       <c r="A173" s="6" t="s">
         <v>354</v>
       </c>
@@ -18431,7 +18427,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="19" hidden="1">
+    <row r="174" spans="1:16" ht="15">
       <c r="A174" s="6" t="s">
         <v>355</v>
       </c>
@@ -18465,7 +18461,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="19" hidden="1">
+    <row r="175" spans="1:16" ht="15">
       <c r="A175" s="6" t="s">
         <v>356</v>
       </c>
@@ -18499,7 +18495,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="19" hidden="1">
+    <row r="176" spans="1:16" ht="15">
       <c r="A176" s="6" t="s">
         <v>357</v>
       </c>
@@ -18533,7 +18529,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="38" hidden="1">
+    <row r="177" spans="1:16" ht="30">
       <c r="A177" s="6" t="s">
         <v>358</v>
       </c>
@@ -18567,7 +18563,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="38" hidden="1">
+    <row r="178" spans="1:16" ht="30">
       <c r="A178" s="6" t="s">
         <v>359</v>
       </c>
@@ -18601,7 +18597,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="19" hidden="1">
+    <row r="179" spans="1:16" ht="15">
       <c r="A179" s="6" t="s">
         <v>360</v>
       </c>
@@ -18635,7 +18631,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="19" hidden="1">
+    <row r="180" spans="1:16" ht="15">
       <c r="A180" s="6" t="s">
         <v>361</v>
       </c>
@@ -18669,7 +18665,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="38" hidden="1">
+    <row r="181" spans="1:16" ht="30">
       <c r="A181" s="6" t="s">
         <v>362</v>
       </c>
@@ -18703,7 +18699,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="38" hidden="1">
+    <row r="182" spans="1:16" ht="30">
       <c r="A182" s="6" t="s">
         <v>363</v>
       </c>
@@ -18737,7 +18733,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="19" hidden="1">
+    <row r="183" spans="1:16" ht="15">
       <c r="A183" s="6" t="s">
         <v>364</v>
       </c>
@@ -18772,7 +18768,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="19" hidden="1">
+    <row r="184" spans="1:16" ht="15">
       <c r="A184" s="6" t="s">
         <v>365</v>
       </c>
@@ -18804,7 +18800,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="38" hidden="1">
+    <row r="185" spans="1:16" ht="30">
       <c r="A185" s="6" t="s">
         <v>366</v>
       </c>
@@ -18836,7 +18832,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="19" hidden="1">
+    <row r="186" spans="1:16" ht="15">
       <c r="A186" s="6" t="s">
         <v>367</v>
       </c>
@@ -18868,7 +18864,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="19" hidden="1">
+    <row r="187" spans="1:16" ht="15">
       <c r="A187" s="6" t="s">
         <v>368</v>
       </c>
@@ -18900,7 +18896,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="38" hidden="1">
+    <row r="188" spans="1:16" ht="30">
       <c r="A188" s="6" t="s">
         <v>369</v>
       </c>
@@ -18932,7 +18928,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="19" hidden="1">
+    <row r="189" spans="1:16" ht="15">
       <c r="A189" s="6" t="s">
         <v>370</v>
       </c>
@@ -18964,7 +18960,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="19" hidden="1">
+    <row r="190" spans="1:16" ht="15">
       <c r="A190" s="6" t="s">
         <v>371</v>
       </c>
@@ -18996,7 +18992,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="191" spans="1:16" ht="38" hidden="1">
+    <row r="191" spans="1:16" ht="30">
       <c r="A191" s="6" t="s">
         <v>372</v>
       </c>
@@ -19028,7 +19024,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="19" hidden="1">
+    <row r="192" spans="1:16" ht="15">
       <c r="A192" s="6" t="s">
         <v>373</v>
       </c>
@@ -19060,7 +19056,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="19" hidden="1">
+    <row r="193" spans="1:16" ht="15">
       <c r="A193" s="6" t="s">
         <v>374</v>
       </c>
@@ -19092,7 +19088,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="38" hidden="1">
+    <row r="194" spans="1:16" ht="30">
       <c r="A194" s="6" t="s">
         <v>375</v>
       </c>
@@ -19124,7 +19120,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="19" hidden="1">
+    <row r="195" spans="1:16" ht="15">
       <c r="A195" s="6" t="s">
         <v>376</v>
       </c>
@@ -19159,7 +19155,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="19" hidden="1">
+    <row r="196" spans="1:16" ht="15">
       <c r="A196" s="6" t="s">
         <v>377</v>
       </c>
@@ -19191,7 +19187,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="197" spans="1:16" ht="38" hidden="1">
+    <row r="197" spans="1:16" ht="30">
       <c r="A197" s="6" t="s">
         <v>378</v>
       </c>
@@ -19223,7 +19219,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="19" hidden="1">
+    <row r="198" spans="1:16" ht="15">
       <c r="A198" s="6" t="s">
         <v>379</v>
       </c>
@@ -19255,7 +19251,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="199" spans="1:16" ht="19" hidden="1">
+    <row r="199" spans="1:16" ht="15">
       <c r="A199" s="6" t="s">
         <v>380</v>
       </c>
@@ -19287,7 +19283,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="38" hidden="1">
+    <row r="200" spans="1:16" ht="30">
       <c r="A200" s="6" t="s">
         <v>381</v>
       </c>
@@ -19319,7 +19315,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="19" hidden="1">
+    <row r="201" spans="1:16" ht="15">
       <c r="A201" s="6" t="s">
         <v>382</v>
       </c>
@@ -19351,7 +19347,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="19" hidden="1">
+    <row r="202" spans="1:16" ht="15">
       <c r="A202" s="6" t="s">
         <v>383</v>
       </c>
@@ -19383,7 +19379,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="38" hidden="1">
+    <row r="203" spans="1:16" ht="30">
       <c r="A203" s="6" t="s">
         <v>384</v>
       </c>
@@ -19415,7 +19411,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="19" hidden="1">
+    <row r="204" spans="1:16" ht="15">
       <c r="A204" s="6" t="s">
         <v>385</v>
       </c>
@@ -19447,7 +19443,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="19" hidden="1">
+    <row r="205" spans="1:16" ht="15">
       <c r="A205" s="6" t="s">
         <v>386</v>
       </c>
@@ -19479,7 +19475,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="38" hidden="1">
+    <row r="206" spans="1:16" ht="30">
       <c r="A206" s="6" t="s">
         <v>387</v>
       </c>
@@ -19511,7 +19507,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="19" hidden="1">
+    <row r="207" spans="1:16" ht="15">
       <c r="A207" s="21" t="s">
         <v>1230</v>
       </c>
@@ -19541,7 +19537,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="19" hidden="1">
+    <row r="208" spans="1:16" ht="15">
       <c r="A208" s="21" t="s">
         <v>1231</v>
       </c>
@@ -19571,7 +19567,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="38" hidden="1">
+    <row r="209" spans="1:16" ht="30">
       <c r="A209" s="21" t="s">
         <v>1232</v>
       </c>
@@ -19601,7 +19597,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="19" hidden="1">
+    <row r="210" spans="1:16" ht="15">
       <c r="A210" s="21" t="s">
         <v>1233</v>
       </c>
@@ -19631,7 +19627,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="19" hidden="1">
+    <row r="211" spans="1:16" ht="15">
       <c r="A211" s="21" t="s">
         <v>1234</v>
       </c>
@@ -19661,7 +19657,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="38" hidden="1">
+    <row r="212" spans="1:16" ht="30">
       <c r="A212" s="21" t="s">
         <v>1235</v>
       </c>
@@ -19691,7 +19687,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="19" hidden="1">
+    <row r="213" spans="1:16" ht="15">
       <c r="A213" s="21" t="s">
         <v>1236</v>
       </c>
@@ -19721,7 +19717,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="19" hidden="1">
+    <row r="214" spans="1:16" ht="15">
       <c r="A214" s="21" t="s">
         <v>1237</v>
       </c>
@@ -19751,7 +19747,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="38" hidden="1">
+    <row r="215" spans="1:16" ht="30">
       <c r="A215" s="21" t="s">
         <v>1238</v>
       </c>
@@ -19781,7 +19777,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="19" hidden="1">
+    <row r="216" spans="1:16" ht="15">
       <c r="A216" s="21" t="s">
         <v>1239</v>
       </c>
@@ -19811,7 +19807,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="19" hidden="1">
+    <row r="217" spans="1:16" ht="15">
       <c r="A217" s="21" t="s">
         <v>1240</v>
       </c>
@@ -19841,7 +19837,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="38" hidden="1">
+    <row r="218" spans="1:16" ht="30">
       <c r="A218" s="21" t="s">
         <v>1241</v>
       </c>
@@ -19871,7 +19867,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="38" hidden="1">
+    <row r="219" spans="1:16" ht="30">
       <c r="A219" s="6" t="s">
         <v>400</v>
       </c>
@@ -19907,7 +19903,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="38" hidden="1">
+    <row r="220" spans="1:16" ht="30">
       <c r="A220" s="6" t="s">
         <v>401</v>
       </c>
@@ -19943,7 +19939,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="38" hidden="1">
+    <row r="221" spans="1:16" ht="30">
       <c r="A221" s="6" t="s">
         <v>402</v>
       </c>
@@ -19979,7 +19975,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="38" hidden="1">
+    <row r="222" spans="1:16" ht="30">
       <c r="A222" s="6" t="s">
         <v>403</v>
       </c>
@@ -20015,7 +20011,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="38" hidden="1">
+    <row r="223" spans="1:16" ht="30">
       <c r="A223" s="6" t="s">
         <v>404</v>
       </c>
@@ -20049,7 +20045,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="38" hidden="1">
+    <row r="224" spans="1:16" ht="30">
       <c r="A224" s="6" t="s">
         <v>405</v>
       </c>
@@ -20083,7 +20079,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="38" hidden="1">
+    <row r="225" spans="1:16" ht="30">
       <c r="A225" s="6" t="s">
         <v>406</v>
       </c>
@@ -20117,7 +20113,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="38" hidden="1">
+    <row r="226" spans="1:16" ht="30">
       <c r="A226" s="6" t="s">
         <v>407</v>
       </c>
@@ -20151,7 +20147,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="38" hidden="1">
+    <row r="227" spans="1:16" ht="30">
       <c r="A227" s="6" t="s">
         <v>408</v>
       </c>
@@ -20185,7 +20181,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="38" hidden="1">
+    <row r="228" spans="1:16" ht="30">
       <c r="A228" s="6" t="s">
         <v>409</v>
       </c>
@@ -20219,7 +20215,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="38" hidden="1">
+    <row r="229" spans="1:16" ht="30">
       <c r="A229" s="6" t="s">
         <v>410</v>
       </c>
@@ -20253,7 +20249,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="38" hidden="1">
+    <row r="230" spans="1:16" ht="30">
       <c r="A230" s="6" t="s">
         <v>411</v>
       </c>
@@ -20287,7 +20283,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="19" hidden="1">
+    <row r="231" spans="1:16" ht="15">
       <c r="A231" s="6" t="s">
         <v>412</v>
       </c>
@@ -20321,7 +20317,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="38" hidden="1">
+    <row r="232" spans="1:16" ht="15">
       <c r="A232" s="6" t="s">
         <v>413</v>
       </c>
@@ -20355,7 +20351,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="38" hidden="1">
+    <row r="233" spans="1:16" ht="30">
       <c r="A233" s="6" t="s">
         <v>414</v>
       </c>
@@ -20389,7 +20385,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="19" hidden="1">
+    <row r="234" spans="1:16" ht="15">
       <c r="A234" s="6" t="s">
         <v>415</v>
       </c>
@@ -20423,7 +20419,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="19" hidden="1">
+    <row r="235" spans="1:16" ht="15">
       <c r="A235" s="6" t="s">
         <v>416</v>
       </c>
@@ -20457,7 +20453,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="19" hidden="1">
+    <row r="236" spans="1:16" ht="15">
       <c r="A236" s="6" t="s">
         <v>417</v>
       </c>
@@ -20491,7 +20487,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="38" hidden="1">
+    <row r="237" spans="1:16" ht="30">
       <c r="A237" s="6" t="s">
         <v>418</v>
       </c>
@@ -20525,7 +20521,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="38" hidden="1">
+    <row r="238" spans="1:16" ht="15">
       <c r="A238" s="6" t="s">
         <v>419</v>
       </c>
@@ -20559,7 +20555,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="19" hidden="1">
+    <row r="239" spans="1:16" ht="15">
       <c r="A239" s="6" t="s">
         <v>420</v>
       </c>
@@ -20593,7 +20589,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="240" spans="1:16" ht="19" hidden="1">
+    <row r="240" spans="1:16" ht="15">
       <c r="A240" s="6" t="s">
         <v>421</v>
       </c>
@@ -20625,7 +20621,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="38" hidden="1">
+    <row r="241" spans="1:16" ht="15">
       <c r="A241" s="6" t="s">
         <v>422</v>
       </c>
@@ -20657,7 +20653,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="38" hidden="1">
+    <row r="242" spans="1:16" ht="30">
       <c r="A242" s="6" t="s">
         <v>423</v>
       </c>
@@ -20689,7 +20685,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="19" hidden="1">
+    <row r="243" spans="1:16" ht="15">
       <c r="A243" s="6" t="s">
         <v>424</v>
       </c>
@@ -20721,7 +20717,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="19" hidden="1">
+    <row r="244" spans="1:16" ht="15">
       <c r="A244" s="6" t="s">
         <v>425</v>
       </c>
@@ -20753,7 +20749,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="245" spans="1:16" ht="19" hidden="1">
+    <row r="245" spans="1:16" ht="15">
       <c r="A245" s="6" t="s">
         <v>426</v>
       </c>
@@ -20785,7 +20781,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="246" spans="1:16" ht="38" hidden="1">
+    <row r="246" spans="1:16" ht="30">
       <c r="A246" s="6" t="s">
         <v>427</v>
       </c>
@@ -20817,7 +20813,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="247" spans="1:16" ht="38" hidden="1">
+    <row r="247" spans="1:16" ht="15">
       <c r="A247" s="6" t="s">
         <v>428</v>
       </c>
@@ -20849,7 +20845,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="19" hidden="1">
+    <row r="248" spans="1:16" ht="15">
       <c r="A248" s="6" t="s">
         <v>429</v>
       </c>
@@ -20881,7 +20877,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="249" spans="1:16" ht="19" hidden="1">
+    <row r="249" spans="1:16" ht="15">
       <c r="A249" s="6" t="s">
         <v>430</v>
       </c>
@@ -20913,7 +20909,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="250" spans="1:16" ht="38" hidden="1">
+    <row r="250" spans="1:16" ht="15">
       <c r="A250" s="6" t="s">
         <v>431</v>
       </c>
@@ -20945,7 +20941,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="251" spans="1:16" ht="38" hidden="1">
+    <row r="251" spans="1:16" ht="30">
       <c r="A251" s="6" t="s">
         <v>432</v>
       </c>
@@ -20977,7 +20973,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="252" spans="1:16" ht="19" hidden="1">
+    <row r="252" spans="1:16" ht="15">
       <c r="A252" s="6" t="s">
         <v>433</v>
       </c>
@@ -21009,7 +21005,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="253" spans="1:16" ht="19" hidden="1">
+    <row r="253" spans="1:16" ht="15">
       <c r="A253" s="6" t="s">
         <v>434</v>
       </c>
@@ -21041,7 +21037,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="254" spans="1:16" ht="19" hidden="1">
+    <row r="254" spans="1:16" ht="15">
       <c r="A254" s="6" t="s">
         <v>435</v>
       </c>
@@ -21073,7 +21069,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="255" spans="1:16" ht="38" hidden="1">
+    <row r="255" spans="1:16" ht="30">
       <c r="A255" s="6" t="s">
         <v>436</v>
       </c>
@@ -21105,7 +21101,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="256" spans="1:16" ht="38" hidden="1">
+    <row r="256" spans="1:16" ht="15">
       <c r="A256" s="6" t="s">
         <v>437</v>
       </c>
@@ -21137,7 +21133,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="257" spans="1:16" ht="19" hidden="1">
+    <row r="257" spans="1:16" ht="15">
       <c r="A257" s="6" t="s">
         <v>438</v>
       </c>
@@ -21169,7 +21165,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="258" spans="1:16" ht="19" hidden="1">
+    <row r="258" spans="1:16" ht="15">
       <c r="A258" s="6" t="s">
         <v>439</v>
       </c>
@@ -21205,7 +21201,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="259" spans="1:16" ht="38" hidden="1">
+    <row r="259" spans="1:16" ht="15">
       <c r="A259" s="6" t="s">
         <v>440</v>
       </c>
@@ -21241,7 +21237,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="260" spans="1:16" ht="38" hidden="1">
+    <row r="260" spans="1:16" ht="30">
       <c r="A260" s="6" t="s">
         <v>441</v>
       </c>
@@ -21277,7 +21273,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="261" spans="1:16" ht="19" hidden="1">
+    <row r="261" spans="1:16" ht="15">
       <c r="A261" s="6" t="s">
         <v>442</v>
       </c>
@@ -21313,7 +21309,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="262" spans="1:16" ht="19" hidden="1">
+    <row r="262" spans="1:16" ht="15">
       <c r="A262" s="6" t="s">
         <v>443</v>
       </c>
@@ -21349,7 +21345,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="263" spans="1:16" ht="38" hidden="1">
+    <row r="263" spans="1:16" ht="30">
       <c r="A263" s="6" t="s">
         <v>444</v>
       </c>
@@ -21385,7 +21381,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="264" spans="1:16" ht="19" hidden="1">
+    <row r="264" spans="1:16" ht="15">
       <c r="A264" s="6" t="s">
         <v>445</v>
       </c>
@@ -21421,7 +21417,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="265" spans="1:16" ht="19" hidden="1">
+    <row r="265" spans="1:16" ht="15">
       <c r="A265" s="6" t="s">
         <v>446</v>
       </c>
@@ -21457,7 +21453,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="38" hidden="1">
+    <row r="266" spans="1:16" ht="15">
       <c r="A266" s="6" t="s">
         <v>447</v>
       </c>
@@ -21493,7 +21489,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="267" spans="1:16" ht="19" hidden="1">
+    <row r="267" spans="1:16" ht="15">
       <c r="A267" s="6" t="s">
         <v>448</v>
       </c>
@@ -21528,7 +21524,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="38" hidden="1">
+    <row r="268" spans="1:16" ht="15">
       <c r="A268" s="6" t="s">
         <v>449</v>
       </c>
@@ -21560,7 +21556,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="269" spans="1:16" ht="38" hidden="1">
+    <row r="269" spans="1:16" ht="30">
       <c r="A269" s="6" t="s">
         <v>450</v>
       </c>
@@ -21592,7 +21588,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="270" spans="1:16" ht="19" hidden="1">
+    <row r="270" spans="1:16" ht="15">
       <c r="A270" s="6" t="s">
         <v>451</v>
       </c>
@@ -21624,7 +21620,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="271" spans="1:16" ht="19" hidden="1">
+    <row r="271" spans="1:16" ht="15">
       <c r="A271" s="6" t="s">
         <v>452</v>
       </c>
@@ -21656,7 +21652,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="272" spans="1:16" ht="19" hidden="1">
+    <row r="272" spans="1:16" ht="15">
       <c r="A272" s="6" t="s">
         <v>453</v>
       </c>
@@ -21688,7 +21684,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="273" spans="1:16" ht="38" hidden="1">
+    <row r="273" spans="1:16" ht="30">
       <c r="A273" s="6" t="s">
         <v>454</v>
       </c>
@@ -21720,7 +21716,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="274" spans="1:16" ht="38" hidden="1">
+    <row r="274" spans="1:16" ht="15">
       <c r="A274" s="6" t="s">
         <v>455</v>
       </c>
@@ -21752,7 +21748,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="275" spans="1:16" ht="19" hidden="1">
+    <row r="275" spans="1:16" ht="15">
       <c r="A275" s="6" t="s">
         <v>456</v>
       </c>
@@ -21784,7 +21780,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="276" spans="1:16" ht="19" hidden="1">
+    <row r="276" spans="1:16" ht="15">
       <c r="A276" s="6" t="s">
         <v>457</v>
       </c>
@@ -21819,7 +21815,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="277" spans="1:16" ht="38" hidden="1">
+    <row r="277" spans="1:16" ht="15">
       <c r="A277" s="6" t="s">
         <v>458</v>
       </c>
@@ -21851,7 +21847,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="278" spans="1:16" ht="38" hidden="1">
+    <row r="278" spans="1:16" ht="30">
       <c r="A278" s="6" t="s">
         <v>459</v>
       </c>
@@ -21883,7 +21879,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="279" spans="1:16" ht="19" hidden="1">
+    <row r="279" spans="1:16" ht="15">
       <c r="A279" s="6" t="s">
         <v>460</v>
       </c>
@@ -21915,7 +21911,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="280" spans="1:16" ht="19" hidden="1">
+    <row r="280" spans="1:16" ht="15">
       <c r="A280" s="6" t="s">
         <v>461</v>
       </c>
@@ -21947,7 +21943,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="281" spans="1:16" ht="19" hidden="1">
+    <row r="281" spans="1:16" ht="15">
       <c r="A281" s="6" t="s">
         <v>462</v>
       </c>
@@ -21979,7 +21975,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="282" spans="1:16" ht="38" hidden="1">
+    <row r="282" spans="1:16" ht="30">
       <c r="A282" s="6" t="s">
         <v>463</v>
       </c>
@@ -22011,7 +22007,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="283" spans="1:16" ht="38" hidden="1">
+    <row r="283" spans="1:16" ht="15">
       <c r="A283" s="6" t="s">
         <v>464</v>
       </c>
@@ -22043,7 +22039,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="284" spans="1:16" ht="19" hidden="1">
+    <row r="284" spans="1:16" ht="15">
       <c r="A284" s="6" t="s">
         <v>465</v>
       </c>
@@ -22075,7 +22071,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="285" spans="1:16" ht="19" hidden="1">
+    <row r="285" spans="1:16" ht="15">
       <c r="A285" s="6" t="s">
         <v>466</v>
       </c>
@@ -22107,7 +22103,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="286" spans="1:16" ht="19" hidden="1">
+    <row r="286" spans="1:16" ht="15">
       <c r="A286" s="6" t="s">
         <v>467</v>
       </c>
@@ -22139,7 +22135,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="287" spans="1:16" ht="19" hidden="1">
+    <row r="287" spans="1:16" ht="15">
       <c r="A287" s="6" t="s">
         <v>468</v>
       </c>
@@ -22171,7 +22167,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="288" spans="1:16" ht="38" hidden="1">
+    <row r="288" spans="1:16" ht="15">
       <c r="A288" s="6" t="s">
         <v>469</v>
       </c>
@@ -22203,7 +22199,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="289" spans="1:16" ht="38" hidden="1">
+    <row r="289" spans="1:16" ht="30">
       <c r="A289" s="6" t="s">
         <v>470</v>
       </c>
@@ -22235,7 +22231,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="290" spans="1:16" ht="19" hidden="1">
+    <row r="290" spans="1:16" ht="15">
       <c r="A290" s="6" t="s">
         <v>471</v>
       </c>
@@ -22267,7 +22263,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="291" spans="1:16" ht="19" hidden="1">
+    <row r="291" spans="1:16" ht="15">
       <c r="A291" s="6" t="s">
         <v>472</v>
       </c>
@@ -22299,7 +22295,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="292" spans="1:16" ht="19" hidden="1">
+    <row r="292" spans="1:16" ht="15">
       <c r="A292" s="6" t="s">
         <v>473</v>
       </c>
@@ -22331,7 +22327,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="293" spans="1:16" ht="38" hidden="1">
+    <row r="293" spans="1:16" ht="30">
       <c r="A293" s="6" t="s">
         <v>474</v>
       </c>
@@ -22363,7 +22359,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="294" spans="1:16" ht="38" hidden="1">
+    <row r="294" spans="1:16" ht="15">
       <c r="A294" s="6" t="s">
         <v>475</v>
       </c>
@@ -22395,7 +22391,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="295" spans="1:16" ht="19" hidden="1">
+    <row r="295" spans="1:16" ht="15">
       <c r="A295" s="6" t="s">
         <v>476</v>
       </c>
@@ -22427,7 +22423,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="296" spans="1:16" ht="19" hidden="1">
+    <row r="296" spans="1:16" ht="15">
       <c r="A296" s="6" t="s">
         <v>477</v>
       </c>
@@ -22456,7 +22452,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="297" spans="1:16" ht="19" hidden="1">
+    <row r="297" spans="1:16" ht="15">
       <c r="A297" s="6" t="s">
         <v>478</v>
       </c>
@@ -22485,7 +22481,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="298" spans="1:16" ht="19" hidden="1">
+    <row r="298" spans="1:16" ht="15">
       <c r="A298" s="6" t="s">
         <v>479</v>
       </c>
@@ -22519,7 +22515,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="299" spans="1:16" ht="38" hidden="1">
+    <row r="299" spans="1:16" ht="15">
       <c r="A299" s="6" t="s">
         <v>480</v>
       </c>
@@ -22553,7 +22549,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="300" spans="1:16" ht="38" hidden="1">
+    <row r="300" spans="1:16" ht="30">
       <c r="A300" s="6" t="s">
         <v>481</v>
       </c>
@@ -22587,7 +22583,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="301" spans="1:16" ht="19" hidden="1">
+    <row r="301" spans="1:16" ht="15">
       <c r="A301" s="6" t="s">
         <v>482</v>
       </c>
@@ -22621,7 +22617,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="302" spans="1:16" ht="19" hidden="1">
+    <row r="302" spans="1:16" ht="15">
       <c r="A302" s="6" t="s">
         <v>483</v>
       </c>
@@ -22655,7 +22651,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="303" spans="1:16" ht="19" hidden="1">
+    <row r="303" spans="1:16" ht="15">
       <c r="A303" s="6" t="s">
         <v>484</v>
       </c>
@@ -22689,7 +22685,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="304" spans="1:16" ht="38" hidden="1">
+    <row r="304" spans="1:16" ht="30">
       <c r="A304" s="6" t="s">
         <v>485</v>
       </c>
@@ -22723,7 +22719,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="305" spans="1:16" ht="38" hidden="1">
+    <row r="305" spans="1:16" ht="15">
       <c r="A305" s="6" t="s">
         <v>486</v>
       </c>
@@ -22757,7 +22753,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="306" spans="1:16" ht="19" hidden="1">
+    <row r="306" spans="1:16" ht="15">
       <c r="A306" s="6" t="s">
         <v>487</v>
       </c>
@@ -22791,7 +22787,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="307" spans="1:16" ht="19" hidden="1">
+    <row r="307" spans="1:16" ht="15">
       <c r="A307" s="6" t="s">
         <v>488</v>
       </c>
@@ -22825,7 +22821,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="308" spans="1:16" ht="38" hidden="1">
+    <row r="308" spans="1:16" ht="15">
       <c r="A308" s="6" t="s">
         <v>489</v>
       </c>
@@ -22859,7 +22855,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="309" spans="1:16" ht="38" hidden="1">
+    <row r="309" spans="1:16" ht="30">
       <c r="A309" s="6" t="s">
         <v>490</v>
       </c>
@@ -22893,7 +22889,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="310" spans="1:16" ht="19" hidden="1">
+    <row r="310" spans="1:16" ht="15">
       <c r="A310" s="6" t="s">
         <v>491</v>
       </c>
@@ -22927,7 +22923,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="311" spans="1:16" ht="19" hidden="1">
+    <row r="311" spans="1:16" ht="15">
       <c r="A311" s="6" t="s">
         <v>492</v>
       </c>
@@ -22961,7 +22957,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="312" spans="1:16" ht="19" hidden="1">
+    <row r="312" spans="1:16" ht="15">
       <c r="A312" s="6" t="s">
         <v>493</v>
       </c>
@@ -22995,7 +22991,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="313" spans="1:16" ht="38" hidden="1">
+    <row r="313" spans="1:16" ht="30">
       <c r="A313" s="6" t="s">
         <v>494</v>
       </c>
@@ -23029,7 +23025,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="314" spans="1:16" ht="38" hidden="1">
+    <row r="314" spans="1:16" ht="15">
       <c r="A314" s="6" t="s">
         <v>495</v>
       </c>
@@ -23063,7 +23059,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="315" spans="1:16" ht="19" hidden="1">
+    <row r="315" spans="1:16" ht="15">
       <c r="A315" s="6" t="s">
         <v>496</v>
       </c>
@@ -23097,7 +23093,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="316" spans="1:16" ht="19" hidden="1">
+    <row r="316" spans="1:16" ht="15">
       <c r="A316" s="6" t="s">
         <v>497</v>
       </c>
@@ -23131,7 +23127,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="317" spans="1:16" ht="38" hidden="1">
+    <row r="317" spans="1:16" ht="15">
       <c r="A317" s="6" t="s">
         <v>498</v>
       </c>
@@ -23165,7 +23161,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="318" spans="1:16" ht="38" hidden="1">
+    <row r="318" spans="1:16" ht="30">
       <c r="A318" s="6" t="s">
         <v>499</v>
       </c>
@@ -23199,7 +23195,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="319" spans="1:16" ht="19" hidden="1">
+    <row r="319" spans="1:16" ht="15">
       <c r="A319" s="6" t="s">
         <v>500</v>
       </c>
@@ -23233,7 +23229,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="320" spans="1:16" ht="19" hidden="1">
+    <row r="320" spans="1:16" ht="15">
       <c r="A320" s="6" t="s">
         <v>501</v>
       </c>
@@ -23267,7 +23263,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="321" spans="1:16" ht="19" hidden="1">
+    <row r="321" spans="1:16" ht="15">
       <c r="A321" s="6" t="s">
         <v>502</v>
       </c>
@@ -23301,7 +23297,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="322" spans="1:16" ht="38" hidden="1">
+    <row r="322" spans="1:16" ht="30">
       <c r="A322" s="6" t="s">
         <v>503</v>
       </c>
@@ -23335,7 +23331,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="323" spans="1:16" ht="38" hidden="1">
+    <row r="323" spans="1:16" ht="15">
       <c r="A323" s="6" t="s">
         <v>504</v>
       </c>
@@ -23369,7 +23365,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="324" spans="1:16" ht="19" hidden="1">
+    <row r="324" spans="1:16" ht="15">
       <c r="A324" s="6" t="s">
         <v>505</v>
       </c>
@@ -23403,7 +23399,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="325" spans="1:16" ht="38" hidden="1">
+    <row r="325" spans="1:16" ht="30">
       <c r="A325" s="6" t="s">
         <v>506</v>
       </c>
@@ -23437,7 +23433,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="326" spans="1:16" ht="38" hidden="1">
+    <row r="326" spans="1:16" ht="30">
       <c r="A326" s="6" t="s">
         <v>507</v>
       </c>
@@ -23471,7 +23467,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="327" spans="1:16" ht="38" hidden="1">
+    <row r="327" spans="1:16" ht="30">
       <c r="A327" s="6" t="s">
         <v>508</v>
       </c>
@@ -23505,7 +23501,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="328" spans="1:16" ht="38" hidden="1">
+    <row r="328" spans="1:16" ht="30">
       <c r="A328" s="6" t="s">
         <v>509</v>
       </c>
@@ -23539,7 +23535,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="329" spans="1:16" ht="38" hidden="1">
+    <row r="329" spans="1:16" ht="30">
       <c r="A329" s="6" t="s">
         <v>510</v>
       </c>
@@ -23573,7 +23569,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="330" spans="1:16" ht="38" hidden="1">
+    <row r="330" spans="1:16" ht="30">
       <c r="A330" s="6" t="s">
         <v>511</v>
       </c>
@@ -23607,7 +23603,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="331" spans="1:16" ht="38" hidden="1">
+    <row r="331" spans="1:16" ht="30">
       <c r="A331" s="6" t="s">
         <v>512</v>
       </c>
@@ -23641,7 +23637,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="332" spans="1:16" ht="38" hidden="1">
+    <row r="332" spans="1:16" ht="30">
       <c r="A332" s="6" t="s">
         <v>513</v>
       </c>
@@ -23675,7 +23671,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="333" spans="1:16" ht="38" hidden="1">
+    <row r="333" spans="1:16" ht="30">
       <c r="A333" s="6" t="s">
         <v>514</v>
       </c>
@@ -23709,7 +23705,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="334" spans="1:16" ht="19" hidden="1">
+    <row r="334" spans="1:16" ht="15">
       <c r="A334" s="6" t="s">
         <v>515</v>
       </c>
@@ -23743,7 +23739,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="335" spans="1:16" ht="38" hidden="1">
+    <row r="335" spans="1:16" ht="15">
       <c r="A335" s="6" t="s">
         <v>516</v>
       </c>
@@ -23777,7 +23773,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="336" spans="1:16" ht="38" hidden="1">
+    <row r="336" spans="1:16" ht="30">
       <c r="A336" s="6" t="s">
         <v>517</v>
       </c>
@@ -23811,7 +23807,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="337" spans="1:16" ht="19" hidden="1">
+    <row r="337" spans="1:16" ht="15">
       <c r="A337" s="6" t="s">
         <v>518</v>
       </c>
@@ -23845,7 +23841,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="338" spans="1:16" ht="19" hidden="1">
+    <row r="338" spans="1:16" ht="15">
       <c r="A338" s="6" t="s">
         <v>519</v>
       </c>
@@ -23879,7 +23875,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="339" spans="1:16" ht="19" hidden="1">
+    <row r="339" spans="1:16" ht="15">
       <c r="A339" s="6" t="s">
         <v>520</v>
       </c>
@@ -23913,7 +23909,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="340" spans="1:16" ht="38" hidden="1">
+    <row r="340" spans="1:16" ht="30">
       <c r="A340" s="6" t="s">
         <v>521</v>
       </c>
@@ -23947,7 +23943,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="38" hidden="1">
+    <row r="341" spans="1:16" ht="15">
       <c r="A341" s="6" t="s">
         <v>522</v>
       </c>
@@ -23981,7 +23977,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="19" hidden="1">
+    <row r="342" spans="1:16" ht="15">
       <c r="A342" s="6" t="s">
         <v>523</v>
       </c>
@@ -24015,7 +24011,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="19" hidden="1">
+    <row r="343" spans="1:16" ht="15">
       <c r="A343" s="6" t="s">
         <v>524</v>
       </c>
@@ -24049,7 +24045,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="344" spans="1:16" ht="38" hidden="1">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="6" t="s">
         <v>525</v>
       </c>
@@ -24083,7 +24079,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="345" spans="1:16" ht="38" hidden="1">
+    <row r="345" spans="1:16" ht="30">
       <c r="A345" s="6" t="s">
         <v>526</v>
       </c>
@@ -24117,7 +24113,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="346" spans="1:16" ht="19" hidden="1">
+    <row r="346" spans="1:16" ht="15">
       <c r="A346" s="6" t="s">
         <v>527</v>
       </c>
@@ -24151,7 +24147,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="347" spans="1:16" ht="19" hidden="1">
+    <row r="347" spans="1:16" ht="15">
       <c r="A347" s="6" t="s">
         <v>528</v>
       </c>
@@ -24185,7 +24181,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="19" hidden="1">
+    <row r="348" spans="1:16" ht="15">
       <c r="A348" s="6" t="s">
         <v>529</v>
       </c>
@@ -24219,7 +24215,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="349" spans="1:16" ht="38" hidden="1">
+    <row r="349" spans="1:16" ht="30">
       <c r="A349" s="6" t="s">
         <v>530</v>
       </c>
@@ -24253,7 +24249,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="350" spans="1:16" ht="38" hidden="1">
+    <row r="350" spans="1:16" ht="15">
       <c r="A350" s="6" t="s">
         <v>531</v>
       </c>
@@ -24287,7 +24283,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="351" spans="1:16" ht="19" hidden="1">
+    <row r="351" spans="1:16" ht="15">
       <c r="A351" s="6" t="s">
         <v>532</v>
       </c>
@@ -24321,7 +24317,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="352" spans="1:16" ht="19" hidden="1">
+    <row r="352" spans="1:16" ht="15">
       <c r="A352" s="6" t="s">
         <v>533</v>
       </c>
@@ -24355,7 +24351,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="353" spans="1:16" ht="38" hidden="1">
+    <row r="353" spans="1:16" ht="15">
       <c r="A353" s="6" t="s">
         <v>534</v>
       </c>
@@ -24389,7 +24385,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="354" spans="1:16" ht="38" hidden="1">
+    <row r="354" spans="1:16" ht="30">
       <c r="A354" s="6" t="s">
         <v>535</v>
       </c>
@@ -24423,7 +24419,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="19" hidden="1">
+    <row r="355" spans="1:16" ht="15">
       <c r="A355" s="6" t="s">
         <v>536</v>
       </c>
@@ -24457,7 +24453,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="356" spans="1:16" ht="19" hidden="1">
+    <row r="356" spans="1:16" ht="15">
       <c r="A356" s="6" t="s">
         <v>537</v>
       </c>
@@ -24491,7 +24487,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="357" spans="1:16" ht="19" hidden="1">
+    <row r="357" spans="1:16" ht="15">
       <c r="A357" s="6" t="s">
         <v>538</v>
       </c>
@@ -24525,7 +24521,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="358" spans="1:16" ht="38" hidden="1">
+    <row r="358" spans="1:16" ht="30">
       <c r="A358" s="6" t="s">
         <v>539</v>
       </c>
@@ -24559,7 +24555,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="359" spans="1:16" ht="38" hidden="1">
+    <row r="359" spans="1:16" ht="15">
       <c r="A359" s="6" t="s">
         <v>540</v>
       </c>
@@ -24593,7 +24589,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="360" spans="1:16" ht="19" hidden="1">
+    <row r="360" spans="1:16" ht="15">
       <c r="A360" s="6" t="s">
         <v>541</v>
       </c>
@@ -24627,7 +24623,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="361" spans="1:16" ht="38" hidden="1">
+    <row r="361" spans="1:16" ht="30">
       <c r="A361" s="6" t="s">
         <v>542</v>
       </c>
@@ -24661,7 +24657,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="362" spans="1:16" ht="38" hidden="1">
+    <row r="362" spans="1:16" ht="30">
       <c r="A362" s="6" t="s">
         <v>543</v>
       </c>
@@ -24695,7 +24691,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="363" spans="1:16" ht="38" hidden="1">
+    <row r="363" spans="1:16" ht="30">
       <c r="A363" s="6" t="s">
         <v>544</v>
       </c>
@@ -24729,7 +24725,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="364" spans="1:16" ht="38" hidden="1">
+    <row r="364" spans="1:16" ht="30">
       <c r="A364" s="6" t="s">
         <v>545</v>
       </c>
@@ -24763,7 +24759,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="365" spans="1:16" ht="38" hidden="1">
+    <row r="365" spans="1:16" ht="30">
       <c r="A365" s="6" t="s">
         <v>546</v>
       </c>
@@ -24797,7 +24793,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="366" spans="1:16" ht="38" hidden="1">
+    <row r="366" spans="1:16" ht="30">
       <c r="A366" s="6" t="s">
         <v>547</v>
       </c>
@@ -24831,7 +24827,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="367" spans="1:16" ht="38" hidden="1">
+    <row r="367" spans="1:16" ht="30">
       <c r="A367" s="6" t="s">
         <v>548</v>
       </c>
@@ -24865,7 +24861,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="368" spans="1:16" ht="38" hidden="1">
+    <row r="368" spans="1:16" ht="30">
       <c r="A368" s="6" t="s">
         <v>549</v>
       </c>
@@ -24899,7 +24895,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="369" spans="1:16" ht="38" hidden="1">
+    <row r="369" spans="1:16" ht="30">
       <c r="A369" s="6" t="s">
         <v>550</v>
       </c>
@@ -24933,7 +24929,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="370" spans="1:16" ht="38" hidden="1">
+    <row r="370" spans="1:16" ht="30">
       <c r="A370" s="6" t="s">
         <v>551</v>
       </c>
@@ -24969,7 +24965,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="371" spans="1:16" ht="38" hidden="1">
+    <row r="371" spans="1:16" ht="30">
       <c r="A371" s="6" t="s">
         <v>552</v>
       </c>
@@ -25005,7 +25001,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="372" spans="1:16" ht="38" hidden="1">
+    <row r="372" spans="1:16" ht="30">
       <c r="A372" s="6" t="s">
         <v>553</v>
       </c>
@@ -25041,7 +25037,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="373" spans="1:16" ht="38" hidden="1">
+    <row r="373" spans="1:16" ht="30">
       <c r="A373" s="6" t="s">
         <v>554</v>
       </c>
@@ -25077,7 +25073,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="374" spans="1:16" ht="38" hidden="1">
+    <row r="374" spans="1:16" ht="30">
       <c r="A374" s="6" t="s">
         <v>555</v>
       </c>
@@ -25113,7 +25109,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="375" spans="1:16" ht="38" hidden="1">
+    <row r="375" spans="1:16" ht="30">
       <c r="A375" s="6" t="s">
         <v>556</v>
       </c>
@@ -25149,7 +25145,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="376" spans="1:16" ht="38" hidden="1">
+    <row r="376" spans="1:16" ht="30">
       <c r="A376" s="6" t="s">
         <v>557</v>
       </c>
@@ -25185,7 +25181,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="377" spans="1:16" ht="38" hidden="1">
+    <row r="377" spans="1:16" ht="30">
       <c r="A377" s="6" t="s">
         <v>558</v>
       </c>
@@ -25221,7 +25217,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="378" spans="1:16" ht="38" hidden="1">
+    <row r="378" spans="1:16" ht="30">
       <c r="A378" s="6" t="s">
         <v>559</v>
       </c>
@@ -25257,7 +25253,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="379" spans="1:16" ht="38" hidden="1">
+    <row r="379" spans="1:16" ht="30">
       <c r="A379" s="6" t="s">
         <v>560</v>
       </c>
@@ -25293,7 +25289,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="380" spans="1:16" ht="38" hidden="1">
+    <row r="380" spans="1:16" ht="30">
       <c r="A380" s="6" t="s">
         <v>561</v>
       </c>
@@ -25329,7 +25325,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="381" spans="1:16" ht="38" hidden="1">
+    <row r="381" spans="1:16" ht="30">
       <c r="A381" s="6" t="s">
         <v>562</v>
       </c>
@@ -25365,7 +25361,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="382" spans="1:16" ht="38" hidden="1">
+    <row r="382" spans="1:16" ht="30">
       <c r="A382" s="6" t="s">
         <v>563</v>
       </c>
@@ -25401,7 +25397,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="383" spans="1:16" ht="38" hidden="1">
+    <row r="383" spans="1:16" ht="30">
       <c r="A383" s="6" t="s">
         <v>564</v>
       </c>
@@ -25437,7 +25433,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="384" spans="1:16" ht="38" hidden="1">
+    <row r="384" spans="1:16" ht="30">
       <c r="A384" s="6" t="s">
         <v>565</v>
       </c>
@@ -25473,7 +25469,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="385" spans="1:16" ht="38" hidden="1">
+    <row r="385" spans="1:16" ht="30">
       <c r="A385" s="6" t="s">
         <v>566</v>
       </c>
@@ -25509,7 +25505,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="386" spans="1:16" ht="38" hidden="1">
+    <row r="386" spans="1:16" ht="30">
       <c r="A386" s="6" t="s">
         <v>567</v>
       </c>
@@ -25545,7 +25541,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="387" spans="1:16" ht="38" hidden="1">
+    <row r="387" spans="1:16" ht="30">
       <c r="A387" s="6" t="s">
         <v>568</v>
       </c>
@@ -25581,7 +25577,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="388" spans="1:16" ht="38" hidden="1">
+    <row r="388" spans="1:16" ht="30">
       <c r="A388" s="6" t="s">
         <v>569</v>
       </c>
@@ -25617,7 +25613,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="389" spans="1:16" ht="38" hidden="1">
+    <row r="389" spans="1:16" ht="30">
       <c r="A389" s="6" t="s">
         <v>570</v>
       </c>
@@ -25653,7 +25649,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="390" spans="1:16" ht="19" hidden="1">
+    <row r="390" spans="1:16" ht="15">
       <c r="A390" s="6" t="s">
         <v>571</v>
       </c>
@@ -25690,7 +25686,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="391" spans="1:16" ht="19" hidden="1">
+    <row r="391" spans="1:16" ht="15">
       <c r="A391" s="6" t="s">
         <v>572</v>
       </c>
@@ -25724,7 +25720,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="392" spans="1:16" ht="19" hidden="1">
+    <row r="392" spans="1:16" ht="15">
       <c r="A392" s="6" t="s">
         <v>573</v>
       </c>
@@ -25758,7 +25754,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="393" spans="1:16" ht="19" hidden="1">
+    <row r="393" spans="1:16" ht="15">
       <c r="A393" s="6" t="s">
         <v>574</v>
       </c>
@@ -25792,7 +25788,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="394" spans="1:16" ht="19" hidden="1">
+    <row r="394" spans="1:16" ht="15">
       <c r="A394" s="6" t="s">
         <v>575</v>
       </c>
@@ -25826,7 +25822,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="395" spans="1:16" ht="19" hidden="1">
+    <row r="395" spans="1:16" ht="15">
       <c r="A395" s="6" t="s">
         <v>576</v>
       </c>
@@ -25860,7 +25856,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="396" spans="1:16" ht="19" hidden="1">
+    <row r="396" spans="1:16" ht="15">
       <c r="A396" s="6" t="s">
         <v>577</v>
       </c>
@@ -25894,7 +25890,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="397" spans="1:16" ht="19" hidden="1">
+    <row r="397" spans="1:16" ht="15">
       <c r="A397" s="6" t="s">
         <v>578</v>
       </c>
@@ -25928,7 +25924,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="398" spans="1:16" ht="19" hidden="1">
+    <row r="398" spans="1:16" ht="15">
       <c r="A398" s="6" t="s">
         <v>579</v>
       </c>
@@ -25962,7 +25958,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="399" spans="1:16" ht="19" hidden="1">
+    <row r="399" spans="1:16" ht="15">
       <c r="A399" s="6" t="s">
         <v>580</v>
       </c>
@@ -25996,7 +25992,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="400" spans="1:16" ht="19" hidden="1">
+    <row r="400" spans="1:16" ht="15">
       <c r="A400" s="6" t="s">
         <v>581</v>
       </c>
@@ -26030,7 +26026,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="401" spans="1:16" ht="19" hidden="1">
+    <row r="401" spans="1:16" ht="15">
       <c r="A401" s="6" t="s">
         <v>582</v>
       </c>
@@ -26064,7 +26060,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="402" spans="1:16" ht="19" hidden="1">
+    <row r="402" spans="1:16" ht="15">
       <c r="A402" s="6" t="s">
         <v>583</v>
       </c>
@@ -26098,7 +26094,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="403" spans="1:16" ht="19" hidden="1">
+    <row r="403" spans="1:16" ht="15">
       <c r="A403" s="6" t="s">
         <v>584</v>
       </c>
@@ -26132,7 +26128,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="404" spans="1:16" ht="19" hidden="1">
+    <row r="404" spans="1:16" ht="15">
       <c r="A404" s="6" t="s">
         <v>585</v>
       </c>
@@ -26166,7 +26162,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="405" spans="1:16" ht="19" hidden="1">
+    <row r="405" spans="1:16" ht="15">
       <c r="A405" s="6" t="s">
         <v>586</v>
       </c>
@@ -26200,7 +26196,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="406" spans="1:16" ht="19" hidden="1">
+    <row r="406" spans="1:16" ht="15">
       <c r="A406" s="6" t="s">
         <v>587</v>
       </c>
@@ -26234,7 +26230,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="407" spans="1:16" ht="19" hidden="1">
+    <row r="407" spans="1:16" ht="15">
       <c r="A407" s="6" t="s">
         <v>588</v>
       </c>
@@ -26268,7 +26264,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="408" spans="1:16" ht="19" hidden="1">
+    <row r="408" spans="1:16" ht="15">
       <c r="A408" s="6" t="s">
         <v>589</v>
       </c>
@@ -26302,7 +26298,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="409" spans="1:16" ht="19" hidden="1">
+    <row r="409" spans="1:16" ht="15">
       <c r="A409" s="6" t="s">
         <v>590</v>
       </c>
@@ -26336,7 +26332,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="410" spans="1:16" ht="19" hidden="1">
+    <row r="410" spans="1:16" ht="15">
       <c r="A410" s="6" t="s">
         <v>591</v>
       </c>
@@ -26370,7 +26366,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="411" spans="1:16" ht="19" hidden="1">
+    <row r="411" spans="1:16" ht="15">
       <c r="A411" s="6" t="s">
         <v>592</v>
       </c>
@@ -26404,7 +26400,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="412" spans="1:16" ht="19" hidden="1">
+    <row r="412" spans="1:16" ht="15">
       <c r="A412" s="6" t="s">
         <v>593</v>
       </c>
@@ -26438,7 +26434,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="413" spans="1:16" ht="19" hidden="1">
+    <row r="413" spans="1:16" ht="15">
       <c r="A413" s="6" t="s">
         <v>594</v>
       </c>
@@ -26472,7 +26468,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="414" spans="1:16" ht="19" hidden="1">
+    <row r="414" spans="1:16" ht="15">
       <c r="A414" s="6" t="s">
         <v>595</v>
       </c>
@@ -26506,7 +26502,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="415" spans="1:16" ht="19" hidden="1">
+    <row r="415" spans="1:16" ht="15">
       <c r="A415" s="6" t="s">
         <v>596</v>
       </c>
@@ -26540,7 +26536,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="19" hidden="1">
+    <row r="416" spans="1:16" ht="15">
       <c r="A416" s="6" t="s">
         <v>597</v>
       </c>
@@ -26574,7 +26570,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="417" spans="1:16" ht="19" hidden="1">
+    <row r="417" spans="1:16" ht="15">
       <c r="A417" s="6" t="s">
         <v>598</v>
       </c>
@@ -26608,7 +26604,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="418" spans="1:16" ht="19" hidden="1">
+    <row r="418" spans="1:16" ht="15">
       <c r="A418" s="6" t="s">
         <v>599</v>
       </c>
@@ -26642,7 +26638,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="419" spans="1:16" ht="19" hidden="1">
+    <row r="419" spans="1:16" ht="15">
       <c r="A419" s="6" t="s">
         <v>600</v>
       </c>
@@ -26676,7 +26672,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="420" spans="1:16" ht="19" hidden="1">
+    <row r="420" spans="1:16" ht="15">
       <c r="A420" s="6" t="s">
         <v>601</v>
       </c>
@@ -26710,7 +26706,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="421" spans="1:16" ht="19" hidden="1">
+    <row r="421" spans="1:16" ht="15">
       <c r="A421" s="6" t="s">
         <v>602</v>
       </c>
@@ -26744,7 +26740,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="422" spans="1:16" ht="19" hidden="1">
+    <row r="422" spans="1:16" ht="15">
       <c r="A422" s="6" t="s">
         <v>603</v>
       </c>
@@ -26781,7 +26777,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="423" spans="1:16" ht="19" hidden="1">
+    <row r="423" spans="1:16" ht="15">
       <c r="A423" s="6" t="s">
         <v>604</v>
       </c>
@@ -26815,7 +26811,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="424" spans="1:16" ht="19" hidden="1">
+    <row r="424" spans="1:16" ht="15">
       <c r="A424" s="6" t="s">
         <v>605</v>
       </c>
@@ -26849,7 +26845,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="425" spans="1:16" ht="19" hidden="1">
+    <row r="425" spans="1:16" ht="15">
       <c r="A425" s="6" t="s">
         <v>606</v>
       </c>
@@ -26883,7 +26879,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="426" spans="1:16" ht="19" hidden="1">
+    <row r="426" spans="1:16" ht="15">
       <c r="A426" s="6" t="s">
         <v>607</v>
       </c>
@@ -26917,7 +26913,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="427" spans="1:16" ht="19" hidden="1">
+    <row r="427" spans="1:16" ht="15">
       <c r="A427" s="6" t="s">
         <v>608</v>
       </c>
@@ -26951,7 +26947,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="428" spans="1:16" ht="19" hidden="1">
+    <row r="428" spans="1:16" ht="15">
       <c r="A428" s="6" t="s">
         <v>609</v>
       </c>
@@ -26985,7 +26981,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="429" spans="1:16" ht="19" hidden="1">
+    <row r="429" spans="1:16" ht="15">
       <c r="A429" s="6" t="s">
         <v>610</v>
       </c>
@@ -27019,7 +27015,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="430" spans="1:16" ht="19" hidden="1">
+    <row r="430" spans="1:16" ht="15">
       <c r="A430" s="6" t="s">
         <v>611</v>
       </c>
@@ -27053,7 +27049,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="431" spans="1:16" ht="19" hidden="1">
+    <row r="431" spans="1:16" ht="15">
       <c r="A431" s="6" t="s">
         <v>612</v>
       </c>
@@ -27087,7 +27083,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="432" spans="1:16" ht="19" hidden="1">
+    <row r="432" spans="1:16" ht="15">
       <c r="A432" s="6" t="s">
         <v>613</v>
       </c>
@@ -27121,7 +27117,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="433" spans="1:16" ht="19" hidden="1">
+    <row r="433" spans="1:16" ht="15">
       <c r="A433" s="6" t="s">
         <v>614</v>
       </c>
@@ -27155,7 +27151,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="434" spans="1:16" ht="19" hidden="1">
+    <row r="434" spans="1:16" ht="15">
       <c r="A434" s="6" t="s">
         <v>615</v>
       </c>
@@ -27189,7 +27185,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="435" spans="1:16" ht="19" hidden="1">
+    <row r="435" spans="1:16" ht="15">
       <c r="A435" s="6" t="s">
         <v>616</v>
       </c>
@@ -27223,7 +27219,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="436" spans="1:16" ht="19" hidden="1">
+    <row r="436" spans="1:16" ht="15">
       <c r="A436" s="6" t="s">
         <v>617</v>
       </c>
@@ -27257,7 +27253,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="437" spans="1:16" ht="19" hidden="1">
+    <row r="437" spans="1:16" ht="15">
       <c r="A437" s="6" t="s">
         <v>618</v>
       </c>
@@ -27291,7 +27287,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="438" spans="1:16" ht="19" hidden="1">
+    <row r="438" spans="1:16" ht="15">
       <c r="A438" s="21" t="s">
         <v>1193</v>
       </c>
@@ -27317,7 +27313,7 @@
       </c>
       <c r="P438" s="12"/>
     </row>
-    <row r="439" spans="1:16" ht="19" hidden="1">
+    <row r="439" spans="1:16" ht="15">
       <c r="A439" s="6" t="s">
         <v>620</v>
       </c>
@@ -27353,7 +27349,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="440" spans="1:16" ht="19" hidden="1">
+    <row r="440" spans="1:16" ht="15">
       <c r="A440" s="6" t="s">
         <v>621</v>
       </c>
@@ -27389,7 +27385,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="441" spans="1:16" ht="38" hidden="1">
+    <row r="441" spans="1:16" ht="15">
       <c r="A441" s="6" t="s">
         <v>622</v>
       </c>
@@ -27425,7 +27421,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="442" spans="1:16" ht="38" hidden="1">
+    <row r="442" spans="1:16" ht="30">
       <c r="A442" s="6" t="s">
         <v>623</v>
       </c>
@@ -27461,7 +27457,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="443" spans="1:16" ht="19" hidden="1">
+    <row r="443" spans="1:16" ht="15">
       <c r="A443" s="6" t="s">
         <v>624</v>
       </c>
@@ -27497,7 +27493,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="444" spans="1:16" ht="19" hidden="1">
+    <row r="444" spans="1:16" ht="15">
       <c r="A444" s="6" t="s">
         <v>625</v>
       </c>
@@ -27533,7 +27529,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="445" spans="1:16" ht="38" hidden="1">
+    <row r="445" spans="1:16" ht="15">
       <c r="A445" s="6" t="s">
         <v>626</v>
       </c>
@@ -27569,7 +27565,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="446" spans="1:16" ht="38" hidden="1">
+    <row r="446" spans="1:16" ht="30">
       <c r="A446" s="6" t="s">
         <v>627</v>
       </c>
@@ -27605,7 +27601,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="447" spans="1:16" ht="38" hidden="1">
+    <row r="447" spans="1:16" ht="30">
       <c r="A447" s="7" t="s">
         <v>628</v>
       </c>
@@ -27639,7 +27635,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="448" spans="1:16" ht="19">
+    <row r="448" spans="1:16" ht="15">
       <c r="A448" s="6" t="s">
         <v>629</v>
       </c>
@@ -27675,7 +27671,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="449" spans="1:16" ht="19">
+    <row r="449" spans="1:16" ht="15">
       <c r="A449" s="6" t="s">
         <v>630</v>
       </c>
@@ -27711,7 +27707,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="450" spans="1:16" ht="19">
+    <row r="450" spans="1:16" ht="15">
       <c r="A450" s="6" t="s">
         <v>631</v>
       </c>
@@ -27747,7 +27743,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="451" spans="1:16" ht="19">
+    <row r="451" spans="1:16" ht="15">
       <c r="A451" s="6" t="s">
         <v>632</v>
       </c>
@@ -27783,7 +27779,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="452" spans="1:16" ht="19">
+    <row r="452" spans="1:16" ht="15">
       <c r="A452" s="6" t="s">
         <v>633</v>
       </c>
@@ -27819,7 +27815,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="453" spans="1:16" ht="19">
+    <row r="453" spans="1:16" ht="15">
       <c r="A453" s="6" t="s">
         <v>634</v>
       </c>
@@ -27855,7 +27851,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="454" spans="1:16" ht="19">
+    <row r="454" spans="1:16" ht="15">
       <c r="A454" s="6" t="s">
         <v>635</v>
       </c>
@@ -27891,7 +27887,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="455" spans="1:16" ht="19">
+    <row r="455" spans="1:16" ht="15">
       <c r="A455" s="6" t="s">
         <v>636</v>
       </c>
@@ -27927,7 +27923,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="456" spans="1:16" ht="38" hidden="1">
+    <row r="456" spans="1:16" ht="30">
       <c r="A456" s="6" t="s">
         <v>637</v>
       </c>
@@ -27962,7 +27958,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="457" spans="1:16" ht="19" hidden="1">
+    <row r="457" spans="1:16" ht="15">
       <c r="A457" s="6" t="s">
         <v>638</v>
       </c>
@@ -27994,7 +27990,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="458" spans="1:16" ht="19" hidden="1">
+    <row r="458" spans="1:16" ht="15">
       <c r="A458" s="6" t="s">
         <v>639</v>
       </c>
@@ -28026,7 +28022,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="459" spans="1:16" ht="38" hidden="1">
+    <row r="459" spans="1:16" ht="30">
       <c r="A459" s="6" t="s">
         <v>640</v>
       </c>
@@ -28058,7 +28054,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="460" spans="1:16" ht="38" hidden="1">
+    <row r="460" spans="1:16" ht="30">
       <c r="A460" s="6" t="s">
         <v>641</v>
       </c>
@@ -28090,7 +28086,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="461" spans="1:16" ht="19" hidden="1">
+    <row r="461" spans="1:16" ht="15">
       <c r="A461" s="6" t="s">
         <v>642</v>
       </c>
@@ -28122,7 +28118,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="462" spans="1:16" ht="19" hidden="1">
+    <row r="462" spans="1:16" ht="15">
       <c r="A462" s="6" t="s">
         <v>643</v>
       </c>
@@ -28154,7 +28150,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="463" spans="1:16" ht="38" hidden="1">
+    <row r="463" spans="1:16" ht="30">
       <c r="A463" s="6" t="s">
         <v>644</v>
       </c>
@@ -28186,7 +28182,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="464" spans="1:16" ht="38" hidden="1">
+    <row r="464" spans="1:16" ht="30">
       <c r="A464" s="6" t="s">
         <v>645</v>
       </c>
@@ -28218,7 +28214,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="465" spans="1:16" ht="19" hidden="1">
+    <row r="465" spans="1:16" ht="15">
       <c r="A465" s="6" t="s">
         <v>646</v>
       </c>
@@ -28250,7 +28246,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="466" spans="1:16" ht="19" hidden="1">
+    <row r="466" spans="1:16" ht="15">
       <c r="A466" s="6" t="s">
         <v>647</v>
       </c>
@@ -28282,7 +28278,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="467" spans="1:16" ht="38" hidden="1">
+    <row r="467" spans="1:16" ht="30">
       <c r="A467" s="6" t="s">
         <v>648</v>
       </c>
@@ -28314,7 +28310,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="468" spans="1:16" ht="38" hidden="1">
+    <row r="468" spans="1:16" ht="30">
       <c r="A468" s="21" t="s">
         <v>1187</v>
       </c>
@@ -28344,7 +28340,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="469" spans="1:16" ht="38" hidden="1">
+    <row r="469" spans="1:16" ht="30">
       <c r="A469" s="21" t="s">
         <v>1168</v>
       </c>
@@ -28374,7 +28370,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="470" spans="1:16" ht="19" hidden="1">
+    <row r="470" spans="1:16" ht="15">
       <c r="A470" s="6" t="s">
         <v>649</v>
       </c>
@@ -28410,7 +28406,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="471" spans="1:16" ht="19" hidden="1">
+    <row r="471" spans="1:16" ht="15">
       <c r="A471" s="6" t="s">
         <v>650</v>
       </c>
@@ -28446,7 +28442,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="472" spans="1:16" ht="38" hidden="1">
+    <row r="472" spans="1:16" ht="30">
       <c r="A472" s="6" t="s">
         <v>651</v>
       </c>
@@ -28482,7 +28478,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="473" spans="1:16" ht="19" hidden="1">
+    <row r="473" spans="1:16" ht="15">
       <c r="A473" s="6" t="s">
         <v>652</v>
       </c>
@@ -28516,7 +28512,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="474" spans="1:16" ht="19" hidden="1">
+    <row r="474" spans="1:16" ht="15">
       <c r="A474" s="6" t="s">
         <v>653</v>
       </c>
@@ -28550,7 +28546,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="475" spans="1:16" ht="38" hidden="1">
+    <row r="475" spans="1:16" ht="30">
       <c r="A475" s="6" t="s">
         <v>654</v>
       </c>
@@ -28584,7 +28580,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="476" spans="1:16" ht="19" hidden="1">
+    <row r="476" spans="1:16" ht="15">
       <c r="A476" s="6" t="s">
         <v>655</v>
       </c>
@@ -28620,7 +28616,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="477" spans="1:16" ht="19" hidden="1">
+    <row r="477" spans="1:16" ht="15">
       <c r="A477" s="6" t="s">
         <v>656</v>
       </c>
@@ -28656,7 +28652,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="478" spans="1:16" ht="38" hidden="1">
+    <row r="478" spans="1:16" ht="30">
       <c r="A478" s="6" t="s">
         <v>657</v>
       </c>
@@ -28692,7 +28688,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="479" spans="1:16" ht="38" hidden="1">
+    <row r="479" spans="1:16" ht="30">
       <c r="A479" s="6" t="s">
         <v>658</v>
       </c>
@@ -28726,7 +28722,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="480" spans="1:16" ht="19" hidden="1">
+    <row r="480" spans="1:16" ht="15">
       <c r="A480" s="6" t="s">
         <v>659</v>
       </c>
@@ -28760,7 +28756,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="481" spans="1:16" ht="38" hidden="1">
+    <row r="481" spans="1:16" ht="30">
       <c r="A481" s="6" t="s">
         <v>660</v>
       </c>
@@ -28794,7 +28790,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="482" spans="1:16" ht="19" hidden="1">
+    <row r="482" spans="1:16" ht="15">
       <c r="A482" s="6" t="s">
         <v>661</v>
       </c>
@@ -28828,7 +28824,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="483" spans="1:16" ht="38" hidden="1">
+    <row r="483" spans="1:16" ht="30">
       <c r="A483" s="6" t="s">
         <v>662</v>
       </c>
@@ -28862,7 +28858,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="484" spans="1:16" ht="19" hidden="1">
+    <row r="484" spans="1:16" ht="15">
       <c r="A484" s="6" t="s">
         <v>663</v>
       </c>
@@ -28896,7 +28892,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="485" spans="1:16" ht="38" hidden="1">
+    <row r="485" spans="1:16" ht="30">
       <c r="A485" s="6" t="s">
         <v>664</v>
       </c>
@@ -28930,7 +28926,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="486" spans="1:16" ht="19" hidden="1">
+    <row r="486" spans="1:16" ht="15">
       <c r="A486" s="6" t="s">
         <v>665</v>
       </c>
@@ -28964,7 +28960,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="487" spans="1:16" ht="38" hidden="1">
+    <row r="487" spans="1:16" ht="30">
       <c r="A487" s="6" t="s">
         <v>666</v>
       </c>
@@ -28998,7 +28994,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="488" spans="1:16" ht="19" hidden="1">
+    <row r="488" spans="1:16" ht="15">
       <c r="A488" s="6" t="s">
         <v>667</v>
       </c>
@@ -29032,7 +29028,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="489" spans="1:16" ht="38" hidden="1">
+    <row r="489" spans="1:16" ht="30">
       <c r="A489" s="6" t="s">
         <v>668</v>
       </c>
@@ -29066,7 +29062,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="490" spans="1:16" ht="19" hidden="1">
+    <row r="490" spans="1:16" ht="15">
       <c r="A490" s="6" t="s">
         <v>669</v>
       </c>
@@ -29100,7 +29096,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="491" spans="1:16" ht="38" hidden="1">
+    <row r="491" spans="1:16" ht="30">
       <c r="A491" s="6" t="s">
         <v>670</v>
       </c>
@@ -29134,7 +29130,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="492" spans="1:16" ht="19" hidden="1">
+    <row r="492" spans="1:16" ht="15">
       <c r="A492" s="6" t="s">
         <v>671</v>
       </c>
@@ -29168,7 +29164,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="493" spans="1:16" ht="38" hidden="1">
+    <row r="493" spans="1:16" ht="30">
       <c r="A493" s="6" t="s">
         <v>672</v>
       </c>
@@ -29202,7 +29198,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="494" spans="1:16" ht="19" hidden="1">
+    <row r="494" spans="1:16" ht="15">
       <c r="A494" s="6" t="s">
         <v>673</v>
       </c>
@@ -29236,7 +29232,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="495" spans="1:16" ht="38" hidden="1">
+    <row r="495" spans="1:16" ht="30">
       <c r="A495" s="6" t="s">
         <v>674</v>
       </c>
@@ -29270,7 +29266,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="496" spans="1:16" ht="19" hidden="1">
+    <row r="496" spans="1:16" ht="15">
       <c r="A496" s="6" t="s">
         <v>675</v>
       </c>
@@ -29304,7 +29300,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="497" spans="1:16" ht="38" hidden="1">
+    <row r="497" spans="1:16" ht="30">
       <c r="A497" s="6" t="s">
         <v>676</v>
       </c>
@@ -29338,7 +29334,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="498" spans="1:16" ht="19" hidden="1">
+    <row r="498" spans="1:16" ht="15">
       <c r="A498" s="6" t="s">
         <v>677</v>
       </c>
@@ -29372,7 +29368,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="499" spans="1:16" ht="38" hidden="1">
+    <row r="499" spans="1:16" ht="30">
       <c r="A499" s="6" t="s">
         <v>678</v>
       </c>
@@ -29406,7 +29402,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="500" spans="1:16" ht="19" hidden="1">
+    <row r="500" spans="1:16" ht="15">
       <c r="A500" s="6" t="s">
         <v>679</v>
       </c>
@@ -29440,7 +29436,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="501" spans="1:16" ht="38" hidden="1">
+    <row r="501" spans="1:16" ht="30">
       <c r="A501" s="6" t="s">
         <v>680</v>
       </c>
@@ -29474,7 +29470,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="502" spans="1:16" ht="19" hidden="1">
+    <row r="502" spans="1:16" ht="15">
       <c r="A502" s="6" t="s">
         <v>681</v>
       </c>
@@ -29508,7 +29504,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="503" spans="1:16" ht="38" hidden="1">
+    <row r="503" spans="1:16" ht="30">
       <c r="A503" s="6" t="s">
         <v>682</v>
       </c>
@@ -29542,7 +29538,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="504" spans="1:16" ht="19" hidden="1">
+    <row r="504" spans="1:16" ht="15">
       <c r="A504" s="6" t="s">
         <v>683</v>
       </c>
@@ -29576,7 +29572,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="505" spans="1:16" ht="38" hidden="1">
+    <row r="505" spans="1:16" ht="30">
       <c r="A505" s="6" t="s">
         <v>684</v>
       </c>
@@ -29610,7 +29606,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="506" spans="1:16" ht="19" hidden="1">
+    <row r="506" spans="1:16" ht="15">
       <c r="A506" s="6" t="s">
         <v>685</v>
       </c>
@@ -29644,7 +29640,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="507" spans="1:16" ht="38" hidden="1">
+    <row r="507" spans="1:16" ht="30">
       <c r="A507" s="6" t="s">
         <v>686</v>
       </c>
@@ -29678,7 +29674,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="508" spans="1:16" ht="19" hidden="1">
+    <row r="508" spans="1:16" ht="15">
       <c r="A508" s="6" t="s">
         <v>687</v>
       </c>
@@ -29712,7 +29708,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="509" spans="1:16" ht="38" hidden="1">
+    <row r="509" spans="1:16" ht="30">
       <c r="A509" s="6" t="s">
         <v>688</v>
       </c>
@@ -29746,7 +29742,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="510" spans="1:16" ht="19" hidden="1">
+    <row r="510" spans="1:16" ht="15">
       <c r="A510" s="6" t="s">
         <v>689</v>
       </c>
@@ -29780,7 +29776,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="511" spans="1:16" ht="38" hidden="1">
+    <row r="511" spans="1:16" ht="30">
       <c r="A511" s="6" t="s">
         <v>690</v>
       </c>
@@ -29814,7 +29810,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="512" spans="1:16" ht="19" hidden="1">
+    <row r="512" spans="1:16" ht="15">
       <c r="A512" s="6" t="s">
         <v>691</v>
       </c>
@@ -29848,7 +29844,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="513" spans="1:16" ht="38" hidden="1">
+    <row r="513" spans="1:16" ht="30">
       <c r="A513" s="6" t="s">
         <v>692</v>
       </c>
@@ -29882,7 +29878,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="514" spans="1:16" ht="19" hidden="1">
+    <row r="514" spans="1:16" ht="15">
       <c r="A514" s="6" t="s">
         <v>693</v>
       </c>
@@ -29916,7 +29912,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="515" spans="1:16" ht="38" hidden="1">
+    <row r="515" spans="1:16" ht="30">
       <c r="A515" s="6" t="s">
         <v>694</v>
       </c>
@@ -29950,7 +29946,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="516" spans="1:16" ht="19" hidden="1">
+    <row r="516" spans="1:16" ht="15">
       <c r="A516" s="6" t="s">
         <v>695</v>
       </c>
@@ -29984,7 +29980,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="517" spans="1:16" ht="19" hidden="1">
+    <row r="517" spans="1:16" ht="15">
       <c r="A517" s="6" t="s">
         <v>696</v>
       </c>
@@ -30019,7 +30015,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="518" spans="1:16" ht="19" hidden="1">
+    <row r="518" spans="1:16" ht="15">
       <c r="A518" s="6" t="s">
         <v>697</v>
       </c>
@@ -30051,7 +30047,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="519" spans="1:16" ht="19" hidden="1">
+    <row r="519" spans="1:16" ht="15">
       <c r="A519" s="6" t="s">
         <v>698</v>
       </c>
@@ -30083,7 +30079,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="520" spans="1:16" ht="38" hidden="1">
+    <row r="520" spans="1:16" ht="30">
       <c r="A520" s="6" t="s">
         <v>699</v>
       </c>
@@ -30115,7 +30111,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="521" spans="1:16" ht="19" hidden="1">
+    <row r="521" spans="1:16" ht="15">
       <c r="A521" s="6" t="s">
         <v>700</v>
       </c>
@@ -30147,7 +30143,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="522" spans="1:16" ht="38" hidden="1">
+    <row r="522" spans="1:16" ht="30">
       <c r="A522" s="6" t="s">
         <v>701</v>
       </c>
@@ -30179,7 +30175,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="523" spans="1:16" ht="19" hidden="1">
+    <row r="523" spans="1:16" ht="15">
       <c r="A523" s="6" t="s">
         <v>702</v>
       </c>
@@ -30211,7 +30207,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="524" spans="1:16" ht="19" hidden="1">
+    <row r="524" spans="1:16" ht="15">
       <c r="A524" s="6" t="s">
         <v>703</v>
       </c>
@@ -30243,7 +30239,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="525" spans="1:16" ht="19" hidden="1">
+    <row r="525" spans="1:16" ht="15">
       <c r="A525" s="6" t="s">
         <v>704</v>
       </c>
@@ -30275,7 +30271,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="526" spans="1:16" ht="19" hidden="1">
+    <row r="526" spans="1:16" ht="15">
       <c r="A526" s="6" t="s">
         <v>705</v>
       </c>
@@ -30307,7 +30303,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="527" spans="1:16" ht="19" hidden="1">
+    <row r="527" spans="1:16" ht="15">
       <c r="A527" s="6" t="s">
         <v>706</v>
       </c>
@@ -30339,7 +30335,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="528" spans="1:16" ht="19" hidden="1">
+    <row r="528" spans="1:16" ht="15">
       <c r="A528" s="6" t="s">
         <v>707</v>
       </c>
@@ -30371,7 +30367,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="529" spans="1:16" ht="19" hidden="1">
+    <row r="529" spans="1:16" ht="15">
       <c r="A529" s="6" t="s">
         <v>708</v>
       </c>
@@ -30403,7 +30399,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="530" spans="1:16" ht="38" hidden="1">
+    <row r="530" spans="1:16" ht="30">
       <c r="A530" s="6" t="s">
         <v>709</v>
       </c>
@@ -30435,7 +30431,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="531" spans="1:16" ht="19" hidden="1">
+    <row r="531" spans="1:16" ht="15">
       <c r="A531" s="6" t="s">
         <v>710</v>
       </c>
@@ -30467,7 +30463,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="532" spans="1:16" ht="38" hidden="1">
+    <row r="532" spans="1:16" ht="30">
       <c r="A532" s="6" t="s">
         <v>711</v>
       </c>
@@ -30499,7 +30495,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="533" spans="1:16" ht="19" hidden="1">
+    <row r="533" spans="1:16" ht="15">
       <c r="A533" s="6" t="s">
         <v>712</v>
       </c>
@@ -30531,7 +30527,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="534" spans="1:16" ht="19" hidden="1">
+    <row r="534" spans="1:16" ht="15">
       <c r="A534" s="6" t="s">
         <v>713</v>
       </c>
@@ -30563,7 +30559,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="535" spans="1:16" ht="19" hidden="1">
+    <row r="535" spans="1:16" ht="15">
       <c r="A535" s="6" t="s">
         <v>714</v>
       </c>
@@ -30595,7 +30591,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="536" spans="1:16" ht="19" hidden="1">
+    <row r="536" spans="1:16" ht="15">
       <c r="A536" s="6" t="s">
         <v>715</v>
       </c>
@@ -30627,7 +30623,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="537" spans="1:16" ht="19" hidden="1">
+    <row r="537" spans="1:16" ht="15">
       <c r="A537" s="6" t="s">
         <v>716</v>
       </c>
@@ -30659,7 +30655,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="538" spans="1:16" ht="19" hidden="1">
+    <row r="538" spans="1:16" ht="15">
       <c r="A538" s="6" t="s">
         <v>717</v>
       </c>
@@ -30691,7 +30687,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="539" spans="1:16" ht="19" hidden="1">
+    <row r="539" spans="1:16" ht="15">
       <c r="A539" s="6" t="s">
         <v>718</v>
       </c>
@@ -30723,7 +30719,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="540" spans="1:16" ht="38" hidden="1">
+    <row r="540" spans="1:16" ht="30">
       <c r="A540" s="6" t="s">
         <v>719</v>
       </c>
@@ -30755,7 +30751,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="541" spans="1:16" ht="19" hidden="1">
+    <row r="541" spans="1:16" ht="15">
       <c r="A541" s="6" t="s">
         <v>720</v>
       </c>
@@ -30787,7 +30783,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="542" spans="1:16" ht="38" hidden="1">
+    <row r="542" spans="1:16" ht="30">
       <c r="A542" s="6" t="s">
         <v>721</v>
       </c>
@@ -30819,7 +30815,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="543" spans="1:16" ht="19" hidden="1">
+    <row r="543" spans="1:16" ht="15">
       <c r="A543" s="6" t="s">
         <v>722</v>
       </c>
@@ -30851,7 +30847,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="544" spans="1:16" ht="19" hidden="1">
+    <row r="544" spans="1:16" ht="15">
       <c r="A544" s="6" t="s">
         <v>723</v>
       </c>
@@ -30883,7 +30879,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="545" spans="1:16" ht="19" hidden="1">
+    <row r="545" spans="1:16" ht="15">
       <c r="A545" s="6" t="s">
         <v>724</v>
       </c>
@@ -30915,7 +30911,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="546" spans="1:16" ht="19" hidden="1">
+    <row r="546" spans="1:16" ht="15">
       <c r="A546" s="6" t="s">
         <v>725</v>
       </c>
@@ -30947,7 +30943,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="547" spans="1:16" ht="19" hidden="1">
+    <row r="547" spans="1:16" ht="15">
       <c r="A547" s="6" t="s">
         <v>726</v>
       </c>
@@ -30979,7 +30975,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="548" spans="1:16" ht="19" hidden="1">
+    <row r="548" spans="1:16" ht="15">
       <c r="A548" s="6" t="s">
         <v>727</v>
       </c>
@@ -31011,7 +31007,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="549" spans="1:16" ht="19" hidden="1">
+    <row r="549" spans="1:16" ht="15">
       <c r="A549" s="6" t="s">
         <v>728</v>
       </c>
@@ -31043,7 +31039,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="550" spans="1:16" ht="38" hidden="1">
+    <row r="550" spans="1:16" ht="30">
       <c r="A550" s="6" t="s">
         <v>729</v>
       </c>
@@ -31075,7 +31071,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="551" spans="1:16" ht="19" hidden="1">
+    <row r="551" spans="1:16" ht="15">
       <c r="A551" s="6" t="s">
         <v>730</v>
       </c>
@@ -31107,7 +31103,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="552" spans="1:16" ht="38" hidden="1">
+    <row r="552" spans="1:16" ht="30">
       <c r="A552" s="6" t="s">
         <v>731</v>
       </c>
@@ -31139,7 +31135,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="553" spans="1:16" ht="19" hidden="1">
+    <row r="553" spans="1:16" ht="15">
       <c r="A553" s="6" t="s">
         <v>732</v>
       </c>
@@ -31171,7 +31167,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="554" spans="1:16" ht="19" hidden="1">
+    <row r="554" spans="1:16" ht="15">
       <c r="A554" s="6" t="s">
         <v>733</v>
       </c>
@@ -31203,7 +31199,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="555" spans="1:16" ht="19" hidden="1">
+    <row r="555" spans="1:16" ht="15">
       <c r="A555" s="6" t="s">
         <v>734</v>
       </c>
@@ -31235,7 +31231,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="556" spans="1:16" ht="19" hidden="1">
+    <row r="556" spans="1:16" ht="15">
       <c r="A556" s="6" t="s">
         <v>735</v>
       </c>
@@ -31267,7 +31263,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="557" spans="1:16" ht="19" hidden="1">
+    <row r="557" spans="1:16" ht="15">
       <c r="A557" s="6" t="s">
         <v>736</v>
       </c>
@@ -31299,7 +31295,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="558" spans="1:16" ht="19" hidden="1">
+    <row r="558" spans="1:16" ht="15">
       <c r="A558" s="6" t="s">
         <v>737</v>
       </c>
@@ -31331,7 +31327,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="559" spans="1:16" ht="19" hidden="1">
+    <row r="559" spans="1:16" ht="15">
       <c r="A559" s="6" t="s">
         <v>738</v>
       </c>
@@ -31363,7 +31359,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="560" spans="1:16" ht="38" hidden="1">
+    <row r="560" spans="1:16" ht="30">
       <c r="A560" s="6" t="s">
         <v>739</v>
       </c>
@@ -31395,7 +31391,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="561" spans="1:16" ht="19" hidden="1">
+    <row r="561" spans="1:16" ht="15">
       <c r="A561" s="6" t="s">
         <v>740</v>
       </c>
@@ -31427,7 +31423,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="562" spans="1:16" ht="38" hidden="1">
+    <row r="562" spans="1:16" ht="30">
       <c r="A562" s="6" t="s">
         <v>741</v>
       </c>
@@ -31459,7 +31455,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="563" spans="1:16" ht="19" hidden="1">
+    <row r="563" spans="1:16" ht="15">
       <c r="A563" s="6" t="s">
         <v>742</v>
       </c>
@@ -31491,7 +31487,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="564" spans="1:16" ht="19" hidden="1">
+    <row r="564" spans="1:16" ht="15">
       <c r="A564" s="6" t="s">
         <v>743</v>
       </c>
@@ -31523,7 +31519,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="565" spans="1:16" ht="19" hidden="1">
+    <row r="565" spans="1:16" ht="15">
       <c r="A565" s="6" t="s">
         <v>744</v>
       </c>
@@ -31555,7 +31551,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="566" spans="1:16" ht="19" hidden="1">
+    <row r="566" spans="1:16" ht="15">
       <c r="A566" s="6" t="s">
         <v>745</v>
       </c>
@@ -31587,7 +31583,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="567" spans="1:16" ht="38" hidden="1">
+    <row r="567" spans="1:16" ht="30">
       <c r="A567" s="21" t="s">
         <v>1187</v>
       </c>
@@ -31617,7 +31613,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="568" spans="1:16" ht="38" hidden="1">
+    <row r="568" spans="1:16" ht="30">
       <c r="A568" s="21" t="s">
         <v>1168</v>
       </c>
@@ -31647,7 +31643,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="569" spans="1:16" ht="19" hidden="1">
+    <row r="569" spans="1:16" ht="15">
       <c r="A569" s="6" t="s">
         <v>746</v>
       </c>
@@ -31681,7 +31677,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="570" spans="1:16" ht="19" hidden="1">
+    <row r="570" spans="1:16" ht="15">
       <c r="A570" s="6" t="s">
         <v>747</v>
       </c>
@@ -31715,7 +31711,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="571" spans="1:16" ht="19" hidden="1">
+    <row r="571" spans="1:16" ht="15">
       <c r="A571" s="6" t="s">
         <v>748</v>
       </c>
@@ -31749,7 +31745,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="572" spans="1:16" ht="38" hidden="1">
+    <row r="572" spans="1:16" ht="30">
       <c r="A572" s="6" t="s">
         <v>749</v>
       </c>
@@ -31783,7 +31779,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="573" spans="1:16" ht="19" hidden="1">
+    <row r="573" spans="1:16" ht="15">
       <c r="A573" s="6" t="s">
         <v>750</v>
       </c>
@@ -31817,7 +31813,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="574" spans="1:16" ht="38" hidden="1">
+    <row r="574" spans="1:16" ht="30">
       <c r="A574" s="6" t="s">
         <v>751</v>
       </c>
@@ -31851,7 +31847,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="575" spans="1:16" ht="19" hidden="1">
+    <row r="575" spans="1:16" ht="15">
       <c r="A575" s="6" t="s">
         <v>752</v>
       </c>
@@ -31885,7 +31881,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="576" spans="1:16" ht="19" hidden="1">
+    <row r="576" spans="1:16" ht="15">
       <c r="A576" s="6" t="s">
         <v>753</v>
       </c>
@@ -31919,7 +31915,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="577" spans="1:16" ht="19" hidden="1">
+    <row r="577" spans="1:16" ht="15">
       <c r="A577" s="6" t="s">
         <v>754</v>
       </c>
@@ -31953,7 +31949,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="578" spans="1:16" ht="19" hidden="1">
+    <row r="578" spans="1:16" ht="15">
       <c r="A578" s="6" t="s">
         <v>755</v>
       </c>
@@ -31987,7 +31983,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="579" spans="1:16" ht="19" hidden="1">
+    <row r="579" spans="1:16" ht="15">
       <c r="A579" s="6" t="s">
         <v>756</v>
       </c>
@@ -32021,7 +32017,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="580" spans="1:16" ht="19" hidden="1">
+    <row r="580" spans="1:16" ht="15">
       <c r="A580" s="6" t="s">
         <v>757</v>
       </c>
@@ -32055,7 +32051,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="581" spans="1:16" ht="19" hidden="1">
+    <row r="581" spans="1:16" ht="15">
       <c r="A581" s="6" t="s">
         <v>758</v>
       </c>
@@ -32089,7 +32085,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="582" spans="1:16" ht="38" hidden="1">
+    <row r="582" spans="1:16" ht="30">
       <c r="A582" s="6" t="s">
         <v>759</v>
       </c>
@@ -32123,7 +32119,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="583" spans="1:16" ht="19" hidden="1">
+    <row r="583" spans="1:16" ht="15">
       <c r="A583" s="6" t="s">
         <v>760</v>
       </c>
@@ -32157,7 +32153,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="584" spans="1:16" ht="38" hidden="1">
+    <row r="584" spans="1:16" ht="30">
       <c r="A584" s="6" t="s">
         <v>761</v>
       </c>
@@ -32191,7 +32187,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="585" spans="1:16" ht="19" hidden="1">
+    <row r="585" spans="1:16" ht="15">
       <c r="A585" s="6" t="s">
         <v>762</v>
       </c>
@@ -32225,7 +32221,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="586" spans="1:16" ht="19" hidden="1">
+    <row r="586" spans="1:16" ht="15">
       <c r="A586" s="6" t="s">
         <v>763</v>
       </c>
@@ -32259,7 +32255,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="587" spans="1:16" ht="19" hidden="1">
+    <row r="587" spans="1:16" ht="15">
       <c r="A587" s="6" t="s">
         <v>764</v>
       </c>
@@ -32293,7 +32289,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="588" spans="1:16" ht="19" hidden="1">
+    <row r="588" spans="1:16" ht="15">
       <c r="A588" s="6" t="s">
         <v>765</v>
       </c>
@@ -32327,7 +32323,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="589" spans="1:16" ht="38" hidden="1">
+    <row r="589" spans="1:16" ht="30">
       <c r="A589" s="6" t="s">
         <v>766</v>
       </c>
@@ -32361,7 +32357,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="590" spans="1:16" ht="38" hidden="1">
+    <row r="590" spans="1:16" ht="30">
       <c r="A590" s="6" t="s">
         <v>767</v>
       </c>
@@ -32395,7 +32391,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="591" spans="1:16" ht="38" hidden="1">
+    <row r="591" spans="1:16" ht="30">
       <c r="A591" s="6" t="s">
         <v>768</v>
       </c>
@@ -32429,7 +32425,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="592" spans="1:16" ht="38" hidden="1">
+    <row r="592" spans="1:16" ht="30">
       <c r="A592" s="6" t="s">
         <v>769</v>
       </c>
@@ -32463,7 +32459,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="593" spans="1:16" ht="38" hidden="1">
+    <row r="593" spans="1:16" ht="30">
       <c r="A593" s="6" t="s">
         <v>770</v>
       </c>
@@ -32497,7 +32493,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="594" spans="1:16" ht="38" hidden="1">
+    <row r="594" spans="1:16" ht="30">
       <c r="A594" s="6" t="s">
         <v>771</v>
       </c>
@@ -32531,7 +32527,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="595" spans="1:16" ht="38" hidden="1">
+    <row r="595" spans="1:16" ht="30">
       <c r="A595" s="6" t="s">
         <v>772</v>
       </c>
@@ -32565,7 +32561,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="596" spans="1:16" ht="38" hidden="1">
+    <row r="596" spans="1:16" ht="30">
       <c r="A596" s="6" t="s">
         <v>773</v>
       </c>
@@ -32599,7 +32595,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="597" spans="1:16" ht="38" hidden="1">
+    <row r="597" spans="1:16" ht="30">
       <c r="A597" s="6" t="s">
         <v>774</v>
       </c>
@@ -32633,7 +32629,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="598" spans="1:16" ht="38" hidden="1">
+    <row r="598" spans="1:16" ht="30">
       <c r="A598" s="6" t="s">
         <v>775</v>
       </c>
@@ -32667,7 +32663,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="599" spans="1:16" ht="19" hidden="1">
+    <row r="599" spans="1:16" ht="15">
       <c r="A599" s="6" t="s">
         <v>776</v>
       </c>
@@ -32701,7 +32697,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="600" spans="1:16" ht="19" hidden="1">
+    <row r="600" spans="1:16" ht="15">
       <c r="A600" s="6" t="s">
         <v>777</v>
       </c>
@@ -32735,7 +32731,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="601" spans="1:16" ht="19" hidden="1">
+    <row r="601" spans="1:16" ht="15">
       <c r="A601" s="6" t="s">
         <v>778</v>
       </c>
@@ -32769,7 +32765,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="602" spans="1:16" ht="38" hidden="1">
+    <row r="602" spans="1:16" ht="30">
       <c r="A602" s="6" t="s">
         <v>779</v>
       </c>
@@ -32803,7 +32799,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="603" spans="1:16" ht="19" hidden="1">
+    <row r="603" spans="1:16" ht="15">
       <c r="A603" s="6" t="s">
         <v>780</v>
       </c>
@@ -32837,7 +32833,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="604" spans="1:16" ht="38" hidden="1">
+    <row r="604" spans="1:16" ht="30">
       <c r="A604" s="6" t="s">
         <v>781</v>
       </c>
@@ -32871,7 +32867,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="605" spans="1:16" ht="19" hidden="1">
+    <row r="605" spans="1:16" ht="15">
       <c r="A605" s="6" t="s">
         <v>782</v>
       </c>
@@ -32905,7 +32901,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="606" spans="1:16" ht="19" hidden="1">
+    <row r="606" spans="1:16" ht="15">
       <c r="A606" s="6" t="s">
         <v>783</v>
       </c>
@@ -32939,7 +32935,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="607" spans="1:16" ht="19" hidden="1">
+    <row r="607" spans="1:16" ht="15">
       <c r="A607" s="6" t="s">
         <v>784</v>
       </c>
@@ -32973,7 +32969,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="608" spans="1:16" ht="19" hidden="1">
+    <row r="608" spans="1:16" ht="15">
       <c r="A608" s="6" t="s">
         <v>785</v>
       </c>
@@ -33007,7 +33003,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="609" spans="1:16" ht="19" hidden="1">
+    <row r="609" spans="1:16" ht="15">
       <c r="A609" s="6" t="s">
         <v>786</v>
       </c>
@@ -33041,7 +33037,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="610" spans="1:16" ht="19" hidden="1">
+    <row r="610" spans="1:16" ht="15">
       <c r="A610" s="6" t="s">
         <v>787</v>
       </c>
@@ -33075,7 +33071,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="611" spans="1:16" ht="19" hidden="1">
+    <row r="611" spans="1:16" ht="15">
       <c r="A611" s="6" t="s">
         <v>788</v>
       </c>
@@ -33109,7 +33105,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="612" spans="1:16" ht="38" hidden="1">
+    <row r="612" spans="1:16" ht="30">
       <c r="A612" s="6" t="s">
         <v>789</v>
       </c>
@@ -33143,7 +33139,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="613" spans="1:16" ht="19" hidden="1">
+    <row r="613" spans="1:16" ht="15">
       <c r="A613" s="6" t="s">
         <v>790</v>
       </c>
@@ -33177,7 +33173,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="614" spans="1:16" ht="38" hidden="1">
+    <row r="614" spans="1:16" ht="30">
       <c r="A614" s="6" t="s">
         <v>791</v>
       </c>
@@ -33211,7 +33207,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="615" spans="1:16" ht="19" hidden="1">
+    <row r="615" spans="1:16" ht="15">
       <c r="A615" s="6" t="s">
         <v>792</v>
       </c>
@@ -33245,7 +33241,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="616" spans="1:16" ht="19" hidden="1">
+    <row r="616" spans="1:16" ht="15">
       <c r="A616" s="6" t="s">
         <v>793</v>
       </c>
@@ -33279,7 +33275,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="617" spans="1:16" ht="19" hidden="1">
+    <row r="617" spans="1:16" ht="15">
       <c r="A617" s="6" t="s">
         <v>794</v>
       </c>
@@ -33313,7 +33309,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="618" spans="1:16" ht="19" hidden="1">
+    <row r="618" spans="1:16" ht="15">
       <c r="A618" s="6" t="s">
         <v>795</v>
       </c>
@@ -33347,7 +33343,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="619" spans="1:16" ht="38" hidden="1">
+    <row r="619" spans="1:16" ht="30">
       <c r="A619" s="6" t="s">
         <v>796</v>
       </c>
@@ -33381,7 +33377,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="620" spans="1:16" ht="38" hidden="1">
+    <row r="620" spans="1:16" ht="30">
       <c r="A620" s="6" t="s">
         <v>797</v>
       </c>
@@ -33415,7 +33411,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="621" spans="1:16" ht="38" hidden="1">
+    <row r="621" spans="1:16" ht="30">
       <c r="A621" s="6" t="s">
         <v>798</v>
       </c>
@@ -33449,7 +33445,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="622" spans="1:16" ht="38" hidden="1">
+    <row r="622" spans="1:16" ht="30">
       <c r="A622" s="6" t="s">
         <v>799</v>
       </c>
@@ -33483,7 +33479,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="623" spans="1:16" ht="38" hidden="1">
+    <row r="623" spans="1:16" ht="30">
       <c r="A623" s="6" t="s">
         <v>800</v>
       </c>
@@ -33517,7 +33513,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="624" spans="1:16" ht="38" hidden="1">
+    <row r="624" spans="1:16" ht="30">
       <c r="A624" s="6" t="s">
         <v>801</v>
       </c>
@@ -33551,7 +33547,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="625" spans="1:16" ht="38" hidden="1">
+    <row r="625" spans="1:16" ht="30">
       <c r="A625" s="6" t="s">
         <v>802</v>
       </c>
@@ -33585,7 +33581,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="626" spans="1:16" ht="38" hidden="1">
+    <row r="626" spans="1:16" ht="30">
       <c r="A626" s="6" t="s">
         <v>803</v>
       </c>
@@ -33619,7 +33615,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="627" spans="1:16" ht="38" hidden="1">
+    <row r="627" spans="1:16" ht="30">
       <c r="A627" s="6" t="s">
         <v>804</v>
       </c>
@@ -33653,7 +33649,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="628" spans="1:16" ht="38" hidden="1">
+    <row r="628" spans="1:16" ht="30">
       <c r="A628" s="6" t="s">
         <v>805</v>
       </c>
@@ -33687,7 +33683,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="629" spans="1:16" ht="19" hidden="1">
+    <row r="629" spans="1:16" ht="15">
       <c r="A629" s="6" t="s">
         <v>806</v>
       </c>
@@ -33721,7 +33717,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="630" spans="1:16" ht="19" hidden="1">
+    <row r="630" spans="1:16" ht="15">
       <c r="A630" s="6" t="s">
         <v>807</v>
       </c>
@@ -33755,7 +33751,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="631" spans="1:16" ht="19" hidden="1">
+    <row r="631" spans="1:16" ht="15">
       <c r="A631" s="6" t="s">
         <v>808</v>
       </c>
@@ -33789,7 +33785,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="632" spans="1:16" ht="38" hidden="1">
+    <row r="632" spans="1:16" ht="30">
       <c r="A632" s="6" t="s">
         <v>809</v>
       </c>
@@ -33823,7 +33819,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="633" spans="1:16" ht="19" hidden="1">
+    <row r="633" spans="1:16" ht="15">
       <c r="A633" s="6" t="s">
         <v>810</v>
       </c>
@@ -33857,7 +33853,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="634" spans="1:16" ht="38" hidden="1">
+    <row r="634" spans="1:16" ht="30">
       <c r="A634" s="6" t="s">
         <v>811</v>
       </c>
@@ -33891,7 +33887,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="635" spans="1:16" ht="19" hidden="1">
+    <row r="635" spans="1:16" ht="15">
       <c r="A635" s="6" t="s">
         <v>812</v>
       </c>
@@ -33925,7 +33921,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="636" spans="1:16" ht="19" hidden="1">
+    <row r="636" spans="1:16" ht="15">
       <c r="A636" s="6" t="s">
         <v>813</v>
       </c>
@@ -33959,7 +33955,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="637" spans="1:16" ht="19" hidden="1">
+    <row r="637" spans="1:16" ht="15">
       <c r="A637" s="6" t="s">
         <v>814</v>
       </c>
@@ -33993,7 +33989,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="638" spans="1:16" ht="19" hidden="1">
+    <row r="638" spans="1:16" ht="15">
       <c r="A638" s="6" t="s">
         <v>815</v>
       </c>
@@ -34027,7 +34023,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="639" spans="1:16" ht="19" hidden="1">
+    <row r="639" spans="1:16" ht="15">
       <c r="A639" s="6" t="s">
         <v>816</v>
       </c>
@@ -34061,7 +34057,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="640" spans="1:16" ht="19" hidden="1">
+    <row r="640" spans="1:16" ht="15">
       <c r="A640" s="6" t="s">
         <v>817</v>
       </c>
@@ -34095,7 +34091,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="641" spans="1:16" ht="19" hidden="1">
+    <row r="641" spans="1:16" ht="15">
       <c r="A641" s="6" t="s">
         <v>818</v>
       </c>
@@ -34129,7 +34125,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="642" spans="1:16" ht="38" hidden="1">
+    <row r="642" spans="1:16" ht="30">
       <c r="A642" s="6" t="s">
         <v>819</v>
       </c>
@@ -34163,7 +34159,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="643" spans="1:16" ht="19" hidden="1">
+    <row r="643" spans="1:16" ht="15">
       <c r="A643" s="6" t="s">
         <v>820</v>
       </c>
@@ -34197,7 +34193,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="644" spans="1:16" ht="38" hidden="1">
+    <row r="644" spans="1:16" ht="30">
       <c r="A644" s="6" t="s">
         <v>821</v>
       </c>
@@ -34231,7 +34227,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="645" spans="1:16" ht="19" hidden="1">
+    <row r="645" spans="1:16" ht="15">
       <c r="A645" s="6" t="s">
         <v>822</v>
       </c>
@@ -34265,7 +34261,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="646" spans="1:16" ht="19" hidden="1">
+    <row r="646" spans="1:16" ht="15">
       <c r="A646" s="6" t="s">
         <v>823</v>
       </c>
@@ -34299,7 +34295,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="647" spans="1:16" ht="19" hidden="1">
+    <row r="647" spans="1:16" ht="15">
       <c r="A647" s="6" t="s">
         <v>824</v>
       </c>
@@ -34333,7 +34329,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="648" spans="1:16" ht="19" hidden="1">
+    <row r="648" spans="1:16" ht="15">
       <c r="A648" s="6" t="s">
         <v>825</v>
       </c>
@@ -34367,7 +34363,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="649" spans="1:16" ht="38" hidden="1">
+    <row r="649" spans="1:16" ht="30">
       <c r="A649" s="6" t="s">
         <v>826</v>
       </c>
@@ -34401,7 +34397,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="650" spans="1:16" ht="38" hidden="1">
+    <row r="650" spans="1:16" ht="30">
       <c r="A650" s="6" t="s">
         <v>827</v>
       </c>
@@ -34435,7 +34431,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="651" spans="1:16" ht="38" hidden="1">
+    <row r="651" spans="1:16" ht="30">
       <c r="A651" s="6" t="s">
         <v>828</v>
       </c>
@@ -34469,7 +34465,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="652" spans="1:16" ht="38" hidden="1">
+    <row r="652" spans="1:16" ht="30">
       <c r="A652" s="6" t="s">
         <v>829</v>
       </c>
@@ -34503,7 +34499,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="653" spans="1:16" ht="38" hidden="1">
+    <row r="653" spans="1:16" ht="30">
       <c r="A653" s="6" t="s">
         <v>830</v>
       </c>
@@ -34537,7 +34533,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="654" spans="1:16" ht="38" hidden="1">
+    <row r="654" spans="1:16" ht="30">
       <c r="A654" s="6" t="s">
         <v>831</v>
       </c>
@@ -34571,7 +34567,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="655" spans="1:16" ht="38" hidden="1">
+    <row r="655" spans="1:16" ht="30">
       <c r="A655" s="6" t="s">
         <v>832</v>
       </c>
@@ -34605,7 +34601,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="656" spans="1:16" ht="38" hidden="1">
+    <row r="656" spans="1:16" ht="30">
       <c r="A656" s="6" t="s">
         <v>833</v>
       </c>
@@ -34639,7 +34635,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="657" spans="1:16" ht="38" hidden="1">
+    <row r="657" spans="1:16" ht="30">
       <c r="A657" s="6" t="s">
         <v>834</v>
       </c>
@@ -34673,7 +34669,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="658" spans="1:16" ht="38" hidden="1">
+    <row r="658" spans="1:16" ht="30">
       <c r="A658" s="6" t="s">
         <v>835</v>
       </c>
@@ -34707,7 +34703,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="659" spans="1:16" ht="19" hidden="1">
+    <row r="659" spans="1:16" ht="15">
       <c r="A659" s="6" t="s">
         <v>836</v>
       </c>
@@ -34741,7 +34737,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="660" spans="1:16" ht="19" hidden="1">
+    <row r="660" spans="1:16" ht="15">
       <c r="A660" s="6" t="s">
         <v>837</v>
       </c>
@@ -34775,7 +34771,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="661" spans="1:16" ht="19" hidden="1">
+    <row r="661" spans="1:16" ht="15">
       <c r="A661" s="6" t="s">
         <v>838</v>
       </c>
@@ -34809,7 +34805,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="662" spans="1:16" ht="38" hidden="1">
+    <row r="662" spans="1:16" ht="30">
       <c r="A662" s="6" t="s">
         <v>839</v>
       </c>
@@ -34843,7 +34839,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="663" spans="1:16" ht="19" hidden="1">
+    <row r="663" spans="1:16" ht="15">
       <c r="A663" s="6" t="s">
         <v>840</v>
       </c>
@@ -34877,7 +34873,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="664" spans="1:16" ht="38" hidden="1">
+    <row r="664" spans="1:16" ht="30">
       <c r="A664" s="6" t="s">
         <v>841</v>
       </c>
@@ -34911,7 +34907,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="665" spans="1:16" ht="19" hidden="1">
+    <row r="665" spans="1:16" ht="15">
       <c r="A665" s="6" t="s">
         <v>842</v>
       </c>
@@ -34945,7 +34941,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="666" spans="1:16" ht="19" hidden="1">
+    <row r="666" spans="1:16" ht="15">
       <c r="A666" s="6" t="s">
         <v>843</v>
       </c>
@@ -34979,7 +34975,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="667" spans="1:16" ht="19" hidden="1">
+    <row r="667" spans="1:16" ht="15">
       <c r="A667" s="6" t="s">
         <v>844</v>
       </c>
@@ -35013,7 +35009,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="668" spans="1:16" ht="19" hidden="1">
+    <row r="668" spans="1:16" ht="15">
       <c r="A668" s="6" t="s">
         <v>845</v>
       </c>
@@ -35047,7 +35043,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="669" spans="1:16" ht="19" hidden="1">
+    <row r="669" spans="1:16" ht="15">
       <c r="A669" s="6" t="s">
         <v>846</v>
       </c>
@@ -35081,7 +35077,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="670" spans="1:16" ht="19" hidden="1">
+    <row r="670" spans="1:16" ht="15">
       <c r="A670" s="6" t="s">
         <v>847</v>
       </c>
@@ -35115,7 +35111,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="671" spans="1:16" ht="19" hidden="1">
+    <row r="671" spans="1:16" ht="15">
       <c r="A671" s="6" t="s">
         <v>848</v>
       </c>
@@ -35149,7 +35145,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="672" spans="1:16" ht="38" hidden="1">
+    <row r="672" spans="1:16" ht="30">
       <c r="A672" s="6" t="s">
         <v>849</v>
       </c>
@@ -35183,7 +35179,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="673" spans="1:16" ht="19" hidden="1">
+    <row r="673" spans="1:16" ht="15">
       <c r="A673" s="6" t="s">
         <v>850</v>
       </c>
@@ -35217,7 +35213,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="674" spans="1:16" ht="38" hidden="1">
+    <row r="674" spans="1:16" ht="30">
       <c r="A674" s="6" t="s">
         <v>851</v>
       </c>
@@ -35251,7 +35247,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="675" spans="1:16" ht="19" hidden="1">
+    <row r="675" spans="1:16" ht="15">
       <c r="A675" s="6" t="s">
         <v>852</v>
       </c>
@@ -35285,7 +35281,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="676" spans="1:16" ht="19" hidden="1">
+    <row r="676" spans="1:16" ht="15">
       <c r="A676" s="6" t="s">
         <v>853</v>
       </c>
@@ -35319,7 +35315,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="677" spans="1:16" ht="19" hidden="1">
+    <row r="677" spans="1:16" ht="15">
       <c r="A677" s="6" t="s">
         <v>854</v>
       </c>
@@ -35353,7 +35349,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="678" spans="1:16" ht="19" hidden="1">
+    <row r="678" spans="1:16" ht="15">
       <c r="A678" s="6" t="s">
         <v>855</v>
       </c>
@@ -35387,7 +35383,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="679" spans="1:16" ht="38" hidden="1">
+    <row r="679" spans="1:16" ht="30">
       <c r="A679" s="6" t="s">
         <v>856</v>
       </c>
@@ -35421,7 +35417,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="680" spans="1:16" ht="38" hidden="1">
+    <row r="680" spans="1:16" ht="30">
       <c r="A680" s="6" t="s">
         <v>857</v>
       </c>
@@ -35455,7 +35451,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="681" spans="1:16" ht="38" hidden="1">
+    <row r="681" spans="1:16" ht="30">
       <c r="A681" s="6" t="s">
         <v>858</v>
       </c>
@@ -35489,7 +35485,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="682" spans="1:16" ht="38" hidden="1">
+    <row r="682" spans="1:16" ht="30">
       <c r="A682" s="6" t="s">
         <v>859</v>
       </c>
@@ -35523,7 +35519,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="683" spans="1:16" ht="38" hidden="1">
+    <row r="683" spans="1:16" ht="30">
       <c r="A683" s="6" t="s">
         <v>860</v>
       </c>
@@ -35557,7 +35553,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="684" spans="1:16" ht="38" hidden="1">
+    <row r="684" spans="1:16" ht="30">
       <c r="A684" s="6" t="s">
         <v>861</v>
       </c>
@@ -35591,7 +35587,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="685" spans="1:16" ht="38" hidden="1">
+    <row r="685" spans="1:16" ht="30">
       <c r="A685" s="6" t="s">
         <v>862</v>
       </c>
@@ -35625,7 +35621,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="686" spans="1:16" ht="38" hidden="1">
+    <row r="686" spans="1:16" ht="30">
       <c r="A686" s="6" t="s">
         <v>863</v>
       </c>
@@ -35659,7 +35655,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="687" spans="1:16" ht="38" hidden="1">
+    <row r="687" spans="1:16" ht="30">
       <c r="A687" s="6" t="s">
         <v>864</v>
       </c>
@@ -35693,7 +35689,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="688" spans="1:16" ht="38" hidden="1">
+    <row r="688" spans="1:16" ht="30">
       <c r="A688" s="6" t="s">
         <v>865</v>
       </c>
@@ -35727,7 +35723,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="689" spans="1:16" ht="19" hidden="1">
+    <row r="689" spans="1:16" ht="15">
       <c r="A689" s="6" t="s">
         <v>866</v>
       </c>
@@ -35761,7 +35757,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="690" spans="1:16" ht="19" hidden="1">
+    <row r="690" spans="1:16" ht="15">
       <c r="A690" s="6" t="s">
         <v>867</v>
       </c>
@@ -35795,7 +35791,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="691" spans="1:16" ht="19" hidden="1">
+    <row r="691" spans="1:16" ht="15">
       <c r="A691" s="6" t="s">
         <v>868</v>
       </c>
@@ -35829,7 +35825,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="692" spans="1:16" ht="38" hidden="1">
+    <row r="692" spans="1:16" ht="30">
       <c r="A692" s="6" t="s">
         <v>869</v>
       </c>
@@ -35863,7 +35859,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="693" spans="1:16" ht="19" hidden="1">
+    <row r="693" spans="1:16" ht="15">
       <c r="A693" s="6" t="s">
         <v>870</v>
       </c>
@@ -35897,7 +35893,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="694" spans="1:16" ht="38" hidden="1">
+    <row r="694" spans="1:16" ht="30">
       <c r="A694" s="6" t="s">
         <v>871</v>
       </c>
@@ -35931,7 +35927,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="695" spans="1:16" ht="19" hidden="1">
+    <row r="695" spans="1:16" ht="15">
       <c r="A695" s="6" t="s">
         <v>872</v>
       </c>
@@ -35965,7 +35961,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="696" spans="1:16" ht="19" hidden="1">
+    <row r="696" spans="1:16" ht="15">
       <c r="A696" s="6" t="s">
         <v>873</v>
       </c>
@@ -35999,7 +35995,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="697" spans="1:16" ht="19" hidden="1">
+    <row r="697" spans="1:16" ht="15">
       <c r="A697" s="6" t="s">
         <v>874</v>
       </c>
@@ -36033,7 +36029,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="698" spans="1:16" ht="19" hidden="1">
+    <row r="698" spans="1:16" ht="15">
       <c r="A698" s="6" t="s">
         <v>875</v>
       </c>
@@ -36067,7 +36063,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="699" spans="1:16" ht="19" hidden="1">
+    <row r="699" spans="1:16" ht="15">
       <c r="A699" s="6" t="s">
         <v>876</v>
       </c>
@@ -36101,7 +36097,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="700" spans="1:16" ht="19" hidden="1">
+    <row r="700" spans="1:16" ht="15">
       <c r="A700" s="6" t="s">
         <v>877</v>
       </c>
@@ -36135,7 +36131,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="701" spans="1:16" ht="19" hidden="1">
+    <row r="701" spans="1:16" ht="15">
       <c r="A701" s="6" t="s">
         <v>878</v>
       </c>
@@ -36169,7 +36165,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="702" spans="1:16" ht="38" hidden="1">
+    <row r="702" spans="1:16" ht="30">
       <c r="A702" s="6" t="s">
         <v>879</v>
       </c>
@@ -36203,7 +36199,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="703" spans="1:16" ht="19" hidden="1">
+    <row r="703" spans="1:16" ht="15">
       <c r="A703" s="6" t="s">
         <v>880</v>
       </c>
@@ -36237,7 +36233,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="704" spans="1:16" ht="38" hidden="1">
+    <row r="704" spans="1:16" ht="30">
       <c r="A704" s="6" t="s">
         <v>881</v>
       </c>
@@ -36271,7 +36267,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="705" spans="1:16" ht="19" hidden="1">
+    <row r="705" spans="1:16" ht="15">
       <c r="A705" s="6" t="s">
         <v>882</v>
       </c>
@@ -36305,7 +36301,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="706" spans="1:16" ht="19" hidden="1">
+    <row r="706" spans="1:16" ht="15">
       <c r="A706" s="6" t="s">
         <v>883</v>
       </c>
@@ -36339,7 +36335,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="707" spans="1:16" ht="19" hidden="1">
+    <row r="707" spans="1:16" ht="15">
       <c r="A707" s="6" t="s">
         <v>884</v>
       </c>
@@ -36373,7 +36369,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="708" spans="1:16" ht="19" hidden="1">
+    <row r="708" spans="1:16" ht="15">
       <c r="A708" s="6" t="s">
         <v>885</v>
       </c>
@@ -36407,7 +36403,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="709" spans="1:16" ht="19" hidden="1">
+    <row r="709" spans="1:16" ht="15">
       <c r="A709" s="6" t="s">
         <v>886</v>
       </c>
@@ -36441,7 +36437,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="710" spans="1:16" ht="19" hidden="1">
+    <row r="710" spans="1:16" ht="15">
       <c r="A710" s="6" t="s">
         <v>887</v>
       </c>
@@ -36475,7 +36471,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="711" spans="1:16" ht="19" hidden="1">
+    <row r="711" spans="1:16" ht="15">
       <c r="A711" s="6" t="s">
         <v>888</v>
       </c>
@@ -36509,7 +36505,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="712" spans="1:16" ht="38" hidden="1">
+    <row r="712" spans="1:16" ht="30">
       <c r="A712" s="6" t="s">
         <v>889</v>
       </c>
@@ -36543,7 +36539,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="713" spans="1:16" ht="19" hidden="1">
+    <row r="713" spans="1:16" ht="15">
       <c r="A713" s="6" t="s">
         <v>890</v>
       </c>
@@ -36577,7 +36573,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="714" spans="1:16" ht="38" hidden="1">
+    <row r="714" spans="1:16" ht="30">
       <c r="A714" s="6" t="s">
         <v>891</v>
       </c>
@@ -36611,7 +36607,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="715" spans="1:16" ht="19" hidden="1">
+    <row r="715" spans="1:16" ht="15">
       <c r="A715" s="6" t="s">
         <v>892</v>
       </c>
@@ -36645,7 +36641,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="716" spans="1:16" ht="19" hidden="1">
+    <row r="716" spans="1:16" ht="15">
       <c r="A716" s="6" t="s">
         <v>893</v>
       </c>
@@ -36679,7 +36675,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="717" spans="1:16" ht="19" hidden="1">
+    <row r="717" spans="1:16" ht="15">
       <c r="A717" s="6" t="s">
         <v>894</v>
       </c>
@@ -36713,7 +36709,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="718" spans="1:16" ht="19" hidden="1">
+    <row r="718" spans="1:16" ht="15">
       <c r="A718" s="6" t="s">
         <v>895</v>
       </c>
@@ -36747,7 +36743,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="719" spans="1:16" ht="38" hidden="1">
+    <row r="719" spans="1:16" ht="30">
       <c r="A719" s="6" t="s">
         <v>896</v>
       </c>
@@ -36781,7 +36777,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="720" spans="1:16" ht="38" hidden="1">
+    <row r="720" spans="1:16" ht="30">
       <c r="A720" s="6" t="s">
         <v>897</v>
       </c>
@@ -36815,7 +36811,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="721" spans="1:16" ht="38" hidden="1">
+    <row r="721" spans="1:16" ht="30">
       <c r="A721" s="6" t="s">
         <v>898</v>
       </c>
@@ -36849,7 +36845,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="722" spans="1:16" ht="38" hidden="1">
+    <row r="722" spans="1:16" ht="30">
       <c r="A722" s="6" t="s">
         <v>899</v>
       </c>
@@ -36883,7 +36879,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="723" spans="1:16" ht="38" hidden="1">
+    <row r="723" spans="1:16" ht="30">
       <c r="A723" s="6" t="s">
         <v>900</v>
       </c>
@@ -36917,7 +36913,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="724" spans="1:16" ht="38" hidden="1">
+    <row r="724" spans="1:16" ht="30">
       <c r="A724" s="6" t="s">
         <v>901</v>
       </c>
@@ -36951,7 +36947,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="725" spans="1:16" ht="38" hidden="1">
+    <row r="725" spans="1:16" ht="30">
       <c r="A725" s="6" t="s">
         <v>902</v>
       </c>
@@ -36985,7 +36981,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="726" spans="1:16" ht="38" hidden="1">
+    <row r="726" spans="1:16" ht="30">
       <c r="A726" s="6" t="s">
         <v>903</v>
       </c>
@@ -37019,7 +37015,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="727" spans="1:16" ht="38" hidden="1">
+    <row r="727" spans="1:16" ht="30">
       <c r="A727" s="6" t="s">
         <v>904</v>
       </c>
@@ -37053,7 +37049,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="728" spans="1:16" ht="38" hidden="1">
+    <row r="728" spans="1:16" ht="30">
       <c r="A728" s="6" t="s">
         <v>905</v>
       </c>
@@ -37087,7 +37083,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="729" spans="1:16" ht="19" hidden="1">
+    <row r="729" spans="1:16" ht="15">
       <c r="A729" s="6" t="s">
         <v>906</v>
       </c>
@@ -37121,7 +37117,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="730" spans="1:16" ht="19" hidden="1">
+    <row r="730" spans="1:16" ht="15">
       <c r="A730" s="6" t="s">
         <v>907</v>
       </c>
@@ -37155,7 +37151,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="731" spans="1:16" ht="19" hidden="1">
+    <row r="731" spans="1:16" ht="15">
       <c r="A731" s="6" t="s">
         <v>908</v>
       </c>
@@ -37189,7 +37185,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="732" spans="1:16" ht="38" hidden="1">
+    <row r="732" spans="1:16" ht="30">
       <c r="A732" s="6" t="s">
         <v>909</v>
       </c>
@@ -37223,7 +37219,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="733" spans="1:16" ht="19" hidden="1">
+    <row r="733" spans="1:16" ht="15">
       <c r="A733" s="6" t="s">
         <v>910</v>
       </c>
@@ -37257,7 +37253,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="734" spans="1:16" ht="38" hidden="1">
+    <row r="734" spans="1:16" ht="30">
       <c r="A734" s="6" t="s">
         <v>911</v>
       </c>
@@ -37291,7 +37287,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="735" spans="1:16" ht="19" hidden="1">
+    <row r="735" spans="1:16" ht="15">
       <c r="A735" s="6" t="s">
         <v>912</v>
       </c>
@@ -37325,7 +37321,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="736" spans="1:16" ht="19" hidden="1">
+    <row r="736" spans="1:16" ht="15">
       <c r="A736" s="6" t="s">
         <v>913</v>
       </c>
@@ -37359,7 +37355,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="737" spans="1:16" ht="19" hidden="1">
+    <row r="737" spans="1:16" ht="15">
       <c r="A737" s="6" t="s">
         <v>914</v>
       </c>
@@ -37393,7 +37389,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="738" spans="1:16" ht="19" hidden="1">
+    <row r="738" spans="1:16" ht="15">
       <c r="A738" s="6" t="s">
         <v>915</v>
       </c>
@@ -37427,7 +37423,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="739" spans="1:16" ht="19" hidden="1">
+    <row r="739" spans="1:16" ht="15">
       <c r="A739" s="6" t="s">
         <v>916</v>
       </c>
@@ -37461,7 +37457,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="740" spans="1:16" ht="19" hidden="1">
+    <row r="740" spans="1:16" ht="15">
       <c r="A740" s="6" t="s">
         <v>917</v>
       </c>
@@ -37495,7 +37491,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="741" spans="1:16" ht="19" hidden="1">
+    <row r="741" spans="1:16" ht="15">
       <c r="A741" s="6" t="s">
         <v>918</v>
       </c>
@@ -37529,7 +37525,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="742" spans="1:16" ht="38" hidden="1">
+    <row r="742" spans="1:16" ht="30">
       <c r="A742" s="6" t="s">
         <v>919</v>
       </c>
@@ -37563,7 +37559,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="743" spans="1:16" ht="19" hidden="1">
+    <row r="743" spans="1:16" ht="15">
       <c r="A743" s="6" t="s">
         <v>920</v>
       </c>
@@ -37597,7 +37593,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="744" spans="1:16" ht="38" hidden="1">
+    <row r="744" spans="1:16" ht="30">
       <c r="A744" s="6" t="s">
         <v>921</v>
       </c>
@@ -37631,7 +37627,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="745" spans="1:16" ht="19" hidden="1">
+    <row r="745" spans="1:16" ht="15">
       <c r="A745" s="6" t="s">
         <v>922</v>
       </c>
@@ -37665,7 +37661,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="746" spans="1:16" ht="19" hidden="1">
+    <row r="746" spans="1:16" ht="15">
       <c r="A746" s="6" t="s">
         <v>923</v>
       </c>
@@ -37699,7 +37695,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="747" spans="1:16" ht="19" hidden="1">
+    <row r="747" spans="1:16" ht="15">
       <c r="A747" s="6" t="s">
         <v>924</v>
       </c>
@@ -37733,7 +37729,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="748" spans="1:16" ht="19" hidden="1">
+    <row r="748" spans="1:16" ht="15">
       <c r="A748" s="6" t="s">
         <v>925</v>
       </c>
@@ -37767,7 +37763,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="749" spans="1:16" ht="19" hidden="1">
+    <row r="749" spans="1:16" ht="15">
       <c r="A749" s="6" t="s">
         <v>926</v>
       </c>
@@ -37801,7 +37797,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="750" spans="1:16" ht="19" hidden="1">
+    <row r="750" spans="1:16" ht="15">
       <c r="A750" s="6" t="s">
         <v>927</v>
       </c>
@@ -37835,7 +37831,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="751" spans="1:16" ht="19" hidden="1">
+    <row r="751" spans="1:16" ht="15">
       <c r="A751" s="6" t="s">
         <v>928</v>
       </c>
@@ -37869,7 +37865,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="752" spans="1:16" ht="38" hidden="1">
+    <row r="752" spans="1:16" ht="30">
       <c r="A752" s="6" t="s">
         <v>929</v>
       </c>
@@ -37903,7 +37899,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="753" spans="1:16" ht="19" hidden="1">
+    <row r="753" spans="1:16" ht="15">
       <c r="A753" s="6" t="s">
         <v>930</v>
       </c>
@@ -37937,7 +37933,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="754" spans="1:16" ht="38" hidden="1">
+    <row r="754" spans="1:16" ht="30">
       <c r="A754" s="6" t="s">
         <v>931</v>
       </c>
@@ -37971,7 +37967,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="755" spans="1:16" ht="19" hidden="1">
+    <row r="755" spans="1:16" ht="15">
       <c r="A755" s="6" t="s">
         <v>932</v>
       </c>
@@ -38005,7 +38001,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="756" spans="1:16" ht="19" hidden="1">
+    <row r="756" spans="1:16" ht="15">
       <c r="A756" s="6" t="s">
         <v>933</v>
       </c>
@@ -38039,7 +38035,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="757" spans="1:16" ht="19" hidden="1">
+    <row r="757" spans="1:16" ht="15">
       <c r="A757" s="6" t="s">
         <v>934</v>
       </c>
@@ -38073,7 +38069,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="758" spans="1:16" ht="19" hidden="1">
+    <row r="758" spans="1:16" ht="15">
       <c r="A758" s="6" t="s">
         <v>935</v>
       </c>
@@ -38107,7 +38103,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="759" spans="1:16" ht="38" hidden="1">
+    <row r="759" spans="1:16" ht="30">
       <c r="A759" s="6" t="s">
         <v>936</v>
       </c>
@@ -38141,7 +38137,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="760" spans="1:16" ht="38" hidden="1">
+    <row r="760" spans="1:16" ht="30">
       <c r="A760" s="6" t="s">
         <v>937</v>
       </c>
@@ -38175,7 +38171,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="761" spans="1:16" ht="38" hidden="1">
+    <row r="761" spans="1:16" ht="30">
       <c r="A761" s="6" t="s">
         <v>938</v>
       </c>
@@ -38209,7 +38205,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="762" spans="1:16" ht="38" hidden="1">
+    <row r="762" spans="1:16" ht="30">
       <c r="A762" s="6" t="s">
         <v>11</v>
       </c>
@@ -38243,7 +38239,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="763" spans="1:16" ht="38" hidden="1">
+    <row r="763" spans="1:16" ht="30">
       <c r="A763" s="6" t="s">
         <v>12</v>
       </c>
@@ -38277,7 +38273,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="764" spans="1:16" ht="38" hidden="1">
+    <row r="764" spans="1:16" ht="30">
       <c r="A764" s="6" t="s">
         <v>13</v>
       </c>
@@ -38311,7 +38307,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="765" spans="1:16" ht="38" hidden="1">
+    <row r="765" spans="1:16" ht="30">
       <c r="A765" s="6" t="s">
         <v>14</v>
       </c>
@@ -38345,7 +38341,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="766" spans="1:16" ht="38" hidden="1">
+    <row r="766" spans="1:16" ht="30">
       <c r="A766" s="6" t="s">
         <v>15</v>
       </c>
@@ -38379,7 +38375,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="767" spans="1:16" ht="38" hidden="1">
+    <row r="767" spans="1:16" ht="30">
       <c r="A767" s="6" t="s">
         <v>16</v>
       </c>
@@ -38413,7 +38409,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="768" spans="1:16" ht="38" hidden="1">
+    <row r="768" spans="1:16" ht="30">
       <c r="A768" s="6" t="s">
         <v>17</v>
       </c>
@@ -38447,7 +38443,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="769" spans="1:16" ht="19" hidden="1">
+    <row r="769" spans="1:16" ht="15">
       <c r="A769" s="6" t="s">
         <v>18</v>
       </c>
@@ -38481,7 +38477,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="770" spans="1:16" ht="19" hidden="1">
+    <row r="770" spans="1:16" ht="15">
       <c r="A770" s="6" t="s">
         <v>19</v>
       </c>
@@ -38515,7 +38511,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="771" spans="1:16" ht="19" hidden="1">
+    <row r="771" spans="1:16" ht="15">
       <c r="A771" s="6" t="s">
         <v>20</v>
       </c>
@@ -38549,7 +38545,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="772" spans="1:16" ht="38" hidden="1">
+    <row r="772" spans="1:16" ht="30">
       <c r="A772" s="6" t="s">
         <v>21</v>
       </c>
@@ -38583,7 +38579,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="773" spans="1:16" ht="19" hidden="1">
+    <row r="773" spans="1:16" ht="15">
       <c r="A773" s="6" t="s">
         <v>22</v>
       </c>
@@ -38617,7 +38613,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="774" spans="1:16" ht="19" hidden="1">
+    <row r="774" spans="1:16" ht="15">
       <c r="A774" s="6" t="s">
         <v>23</v>
       </c>
@@ -38651,7 +38647,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="775" spans="1:16" ht="19" hidden="1">
+    <row r="775" spans="1:16" ht="15">
       <c r="A775" s="6" t="s">
         <v>24</v>
       </c>
@@ -38685,7 +38681,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="776" spans="1:16" ht="38" hidden="1">
+    <row r="776" spans="1:16" ht="30">
       <c r="A776" s="6" t="s">
         <v>25</v>
       </c>
@@ -38719,7 +38715,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="777" spans="1:16" ht="19" hidden="1">
+    <row r="777" spans="1:16" ht="15">
       <c r="A777" s="6" t="s">
         <v>26</v>
       </c>
@@ -38753,7 +38749,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="778" spans="1:16" ht="19" hidden="1">
+    <row r="778" spans="1:16" ht="15">
       <c r="A778" s="6" t="s">
         <v>27</v>
       </c>
@@ -38787,7 +38783,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="779" spans="1:16" ht="19" hidden="1">
+    <row r="779" spans="1:16" ht="15">
       <c r="A779" s="6" t="s">
         <v>28</v>
       </c>
@@ -38821,7 +38817,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="780" spans="1:16" ht="38" hidden="1">
+    <row r="780" spans="1:16" ht="30">
       <c r="A780" s="6" t="s">
         <v>29</v>
       </c>
@@ -38855,7 +38851,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="781" spans="1:16" ht="19" hidden="1">
+    <row r="781" spans="1:16" ht="15">
       <c r="A781" s="6" t="s">
         <v>30</v>
       </c>
@@ -38889,7 +38885,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="782" spans="1:16" ht="19" hidden="1">
+    <row r="782" spans="1:16" ht="15">
       <c r="A782" s="6" t="s">
         <v>31</v>
       </c>
@@ -38923,7 +38919,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="783" spans="1:16" ht="19" hidden="1">
+    <row r="783" spans="1:16" ht="15">
       <c r="A783" s="6" t="s">
         <v>32</v>
       </c>
@@ -38957,7 +38953,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="784" spans="1:16" ht="38" hidden="1">
+    <row r="784" spans="1:16" ht="30">
       <c r="A784" s="6" t="s">
         <v>33</v>
       </c>
@@ -38991,7 +38987,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="785" spans="1:16" ht="19" hidden="1">
+    <row r="785" spans="1:16" ht="15">
       <c r="A785" s="6" t="s">
         <v>34</v>
       </c>
@@ -39025,7 +39021,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="786" spans="1:16" ht="19" hidden="1">
+    <row r="786" spans="1:16" ht="15">
       <c r="A786" s="6" t="s">
         <v>35</v>
       </c>
@@ -39059,7 +39055,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="787" spans="1:16" ht="19" hidden="1">
+    <row r="787" spans="1:16" ht="15">
       <c r="A787" s="6" t="s">
         <v>36</v>
       </c>
@@ -39093,7 +39089,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="788" spans="1:16" ht="38" hidden="1">
+    <row r="788" spans="1:16" ht="30">
       <c r="A788" s="6" t="s">
         <v>37</v>
       </c>
@@ -39127,7 +39123,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="789" spans="1:16" ht="19" hidden="1">
+    <row r="789" spans="1:16" ht="15">
       <c r="A789" s="6" t="s">
         <v>38</v>
       </c>
@@ -39159,7 +39155,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="790" spans="1:16" ht="19" hidden="1">
+    <row r="790" spans="1:16" ht="15">
       <c r="A790" s="6" t="s">
         <v>39</v>
       </c>
@@ -39191,7 +39187,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="791" spans="1:16" ht="19" hidden="1">
+    <row r="791" spans="1:16" ht="15">
       <c r="A791" s="6" t="s">
         <v>40</v>
       </c>
@@ -39223,7 +39219,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="792" spans="1:16" ht="38" hidden="1">
+    <row r="792" spans="1:16" ht="30">
       <c r="A792" s="6" t="s">
         <v>41</v>
       </c>
@@ -39255,7 +39251,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="793" spans="1:16" ht="19">
+    <row r="793" spans="1:16" ht="15">
       <c r="A793" s="6" t="s">
         <v>42</v>
       </c>
@@ -39291,7 +39287,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="794" spans="1:16" ht="19">
+    <row r="794" spans="1:16" ht="15">
       <c r="A794" s="6" t="s">
         <v>43</v>
       </c>
@@ -39327,7 +39323,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="795" spans="1:16" ht="19">
+    <row r="795" spans="1:16" ht="15">
       <c r="A795" s="6" t="s">
         <v>44</v>
       </c>
@@ -39363,7 +39359,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="796" spans="1:16" ht="38">
+    <row r="796" spans="1:16" ht="30">
       <c r="A796" s="6" t="s">
         <v>45</v>
       </c>
@@ -39399,7 +39395,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="797" spans="1:16" ht="19">
+    <row r="797" spans="1:16" ht="15">
       <c r="A797" s="6" t="s">
         <v>46</v>
       </c>
@@ -39435,7 +39431,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="798" spans="1:16" ht="19">
+    <row r="798" spans="1:16" ht="15">
       <c r="A798" s="6" t="s">
         <v>47</v>
       </c>
@@ -39471,7 +39467,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="799" spans="1:16" ht="19">
+    <row r="799" spans="1:16" ht="15">
       <c r="A799" s="6" t="s">
         <v>48</v>
       </c>
@@ -39507,7 +39503,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="800" spans="1:16" ht="38">
+    <row r="800" spans="1:16" ht="30">
       <c r="A800" s="6" t="s">
         <v>49</v>
       </c>
@@ -39543,7 +39539,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="801" spans="1:16" ht="19">
+    <row r="801" spans="1:16" ht="15">
       <c r="A801" s="6" t="s">
         <v>50</v>
       </c>
@@ -39579,7 +39575,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="802" spans="1:16" ht="19">
+    <row r="802" spans="1:16" ht="15">
       <c r="A802" s="6" t="s">
         <v>51</v>
       </c>
@@ -39615,7 +39611,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="803" spans="1:16" ht="19">
+    <row r="803" spans="1:16" ht="15">
       <c r="A803" s="6" t="s">
         <v>52</v>
       </c>
@@ -39651,7 +39647,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="804" spans="1:16" ht="38">
+    <row r="804" spans="1:16" ht="30">
       <c r="A804" s="6" t="s">
         <v>53</v>
       </c>
@@ -39687,7 +39683,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="805" spans="1:16" ht="19" hidden="1">
+    <row r="805" spans="1:16" ht="15">
       <c r="A805" s="6" t="s">
         <v>54</v>
       </c>
@@ -39723,7 +39719,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="806" spans="1:16" ht="19" hidden="1">
+    <row r="806" spans="1:16" ht="15">
       <c r="A806" s="6" t="s">
         <v>55</v>
       </c>
@@ -39759,7 +39755,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="807" spans="1:16" ht="19" hidden="1">
+    <row r="807" spans="1:16" ht="15">
       <c r="A807" s="6" t="s">
         <v>56</v>
       </c>
@@ -39793,7 +39789,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="808" spans="1:16" ht="19" hidden="1">
+    <row r="808" spans="1:16" ht="15">
       <c r="A808" s="6" t="s">
         <v>57</v>
       </c>
@@ -39827,7 +39823,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="809" spans="1:16" ht="19" hidden="1">
+    <row r="809" spans="1:16" ht="15">
       <c r="A809" s="6" t="s">
         <v>58</v>
       </c>
@@ -39861,7 +39857,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="810" spans="1:16" ht="38" hidden="1">
+    <row r="810" spans="1:16" ht="30">
       <c r="A810" s="6" t="s">
         <v>59</v>
       </c>
@@ -39895,7 +39891,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="811" spans="1:16" ht="19" hidden="1">
+    <row r="811" spans="1:16" ht="15">
       <c r="A811" s="6" t="s">
         <v>60</v>
       </c>
@@ -39929,7 +39925,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="812" spans="1:16" ht="19" hidden="1">
+    <row r="812" spans="1:16" ht="15">
       <c r="A812" s="6" t="s">
         <v>61</v>
       </c>
@@ -39963,7 +39959,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="813" spans="1:16" ht="38" hidden="1">
+    <row r="813" spans="1:16" ht="30">
       <c r="A813" s="6" t="s">
         <v>62</v>
       </c>
@@ -39997,7 +39993,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="814" spans="1:16" ht="19" hidden="1">
+    <row r="814" spans="1:16" ht="15">
       <c r="A814" s="6" t="s">
         <v>63</v>
       </c>
@@ -40031,7 +40027,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="815" spans="1:16" ht="38" hidden="1">
+    <row r="815" spans="1:16" ht="30">
       <c r="A815" s="6" t="s">
         <v>64</v>
       </c>
@@ -40065,7 +40061,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="816" spans="1:16" ht="19" hidden="1">
+    <row r="816" spans="1:16" ht="15">
       <c r="A816" s="6" t="s">
         <v>65</v>
       </c>
@@ -40099,7 +40095,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="817" spans="1:16" ht="19" hidden="1">
+    <row r="817" spans="1:16" ht="15">
       <c r="A817" s="6" t="s">
         <v>66</v>
       </c>
@@ -40134,7 +40130,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="818" spans="1:16" ht="38" hidden="1">
+    <row r="818" spans="1:16" ht="30">
       <c r="A818" s="6" t="s">
         <v>67</v>
       </c>
@@ -40168,7 +40164,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="819" spans="1:16" ht="19" hidden="1">
+    <row r="819" spans="1:16" ht="15">
       <c r="A819" s="6" t="s">
         <v>68</v>
       </c>
@@ -40202,7 +40198,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="820" spans="1:16" ht="38" hidden="1">
+    <row r="820" spans="1:16" ht="30">
       <c r="A820" s="6" t="s">
         <v>69</v>
       </c>
@@ -40236,7 +40232,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="821" spans="1:16" ht="304" hidden="1">
+    <row r="821" spans="1:16" ht="240">
       <c r="A821" s="6" t="s">
         <v>70</v>
       </c>
@@ -40273,7 +40269,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="822" spans="1:16" ht="38" hidden="1">
+    <row r="822" spans="1:16" ht="30">
       <c r="A822" s="6" t="s">
         <v>71</v>
       </c>
@@ -40307,7 +40303,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="823" spans="1:16" ht="19" hidden="1">
+    <row r="823" spans="1:16" ht="15">
       <c r="A823" s="6" t="s">
         <v>72</v>
       </c>
@@ -40341,7 +40337,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="824" spans="1:16" ht="38" hidden="1">
+    <row r="824" spans="1:16" ht="30">
       <c r="A824" s="6" t="s">
         <v>73</v>
       </c>
@@ -40375,7 +40371,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="825" spans="1:16" ht="19" hidden="1">
+    <row r="825" spans="1:16" ht="15">
       <c r="A825" s="6" t="s">
         <v>74</v>
       </c>
@@ -40405,7 +40401,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="826" spans="1:16" ht="38" hidden="1">
+    <row r="826" spans="1:16" ht="30">
       <c r="A826" s="6" t="s">
         <v>75</v>
       </c>
@@ -40435,7 +40431,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="827" spans="1:16" ht="19" hidden="1">
+    <row r="827" spans="1:16" ht="15">
       <c r="A827" s="6" t="s">
         <v>76</v>
       </c>
@@ -40470,7 +40466,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="828" spans="1:16" ht="19" hidden="1">
+    <row r="828" spans="1:16" ht="15">
       <c r="A828" s="6" t="s">
         <v>77</v>
       </c>
@@ -40502,7 +40498,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="829" spans="1:16" ht="38" hidden="1">
+    <row r="829" spans="1:16" ht="30">
       <c r="A829" s="6" t="s">
         <v>78</v>
       </c>
@@ -40534,7 +40530,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="830" spans="1:16" ht="19" hidden="1">
+    <row r="830" spans="1:16" ht="15">
       <c r="A830" s="6" t="s">
         <v>79</v>
       </c>
@@ -40566,7 +40562,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="831" spans="1:16" ht="19" hidden="1">
+    <row r="831" spans="1:16" ht="15">
       <c r="A831" s="6" t="s">
         <v>80</v>
       </c>
@@ -40598,7 +40594,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="832" spans="1:16" ht="38" hidden="1">
+    <row r="832" spans="1:16" ht="30">
       <c r="A832" s="6" t="s">
         <v>81</v>
       </c>
@@ -40630,7 +40626,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="833" spans="1:16" ht="19" hidden="1">
+    <row r="833" spans="1:16" ht="15">
       <c r="A833" s="6" t="s">
         <v>82</v>
       </c>
@@ -40662,7 +40658,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="834" spans="1:16" ht="19" hidden="1">
+    <row r="834" spans="1:16" ht="15">
       <c r="A834" s="6" t="s">
         <v>83</v>
       </c>
@@ -40694,7 +40690,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="835" spans="1:16" ht="38" hidden="1">
+    <row r="835" spans="1:16" ht="30">
       <c r="A835" s="6" t="s">
         <v>84</v>
       </c>
@@ -40726,7 +40722,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="836" spans="1:16" ht="19" hidden="1">
+    <row r="836" spans="1:16" ht="15">
       <c r="A836" s="21" t="s">
         <v>1251</v>
       </c>
@@ -40756,7 +40752,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="837" spans="1:16" ht="19" hidden="1">
+    <row r="837" spans="1:16" ht="15">
       <c r="A837" s="21" t="s">
         <v>1252</v>
       </c>
@@ -40786,7 +40782,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="838" spans="1:16" ht="38" hidden="1">
+    <row r="838" spans="1:16" ht="30">
       <c r="A838" s="21" t="s">
         <v>1253</v>
       </c>
@@ -40816,7 +40812,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="839" spans="1:16" ht="38" hidden="1">
+    <row r="839" spans="1:16" ht="30">
       <c r="A839" s="6" t="s">
         <v>88</v>
       </c>
@@ -40848,7 +40844,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="840" spans="1:16" ht="38" hidden="1">
+    <row r="840" spans="1:16" ht="30">
       <c r="A840" s="6" t="s">
         <v>89</v>
       </c>
@@ -40880,7 +40876,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="841" spans="1:16" ht="19" hidden="1">
+    <row r="841" spans="1:16" ht="15">
       <c r="A841" s="6" t="s">
         <v>90</v>
       </c>
@@ -40912,7 +40908,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="842" spans="1:16" ht="19" hidden="1">
+    <row r="842" spans="1:16" ht="15">
       <c r="A842" s="6" t="s">
         <v>91</v>
       </c>
@@ -40944,7 +40940,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="843" spans="1:16" ht="19" hidden="1">
+    <row r="843" spans="1:16" ht="15">
       <c r="A843" s="6" t="s">
         <v>92</v>
       </c>
@@ -40976,7 +40972,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="844" spans="1:16" ht="19" hidden="1">
+    <row r="844" spans="1:16" ht="15">
       <c r="A844" s="6" t="s">
         <v>93</v>
       </c>
@@ -41008,7 +41004,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="845" spans="1:16" ht="19" hidden="1">
+    <row r="845" spans="1:16" ht="15">
       <c r="A845" s="6" t="s">
         <v>94</v>
       </c>
@@ -41045,7 +41041,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="846" spans="1:16" ht="19" hidden="1">
+    <row r="846" spans="1:16" ht="15">
       <c r="A846" s="6" t="s">
         <v>95</v>
       </c>
@@ -41079,7 +41075,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="847" spans="1:16" ht="38" hidden="1">
+    <row r="847" spans="1:16" ht="30">
       <c r="A847" s="6" t="s">
         <v>96</v>
       </c>
@@ -41113,7 +41109,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="848" spans="1:16" ht="19" hidden="1">
+    <row r="848" spans="1:16" ht="15">
       <c r="A848" s="6" t="s">
         <v>97</v>
       </c>
@@ -41147,7 +41143,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="849" spans="1:16" ht="19" hidden="1">
+    <row r="849" spans="1:16" ht="15">
       <c r="A849" s="6" t="s">
         <v>98</v>
       </c>
@@ -41181,7 +41177,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="850" spans="1:16" ht="38" hidden="1">
+    <row r="850" spans="1:16" ht="30">
       <c r="A850" s="6" t="s">
         <v>99</v>
       </c>
@@ -41215,7 +41211,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="851" spans="1:16" ht="19" hidden="1">
+    <row r="851" spans="1:16" ht="15">
       <c r="A851" s="6" t="s">
         <v>100</v>
       </c>
@@ -41249,7 +41245,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="852" spans="1:16" ht="19" hidden="1">
+    <row r="852" spans="1:16" ht="15">
       <c r="A852" s="6" t="s">
         <v>101</v>
       </c>
@@ -41283,7 +41279,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="853" spans="1:16" ht="38" hidden="1">
+    <row r="853" spans="1:16" ht="30">
       <c r="A853" s="6" t="s">
         <v>102</v>
       </c>
@@ -41317,7 +41313,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="854" spans="1:16" ht="19" hidden="1">
+    <row r="854" spans="1:16" ht="15">
       <c r="A854" s="6" t="s">
         <v>103</v>
       </c>
@@ -41351,7 +41347,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="855" spans="1:16" ht="19" hidden="1">
+    <row r="855" spans="1:16" ht="15">
       <c r="A855" s="6" t="s">
         <v>104</v>
       </c>
@@ -41385,7 +41381,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="856" spans="1:16" ht="38" hidden="1">
+    <row r="856" spans="1:16" ht="30">
       <c r="A856" s="6" t="s">
         <v>105</v>
       </c>
@@ -41419,7 +41415,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="857" spans="1:16" ht="19" hidden="1">
+    <row r="857" spans="1:16" ht="15">
       <c r="A857" s="6" t="s">
         <v>106</v>
       </c>
@@ -41453,7 +41449,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="858" spans="1:16" ht="19" hidden="1">
+    <row r="858" spans="1:16" ht="15">
       <c r="A858" s="6" t="s">
         <v>107</v>
       </c>
@@ -41487,7 +41483,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="859" spans="1:16" ht="38" hidden="1">
+    <row r="859" spans="1:16" ht="30">
       <c r="A859" s="6" t="s">
         <v>108</v>
       </c>
@@ -41521,7 +41517,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="860" spans="1:16" ht="19" hidden="1">
+    <row r="860" spans="1:16" ht="15">
       <c r="A860" s="6" t="s">
         <v>109</v>
       </c>
@@ -41555,7 +41551,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="861" spans="1:16" ht="19" hidden="1">
+    <row r="861" spans="1:16" ht="15">
       <c r="A861" s="6" t="s">
         <v>110</v>
       </c>
@@ -41589,7 +41585,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="862" spans="1:16" ht="38" hidden="1">
+    <row r="862" spans="1:16" ht="30">
       <c r="A862" s="6" t="s">
         <v>111</v>
       </c>
@@ -41623,7 +41619,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="863" spans="1:16" ht="19" hidden="1">
+    <row r="863" spans="1:16" ht="15">
       <c r="A863" s="21" t="s">
         <v>1259</v>
       </c>
@@ -41653,7 +41649,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="864" spans="1:16" ht="19" hidden="1">
+    <row r="864" spans="1:16" ht="15">
       <c r="A864" s="21" t="s">
         <v>1260</v>
       </c>
@@ -41683,7 +41679,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="865" spans="1:16" ht="38" hidden="1">
+    <row r="865" spans="1:16" ht="30">
       <c r="A865" s="21" t="s">
         <v>1261</v>
       </c>
@@ -41713,7 +41709,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="866" spans="1:16" ht="38" hidden="1">
+    <row r="866" spans="1:16" ht="30">
       <c r="A866" s="6" t="s">
         <v>115</v>
       </c>
@@ -41745,7 +41741,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="867" spans="1:16" ht="19" hidden="1">
+    <row r="867" spans="1:16" ht="15">
       <c r="A867" s="6" t="s">
         <v>116</v>
       </c>
@@ -41777,7 +41773,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="868" spans="1:16" ht="19" hidden="1">
+    <row r="868" spans="1:16" ht="15">
       <c r="A868" s="6" t="s">
         <v>117</v>
       </c>
@@ -41809,7 +41805,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="869" spans="1:16" ht="38" hidden="1">
+    <row r="869" spans="1:16" ht="30">
       <c r="A869" s="6" t="s">
         <v>118</v>
       </c>
@@ -41841,7 +41837,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="870" spans="1:16" ht="19" hidden="1">
+    <row r="870" spans="1:16" ht="15">
       <c r="A870" s="6" t="s">
         <v>119</v>
       </c>
@@ -41873,7 +41869,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="871" spans="1:16" ht="19" hidden="1">
+    <row r="871" spans="1:16" ht="15">
       <c r="A871" s="6" t="s">
         <v>120</v>
       </c>
@@ -41905,7 +41901,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="872" spans="1:16" ht="38" hidden="1">
+    <row r="872" spans="1:16" ht="30">
       <c r="A872" s="22" t="s">
         <v>1265</v>
       </c>
@@ -41942,7 +41938,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="873" spans="1:16" ht="38" hidden="1">
+    <row r="873" spans="1:16" ht="30">
       <c r="A873" s="22" t="s">
         <v>1266</v>
       </c>
@@ -41979,7 +41975,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="874" spans="1:16" ht="38" hidden="1">
+    <row r="874" spans="1:16" ht="30">
       <c r="A874" s="22" t="s">
         <v>1267</v>
       </c>
@@ -42016,7 +42012,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="875" spans="1:16" ht="38" hidden="1">
+    <row r="875" spans="1:16" ht="30">
       <c r="A875" s="22" t="s">
         <v>1268</v>
       </c>
@@ -42053,7 +42049,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="876" spans="1:16" ht="38" hidden="1">
+    <row r="876" spans="1:16" ht="30">
       <c r="A876" s="22" t="s">
         <v>1269</v>
       </c>
@@ -42090,7 +42086,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="877" spans="1:16" ht="38" hidden="1">
+    <row r="877" spans="1:16" ht="30">
       <c r="A877" s="22" t="s">
         <v>1270</v>
       </c>
@@ -42127,7 +42123,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="878" spans="1:16" ht="38" hidden="1">
+    <row r="878" spans="1:16" ht="30">
       <c r="A878" s="22" t="s">
         <v>1271</v>
       </c>
@@ -42164,7 +42160,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="879" spans="1:16" ht="38" hidden="1">
+    <row r="879" spans="1:16" ht="30">
       <c r="A879" s="22" t="s">
         <v>1272</v>
       </c>
@@ -42201,7 +42197,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="880" spans="1:16" ht="38" hidden="1">
+    <row r="880" spans="1:16" ht="30">
       <c r="A880" s="22" t="s">
         <v>1273</v>
       </c>
@@ -42238,7 +42234,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="881" spans="1:16" ht="38" hidden="1">
+    <row r="881" spans="1:16" ht="30">
       <c r="A881" s="22" t="s">
         <v>1274</v>
       </c>
@@ -42275,7 +42271,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="882" spans="1:16" ht="38" hidden="1">
+    <row r="882" spans="1:16" ht="30">
       <c r="A882" s="22" t="s">
         <v>1275</v>
       </c>
@@ -42312,7 +42308,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="883" spans="1:16" ht="38" hidden="1">
+    <row r="883" spans="1:16" ht="30">
       <c r="A883" s="22" t="s">
         <v>1277</v>
       </c>
@@ -42349,7 +42345,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="884" spans="1:16" ht="38" hidden="1">
+    <row r="884" spans="1:16" ht="30">
       <c r="A884" s="22" t="s">
         <v>1278</v>
       </c>
@@ -42386,7 +42382,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="885" spans="1:16" ht="38" hidden="1">
+    <row r="885" spans="1:16" ht="30">
       <c r="A885" s="22" t="s">
         <v>1279</v>
       </c>
@@ -42423,7 +42419,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="886" spans="1:16" ht="38" hidden="1">
+    <row r="886" spans="1:16" ht="30">
       <c r="A886" s="22" t="s">
         <v>1280</v>
       </c>
@@ -42460,7 +42456,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="887" spans="1:16" ht="38" hidden="1">
+    <row r="887" spans="1:16" ht="30">
       <c r="A887" s="22" t="s">
         <v>1281</v>
       </c>
@@ -42497,7 +42493,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="888" spans="1:16" ht="38" hidden="1">
+    <row r="888" spans="1:16" ht="30">
       <c r="A888" s="22" t="s">
         <v>1282</v>
       </c>
@@ -42534,7 +42530,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="889" spans="1:16" ht="38" hidden="1">
+    <row r="889" spans="1:16" ht="30">
       <c r="A889" s="22" t="s">
         <v>1283</v>
       </c>
@@ -42571,7 +42567,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="890" spans="1:16" ht="38" hidden="1">
+    <row r="890" spans="1:16" ht="30">
       <c r="A890" s="22" t="s">
         <v>1284</v>
       </c>
@@ -42608,7 +42604,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="891" spans="1:16" ht="38" hidden="1">
+    <row r="891" spans="1:16" ht="30">
       <c r="A891" s="22" t="s">
         <v>1285</v>
       </c>
@@ -42645,7 +42641,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="892" spans="1:16" ht="38" hidden="1">
+    <row r="892" spans="1:16" ht="30">
       <c r="A892" s="22" t="s">
         <v>1286</v>
       </c>
@@ -42682,7 +42678,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="893" spans="1:16" ht="38" hidden="1">
+    <row r="893" spans="1:16" ht="30">
       <c r="A893" s="22" t="s">
         <v>1287</v>
       </c>
@@ -42719,7 +42715,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="894" spans="1:16" ht="38" hidden="1">
+    <row r="894" spans="1:16" ht="30">
       <c r="A894" s="22" t="s">
         <v>1288</v>
       </c>
@@ -42756,7 +42752,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="895" spans="1:16" ht="38" hidden="1">
+    <row r="895" spans="1:16" ht="30">
       <c r="A895" s="22" t="s">
         <v>1289</v>
       </c>
@@ -42793,7 +42789,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="896" spans="1:16" ht="38" hidden="1">
+    <row r="896" spans="1:16" ht="30">
       <c r="A896" s="22" t="s">
         <v>1290</v>
       </c>
@@ -42830,7 +42826,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="897" spans="1:16" ht="38" hidden="1">
+    <row r="897" spans="1:16" ht="30">
       <c r="A897" s="22" t="s">
         <v>1291</v>
       </c>
@@ -42867,7 +42863,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="898" spans="1:16" ht="38" hidden="1">
+    <row r="898" spans="1:16" ht="30">
       <c r="A898" s="22" t="s">
         <v>1292</v>
       </c>
@@ -42904,7 +42900,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="899" spans="1:16" ht="38" hidden="1">
+    <row r="899" spans="1:16" ht="30">
       <c r="A899" s="22" t="s">
         <v>1293</v>
       </c>
@@ -42941,7 +42937,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="900" spans="1:16" ht="38" hidden="1">
+    <row r="900" spans="1:16" ht="30">
       <c r="A900" s="22" t="s">
         <v>1294</v>
       </c>
@@ -42978,7 +42974,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="901" spans="1:16" ht="38" hidden="1">
+    <row r="901" spans="1:16" ht="30">
       <c r="A901" s="22" t="s">
         <v>1295</v>
       </c>
@@ -43015,7 +43011,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="902" spans="1:16" ht="38" hidden="1">
+    <row r="902" spans="1:16" ht="30">
       <c r="A902" s="22" t="s">
         <v>1296</v>
       </c>
@@ -43052,7 +43048,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="903" spans="1:16" ht="38" hidden="1">
+    <row r="903" spans="1:16" ht="30">
       <c r="A903" s="22" t="s">
         <v>1297</v>
       </c>
@@ -43089,7 +43085,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="904" spans="1:16" ht="38" hidden="1">
+    <row r="904" spans="1:16" ht="30">
       <c r="A904" s="22" t="s">
         <v>1301</v>
       </c>
@@ -43126,7 +43122,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="905" spans="1:16" ht="38" hidden="1">
+    <row r="905" spans="1:16" ht="30">
       <c r="A905" s="22" t="s">
         <v>1302</v>
       </c>
@@ -43163,7 +43159,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="906" spans="1:16" ht="38" hidden="1">
+    <row r="906" spans="1:16" ht="30">
       <c r="A906" s="22" t="s">
         <v>1303</v>
       </c>
@@ -43200,7 +43196,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="907" spans="1:16" ht="38" hidden="1">
+    <row r="907" spans="1:16" ht="30">
       <c r="A907" s="22" t="s">
         <v>1304</v>
       </c>
@@ -43237,7 +43233,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="908" spans="1:16" ht="38" hidden="1">
+    <row r="908" spans="1:16" ht="30">
       <c r="A908" s="22" t="s">
         <v>1305</v>
       </c>
@@ -43274,7 +43270,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="909" spans="1:16" ht="38" hidden="1">
+    <row r="909" spans="1:16" ht="30">
       <c r="A909" s="22" t="s">
         <v>1306</v>
       </c>
@@ -43311,7 +43307,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="910" spans="1:16" ht="38" hidden="1">
+    <row r="910" spans="1:16" ht="30">
       <c r="A910" s="22" t="s">
         <v>1307</v>
       </c>
@@ -43348,7 +43344,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="911" spans="1:16" ht="38" hidden="1">
+    <row r="911" spans="1:16" ht="30">
       <c r="A911" s="22" t="s">
         <v>1308</v>
       </c>
@@ -43385,7 +43381,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="912" spans="1:16" ht="38" hidden="1">
+    <row r="912" spans="1:16" ht="30">
       <c r="A912" s="22" t="s">
         <v>1309</v>
       </c>
@@ -43422,7 +43418,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="913" spans="1:16" ht="38" hidden="1">
+    <row r="913" spans="1:16" ht="30">
       <c r="A913" s="22" t="s">
         <v>1310</v>
       </c>
@@ -43459,7 +43455,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="914" spans="1:16" ht="38" hidden="1">
+    <row r="914" spans="1:16" ht="30">
       <c r="A914" s="22" t="s">
         <v>1314</v>
       </c>
@@ -43496,7 +43492,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="915" spans="1:16" ht="38" hidden="1">
+    <row r="915" spans="1:16" ht="30">
       <c r="A915" s="22" t="s">
         <v>1315</v>
       </c>
@@ -43533,7 +43529,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="916" spans="1:16" ht="38" hidden="1">
+    <row r="916" spans="1:16" ht="30">
       <c r="A916" s="22" t="s">
         <v>1316</v>
       </c>
@@ -43570,7 +43566,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="917" spans="1:16" ht="38" hidden="1">
+    <row r="917" spans="1:16" ht="30">
       <c r="A917" s="22" t="s">
         <v>1317</v>
       </c>
@@ -43607,7 +43603,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="918" spans="1:16" ht="38" hidden="1">
+    <row r="918" spans="1:16" ht="30">
       <c r="A918" s="22" t="s">
         <v>1318</v>
       </c>
@@ -43644,7 +43640,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="919" spans="1:16" ht="38" hidden="1">
+    <row r="919" spans="1:16" ht="30">
       <c r="A919" s="22" t="s">
         <v>1319</v>
       </c>
@@ -43681,7 +43677,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="920" spans="1:16" ht="38" hidden="1">
+    <row r="920" spans="1:16" ht="30">
       <c r="A920" s="22" t="s">
         <v>1320</v>
       </c>
@@ -43718,7 +43714,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="921" spans="1:16" ht="38" hidden="1">
+    <row r="921" spans="1:16" ht="30">
       <c r="A921" s="22" t="s">
         <v>1321</v>
       </c>
@@ -43755,7 +43751,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="922" spans="1:16" ht="38" hidden="1">
+    <row r="922" spans="1:16" ht="30">
       <c r="A922" s="22" t="s">
         <v>1322</v>
       </c>
@@ -43792,7 +43788,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="923" spans="1:16" ht="38" hidden="1">
+    <row r="923" spans="1:16" ht="30">
       <c r="A923" s="25" t="s">
         <v>172</v>
       </c>
@@ -43829,7 +43825,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="924" spans="1:16" ht="38" hidden="1">
+    <row r="924" spans="1:16" ht="30">
       <c r="A924" s="22" t="s">
         <v>1325</v>
       </c>
@@ -43866,7 +43862,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="925" spans="1:16" ht="38" hidden="1">
+    <row r="925" spans="1:16" ht="30">
       <c r="A925" s="22" t="s">
         <v>1326</v>
       </c>
@@ -43903,7 +43899,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="926" spans="1:16" ht="38" hidden="1">
+    <row r="926" spans="1:16" ht="30">
       <c r="A926" s="22" t="s">
         <v>1327</v>
       </c>
@@ -43940,7 +43936,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="927" spans="1:16" ht="38" hidden="1">
+    <row r="927" spans="1:16" ht="30">
       <c r="A927" s="22" t="s">
         <v>1328</v>
       </c>
@@ -43977,7 +43973,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="928" spans="1:16" ht="38" hidden="1">
+    <row r="928" spans="1:16" ht="30">
       <c r="A928" s="22" t="s">
         <v>1329</v>
       </c>
@@ -44014,7 +44010,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="929" spans="1:16" ht="38" hidden="1">
+    <row r="929" spans="1:16" ht="30">
       <c r="A929" s="22" t="s">
         <v>1330</v>
       </c>
@@ -44051,7 +44047,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="930" spans="1:16" ht="38" hidden="1">
+    <row r="930" spans="1:16" ht="30">
       <c r="A930" s="22" t="s">
         <v>1331</v>
       </c>
@@ -44088,7 +44084,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="931" spans="1:16" ht="38" hidden="1">
+    <row r="931" spans="1:16" ht="30">
       <c r="A931" s="22" t="s">
         <v>1332</v>
       </c>
@@ -44125,7 +44121,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="932" spans="1:16" ht="38" hidden="1">
+    <row r="932" spans="1:16" ht="30">
       <c r="A932" s="25" t="s">
         <v>181</v>
       </c>
@@ -44162,7 +44158,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="933" spans="1:16" ht="38" hidden="1">
+    <row r="933" spans="1:16" ht="30">
       <c r="A933" s="22" t="s">
         <v>1333</v>
       </c>
@@ -44200,13 +44196,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P933" xr:uid="{B3EF3758-41EA-5043-93F1-B74186B3EF75}">
-    <filterColumn colId="7">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/xls/penta/penta_originario.xlsx
+++ b/xls/penta/penta_originario.xlsx
@@ -12409,7 +12409,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12417,11 +12417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P933"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E939" sqref="E939"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -12492,7 +12491,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="36.75" hidden="1" customHeight="1">
+    <row r="2" spans="1:16" ht="36.75" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>183</v>
       </c>
@@ -12531,7 +12530,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="45" hidden="1">
+    <row r="3" spans="1:16" ht="45">
       <c r="A3" s="6" t="s">
         <v>184</v>
       </c>
@@ -12567,7 +12566,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="45" hidden="1">
+    <row r="4" spans="1:16" ht="45">
       <c r="A4" s="6" t="s">
         <v>185</v>
       </c>
@@ -12603,7 +12602,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="45" hidden="1">
+    <row r="5" spans="1:16" ht="45">
       <c r="A5" s="6" t="s">
         <v>186</v>
       </c>
@@ -12639,7 +12638,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="45" hidden="1">
+    <row r="6" spans="1:16" ht="45">
       <c r="A6" s="6" t="s">
         <v>187</v>
       </c>
@@ -12675,7 +12674,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="45" hidden="1">
+    <row r="7" spans="1:16" ht="45">
       <c r="A7" s="6" t="s">
         <v>188</v>
       </c>
@@ -12711,7 +12710,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="30" hidden="1">
+    <row r="8" spans="1:16" ht="30">
       <c r="A8" s="6" t="s">
         <v>189</v>
       </c>
@@ -12741,7 +12740,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="30" hidden="1">
+    <row r="9" spans="1:16" ht="30">
       <c r="A9" s="21" t="s">
         <v>1168</v>
       </c>
@@ -12771,7 +12770,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" hidden="1">
+    <row r="10" spans="1:16" ht="15">
       <c r="A10" s="6" t="s">
         <v>191</v>
       </c>
@@ -12805,7 +12804,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" hidden="1">
+    <row r="11" spans="1:16" ht="15">
       <c r="A11" s="6" t="s">
         <v>192</v>
       </c>
@@ -12839,7 +12838,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" hidden="1">
+    <row r="12" spans="1:16" ht="15">
       <c r="A12" s="6" t="s">
         <v>193</v>
       </c>
@@ -12873,7 +12872,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" hidden="1">
+    <row r="13" spans="1:16" ht="15">
       <c r="A13" s="6" t="s">
         <v>194</v>
       </c>
@@ -12907,7 +12906,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" hidden="1">
+    <row r="14" spans="1:16" ht="15">
       <c r="A14" s="6" t="s">
         <v>195</v>
       </c>
@@ -12941,7 +12940,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" hidden="1">
+    <row r="15" spans="1:16" ht="15">
       <c r="A15" s="6" t="s">
         <v>196</v>
       </c>
@@ -12975,7 +12974,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" hidden="1">
+    <row r="16" spans="1:16" ht="15">
       <c r="A16" s="6" t="s">
         <v>197</v>
       </c>
@@ -13011,7 +13010,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" hidden="1">
+    <row r="17" spans="1:16" ht="15">
       <c r="A17" s="6" t="s">
         <v>198</v>
       </c>
@@ -13047,7 +13046,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" hidden="1">
+    <row r="18" spans="1:16" ht="15">
       <c r="A18" s="6" t="s">
         <v>199</v>
       </c>
@@ -13083,7 +13082,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="30" hidden="1">
+    <row r="19" spans="1:16" ht="30">
       <c r="A19" s="6" t="s">
         <v>200</v>
       </c>
@@ -13119,7 +13118,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="30" hidden="1">
+    <row r="20" spans="1:16" ht="30">
       <c r="A20" s="6" t="s">
         <v>201</v>
       </c>
@@ -13155,7 +13154,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="30" hidden="1">
+    <row r="21" spans="1:16" ht="30">
       <c r="A21" s="6" t="s">
         <v>202</v>
       </c>
@@ -13191,7 +13190,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" hidden="1">
+    <row r="22" spans="1:16" ht="15">
       <c r="A22" s="6" t="s">
         <v>203</v>
       </c>
@@ -13227,7 +13226,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" hidden="1">
+    <row r="23" spans="1:16" ht="15">
       <c r="A23" s="6" t="s">
         <v>204</v>
       </c>
@@ -13263,7 +13262,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" hidden="1">
+    <row r="24" spans="1:16" ht="15">
       <c r="A24" s="6" t="s">
         <v>205</v>
       </c>
@@ -13299,7 +13298,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15" hidden="1">
+    <row r="25" spans="1:16" ht="15">
       <c r="A25" s="6" t="s">
         <v>206</v>
       </c>
@@ -13333,7 +13332,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" hidden="1">
+    <row r="26" spans="1:16" ht="15">
       <c r="A26" s="6" t="s">
         <v>207</v>
       </c>
@@ -13367,7 +13366,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15" hidden="1">
+    <row r="27" spans="1:16" ht="15">
       <c r="A27" s="6" t="s">
         <v>208</v>
       </c>
@@ -13401,7 +13400,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15" hidden="1">
+    <row r="28" spans="1:16" ht="15">
       <c r="A28" s="6" t="s">
         <v>209</v>
       </c>
@@ -13435,7 +13434,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15" hidden="1">
+    <row r="29" spans="1:16" ht="15">
       <c r="A29" s="6" t="s">
         <v>210</v>
       </c>
@@ -13469,7 +13468,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15" hidden="1">
+    <row r="30" spans="1:16" ht="15">
       <c r="A30" s="6" t="s">
         <v>211</v>
       </c>
@@ -13503,7 +13502,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15" hidden="1">
+    <row r="31" spans="1:16" ht="15">
       <c r="A31" s="6" t="s">
         <v>212</v>
       </c>
@@ -13539,7 +13538,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15" hidden="1">
+    <row r="32" spans="1:16" ht="15">
       <c r="A32" s="6" t="s">
         <v>213</v>
       </c>
@@ -13575,7 +13574,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15" hidden="1">
+    <row r="33" spans="1:16" ht="15">
       <c r="A33" s="6" t="s">
         <v>214</v>
       </c>
@@ -13611,7 +13610,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="30" hidden="1">
+    <row r="34" spans="1:16" ht="30">
       <c r="A34" s="6" t="s">
         <v>215</v>
       </c>
@@ -13647,7 +13646,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="30" hidden="1">
+    <row r="35" spans="1:16" ht="30">
       <c r="A35" s="6" t="s">
         <v>216</v>
       </c>
@@ -13683,7 +13682,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="30" hidden="1">
+    <row r="36" spans="1:16" ht="30">
       <c r="A36" s="6" t="s">
         <v>217</v>
       </c>
@@ -13719,7 +13718,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15" hidden="1">
+    <row r="37" spans="1:16" ht="15">
       <c r="A37" s="6" t="s">
         <v>218</v>
       </c>
@@ -13755,7 +13754,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15" hidden="1">
+    <row r="38" spans="1:16" ht="15">
       <c r="A38" s="6" t="s">
         <v>219</v>
       </c>
@@ -13791,7 +13790,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15" hidden="1">
+    <row r="39" spans="1:16" ht="15">
       <c r="A39" s="6" t="s">
         <v>220</v>
       </c>
@@ -13827,7 +13826,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15" hidden="1">
+    <row r="40" spans="1:16" ht="15">
       <c r="A40" s="6" t="s">
         <v>221</v>
       </c>
@@ -13861,7 +13860,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15" hidden="1">
+    <row r="41" spans="1:16" ht="15">
       <c r="A41" s="6" t="s">
         <v>222</v>
       </c>
@@ -13895,7 +13894,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15" hidden="1">
+    <row r="42" spans="1:16" ht="15">
       <c r="A42" s="6" t="s">
         <v>223</v>
       </c>
@@ -13929,7 +13928,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15" hidden="1">
+    <row r="43" spans="1:16" ht="15">
       <c r="A43" s="6" t="s">
         <v>224</v>
       </c>
@@ -13963,7 +13962,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15" hidden="1">
+    <row r="44" spans="1:16" ht="15">
       <c r="A44" s="6" t="s">
         <v>225</v>
       </c>
@@ -13997,7 +13996,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15" hidden="1">
+    <row r="45" spans="1:16" ht="15">
       <c r="A45" s="6" t="s">
         <v>226</v>
       </c>
@@ -14031,7 +14030,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15" hidden="1">
+    <row r="46" spans="1:16" ht="15">
       <c r="A46" s="6" t="s">
         <v>227</v>
       </c>
@@ -14067,7 +14066,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15" hidden="1">
+    <row r="47" spans="1:16" ht="15">
       <c r="A47" s="6" t="s">
         <v>228</v>
       </c>
@@ -14103,7 +14102,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15" hidden="1">
+    <row r="48" spans="1:16" ht="15">
       <c r="A48" s="6" t="s">
         <v>229</v>
       </c>
@@ -14139,7 +14138,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="30" hidden="1">
+    <row r="49" spans="1:16" ht="30">
       <c r="A49" s="6" t="s">
         <v>230</v>
       </c>
@@ -14175,7 +14174,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="30" hidden="1">
+    <row r="50" spans="1:16" ht="30">
       <c r="A50" s="6" t="s">
         <v>231</v>
       </c>
@@ -14211,7 +14210,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="30" hidden="1">
+    <row r="51" spans="1:16" ht="30">
       <c r="A51" s="6" t="s">
         <v>232</v>
       </c>
@@ -14247,7 +14246,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15" hidden="1">
+    <row r="52" spans="1:16" ht="15">
       <c r="A52" s="6" t="s">
         <v>233</v>
       </c>
@@ -14283,7 +14282,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="15" hidden="1">
+    <row r="53" spans="1:16" ht="15">
       <c r="A53" s="6" t="s">
         <v>234</v>
       </c>
@@ -14319,7 +14318,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="15" hidden="1">
+    <row r="54" spans="1:16" ht="15">
       <c r="A54" s="6" t="s">
         <v>235</v>
       </c>
@@ -14355,7 +14354,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15" hidden="1">
+    <row r="55" spans="1:16" ht="15">
       <c r="A55" s="6" t="s">
         <v>236</v>
       </c>
@@ -14389,7 +14388,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15" hidden="1">
+    <row r="56" spans="1:16" ht="15">
       <c r="A56" s="6" t="s">
         <v>237</v>
       </c>
@@ -14423,7 +14422,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15" hidden="1">
+    <row r="57" spans="1:16" ht="15">
       <c r="A57" s="6" t="s">
         <v>238</v>
       </c>
@@ -14457,7 +14456,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="15" hidden="1">
+    <row r="58" spans="1:16" ht="15">
       <c r="A58" s="6" t="s">
         <v>239</v>
       </c>
@@ -14491,7 +14490,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="15" hidden="1">
+    <row r="59" spans="1:16" ht="15">
       <c r="A59" s="6" t="s">
         <v>240</v>
       </c>
@@ -14525,7 +14524,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15" hidden="1">
+    <row r="60" spans="1:16" ht="15">
       <c r="A60" s="6" t="s">
         <v>241</v>
       </c>
@@ -14559,7 +14558,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15" hidden="1">
+    <row r="61" spans="1:16" ht="15">
       <c r="A61" s="6" t="s">
         <v>242</v>
       </c>
@@ -14595,7 +14594,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="15" hidden="1">
+    <row r="62" spans="1:16" ht="15">
       <c r="A62" s="6" t="s">
         <v>243</v>
       </c>
@@ -14631,7 +14630,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="15" hidden="1">
+    <row r="63" spans="1:16" ht="15">
       <c r="A63" s="6" t="s">
         <v>244</v>
       </c>
@@ -14667,7 +14666,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="30" hidden="1">
+    <row r="64" spans="1:16" ht="30">
       <c r="A64" s="6" t="s">
         <v>245</v>
       </c>
@@ -14703,7 +14702,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="30" hidden="1">
+    <row r="65" spans="1:16" ht="30">
       <c r="A65" s="6" t="s">
         <v>246</v>
       </c>
@@ -14739,7 +14738,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="30" hidden="1">
+    <row r="66" spans="1:16" ht="30">
       <c r="A66" s="6" t="s">
         <v>247</v>
       </c>
@@ -14775,7 +14774,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15" hidden="1">
+    <row r="67" spans="1:16" ht="15">
       <c r="A67" s="6" t="s">
         <v>248</v>
       </c>
@@ -14811,7 +14810,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="15" hidden="1">
+    <row r="68" spans="1:16" ht="15">
       <c r="A68" s="6" t="s">
         <v>249</v>
       </c>
@@ -14847,7 +14846,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="15" hidden="1">
+    <row r="69" spans="1:16" ht="15">
       <c r="A69" s="6" t="s">
         <v>250</v>
       </c>
@@ -14883,7 +14882,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15" hidden="1">
+    <row r="70" spans="1:16" ht="15">
       <c r="A70" s="6" t="s">
         <v>251</v>
       </c>
@@ -14917,7 +14916,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15" hidden="1">
+    <row r="71" spans="1:16" ht="15">
       <c r="A71" s="6" t="s">
         <v>252</v>
       </c>
@@ -14951,7 +14950,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15" hidden="1">
+    <row r="72" spans="1:16" ht="15">
       <c r="A72" s="6" t="s">
         <v>253</v>
       </c>
@@ -14985,7 +14984,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="15" hidden="1">
+    <row r="73" spans="1:16" ht="15">
       <c r="A73" s="6" t="s">
         <v>254</v>
       </c>
@@ -15019,7 +15018,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="15" hidden="1">
+    <row r="74" spans="1:16" ht="15">
       <c r="A74" s="6" t="s">
         <v>255</v>
       </c>
@@ -15053,7 +15052,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="15" hidden="1">
+    <row r="75" spans="1:16" ht="15">
       <c r="A75" s="6" t="s">
         <v>256</v>
       </c>
@@ -15087,7 +15086,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="15" hidden="1">
+    <row r="76" spans="1:16" ht="15">
       <c r="A76" s="6" t="s">
         <v>257</v>
       </c>
@@ -15123,7 +15122,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="15" hidden="1">
+    <row r="77" spans="1:16" ht="15">
       <c r="A77" s="6" t="s">
         <v>258</v>
       </c>
@@ -15159,7 +15158,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="15" hidden="1">
+    <row r="78" spans="1:16" ht="15">
       <c r="A78" s="6" t="s">
         <v>259</v>
       </c>
@@ -15195,7 +15194,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="30" hidden="1">
+    <row r="79" spans="1:16" ht="30">
       <c r="A79" s="6" t="s">
         <v>260</v>
       </c>
@@ -15231,7 +15230,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="30" hidden="1">
+    <row r="80" spans="1:16" ht="30">
       <c r="A80" s="6" t="s">
         <v>261</v>
       </c>
@@ -15267,7 +15266,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="30" hidden="1">
+    <row r="81" spans="1:16" ht="30">
       <c r="A81" s="6" t="s">
         <v>262</v>
       </c>
@@ -15303,7 +15302,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="15" hidden="1">
+    <row r="82" spans="1:16" ht="15">
       <c r="A82" s="6" t="s">
         <v>263</v>
       </c>
@@ -15339,7 +15338,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="15" hidden="1">
+    <row r="83" spans="1:16" ht="15">
       <c r="A83" s="6" t="s">
         <v>264</v>
       </c>
@@ -15375,7 +15374,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="15" hidden="1">
+    <row r="84" spans="1:16" ht="15">
       <c r="A84" s="6" t="s">
         <v>265</v>
       </c>
@@ -15411,7 +15410,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="15" hidden="1">
+    <row r="85" spans="1:16" ht="15">
       <c r="A85" s="6" t="s">
         <v>266</v>
       </c>
@@ -15445,7 +15444,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="15" hidden="1">
+    <row r="86" spans="1:16" ht="15">
       <c r="A86" s="6" t="s">
         <v>267</v>
       </c>
@@ -15479,7 +15478,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="15" hidden="1">
+    <row r="87" spans="1:16" ht="15">
       <c r="A87" s="6" t="s">
         <v>268</v>
       </c>
@@ -15513,7 +15512,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="15" hidden="1">
+    <row r="88" spans="1:16" ht="15">
       <c r="A88" s="6" t="s">
         <v>269</v>
       </c>
@@ -15547,7 +15546,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="15" hidden="1">
+    <row r="89" spans="1:16" ht="15">
       <c r="A89" s="6" t="s">
         <v>270</v>
       </c>
@@ -15581,7 +15580,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="15" hidden="1">
+    <row r="90" spans="1:16" ht="15">
       <c r="A90" s="6" t="s">
         <v>271</v>
       </c>
@@ -15615,7 +15614,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="15" hidden="1">
+    <row r="91" spans="1:16" ht="15">
       <c r="A91" s="6" t="s">
         <v>272</v>
       </c>
@@ -15651,7 +15650,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="15" hidden="1">
+    <row r="92" spans="1:16" ht="15">
       <c r="A92" s="6" t="s">
         <v>273</v>
       </c>
@@ -15687,7 +15686,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="15" hidden="1">
+    <row r="93" spans="1:16" ht="15">
       <c r="A93" s="6" t="s">
         <v>274</v>
       </c>
@@ -15723,7 +15722,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="30" hidden="1">
+    <row r="94" spans="1:16" ht="30">
       <c r="A94" s="6" t="s">
         <v>275</v>
       </c>
@@ -15759,7 +15758,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="30" hidden="1">
+    <row r="95" spans="1:16" ht="30">
       <c r="A95" s="6" t="s">
         <v>276</v>
       </c>
@@ -15795,7 +15794,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="30" hidden="1">
+    <row r="96" spans="1:16" ht="30">
       <c r="A96" s="6" t="s">
         <v>277</v>
       </c>
@@ -15831,7 +15830,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="15" hidden="1">
+    <row r="97" spans="1:16" ht="15">
       <c r="A97" s="6" t="s">
         <v>278</v>
       </c>
@@ -15867,7 +15866,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="15" hidden="1">
+    <row r="98" spans="1:16" ht="15">
       <c r="A98" s="6" t="s">
         <v>279</v>
       </c>
@@ -15903,7 +15902,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="15" hidden="1">
+    <row r="99" spans="1:16" ht="15">
       <c r="A99" s="6" t="s">
         <v>280</v>
       </c>
@@ -15939,7 +15938,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="30" hidden="1">
+    <row r="100" spans="1:16" ht="30">
       <c r="A100" s="6" t="s">
         <v>281</v>
       </c>
@@ -15973,7 +15972,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="30" hidden="1">
+    <row r="101" spans="1:16" ht="30">
       <c r="A101" s="6" t="s">
         <v>282</v>
       </c>
@@ -16007,7 +16006,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="30" hidden="1">
+    <row r="102" spans="1:16" ht="30">
       <c r="A102" s="6" t="s">
         <v>283</v>
       </c>
@@ -16041,7 +16040,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="30" hidden="1">
+    <row r="103" spans="1:16" ht="30">
       <c r="A103" s="6" t="s">
         <v>284</v>
       </c>
@@ -16075,7 +16074,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="30" hidden="1">
+    <row r="104" spans="1:16" ht="30">
       <c r="A104" s="6" t="s">
         <v>285</v>
       </c>
@@ -16109,7 +16108,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="30" hidden="1">
+    <row r="105" spans="1:16" ht="30">
       <c r="A105" s="6" t="s">
         <v>286</v>
       </c>
@@ -16143,7 +16142,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="30" hidden="1">
+    <row r="106" spans="1:16" ht="30">
       <c r="A106" s="6" t="s">
         <v>287</v>
       </c>
@@ -16177,7 +16176,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="30" hidden="1">
+    <row r="107" spans="1:16" ht="30">
       <c r="A107" s="6" t="s">
         <v>288</v>
       </c>
@@ -16619,7 +16618,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="15" hidden="1">
+    <row r="120" spans="1:16" ht="15">
       <c r="A120" s="6" t="s">
         <v>301</v>
       </c>
@@ -16655,7 +16654,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="15" hidden="1">
+    <row r="121" spans="1:16" ht="15">
       <c r="A121" s="6" t="s">
         <v>302</v>
       </c>
@@ -16691,7 +16690,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="30" hidden="1">
+    <row r="122" spans="1:16" ht="30">
       <c r="A122" s="6" t="s">
         <v>303</v>
       </c>
@@ -16727,7 +16726,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="15" hidden="1">
+    <row r="123" spans="1:16" ht="15">
       <c r="A123" s="6" t="s">
         <v>304</v>
       </c>
@@ -17545,7 +17544,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="15" hidden="1">
+    <row r="147" spans="1:16" ht="15">
       <c r="A147" s="6" t="s">
         <v>328</v>
       </c>
@@ -17579,7 +17578,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="15" hidden="1">
+    <row r="148" spans="1:16" ht="15">
       <c r="A148" s="6" t="s">
         <v>329</v>
       </c>
@@ -17613,7 +17612,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="30" hidden="1">
+    <row r="149" spans="1:16" ht="30">
       <c r="A149" s="6" t="s">
         <v>330</v>
       </c>
@@ -17647,7 +17646,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="15" hidden="1">
+    <row r="150" spans="1:16" ht="15">
       <c r="A150" s="6" t="s">
         <v>331</v>
       </c>
@@ -17681,7 +17680,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="30" hidden="1">
+    <row r="151" spans="1:16" ht="30">
       <c r="A151" s="6" t="s">
         <v>332</v>
       </c>
@@ -17715,7 +17714,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="15" hidden="1">
+    <row r="152" spans="1:16" ht="15">
       <c r="A152" s="6" t="s">
         <v>333</v>
       </c>
@@ -17749,7 +17748,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="15" hidden="1">
+    <row r="153" spans="1:16" ht="15">
       <c r="A153" s="6" t="s">
         <v>334</v>
       </c>
@@ -17783,7 +17782,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="15" hidden="1">
+    <row r="154" spans="1:16" ht="15">
       <c r="A154" s="6" t="s">
         <v>335</v>
       </c>
@@ -17815,7 +17814,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="15" hidden="1">
+    <row r="155" spans="1:16" ht="15">
       <c r="A155" s="6" t="s">
         <v>336</v>
       </c>
@@ -17847,7 +17846,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="30" hidden="1">
+    <row r="156" spans="1:16" ht="30">
       <c r="A156" s="6" t="s">
         <v>337</v>
       </c>
@@ -17879,7 +17878,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="15" hidden="1">
+    <row r="157" spans="1:16" ht="15">
       <c r="A157" s="6" t="s">
         <v>338</v>
       </c>
@@ -17911,7 +17910,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="30" hidden="1">
+    <row r="158" spans="1:16" ht="30">
       <c r="A158" s="6" t="s">
         <v>339</v>
       </c>
@@ -17943,7 +17942,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="15" hidden="1">
+    <row r="159" spans="1:16" ht="15">
       <c r="A159" s="6" t="s">
         <v>340</v>
       </c>
@@ -17975,7 +17974,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="15" hidden="1">
+    <row r="160" spans="1:16" ht="15">
       <c r="A160" s="6" t="s">
         <v>341</v>
       </c>
@@ -18007,7 +18006,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="15" hidden="1">
+    <row r="161" spans="1:16" ht="15">
       <c r="A161" s="6" t="s">
         <v>342</v>
       </c>
@@ -18041,7 +18040,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="15" hidden="1">
+    <row r="162" spans="1:16" ht="15">
       <c r="A162" s="6" t="s">
         <v>343</v>
       </c>
@@ -18075,7 +18074,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="30" hidden="1">
+    <row r="163" spans="1:16" ht="30">
       <c r="A163" s="6" t="s">
         <v>344</v>
       </c>
@@ -18109,7 +18108,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="15" hidden="1">
+    <row r="164" spans="1:16" ht="15">
       <c r="A164" s="6" t="s">
         <v>345</v>
       </c>
@@ -18143,7 +18142,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="30" hidden="1">
+    <row r="165" spans="1:16" ht="30">
       <c r="A165" s="6" t="s">
         <v>346</v>
       </c>
@@ -18177,7 +18176,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="15" hidden="1">
+    <row r="166" spans="1:16" ht="15">
       <c r="A166" s="6" t="s">
         <v>347</v>
       </c>
@@ -18211,7 +18210,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="15" hidden="1">
+    <row r="167" spans="1:16" ht="15">
       <c r="A167" s="6" t="s">
         <v>348</v>
       </c>
@@ -18245,7 +18244,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="15" hidden="1">
+    <row r="168" spans="1:16" ht="15">
       <c r="A168" s="6" t="s">
         <v>349</v>
       </c>
@@ -18279,7 +18278,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="15" hidden="1">
+    <row r="169" spans="1:16" ht="15">
       <c r="A169" s="6" t="s">
         <v>350</v>
       </c>
@@ -18313,7 +18312,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="30" hidden="1">
+    <row r="170" spans="1:16" ht="30">
       <c r="A170" s="6" t="s">
         <v>351</v>
       </c>
@@ -18347,7 +18346,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="15" hidden="1">
+    <row r="171" spans="1:16" ht="15">
       <c r="A171" s="6" t="s">
         <v>352</v>
       </c>
@@ -18381,7 +18380,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="30" hidden="1">
+    <row r="172" spans="1:16" ht="30">
       <c r="A172" s="6" t="s">
         <v>353</v>
       </c>
@@ -18415,7 +18414,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="15" hidden="1">
+    <row r="173" spans="1:16" ht="15">
       <c r="A173" s="6" t="s">
         <v>354</v>
       </c>
@@ -18449,7 +18448,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="15" hidden="1">
+    <row r="174" spans="1:16" ht="15">
       <c r="A174" s="6" t="s">
         <v>355</v>
       </c>
@@ -18483,7 +18482,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="15" hidden="1">
+    <row r="175" spans="1:16" ht="15">
       <c r="A175" s="6" t="s">
         <v>356</v>
       </c>
@@ -18517,7 +18516,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="15" hidden="1">
+    <row r="176" spans="1:16" ht="15">
       <c r="A176" s="6" t="s">
         <v>357</v>
       </c>
@@ -18551,7 +18550,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="30" hidden="1">
+    <row r="177" spans="1:16" ht="30">
       <c r="A177" s="6" t="s">
         <v>358</v>
       </c>
@@ -18585,7 +18584,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="30" hidden="1">
+    <row r="178" spans="1:16" ht="30">
       <c r="A178" s="6" t="s">
         <v>359</v>
       </c>
@@ -18619,7 +18618,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="15" hidden="1">
+    <row r="179" spans="1:16" ht="15">
       <c r="A179" s="6" t="s">
         <v>360</v>
       </c>
@@ -18653,7 +18652,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="15" hidden="1">
+    <row r="180" spans="1:16" ht="15">
       <c r="A180" s="6" t="s">
         <v>361</v>
       </c>
@@ -18687,7 +18686,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="30" hidden="1">
+    <row r="181" spans="1:16" ht="30">
       <c r="A181" s="6" t="s">
         <v>362</v>
       </c>
@@ -18721,7 +18720,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="30" hidden="1">
+    <row r="182" spans="1:16" ht="30">
       <c r="A182" s="6" t="s">
         <v>363</v>
       </c>
@@ -18755,7 +18754,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="15" hidden="1">
+    <row r="183" spans="1:16" ht="15">
       <c r="A183" s="6" t="s">
         <v>364</v>
       </c>
@@ -18790,7 +18789,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="15" hidden="1">
+    <row r="184" spans="1:16" ht="15">
       <c r="A184" s="6" t="s">
         <v>365</v>
       </c>
@@ -18822,7 +18821,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="30" hidden="1">
+    <row r="185" spans="1:16" ht="30">
       <c r="A185" s="6" t="s">
         <v>366</v>
       </c>
@@ -18854,7 +18853,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="15" hidden="1">
+    <row r="186" spans="1:16" ht="15">
       <c r="A186" s="6" t="s">
         <v>367</v>
       </c>
@@ -18886,7 +18885,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="15" hidden="1">
+    <row r="187" spans="1:16" ht="15">
       <c r="A187" s="6" t="s">
         <v>368</v>
       </c>
@@ -18918,7 +18917,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="30" hidden="1">
+    <row r="188" spans="1:16" ht="30">
       <c r="A188" s="6" t="s">
         <v>369</v>
       </c>
@@ -18950,7 +18949,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="15" hidden="1">
+    <row r="189" spans="1:16" ht="15">
       <c r="A189" s="6" t="s">
         <v>370</v>
       </c>
@@ -18982,7 +18981,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="15" hidden="1">
+    <row r="190" spans="1:16" ht="15">
       <c r="A190" s="6" t="s">
         <v>371</v>
       </c>
@@ -19014,7 +19013,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="191" spans="1:16" ht="30" hidden="1">
+    <row r="191" spans="1:16" ht="30">
       <c r="A191" s="6" t="s">
         <v>372</v>
       </c>
@@ -19046,7 +19045,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="15" hidden="1">
+    <row r="192" spans="1:16" ht="15">
       <c r="A192" s="6" t="s">
         <v>373</v>
       </c>
@@ -19078,7 +19077,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="15" hidden="1">
+    <row r="193" spans="1:16" ht="15">
       <c r="A193" s="6" t="s">
         <v>374</v>
       </c>
@@ -19110,7 +19109,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="30" hidden="1">
+    <row r="194" spans="1:16" ht="30">
       <c r="A194" s="6" t="s">
         <v>375</v>
       </c>
@@ -19142,7 +19141,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="15" hidden="1">
+    <row r="195" spans="1:16" ht="15">
       <c r="A195" s="6" t="s">
         <v>376</v>
       </c>
@@ -19177,7 +19176,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="15" hidden="1">
+    <row r="196" spans="1:16" ht="15">
       <c r="A196" s="6" t="s">
         <v>377</v>
       </c>
@@ -19209,7 +19208,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="197" spans="1:16" ht="30" hidden="1">
+    <row r="197" spans="1:16" ht="30">
       <c r="A197" s="6" t="s">
         <v>378</v>
       </c>
@@ -19241,7 +19240,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="15" hidden="1">
+    <row r="198" spans="1:16" ht="15">
       <c r="A198" s="6" t="s">
         <v>379</v>
       </c>
@@ -19273,7 +19272,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="199" spans="1:16" ht="15" hidden="1">
+    <row r="199" spans="1:16" ht="15">
       <c r="A199" s="6" t="s">
         <v>380</v>
       </c>
@@ -19305,7 +19304,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="30" hidden="1">
+    <row r="200" spans="1:16" ht="30">
       <c r="A200" s="6" t="s">
         <v>381</v>
       </c>
@@ -19337,7 +19336,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="15" hidden="1">
+    <row r="201" spans="1:16" ht="15">
       <c r="A201" s="6" t="s">
         <v>382</v>
       </c>
@@ -19369,7 +19368,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="15" hidden="1">
+    <row r="202" spans="1:16" ht="15">
       <c r="A202" s="6" t="s">
         <v>383</v>
       </c>
@@ -19401,7 +19400,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="30" hidden="1">
+    <row r="203" spans="1:16" ht="30">
       <c r="A203" s="6" t="s">
         <v>384</v>
       </c>
@@ -19433,7 +19432,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="15" hidden="1">
+    <row r="204" spans="1:16" ht="15">
       <c r="A204" s="6" t="s">
         <v>385</v>
       </c>
@@ -19465,7 +19464,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="15" hidden="1">
+    <row r="205" spans="1:16" ht="15">
       <c r="A205" s="6" t="s">
         <v>386</v>
       </c>
@@ -19497,7 +19496,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="30" hidden="1">
+    <row r="206" spans="1:16" ht="30">
       <c r="A206" s="6" t="s">
         <v>387</v>
       </c>
@@ -19529,7 +19528,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="15" hidden="1">
+    <row r="207" spans="1:16" ht="15">
       <c r="A207" s="21" t="s">
         <v>1226</v>
       </c>
@@ -19559,7 +19558,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="15" hidden="1">
+    <row r="208" spans="1:16" ht="15">
       <c r="A208" s="21" t="s">
         <v>1227</v>
       </c>
@@ -19589,7 +19588,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="30" hidden="1">
+    <row r="209" spans="1:16" ht="30">
       <c r="A209" s="21" t="s">
         <v>1228</v>
       </c>
@@ -19619,7 +19618,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="15" hidden="1">
+    <row r="210" spans="1:16" ht="15">
       <c r="A210" s="21" t="s">
         <v>1229</v>
       </c>
@@ -19649,7 +19648,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="15" hidden="1">
+    <row r="211" spans="1:16" ht="15">
       <c r="A211" s="21" t="s">
         <v>1230</v>
       </c>
@@ -19679,7 +19678,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="30" hidden="1">
+    <row r="212" spans="1:16" ht="30">
       <c r="A212" s="21" t="s">
         <v>1231</v>
       </c>
@@ -19709,7 +19708,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="15" hidden="1">
+    <row r="213" spans="1:16" ht="15">
       <c r="A213" s="21" t="s">
         <v>1232</v>
       </c>
@@ -19739,7 +19738,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="15" hidden="1">
+    <row r="214" spans="1:16" ht="15">
       <c r="A214" s="21" t="s">
         <v>1233</v>
       </c>
@@ -19769,7 +19768,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="30" hidden="1">
+    <row r="215" spans="1:16" ht="30">
       <c r="A215" s="21" t="s">
         <v>1234</v>
       </c>
@@ -19799,7 +19798,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="15" hidden="1">
+    <row r="216" spans="1:16" ht="15">
       <c r="A216" s="21" t="s">
         <v>1235</v>
       </c>
@@ -19829,7 +19828,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="15" hidden="1">
+    <row r="217" spans="1:16" ht="15">
       <c r="A217" s="21" t="s">
         <v>1236</v>
       </c>
@@ -19859,7 +19858,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="30" hidden="1">
+    <row r="218" spans="1:16" ht="30">
       <c r="A218" s="21" t="s">
         <v>1237</v>
       </c>
@@ -19889,7 +19888,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="30" hidden="1">
+    <row r="219" spans="1:16" ht="30">
       <c r="A219" s="6" t="s">
         <v>400</v>
       </c>
@@ -19925,7 +19924,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="30" hidden="1">
+    <row r="220" spans="1:16" ht="30">
       <c r="A220" s="6" t="s">
         <v>401</v>
       </c>
@@ -19961,7 +19960,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="30" hidden="1">
+    <row r="221" spans="1:16" ht="30">
       <c r="A221" s="6" t="s">
         <v>402</v>
       </c>
@@ -19997,7 +19996,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="30" hidden="1">
+    <row r="222" spans="1:16" ht="30">
       <c r="A222" s="6" t="s">
         <v>403</v>
       </c>
@@ -20033,7 +20032,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="30" hidden="1">
+    <row r="223" spans="1:16" ht="30">
       <c r="A223" s="6" t="s">
         <v>404</v>
       </c>
@@ -20067,7 +20066,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="30" hidden="1">
+    <row r="224" spans="1:16" ht="30">
       <c r="A224" s="6" t="s">
         <v>405</v>
       </c>
@@ -20101,7 +20100,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="30" hidden="1">
+    <row r="225" spans="1:16" ht="30">
       <c r="A225" s="6" t="s">
         <v>406</v>
       </c>
@@ -20135,7 +20134,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="30" hidden="1">
+    <row r="226" spans="1:16" ht="30">
       <c r="A226" s="6" t="s">
         <v>407</v>
       </c>
@@ -20169,7 +20168,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="30" hidden="1">
+    <row r="227" spans="1:16" ht="30">
       <c r="A227" s="6" t="s">
         <v>408</v>
       </c>
@@ -20203,7 +20202,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="30" hidden="1">
+    <row r="228" spans="1:16" ht="30">
       <c r="A228" s="6" t="s">
         <v>409</v>
       </c>
@@ -20237,7 +20236,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="30" hidden="1">
+    <row r="229" spans="1:16" ht="30">
       <c r="A229" s="6" t="s">
         <v>410</v>
       </c>
@@ -20271,7 +20270,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="30" hidden="1">
+    <row r="230" spans="1:16" ht="30">
       <c r="A230" s="6" t="s">
         <v>411</v>
       </c>
@@ -20305,7 +20304,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="15" hidden="1">
+    <row r="231" spans="1:16" ht="15">
       <c r="A231" s="6" t="s">
         <v>412</v>
       </c>
@@ -20339,7 +20338,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="15" hidden="1">
+    <row r="232" spans="1:16" ht="15">
       <c r="A232" s="6" t="s">
         <v>413</v>
       </c>
@@ -20373,7 +20372,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="30" hidden="1">
+    <row r="233" spans="1:16" ht="30">
       <c r="A233" s="6" t="s">
         <v>414</v>
       </c>
@@ -20407,7 +20406,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="15" hidden="1">
+    <row r="234" spans="1:16" ht="15">
       <c r="A234" s="6" t="s">
         <v>415</v>
       </c>
@@ -20441,7 +20440,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="15" hidden="1">
+    <row r="235" spans="1:16" ht="15">
       <c r="A235" s="6" t="s">
         <v>416</v>
       </c>
@@ -20475,7 +20474,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="15" hidden="1">
+    <row r="236" spans="1:16" ht="15">
       <c r="A236" s="6" t="s">
         <v>417</v>
       </c>
@@ -20509,7 +20508,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="30" hidden="1">
+    <row r="237" spans="1:16" ht="30">
       <c r="A237" s="6" t="s">
         <v>418</v>
       </c>
@@ -20543,7 +20542,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="15" hidden="1">
+    <row r="238" spans="1:16" ht="15">
       <c r="A238" s="6" t="s">
         <v>419</v>
       </c>
@@ -20577,7 +20576,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="15" hidden="1">
+    <row r="239" spans="1:16" ht="15">
       <c r="A239" s="6" t="s">
         <v>420</v>
       </c>
@@ -20611,7 +20610,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="240" spans="1:16" ht="15" hidden="1">
+    <row r="240" spans="1:16" ht="15">
       <c r="A240" s="6" t="s">
         <v>421</v>
       </c>
@@ -20643,7 +20642,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="15" hidden="1">
+    <row r="241" spans="1:16" ht="15">
       <c r="A241" s="6" t="s">
         <v>422</v>
       </c>
@@ -20675,7 +20674,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="30" hidden="1">
+    <row r="242" spans="1:16" ht="30">
       <c r="A242" s="6" t="s">
         <v>423</v>
       </c>
@@ -20707,7 +20706,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="15" hidden="1">
+    <row r="243" spans="1:16" ht="15">
       <c r="A243" s="6" t="s">
         <v>424</v>
       </c>
@@ -20739,7 +20738,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="15" hidden="1">
+    <row r="244" spans="1:16" ht="15">
       <c r="A244" s="6" t="s">
         <v>425</v>
       </c>
@@ -20771,7 +20770,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="245" spans="1:16" ht="15" hidden="1">
+    <row r="245" spans="1:16" ht="15">
       <c r="A245" s="6" t="s">
         <v>426</v>
       </c>
@@ -20803,7 +20802,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="246" spans="1:16" ht="30" hidden="1">
+    <row r="246" spans="1:16" ht="30">
       <c r="A246" s="6" t="s">
         <v>427</v>
       </c>
@@ -20835,7 +20834,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="247" spans="1:16" ht="15" hidden="1">
+    <row r="247" spans="1:16" ht="15">
       <c r="A247" s="6" t="s">
         <v>428</v>
       </c>
@@ -20867,7 +20866,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="15" hidden="1">
+    <row r="248" spans="1:16" ht="15">
       <c r="A248" s="6" t="s">
         <v>429</v>
       </c>
@@ -20899,7 +20898,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="249" spans="1:16" ht="15" hidden="1">
+    <row r="249" spans="1:16" ht="15">
       <c r="A249" s="6" t="s">
         <v>430</v>
       </c>
@@ -20931,7 +20930,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="250" spans="1:16" ht="15" hidden="1">
+    <row r="250" spans="1:16" ht="15">
       <c r="A250" s="6" t="s">
         <v>431</v>
       </c>
@@ -20963,7 +20962,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="251" spans="1:16" ht="30" hidden="1">
+    <row r="251" spans="1:16" ht="30">
       <c r="A251" s="6" t="s">
         <v>432</v>
       </c>
@@ -20995,7 +20994,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="252" spans="1:16" ht="15" hidden="1">
+    <row r="252" spans="1:16" ht="15">
       <c r="A252" s="6" t="s">
         <v>433</v>
       </c>
@@ -21027,7 +21026,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="253" spans="1:16" ht="15" hidden="1">
+    <row r="253" spans="1:16" ht="15">
       <c r="A253" s="6" t="s">
         <v>434</v>
       </c>
@@ -21059,7 +21058,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="254" spans="1:16" ht="15" hidden="1">
+    <row r="254" spans="1:16" ht="15">
       <c r="A254" s="6" t="s">
         <v>435</v>
       </c>
@@ -21091,7 +21090,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="255" spans="1:16" ht="30" hidden="1">
+    <row r="255" spans="1:16" ht="30">
       <c r="A255" s="6" t="s">
         <v>436</v>
       </c>
@@ -21123,7 +21122,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="256" spans="1:16" ht="15" hidden="1">
+    <row r="256" spans="1:16" ht="15">
       <c r="A256" s="6" t="s">
         <v>437</v>
       </c>
@@ -21155,7 +21154,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="257" spans="1:16" ht="15" hidden="1">
+    <row r="257" spans="1:16" ht="15">
       <c r="A257" s="6" t="s">
         <v>438</v>
       </c>
@@ -21187,7 +21186,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="258" spans="1:16" ht="15" hidden="1">
+    <row r="258" spans="1:16" ht="15">
       <c r="A258" s="6" t="s">
         <v>439</v>
       </c>
@@ -21223,7 +21222,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="259" spans="1:16" ht="15" hidden="1">
+    <row r="259" spans="1:16" ht="15">
       <c r="A259" s="6" t="s">
         <v>440</v>
       </c>
@@ -21259,7 +21258,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="260" spans="1:16" ht="30" hidden="1">
+    <row r="260" spans="1:16" ht="30">
       <c r="A260" s="6" t="s">
         <v>441</v>
       </c>
@@ -21295,7 +21294,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="261" spans="1:16" ht="15" hidden="1">
+    <row r="261" spans="1:16" ht="15">
       <c r="A261" s="6" t="s">
         <v>442</v>
       </c>
@@ -21331,7 +21330,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="262" spans="1:16" ht="15" hidden="1">
+    <row r="262" spans="1:16" ht="15">
       <c r="A262" s="6" t="s">
         <v>443</v>
       </c>
@@ -21367,7 +21366,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="263" spans="1:16" ht="30" hidden="1">
+    <row r="263" spans="1:16" ht="30">
       <c r="A263" s="6" t="s">
         <v>444</v>
       </c>
@@ -21403,7 +21402,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="264" spans="1:16" ht="15" hidden="1">
+    <row r="264" spans="1:16" ht="15">
       <c r="A264" s="6" t="s">
         <v>445</v>
       </c>
@@ -21439,7 +21438,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="265" spans="1:16" ht="15" hidden="1">
+    <row r="265" spans="1:16" ht="15">
       <c r="A265" s="6" t="s">
         <v>446</v>
       </c>
@@ -21475,7 +21474,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="15" hidden="1">
+    <row r="266" spans="1:16" ht="15">
       <c r="A266" s="6" t="s">
         <v>447</v>
       </c>
@@ -21511,7 +21510,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="267" spans="1:16" ht="15" hidden="1">
+    <row r="267" spans="1:16" ht="15">
       <c r="A267" s="6" t="s">
         <v>448</v>
       </c>
@@ -21546,7 +21545,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="15" hidden="1">
+    <row r="268" spans="1:16" ht="15">
       <c r="A268" s="6" t="s">
         <v>449</v>
       </c>
@@ -21578,7 +21577,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="269" spans="1:16" ht="30" hidden="1">
+    <row r="269" spans="1:16" ht="30">
       <c r="A269" s="6" t="s">
         <v>450</v>
       </c>
@@ -21610,7 +21609,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="270" spans="1:16" ht="15" hidden="1">
+    <row r="270" spans="1:16" ht="15">
       <c r="A270" s="6" t="s">
         <v>451</v>
       </c>
@@ -21642,7 +21641,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="271" spans="1:16" ht="15" hidden="1">
+    <row r="271" spans="1:16" ht="15">
       <c r="A271" s="6" t="s">
         <v>452</v>
       </c>
@@ -21674,7 +21673,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="272" spans="1:16" ht="15" hidden="1">
+    <row r="272" spans="1:16" ht="15">
       <c r="A272" s="6" t="s">
         <v>453</v>
       </c>
@@ -21706,7 +21705,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="273" spans="1:16" ht="30" hidden="1">
+    <row r="273" spans="1:16" ht="30">
       <c r="A273" s="6" t="s">
         <v>454</v>
       </c>
@@ -21738,7 +21737,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="274" spans="1:16" ht="15" hidden="1">
+    <row r="274" spans="1:16" ht="15">
       <c r="A274" s="6" t="s">
         <v>455</v>
       </c>
@@ -21770,7 +21769,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="275" spans="1:16" ht="15" hidden="1">
+    <row r="275" spans="1:16" ht="15">
       <c r="A275" s="6" t="s">
         <v>456</v>
       </c>
@@ -21802,7 +21801,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="276" spans="1:16" ht="15" hidden="1">
+    <row r="276" spans="1:16" ht="15">
       <c r="A276" s="6" t="s">
         <v>457</v>
       </c>
@@ -21837,7 +21836,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="277" spans="1:16" ht="15" hidden="1">
+    <row r="277" spans="1:16" ht="15">
       <c r="A277" s="6" t="s">
         <v>458</v>
       </c>
@@ -21869,7 +21868,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="278" spans="1:16" ht="30" hidden="1">
+    <row r="278" spans="1:16" ht="30">
       <c r="A278" s="6" t="s">
         <v>459</v>
       </c>
@@ -21901,7 +21900,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="279" spans="1:16" ht="15" hidden="1">
+    <row r="279" spans="1:16" ht="15">
       <c r="A279" s="6" t="s">
         <v>460</v>
       </c>
@@ -21933,7 +21932,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="280" spans="1:16" ht="15" hidden="1">
+    <row r="280" spans="1:16" ht="15">
       <c r="A280" s="6" t="s">
         <v>461</v>
       </c>
@@ -21965,7 +21964,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="281" spans="1:16" ht="15" hidden="1">
+    <row r="281" spans="1:16" ht="15">
       <c r="A281" s="6" t="s">
         <v>462</v>
       </c>
@@ -21997,7 +21996,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="282" spans="1:16" ht="30" hidden="1">
+    <row r="282" spans="1:16" ht="30">
       <c r="A282" s="6" t="s">
         <v>463</v>
       </c>
@@ -22029,7 +22028,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="283" spans="1:16" ht="15" hidden="1">
+    <row r="283" spans="1:16" ht="15">
       <c r="A283" s="6" t="s">
         <v>464</v>
       </c>
@@ -22061,7 +22060,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="284" spans="1:16" ht="15" hidden="1">
+    <row r="284" spans="1:16" ht="15">
       <c r="A284" s="6" t="s">
         <v>465</v>
       </c>
@@ -22093,7 +22092,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="285" spans="1:16" ht="15" hidden="1">
+    <row r="285" spans="1:16" ht="15">
       <c r="A285" s="6" t="s">
         <v>466</v>
       </c>
@@ -22125,7 +22124,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="286" spans="1:16" ht="15" hidden="1">
+    <row r="286" spans="1:16" ht="15">
       <c r="A286" s="6" t="s">
         <v>467</v>
       </c>
@@ -22157,7 +22156,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="287" spans="1:16" ht="15" hidden="1">
+    <row r="287" spans="1:16" ht="15">
       <c r="A287" s="6" t="s">
         <v>468</v>
       </c>
@@ -22189,7 +22188,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="288" spans="1:16" ht="15" hidden="1">
+    <row r="288" spans="1:16" ht="15">
       <c r="A288" s="6" t="s">
         <v>469</v>
       </c>
@@ -22221,7 +22220,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="289" spans="1:16" ht="30" hidden="1">
+    <row r="289" spans="1:16" ht="30">
       <c r="A289" s="6" t="s">
         <v>470</v>
       </c>
@@ -22253,7 +22252,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="290" spans="1:16" ht="15" hidden="1">
+    <row r="290" spans="1:16" ht="15">
       <c r="A290" s="6" t="s">
         <v>471</v>
       </c>
@@ -22285,7 +22284,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="291" spans="1:16" ht="15" hidden="1">
+    <row r="291" spans="1:16" ht="15">
       <c r="A291" s="6" t="s">
         <v>472</v>
       </c>
@@ -22317,7 +22316,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="292" spans="1:16" ht="15" hidden="1">
+    <row r="292" spans="1:16" ht="15">
       <c r="A292" s="6" t="s">
         <v>473</v>
       </c>
@@ -22349,7 +22348,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="293" spans="1:16" ht="30" hidden="1">
+    <row r="293" spans="1:16" ht="30">
       <c r="A293" s="6" t="s">
         <v>474</v>
       </c>
@@ -22381,7 +22380,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="294" spans="1:16" ht="15" hidden="1">
+    <row r="294" spans="1:16" ht="15">
       <c r="A294" s="6" t="s">
         <v>475</v>
       </c>
@@ -22413,7 +22412,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="295" spans="1:16" ht="15" hidden="1">
+    <row r="295" spans="1:16" ht="15">
       <c r="A295" s="6" t="s">
         <v>476</v>
       </c>
@@ -22445,7 +22444,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="296" spans="1:16" ht="15" hidden="1">
+    <row r="296" spans="1:16" ht="15">
       <c r="A296" s="6" t="s">
         <v>477</v>
       </c>
@@ -22474,7 +22473,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="297" spans="1:16" ht="15" hidden="1">
+    <row r="297" spans="1:16" ht="15">
       <c r="A297" s="6" t="s">
         <v>478</v>
       </c>
@@ -22503,7 +22502,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="298" spans="1:16" ht="15" hidden="1">
+    <row r="298" spans="1:16" ht="15">
       <c r="A298" s="6" t="s">
         <v>479</v>
       </c>
@@ -22537,7 +22536,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="299" spans="1:16" ht="15" hidden="1">
+    <row r="299" spans="1:16" ht="15">
       <c r="A299" s="6" t="s">
         <v>480</v>
       </c>
@@ -22571,7 +22570,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="300" spans="1:16" ht="30" hidden="1">
+    <row r="300" spans="1:16" ht="30">
       <c r="A300" s="6" t="s">
         <v>481</v>
       </c>
@@ -22605,7 +22604,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="301" spans="1:16" ht="15" hidden="1">
+    <row r="301" spans="1:16" ht="15">
       <c r="A301" s="6" t="s">
         <v>482</v>
       </c>
@@ -22639,7 +22638,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="302" spans="1:16" ht="15" hidden="1">
+    <row r="302" spans="1:16" ht="15">
       <c r="A302" s="6" t="s">
         <v>483</v>
       </c>
@@ -22673,7 +22672,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="303" spans="1:16" ht="15" hidden="1">
+    <row r="303" spans="1:16" ht="15">
       <c r="A303" s="6" t="s">
         <v>484</v>
       </c>
@@ -22707,7 +22706,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="304" spans="1:16" ht="30" hidden="1">
+    <row r="304" spans="1:16" ht="30">
       <c r="A304" s="6" t="s">
         <v>485</v>
       </c>
@@ -22741,7 +22740,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="305" spans="1:16" ht="15" hidden="1">
+    <row r="305" spans="1:16" ht="15">
       <c r="A305" s="6" t="s">
         <v>486</v>
       </c>
@@ -22775,7 +22774,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="306" spans="1:16" ht="15" hidden="1">
+    <row r="306" spans="1:16" ht="15">
       <c r="A306" s="6" t="s">
         <v>487</v>
       </c>
@@ -22809,7 +22808,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="307" spans="1:16" ht="15" hidden="1">
+    <row r="307" spans="1:16" ht="15">
       <c r="A307" s="6" t="s">
         <v>488</v>
       </c>
@@ -22843,7 +22842,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="308" spans="1:16" ht="15" hidden="1">
+    <row r="308" spans="1:16" ht="15">
       <c r="A308" s="6" t="s">
         <v>489</v>
       </c>
@@ -22877,7 +22876,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="309" spans="1:16" ht="30" hidden="1">
+    <row r="309" spans="1:16" ht="30">
       <c r="A309" s="6" t="s">
         <v>490</v>
       </c>
@@ -22911,7 +22910,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="310" spans="1:16" ht="15" hidden="1">
+    <row r="310" spans="1:16" ht="15">
       <c r="A310" s="6" t="s">
         <v>491</v>
       </c>
@@ -22945,7 +22944,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="311" spans="1:16" ht="15" hidden="1">
+    <row r="311" spans="1:16" ht="15">
       <c r="A311" s="6" t="s">
         <v>492</v>
       </c>
@@ -22979,7 +22978,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="312" spans="1:16" ht="15" hidden="1">
+    <row r="312" spans="1:16" ht="15">
       <c r="A312" s="6" t="s">
         <v>493</v>
       </c>
@@ -23013,7 +23012,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="313" spans="1:16" ht="30" hidden="1">
+    <row r="313" spans="1:16" ht="30">
       <c r="A313" s="6" t="s">
         <v>494</v>
       </c>
@@ -23047,7 +23046,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="314" spans="1:16" ht="15" hidden="1">
+    <row r="314" spans="1:16" ht="15">
       <c r="A314" s="6" t="s">
         <v>495</v>
       </c>
@@ -23081,7 +23080,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="315" spans="1:16" ht="15" hidden="1">
+    <row r="315" spans="1:16" ht="15">
       <c r="A315" s="6" t="s">
         <v>496</v>
       </c>
@@ -23115,7 +23114,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="316" spans="1:16" ht="15" hidden="1">
+    <row r="316" spans="1:16" ht="15">
       <c r="A316" s="6" t="s">
         <v>497</v>
       </c>
@@ -23149,7 +23148,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="317" spans="1:16" ht="15" hidden="1">
+    <row r="317" spans="1:16" ht="15">
       <c r="A317" s="6" t="s">
         <v>498</v>
       </c>
@@ -23183,7 +23182,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="318" spans="1:16" ht="30" hidden="1">
+    <row r="318" spans="1:16" ht="30">
       <c r="A318" s="6" t="s">
         <v>499</v>
       </c>
@@ -23217,7 +23216,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="319" spans="1:16" ht="15" hidden="1">
+    <row r="319" spans="1:16" ht="15">
       <c r="A319" s="6" t="s">
         <v>500</v>
       </c>
@@ -23251,7 +23250,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="320" spans="1:16" ht="15" hidden="1">
+    <row r="320" spans="1:16" ht="15">
       <c r="A320" s="6" t="s">
         <v>501</v>
       </c>
@@ -23285,7 +23284,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="321" spans="1:16" ht="15" hidden="1">
+    <row r="321" spans="1:16" ht="15">
       <c r="A321" s="6" t="s">
         <v>502</v>
       </c>
@@ -23319,7 +23318,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="322" spans="1:16" ht="30" hidden="1">
+    <row r="322" spans="1:16" ht="30">
       <c r="A322" s="6" t="s">
         <v>503</v>
       </c>
@@ -23353,7 +23352,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="323" spans="1:16" ht="15" hidden="1">
+    <row r="323" spans="1:16" ht="15">
       <c r="A323" s="6" t="s">
         <v>504</v>
       </c>
@@ -23387,7 +23386,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="324" spans="1:16" ht="15" hidden="1">
+    <row r="324" spans="1:16" ht="15">
       <c r="A324" s="6" t="s">
         <v>505</v>
       </c>
@@ -23421,7 +23420,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="325" spans="1:16" ht="30" hidden="1">
+    <row r="325" spans="1:16" ht="30">
       <c r="A325" s="6" t="s">
         <v>506</v>
       </c>
@@ -23455,7 +23454,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="326" spans="1:16" ht="30" hidden="1">
+    <row r="326" spans="1:16" ht="30">
       <c r="A326" s="6" t="s">
         <v>507</v>
       </c>
@@ -23489,7 +23488,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="327" spans="1:16" ht="30" hidden="1">
+    <row r="327" spans="1:16" ht="30">
       <c r="A327" s="6" t="s">
         <v>508</v>
       </c>
@@ -23523,7 +23522,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="328" spans="1:16" ht="30" hidden="1">
+    <row r="328" spans="1:16" ht="30">
       <c r="A328" s="6" t="s">
         <v>509</v>
       </c>
@@ -23557,7 +23556,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="329" spans="1:16" ht="30" hidden="1">
+    <row r="329" spans="1:16" ht="30">
       <c r="A329" s="6" t="s">
         <v>510</v>
       </c>
@@ -23591,7 +23590,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="330" spans="1:16" ht="30" hidden="1">
+    <row r="330" spans="1:16" ht="30">
       <c r="A330" s="6" t="s">
         <v>511</v>
       </c>
@@ -23625,7 +23624,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="331" spans="1:16" ht="30" hidden="1">
+    <row r="331" spans="1:16" ht="30">
       <c r="A331" s="6" t="s">
         <v>512</v>
       </c>
@@ -23659,7 +23658,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="332" spans="1:16" ht="30" hidden="1">
+    <row r="332" spans="1:16" ht="30">
       <c r="A332" s="6" t="s">
         <v>513</v>
       </c>
@@ -23693,7 +23692,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="333" spans="1:16" ht="30" hidden="1">
+    <row r="333" spans="1:16" ht="30">
       <c r="A333" s="6" t="s">
         <v>514</v>
       </c>
@@ -23727,7 +23726,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="334" spans="1:16" ht="15" hidden="1">
+    <row r="334" spans="1:16" ht="15">
       <c r="A334" s="6" t="s">
         <v>515</v>
       </c>
@@ -23761,7 +23760,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="335" spans="1:16" ht="15" hidden="1">
+    <row r="335" spans="1:16" ht="15">
       <c r="A335" s="6" t="s">
         <v>516</v>
       </c>
@@ -23795,7 +23794,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="336" spans="1:16" ht="30" hidden="1">
+    <row r="336" spans="1:16" ht="30">
       <c r="A336" s="6" t="s">
         <v>517</v>
       </c>
@@ -23829,7 +23828,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="337" spans="1:16" ht="15" hidden="1">
+    <row r="337" spans="1:16" ht="15">
       <c r="A337" s="6" t="s">
         <v>518</v>
       </c>
@@ -23863,7 +23862,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="338" spans="1:16" ht="15" hidden="1">
+    <row r="338" spans="1:16" ht="15">
       <c r="A338" s="6" t="s">
         <v>519</v>
       </c>
@@ -23897,7 +23896,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="339" spans="1:16" ht="15" hidden="1">
+    <row r="339" spans="1:16" ht="15">
       <c r="A339" s="6" t="s">
         <v>520</v>
       </c>
@@ -23931,7 +23930,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="340" spans="1:16" ht="30" hidden="1">
+    <row r="340" spans="1:16" ht="30">
       <c r="A340" s="6" t="s">
         <v>521</v>
       </c>
@@ -23965,7 +23964,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="15" hidden="1">
+    <row r="341" spans="1:16" ht="15">
       <c r="A341" s="6" t="s">
         <v>522</v>
       </c>
@@ -23999,7 +23998,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="15" hidden="1">
+    <row r="342" spans="1:16" ht="15">
       <c r="A342" s="6" t="s">
         <v>523</v>
       </c>
@@ -24033,7 +24032,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="15" hidden="1">
+    <row r="343" spans="1:16" ht="15">
       <c r="A343" s="6" t="s">
         <v>524</v>
       </c>
@@ -24067,7 +24066,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="344" spans="1:16" ht="15" hidden="1">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="6" t="s">
         <v>525</v>
       </c>
@@ -24101,7 +24100,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="345" spans="1:16" ht="30" hidden="1">
+    <row r="345" spans="1:16" ht="30">
       <c r="A345" s="6" t="s">
         <v>526</v>
       </c>
@@ -24135,7 +24134,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="346" spans="1:16" ht="15" hidden="1">
+    <row r="346" spans="1:16" ht="15">
       <c r="A346" s="6" t="s">
         <v>527</v>
       </c>
@@ -24169,7 +24168,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="347" spans="1:16" ht="15" hidden="1">
+    <row r="347" spans="1:16" ht="15">
       <c r="A347" s="6" t="s">
         <v>528</v>
       </c>
@@ -24203,7 +24202,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="15" hidden="1">
+    <row r="348" spans="1:16" ht="15">
       <c r="A348" s="6" t="s">
         <v>529</v>
       </c>
@@ -24237,7 +24236,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="349" spans="1:16" ht="30" hidden="1">
+    <row r="349" spans="1:16" ht="30">
       <c r="A349" s="6" t="s">
         <v>530</v>
       </c>
@@ -24271,7 +24270,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="350" spans="1:16" ht="15" hidden="1">
+    <row r="350" spans="1:16" ht="15">
       <c r="A350" s="6" t="s">
         <v>531</v>
       </c>
@@ -24305,7 +24304,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="351" spans="1:16" ht="15" hidden="1">
+    <row r="351" spans="1:16" ht="15">
       <c r="A351" s="6" t="s">
         <v>532</v>
       </c>
@@ -24339,7 +24338,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="352" spans="1:16" ht="15" hidden="1">
+    <row r="352" spans="1:16" ht="15">
       <c r="A352" s="6" t="s">
         <v>533</v>
       </c>
@@ -24373,7 +24372,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="353" spans="1:16" ht="15" hidden="1">
+    <row r="353" spans="1:16" ht="15">
       <c r="A353" s="6" t="s">
         <v>534</v>
       </c>
@@ -24407,7 +24406,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="354" spans="1:16" ht="30" hidden="1">
+    <row r="354" spans="1:16" ht="30">
       <c r="A354" s="6" t="s">
         <v>535</v>
       </c>
@@ -24441,7 +24440,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="15" hidden="1">
+    <row r="355" spans="1:16" ht="15">
       <c r="A355" s="6" t="s">
         <v>536</v>
       </c>
@@ -24475,7 +24474,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="356" spans="1:16" ht="15" hidden="1">
+    <row r="356" spans="1:16" ht="15">
       <c r="A356" s="6" t="s">
         <v>537</v>
       </c>
@@ -24509,7 +24508,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="357" spans="1:16" ht="15" hidden="1">
+    <row r="357" spans="1:16" ht="15">
       <c r="A357" s="6" t="s">
         <v>538</v>
       </c>
@@ -24543,7 +24542,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="358" spans="1:16" ht="30" hidden="1">
+    <row r="358" spans="1:16" ht="30">
       <c r="A358" s="6" t="s">
         <v>539</v>
       </c>
@@ -24577,7 +24576,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="359" spans="1:16" ht="15" hidden="1">
+    <row r="359" spans="1:16" ht="15">
       <c r="A359" s="6" t="s">
         <v>540</v>
       </c>
@@ -24611,7 +24610,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="360" spans="1:16" ht="15" hidden="1">
+    <row r="360" spans="1:16" ht="15">
       <c r="A360" s="6" t="s">
         <v>541</v>
       </c>
@@ -24645,7 +24644,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="361" spans="1:16" ht="30" hidden="1">
+    <row r="361" spans="1:16" ht="30">
       <c r="A361" s="6" t="s">
         <v>542</v>
       </c>
@@ -24679,7 +24678,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="362" spans="1:16" ht="30" hidden="1">
+    <row r="362" spans="1:16" ht="30">
       <c r="A362" s="6" t="s">
         <v>543</v>
       </c>
@@ -24713,7 +24712,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="363" spans="1:16" ht="30" hidden="1">
+    <row r="363" spans="1:16" ht="30">
       <c r="A363" s="6" t="s">
         <v>544</v>
       </c>
@@ -24747,7 +24746,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="364" spans="1:16" ht="30" hidden="1">
+    <row r="364" spans="1:16" ht="30">
       <c r="A364" s="6" t="s">
         <v>545</v>
       </c>
@@ -24781,7 +24780,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="365" spans="1:16" ht="30" hidden="1">
+    <row r="365" spans="1:16" ht="30">
       <c r="A365" s="6" t="s">
         <v>546</v>
       </c>
@@ -24815,7 +24814,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="366" spans="1:16" ht="30" hidden="1">
+    <row r="366" spans="1:16" ht="30">
       <c r="A366" s="6" t="s">
         <v>547</v>
       </c>
@@ -24849,7 +24848,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="367" spans="1:16" ht="30" hidden="1">
+    <row r="367" spans="1:16" ht="30">
       <c r="A367" s="6" t="s">
         <v>548</v>
       </c>
@@ -24883,7 +24882,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="368" spans="1:16" ht="30" hidden="1">
+    <row r="368" spans="1:16" ht="30">
       <c r="A368" s="6" t="s">
         <v>549</v>
       </c>
@@ -24917,7 +24916,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="369" spans="1:16" ht="30" hidden="1">
+    <row r="369" spans="1:16" ht="30">
       <c r="A369" s="6" t="s">
         <v>550</v>
       </c>
@@ -24951,7 +24950,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="370" spans="1:16" ht="30" hidden="1">
+    <row r="370" spans="1:16" ht="30">
       <c r="A370" s="6" t="s">
         <v>551</v>
       </c>
@@ -24987,7 +24986,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="371" spans="1:16" ht="30" hidden="1">
+    <row r="371" spans="1:16" ht="30">
       <c r="A371" s="6" t="s">
         <v>552</v>
       </c>
@@ -25023,7 +25022,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="372" spans="1:16" ht="30" hidden="1">
+    <row r="372" spans="1:16" ht="30">
       <c r="A372" s="6" t="s">
         <v>553</v>
       </c>
@@ -25059,7 +25058,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="373" spans="1:16" ht="30" hidden="1">
+    <row r="373" spans="1:16" ht="30">
       <c r="A373" s="6" t="s">
         <v>554</v>
       </c>
@@ -25095,7 +25094,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="374" spans="1:16" ht="30" hidden="1">
+    <row r="374" spans="1:16" ht="30">
       <c r="A374" s="6" t="s">
         <v>555</v>
       </c>
@@ -25131,7 +25130,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="375" spans="1:16" ht="30" hidden="1">
+    <row r="375" spans="1:16" ht="30">
       <c r="A375" s="6" t="s">
         <v>556</v>
       </c>
@@ -25167,7 +25166,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="376" spans="1:16" ht="30" hidden="1">
+    <row r="376" spans="1:16" ht="30">
       <c r="A376" s="6" t="s">
         <v>557</v>
       </c>
@@ -25203,7 +25202,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="377" spans="1:16" ht="30" hidden="1">
+    <row r="377" spans="1:16" ht="30">
       <c r="A377" s="6" t="s">
         <v>558</v>
       </c>
@@ -25239,7 +25238,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="378" spans="1:16" ht="30" hidden="1">
+    <row r="378" spans="1:16" ht="30">
       <c r="A378" s="6" t="s">
         <v>559</v>
       </c>
@@ -25275,7 +25274,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="379" spans="1:16" ht="30" hidden="1">
+    <row r="379" spans="1:16" ht="30">
       <c r="A379" s="6" t="s">
         <v>560</v>
       </c>
@@ -25311,7 +25310,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="380" spans="1:16" ht="30" hidden="1">
+    <row r="380" spans="1:16" ht="30">
       <c r="A380" s="6" t="s">
         <v>561</v>
       </c>
@@ -25347,7 +25346,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="381" spans="1:16" ht="30" hidden="1">
+    <row r="381" spans="1:16" ht="30">
       <c r="A381" s="6" t="s">
         <v>562</v>
       </c>
@@ -25383,7 +25382,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="382" spans="1:16" ht="30" hidden="1">
+    <row r="382" spans="1:16" ht="30">
       <c r="A382" s="6" t="s">
         <v>563</v>
       </c>
@@ -25419,7 +25418,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="383" spans="1:16" ht="30" hidden="1">
+    <row r="383" spans="1:16" ht="30">
       <c r="A383" s="6" t="s">
         <v>564</v>
       </c>
@@ -25455,7 +25454,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="384" spans="1:16" ht="30" hidden="1">
+    <row r="384" spans="1:16" ht="30">
       <c r="A384" s="6" t="s">
         <v>565</v>
       </c>
@@ -25491,7 +25490,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="385" spans="1:16" ht="30" hidden="1">
+    <row r="385" spans="1:16" ht="30">
       <c r="A385" s="6" t="s">
         <v>566</v>
       </c>
@@ -25527,7 +25526,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="386" spans="1:16" ht="30" hidden="1">
+    <row r="386" spans="1:16" ht="30">
       <c r="A386" s="6" t="s">
         <v>567</v>
       </c>
@@ -25563,7 +25562,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="387" spans="1:16" ht="30" hidden="1">
+    <row r="387" spans="1:16" ht="30">
       <c r="A387" s="6" t="s">
         <v>568</v>
       </c>
@@ -25599,7 +25598,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="388" spans="1:16" ht="30" hidden="1">
+    <row r="388" spans="1:16" ht="30">
       <c r="A388" s="6" t="s">
         <v>569</v>
       </c>
@@ -25635,7 +25634,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="389" spans="1:16" ht="30" hidden="1">
+    <row r="389" spans="1:16" ht="30">
       <c r="A389" s="6" t="s">
         <v>570</v>
       </c>
@@ -25671,7 +25670,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="390" spans="1:16" ht="15" hidden="1">
+    <row r="390" spans="1:16" ht="15">
       <c r="A390" s="6" t="s">
         <v>571</v>
       </c>
@@ -25708,7 +25707,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="391" spans="1:16" ht="15" hidden="1">
+    <row r="391" spans="1:16" ht="15">
       <c r="A391" s="6" t="s">
         <v>572</v>
       </c>
@@ -25742,7 +25741,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="392" spans="1:16" ht="15" hidden="1">
+    <row r="392" spans="1:16" ht="15">
       <c r="A392" s="6" t="s">
         <v>573</v>
       </c>
@@ -25776,7 +25775,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="393" spans="1:16" ht="15" hidden="1">
+    <row r="393" spans="1:16" ht="15">
       <c r="A393" s="6" t="s">
         <v>574</v>
       </c>
@@ -25810,7 +25809,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="394" spans="1:16" ht="15" hidden="1">
+    <row r="394" spans="1:16" ht="15">
       <c r="A394" s="6" t="s">
         <v>575</v>
       </c>
@@ -25844,7 +25843,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="395" spans="1:16" ht="15" hidden="1">
+    <row r="395" spans="1:16" ht="15">
       <c r="A395" s="6" t="s">
         <v>576</v>
       </c>
@@ -25878,7 +25877,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="396" spans="1:16" ht="15" hidden="1">
+    <row r="396" spans="1:16" ht="15">
       <c r="A396" s="6" t="s">
         <v>577</v>
       </c>
@@ -25912,7 +25911,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="397" spans="1:16" ht="15" hidden="1">
+    <row r="397" spans="1:16" ht="15">
       <c r="A397" s="6" t="s">
         <v>578</v>
       </c>
@@ -25946,7 +25945,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="398" spans="1:16" ht="15" hidden="1">
+    <row r="398" spans="1:16" ht="15">
       <c r="A398" s="6" t="s">
         <v>579</v>
       </c>
@@ -25980,7 +25979,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="399" spans="1:16" ht="15" hidden="1">
+    <row r="399" spans="1:16" ht="15">
       <c r="A399" s="6" t="s">
         <v>580</v>
       </c>
@@ -26014,7 +26013,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="400" spans="1:16" ht="15" hidden="1">
+    <row r="400" spans="1:16" ht="15">
       <c r="A400" s="6" t="s">
         <v>581</v>
       </c>
@@ -26048,7 +26047,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="401" spans="1:16" ht="15" hidden="1">
+    <row r="401" spans="1:16" ht="15">
       <c r="A401" s="6" t="s">
         <v>582</v>
       </c>
@@ -26082,7 +26081,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="402" spans="1:16" ht="15" hidden="1">
+    <row r="402" spans="1:16" ht="15">
       <c r="A402" s="6" t="s">
         <v>583</v>
       </c>
@@ -26116,7 +26115,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="403" spans="1:16" ht="15" hidden="1">
+    <row r="403" spans="1:16" ht="15">
       <c r="A403" s="6" t="s">
         <v>584</v>
       </c>
@@ -26150,7 +26149,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="404" spans="1:16" ht="15" hidden="1">
+    <row r="404" spans="1:16" ht="15">
       <c r="A404" s="6" t="s">
         <v>585</v>
       </c>
@@ -26184,7 +26183,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="405" spans="1:16" ht="15" hidden="1">
+    <row r="405" spans="1:16" ht="15">
       <c r="A405" s="6" t="s">
         <v>586</v>
       </c>
@@ -26218,7 +26217,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="406" spans="1:16" ht="15" hidden="1">
+    <row r="406" spans="1:16" ht="15">
       <c r="A406" s="6" t="s">
         <v>587</v>
       </c>
@@ -26252,7 +26251,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="407" spans="1:16" ht="15" hidden="1">
+    <row r="407" spans="1:16" ht="15">
       <c r="A407" s="6" t="s">
         <v>588</v>
       </c>
@@ -26286,7 +26285,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="408" spans="1:16" ht="15" hidden="1">
+    <row r="408" spans="1:16" ht="15">
       <c r="A408" s="6" t="s">
         <v>589</v>
       </c>
@@ -26320,7 +26319,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="409" spans="1:16" ht="15" hidden="1">
+    <row r="409" spans="1:16" ht="15">
       <c r="A409" s="6" t="s">
         <v>590</v>
       </c>
@@ -26354,7 +26353,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="410" spans="1:16" ht="15" hidden="1">
+    <row r="410" spans="1:16" ht="15">
       <c r="A410" s="6" t="s">
         <v>591</v>
       </c>
@@ -26388,7 +26387,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="411" spans="1:16" ht="15" hidden="1">
+    <row r="411" spans="1:16" ht="15">
       <c r="A411" s="6" t="s">
         <v>592</v>
       </c>
@@ -26422,7 +26421,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="412" spans="1:16" ht="15" hidden="1">
+    <row r="412" spans="1:16" ht="15">
       <c r="A412" s="6" t="s">
         <v>593</v>
       </c>
@@ -26456,7 +26455,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="413" spans="1:16" ht="15" hidden="1">
+    <row r="413" spans="1:16" ht="15">
       <c r="A413" s="6" t="s">
         <v>594</v>
       </c>
@@ -26490,7 +26489,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="414" spans="1:16" ht="15" hidden="1">
+    <row r="414" spans="1:16" ht="15">
       <c r="A414" s="6" t="s">
         <v>595</v>
       </c>
@@ -26524,7 +26523,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="415" spans="1:16" ht="15" hidden="1">
+    <row r="415" spans="1:16" ht="15">
       <c r="A415" s="6" t="s">
         <v>596</v>
       </c>
@@ -26558,7 +26557,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="15" hidden="1">
+    <row r="416" spans="1:16" ht="15">
       <c r="A416" s="6" t="s">
         <v>597</v>
       </c>
@@ -26592,7 +26591,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="417" spans="1:16" ht="15" hidden="1">
+    <row r="417" spans="1:16" ht="15">
       <c r="A417" s="6" t="s">
         <v>598</v>
       </c>
@@ -26626,7 +26625,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="418" spans="1:16" ht="15" hidden="1">
+    <row r="418" spans="1:16" ht="15">
       <c r="A418" s="6" t="s">
         <v>599</v>
       </c>
@@ -26660,7 +26659,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="419" spans="1:16" ht="15" hidden="1">
+    <row r="419" spans="1:16" ht="15">
       <c r="A419" s="6" t="s">
         <v>600</v>
       </c>
@@ -26694,7 +26693,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="420" spans="1:16" ht="15" hidden="1">
+    <row r="420" spans="1:16" ht="15">
       <c r="A420" s="6" t="s">
         <v>601</v>
       </c>
@@ -26728,7 +26727,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="421" spans="1:16" ht="15" hidden="1">
+    <row r="421" spans="1:16" ht="15">
       <c r="A421" s="6" t="s">
         <v>602</v>
       </c>
@@ -26762,7 +26761,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="422" spans="1:16" ht="15" hidden="1">
+    <row r="422" spans="1:16" ht="15">
       <c r="A422" s="6" t="s">
         <v>603</v>
       </c>
@@ -26799,7 +26798,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="423" spans="1:16" ht="15" hidden="1">
+    <row r="423" spans="1:16" ht="15">
       <c r="A423" s="6" t="s">
         <v>604</v>
       </c>
@@ -26833,7 +26832,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="424" spans="1:16" ht="15" hidden="1">
+    <row r="424" spans="1:16" ht="15">
       <c r="A424" s="6" t="s">
         <v>605</v>
       </c>
@@ -26867,7 +26866,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="425" spans="1:16" ht="15" hidden="1">
+    <row r="425" spans="1:16" ht="15">
       <c r="A425" s="6" t="s">
         <v>606</v>
       </c>
@@ -26901,7 +26900,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="426" spans="1:16" ht="15" hidden="1">
+    <row r="426" spans="1:16" ht="15">
       <c r="A426" s="6" t="s">
         <v>607</v>
       </c>
@@ -26935,7 +26934,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="427" spans="1:16" ht="15" hidden="1">
+    <row r="427" spans="1:16" ht="15">
       <c r="A427" s="6" t="s">
         <v>608</v>
       </c>
@@ -26969,7 +26968,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="428" spans="1:16" ht="15" hidden="1">
+    <row r="428" spans="1:16" ht="15">
       <c r="A428" s="6" t="s">
         <v>609</v>
       </c>
@@ -27003,7 +27002,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="429" spans="1:16" ht="15" hidden="1">
+    <row r="429" spans="1:16" ht="15">
       <c r="A429" s="6" t="s">
         <v>610</v>
       </c>
@@ -27037,7 +27036,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="430" spans="1:16" ht="15" hidden="1">
+    <row r="430" spans="1:16" ht="15">
       <c r="A430" s="6" t="s">
         <v>611</v>
       </c>
@@ -27071,7 +27070,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="431" spans="1:16" ht="15" hidden="1">
+    <row r="431" spans="1:16" ht="15">
       <c r="A431" s="6" t="s">
         <v>612</v>
       </c>
@@ -27105,7 +27104,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="432" spans="1:16" ht="15" hidden="1">
+    <row r="432" spans="1:16" ht="15">
       <c r="A432" s="6" t="s">
         <v>613</v>
       </c>
@@ -27139,7 +27138,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="433" spans="1:16" ht="15" hidden="1">
+    <row r="433" spans="1:16" ht="15">
       <c r="A433" s="6" t="s">
         <v>614</v>
       </c>
@@ -27173,7 +27172,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="434" spans="1:16" ht="15" hidden="1">
+    <row r="434" spans="1:16" ht="15">
       <c r="A434" s="6" t="s">
         <v>615</v>
       </c>
@@ -27207,7 +27206,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="435" spans="1:16" ht="15" hidden="1">
+    <row r="435" spans="1:16" ht="15">
       <c r="A435" s="6" t="s">
         <v>616</v>
       </c>
@@ -27241,7 +27240,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="436" spans="1:16" ht="15" hidden="1">
+    <row r="436" spans="1:16" ht="15">
       <c r="A436" s="6" t="s">
         <v>617</v>
       </c>
@@ -27275,7 +27274,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="437" spans="1:16" ht="15" hidden="1">
+    <row r="437" spans="1:16" ht="15">
       <c r="A437" s="6" t="s">
         <v>618</v>
       </c>
@@ -27309,7 +27308,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="438" spans="1:16" ht="15" hidden="1">
+    <row r="438" spans="1:16" ht="15">
       <c r="A438" s="21" t="s">
         <v>1192</v>
       </c>
@@ -27335,7 +27334,7 @@
       </c>
       <c r="P438" s="12"/>
     </row>
-    <row r="439" spans="1:16" ht="15" hidden="1">
+    <row r="439" spans="1:16" ht="15">
       <c r="A439" s="6" t="s">
         <v>620</v>
       </c>
@@ -27371,7 +27370,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="440" spans="1:16" ht="15" hidden="1">
+    <row r="440" spans="1:16" ht="15">
       <c r="A440" s="6" t="s">
         <v>621</v>
       </c>
@@ -27407,7 +27406,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="441" spans="1:16" ht="15" hidden="1">
+    <row r="441" spans="1:16" ht="15">
       <c r="A441" s="6" t="s">
         <v>622</v>
       </c>
@@ -27443,7 +27442,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="442" spans="1:16" ht="30" hidden="1">
+    <row r="442" spans="1:16" ht="30">
       <c r="A442" s="6" t="s">
         <v>623</v>
       </c>
@@ -27479,7 +27478,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="443" spans="1:16" ht="15" hidden="1">
+    <row r="443" spans="1:16" ht="15">
       <c r="A443" s="6" t="s">
         <v>624</v>
       </c>
@@ -27515,7 +27514,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="444" spans="1:16" ht="15" hidden="1">
+    <row r="444" spans="1:16" ht="15">
       <c r="A444" s="6" t="s">
         <v>625</v>
       </c>
@@ -27551,7 +27550,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="445" spans="1:16" ht="15" hidden="1">
+    <row r="445" spans="1:16" ht="15">
       <c r="A445" s="6" t="s">
         <v>626</v>
       </c>
@@ -27587,7 +27586,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="446" spans="1:16" ht="30" hidden="1">
+    <row r="446" spans="1:16" ht="30">
       <c r="A446" s="6" t="s">
         <v>627</v>
       </c>
@@ -27623,7 +27622,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="447" spans="1:16" ht="30" hidden="1">
+    <row r="447" spans="1:16" ht="30">
       <c r="A447" s="7" t="s">
         <v>628</v>
       </c>
@@ -27657,7 +27656,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="448" spans="1:16" ht="15" hidden="1">
+    <row r="448" spans="1:16" ht="15">
       <c r="A448" s="6" t="s">
         <v>629</v>
       </c>
@@ -27693,7 +27692,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="449" spans="1:16" ht="15" hidden="1">
+    <row r="449" spans="1:16" ht="15">
       <c r="A449" s="6" t="s">
         <v>630</v>
       </c>
@@ -27729,7 +27728,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="450" spans="1:16" ht="15" hidden="1">
+    <row r="450" spans="1:16" ht="15">
       <c r="A450" s="6" t="s">
         <v>631</v>
       </c>
@@ -27765,7 +27764,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="451" spans="1:16" ht="15" hidden="1">
+    <row r="451" spans="1:16" ht="15">
       <c r="A451" s="6" t="s">
         <v>632</v>
       </c>
@@ -27801,7 +27800,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="452" spans="1:16" ht="15" hidden="1">
+    <row r="452" spans="1:16" ht="15">
       <c r="A452" s="6" t="s">
         <v>633</v>
       </c>
@@ -27837,7 +27836,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="453" spans="1:16" ht="15" hidden="1">
+    <row r="453" spans="1:16" ht="15">
       <c r="A453" s="6" t="s">
         <v>634</v>
       </c>
@@ -27873,7 +27872,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="454" spans="1:16" ht="15" hidden="1">
+    <row r="454" spans="1:16" ht="15">
       <c r="A454" s="6" t="s">
         <v>635</v>
       </c>
@@ -27909,7 +27908,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="455" spans="1:16" ht="15" hidden="1">
+    <row r="455" spans="1:16" ht="15">
       <c r="A455" s="6" t="s">
         <v>636</v>
       </c>
@@ -27945,7 +27944,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="456" spans="1:16" ht="30" hidden="1">
+    <row r="456" spans="1:16" ht="30">
       <c r="A456" s="6" t="s">
         <v>637</v>
       </c>
@@ -27980,7 +27979,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="457" spans="1:16" ht="15" hidden="1">
+    <row r="457" spans="1:16" ht="15">
       <c r="A457" s="6" t="s">
         <v>638</v>
       </c>
@@ -28012,7 +28011,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="458" spans="1:16" ht="15" hidden="1">
+    <row r="458" spans="1:16" ht="15">
       <c r="A458" s="6" t="s">
         <v>639</v>
       </c>
@@ -28044,7 +28043,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="459" spans="1:16" ht="30" hidden="1">
+    <row r="459" spans="1:16" ht="30">
       <c r="A459" s="6" t="s">
         <v>640</v>
       </c>
@@ -28076,7 +28075,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="460" spans="1:16" ht="30" hidden="1">
+    <row r="460" spans="1:16" ht="30">
       <c r="A460" s="6" t="s">
         <v>641</v>
       </c>
@@ -28108,7 +28107,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="461" spans="1:16" ht="15" hidden="1">
+    <row r="461" spans="1:16" ht="15">
       <c r="A461" s="6" t="s">
         <v>642</v>
       </c>
@@ -28140,7 +28139,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="462" spans="1:16" ht="15" hidden="1">
+    <row r="462" spans="1:16" ht="15">
       <c r="A462" s="6" t="s">
         <v>643</v>
       </c>
@@ -28172,7 +28171,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="463" spans="1:16" ht="30" hidden="1">
+    <row r="463" spans="1:16" ht="30">
       <c r="A463" s="6" t="s">
         <v>644</v>
       </c>
@@ -28204,7 +28203,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="464" spans="1:16" ht="30" hidden="1">
+    <row r="464" spans="1:16" ht="30">
       <c r="A464" s="6" t="s">
         <v>645</v>
       </c>
@@ -28236,7 +28235,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="465" spans="1:16" ht="15" hidden="1">
+    <row r="465" spans="1:16" ht="15">
       <c r="A465" s="6" t="s">
         <v>646</v>
       </c>
@@ -28268,7 +28267,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="466" spans="1:16" ht="15" hidden="1">
+    <row r="466" spans="1:16" ht="15">
       <c r="A466" s="6" t="s">
         <v>647</v>
       </c>
@@ -28300,7 +28299,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="467" spans="1:16" ht="30" hidden="1">
+    <row r="467" spans="1:16" ht="30">
       <c r="A467" s="6" t="s">
         <v>648</v>
       </c>
@@ -28332,7 +28331,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="468" spans="1:16" ht="30" hidden="1">
+    <row r="468" spans="1:16" ht="30">
       <c r="A468" s="21" t="s">
         <v>1186</v>
       </c>
@@ -28362,7 +28361,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="469" spans="1:16" ht="30" hidden="1">
+    <row r="469" spans="1:16" ht="30">
       <c r="A469" s="21" t="s">
         <v>1168</v>
       </c>
@@ -28392,7 +28391,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="470" spans="1:16" ht="15" hidden="1">
+    <row r="470" spans="1:16" ht="15">
       <c r="A470" s="6" t="s">
         <v>649</v>
       </c>
@@ -28428,7 +28427,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="471" spans="1:16" ht="15" hidden="1">
+    <row r="471" spans="1:16" ht="15">
       <c r="A471" s="6" t="s">
         <v>650</v>
       </c>
@@ -28464,7 +28463,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="472" spans="1:16" ht="30" hidden="1">
+    <row r="472" spans="1:16" ht="30">
       <c r="A472" s="6" t="s">
         <v>651</v>
       </c>
@@ -28500,7 +28499,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="473" spans="1:16" ht="15" hidden="1">
+    <row r="473" spans="1:16" ht="15">
       <c r="A473" s="6" t="s">
         <v>652</v>
       </c>
@@ -28534,7 +28533,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="474" spans="1:16" ht="15" hidden="1">
+    <row r="474" spans="1:16" ht="15">
       <c r="A474" s="6" t="s">
         <v>653</v>
       </c>
@@ -28568,7 +28567,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="475" spans="1:16" ht="30" hidden="1">
+    <row r="475" spans="1:16" ht="30">
       <c r="A475" s="6" t="s">
         <v>654</v>
       </c>
@@ -28602,7 +28601,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="476" spans="1:16" ht="15" hidden="1">
+    <row r="476" spans="1:16" ht="15">
       <c r="A476" s="6" t="s">
         <v>655</v>
       </c>
@@ -28638,7 +28637,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="477" spans="1:16" ht="15" hidden="1">
+    <row r="477" spans="1:16" ht="15">
       <c r="A477" s="6" t="s">
         <v>656</v>
       </c>
@@ -28674,7 +28673,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="478" spans="1:16" ht="30" hidden="1">
+    <row r="478" spans="1:16" ht="30">
       <c r="A478" s="6" t="s">
         <v>657</v>
       </c>
@@ -28710,7 +28709,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="479" spans="1:16" ht="30" hidden="1">
+    <row r="479" spans="1:16" ht="30">
       <c r="A479" s="6" t="s">
         <v>658</v>
       </c>
@@ -28744,7 +28743,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="480" spans="1:16" ht="15" hidden="1">
+    <row r="480" spans="1:16" ht="15">
       <c r="A480" s="6" t="s">
         <v>659</v>
       </c>
@@ -28778,7 +28777,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="481" spans="1:16" ht="30" hidden="1">
+    <row r="481" spans="1:16" ht="30">
       <c r="A481" s="6" t="s">
         <v>660</v>
       </c>
@@ -28812,7 +28811,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="482" spans="1:16" ht="15" hidden="1">
+    <row r="482" spans="1:16" ht="15">
       <c r="A482" s="6" t="s">
         <v>661</v>
       </c>
@@ -28846,7 +28845,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="483" spans="1:16" ht="30" hidden="1">
+    <row r="483" spans="1:16" ht="30">
       <c r="A483" s="6" t="s">
         <v>662</v>
       </c>
@@ -28880,7 +28879,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="484" spans="1:16" ht="15" hidden="1">
+    <row r="484" spans="1:16" ht="15">
       <c r="A484" s="6" t="s">
         <v>663</v>
       </c>
@@ -28914,7 +28913,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="485" spans="1:16" ht="30" hidden="1">
+    <row r="485" spans="1:16" ht="30">
       <c r="A485" s="6" t="s">
         <v>664</v>
       </c>
@@ -28948,7 +28947,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="486" spans="1:16" ht="15" hidden="1">
+    <row r="486" spans="1:16" ht="15">
       <c r="A486" s="6" t="s">
         <v>665</v>
       </c>
@@ -28982,7 +28981,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="487" spans="1:16" ht="30" hidden="1">
+    <row r="487" spans="1:16" ht="30">
       <c r="A487" s="6" t="s">
         <v>666</v>
       </c>
@@ -29016,7 +29015,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="488" spans="1:16" ht="15" hidden="1">
+    <row r="488" spans="1:16" ht="15">
       <c r="A488" s="6" t="s">
         <v>667</v>
       </c>
@@ -29050,7 +29049,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="489" spans="1:16" ht="30" hidden="1">
+    <row r="489" spans="1:16" ht="30">
       <c r="A489" s="6" t="s">
         <v>668</v>
       </c>
@@ -29084,7 +29083,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="490" spans="1:16" ht="15" hidden="1">
+    <row r="490" spans="1:16" ht="15">
       <c r="A490" s="6" t="s">
         <v>669</v>
       </c>
@@ -29118,7 +29117,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="491" spans="1:16" ht="30" hidden="1">
+    <row r="491" spans="1:16" ht="30">
       <c r="A491" s="6" t="s">
         <v>670</v>
       </c>
@@ -29152,7 +29151,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="492" spans="1:16" ht="15" hidden="1">
+    <row r="492" spans="1:16" ht="15">
       <c r="A492" s="6" t="s">
         <v>671</v>
       </c>
@@ -29186,7 +29185,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="493" spans="1:16" ht="30" hidden="1">
+    <row r="493" spans="1:16" ht="30">
       <c r="A493" s="6" t="s">
         <v>672</v>
       </c>
@@ -29220,7 +29219,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="494" spans="1:16" ht="15" hidden="1">
+    <row r="494" spans="1:16" ht="15">
       <c r="A494" s="6" t="s">
         <v>673</v>
       </c>
@@ -29254,7 +29253,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="495" spans="1:16" ht="30" hidden="1">
+    <row r="495" spans="1:16" ht="30">
       <c r="A495" s="6" t="s">
         <v>674</v>
       </c>
@@ -29288,7 +29287,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="496" spans="1:16" ht="15" hidden="1">
+    <row r="496" spans="1:16" ht="15">
       <c r="A496" s="6" t="s">
         <v>675</v>
       </c>
@@ -29322,7 +29321,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="497" spans="1:16" ht="30" hidden="1">
+    <row r="497" spans="1:16" ht="30">
       <c r="A497" s="6" t="s">
         <v>676</v>
       </c>
@@ -29356,7 +29355,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="498" spans="1:16" ht="15" hidden="1">
+    <row r="498" spans="1:16" ht="15">
       <c r="A498" s="6" t="s">
         <v>677</v>
       </c>
@@ -29390,7 +29389,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="499" spans="1:16" ht="30" hidden="1">
+    <row r="499" spans="1:16" ht="30">
       <c r="A499" s="6" t="s">
         <v>678</v>
       </c>
@@ -29424,7 +29423,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="500" spans="1:16" ht="15" hidden="1">
+    <row r="500" spans="1:16" ht="15">
       <c r="A500" s="6" t="s">
         <v>679</v>
       </c>
@@ -29458,7 +29457,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="501" spans="1:16" ht="30" hidden="1">
+    <row r="501" spans="1:16" ht="30">
       <c r="A501" s="6" t="s">
         <v>680</v>
       </c>
@@ -29492,7 +29491,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="502" spans="1:16" ht="15" hidden="1">
+    <row r="502" spans="1:16" ht="15">
       <c r="A502" s="6" t="s">
         <v>681</v>
       </c>
@@ -29526,7 +29525,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="503" spans="1:16" ht="30" hidden="1">
+    <row r="503" spans="1:16" ht="30">
       <c r="A503" s="6" t="s">
         <v>682</v>
       </c>
@@ -29560,7 +29559,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="504" spans="1:16" ht="15" hidden="1">
+    <row r="504" spans="1:16" ht="15">
       <c r="A504" s="6" t="s">
         <v>683</v>
       </c>
@@ -29594,7 +29593,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="505" spans="1:16" ht="30" hidden="1">
+    <row r="505" spans="1:16" ht="30">
       <c r="A505" s="6" t="s">
         <v>684</v>
       </c>
@@ -29628,7 +29627,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="506" spans="1:16" ht="15" hidden="1">
+    <row r="506" spans="1:16" ht="15">
       <c r="A506" s="6" t="s">
         <v>685</v>
       </c>
@@ -29662,7 +29661,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="507" spans="1:16" ht="30" hidden="1">
+    <row r="507" spans="1:16" ht="30">
       <c r="A507" s="6" t="s">
         <v>686</v>
       </c>
@@ -29696,7 +29695,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="508" spans="1:16" ht="15" hidden="1">
+    <row r="508" spans="1:16" ht="15">
       <c r="A508" s="6" t="s">
         <v>687</v>
       </c>
@@ -29730,7 +29729,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="509" spans="1:16" ht="30" hidden="1">
+    <row r="509" spans="1:16" ht="30">
       <c r="A509" s="6" t="s">
         <v>688</v>
       </c>
@@ -29764,7 +29763,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="510" spans="1:16" ht="15" hidden="1">
+    <row r="510" spans="1:16" ht="15">
       <c r="A510" s="6" t="s">
         <v>689</v>
       </c>
@@ -29798,7 +29797,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="511" spans="1:16" ht="30" hidden="1">
+    <row r="511" spans="1:16" ht="30">
       <c r="A511" s="6" t="s">
         <v>690</v>
       </c>
@@ -29832,7 +29831,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="512" spans="1:16" ht="15" hidden="1">
+    <row r="512" spans="1:16" ht="15">
       <c r="A512" s="6" t="s">
         <v>691</v>
       </c>
@@ -29866,7 +29865,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="513" spans="1:16" ht="30" hidden="1">
+    <row r="513" spans="1:16" ht="30">
       <c r="A513" s="6" t="s">
         <v>692</v>
       </c>
@@ -29900,7 +29899,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="514" spans="1:16" ht="15" hidden="1">
+    <row r="514" spans="1:16" ht="15">
       <c r="A514" s="6" t="s">
         <v>693</v>
       </c>
@@ -29934,7 +29933,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="515" spans="1:16" ht="30" hidden="1">
+    <row r="515" spans="1:16" ht="30">
       <c r="A515" s="6" t="s">
         <v>694</v>
       </c>
@@ -29968,7 +29967,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="516" spans="1:16" ht="15" hidden="1">
+    <row r="516" spans="1:16" ht="15">
       <c r="A516" s="6" t="s">
         <v>695</v>
       </c>
@@ -30002,7 +30001,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="517" spans="1:16" ht="15" hidden="1">
+    <row r="517" spans="1:16" ht="15">
       <c r="A517" s="6" t="s">
         <v>696</v>
       </c>
@@ -30037,7 +30036,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="518" spans="1:16" ht="15" hidden="1">
+    <row r="518" spans="1:16" ht="15">
       <c r="A518" s="6" t="s">
         <v>697</v>
       </c>
@@ -30069,7 +30068,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="519" spans="1:16" ht="15" hidden="1">
+    <row r="519" spans="1:16" ht="15">
       <c r="A519" s="6" t="s">
         <v>698</v>
       </c>
@@ -30101,7 +30100,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="520" spans="1:16" ht="30" hidden="1">
+    <row r="520" spans="1:16" ht="30">
       <c r="A520" s="6" t="s">
         <v>699</v>
       </c>
@@ -30133,7 +30132,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="521" spans="1:16" ht="15" hidden="1">
+    <row r="521" spans="1:16" ht="15">
       <c r="A521" s="6" t="s">
         <v>700</v>
       </c>
@@ -30165,7 +30164,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="522" spans="1:16" ht="30" hidden="1">
+    <row r="522" spans="1:16" ht="30">
       <c r="A522" s="6" t="s">
         <v>701</v>
       </c>
@@ -30197,7 +30196,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="523" spans="1:16" ht="15" hidden="1">
+    <row r="523" spans="1:16" ht="15">
       <c r="A523" s="6" t="s">
         <v>702</v>
       </c>
@@ -30229,7 +30228,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="524" spans="1:16" ht="15" hidden="1">
+    <row r="524" spans="1:16" ht="15">
       <c r="A524" s="6" t="s">
         <v>703</v>
       </c>
@@ -30261,7 +30260,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="525" spans="1:16" ht="15" hidden="1">
+    <row r="525" spans="1:16" ht="15">
       <c r="A525" s="6" t="s">
         <v>704</v>
       </c>
@@ -30293,7 +30292,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="526" spans="1:16" ht="15" hidden="1">
+    <row r="526" spans="1:16" ht="15">
       <c r="A526" s="6" t="s">
         <v>705</v>
       </c>
@@ -30325,7 +30324,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="527" spans="1:16" ht="15" hidden="1">
+    <row r="527" spans="1:16" ht="15">
       <c r="A527" s="6" t="s">
         <v>706</v>
       </c>
@@ -30357,7 +30356,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="528" spans="1:16" ht="15" hidden="1">
+    <row r="528" spans="1:16" ht="15">
       <c r="A528" s="6" t="s">
         <v>707</v>
       </c>
@@ -30389,7 +30388,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="529" spans="1:16" ht="15" hidden="1">
+    <row r="529" spans="1:16" ht="15">
       <c r="A529" s="6" t="s">
         <v>708</v>
       </c>
@@ -30421,7 +30420,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="530" spans="1:16" ht="30" hidden="1">
+    <row r="530" spans="1:16" ht="30">
       <c r="A530" s="6" t="s">
         <v>709</v>
       </c>
@@ -30453,7 +30452,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="531" spans="1:16" ht="15" hidden="1">
+    <row r="531" spans="1:16" ht="15">
       <c r="A531" s="6" t="s">
         <v>710</v>
       </c>
@@ -30485,7 +30484,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="532" spans="1:16" ht="30" hidden="1">
+    <row r="532" spans="1:16" ht="30">
       <c r="A532" s="6" t="s">
         <v>711</v>
       </c>
@@ -30517,7 +30516,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="533" spans="1:16" ht="15" hidden="1">
+    <row r="533" spans="1:16" ht="15">
       <c r="A533" s="6" t="s">
         <v>712</v>
       </c>
@@ -30549,7 +30548,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="534" spans="1:16" ht="15" hidden="1">
+    <row r="534" spans="1:16" ht="15">
       <c r="A534" s="6" t="s">
         <v>713</v>
       </c>
@@ -30581,7 +30580,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="535" spans="1:16" ht="15" hidden="1">
+    <row r="535" spans="1:16" ht="15">
       <c r="A535" s="6" t="s">
         <v>714</v>
       </c>
@@ -30613,7 +30612,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="536" spans="1:16" ht="15" hidden="1">
+    <row r="536" spans="1:16" ht="15">
       <c r="A536" s="6" t="s">
         <v>715</v>
       </c>
@@ -30645,7 +30644,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="537" spans="1:16" ht="15" hidden="1">
+    <row r="537" spans="1:16" ht="15">
       <c r="A537" s="6" t="s">
         <v>716</v>
       </c>
@@ -30677,7 +30676,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="538" spans="1:16" ht="15" hidden="1">
+    <row r="538" spans="1:16" ht="15">
       <c r="A538" s="6" t="s">
         <v>717</v>
       </c>
@@ -30709,7 +30708,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="539" spans="1:16" ht="15" hidden="1">
+    <row r="539" spans="1:16" ht="15">
       <c r="A539" s="6" t="s">
         <v>718</v>
       </c>
@@ -30741,7 +30740,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="540" spans="1:16" ht="30" hidden="1">
+    <row r="540" spans="1:16" ht="30">
       <c r="A540" s="6" t="s">
         <v>719</v>
       </c>
@@ -30773,7 +30772,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="541" spans="1:16" ht="15" hidden="1">
+    <row r="541" spans="1:16" ht="15">
       <c r="A541" s="6" t="s">
         <v>720</v>
       </c>
@@ -30805,7 +30804,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="542" spans="1:16" ht="30" hidden="1">
+    <row r="542" spans="1:16" ht="30">
       <c r="A542" s="6" t="s">
         <v>721</v>
       </c>
@@ -30837,7 +30836,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="543" spans="1:16" ht="15" hidden="1">
+    <row r="543" spans="1:16" ht="15">
       <c r="A543" s="6" t="s">
         <v>722</v>
       </c>
@@ -30869,7 +30868,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="544" spans="1:16" ht="15" hidden="1">
+    <row r="544" spans="1:16" ht="15">
       <c r="A544" s="6" t="s">
         <v>723</v>
       </c>
@@ -30901,7 +30900,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="545" spans="1:16" ht="15" hidden="1">
+    <row r="545" spans="1:16" ht="15">
       <c r="A545" s="6" t="s">
         <v>724</v>
       </c>
@@ -30933,7 +30932,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="546" spans="1:16" ht="15" hidden="1">
+    <row r="546" spans="1:16" ht="15">
       <c r="A546" s="6" t="s">
         <v>725</v>
       </c>
@@ -30965,7 +30964,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="547" spans="1:16" ht="15" hidden="1">
+    <row r="547" spans="1:16" ht="15">
       <c r="A547" s="6" t="s">
         <v>726</v>
       </c>
@@ -30997,7 +30996,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="548" spans="1:16" ht="15" hidden="1">
+    <row r="548" spans="1:16" ht="15">
       <c r="A548" s="6" t="s">
         <v>727</v>
       </c>
@@ -31029,7 +31028,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="549" spans="1:16" ht="15" hidden="1">
+    <row r="549" spans="1:16" ht="15">
       <c r="A549" s="6" t="s">
         <v>728</v>
       </c>
@@ -31061,7 +31060,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="550" spans="1:16" ht="30" hidden="1">
+    <row r="550" spans="1:16" ht="30">
       <c r="A550" s="6" t="s">
         <v>729</v>
       </c>
@@ -31093,7 +31092,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="551" spans="1:16" ht="15" hidden="1">
+    <row r="551" spans="1:16" ht="15">
       <c r="A551" s="6" t="s">
         <v>730</v>
       </c>
@@ -31125,7 +31124,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="552" spans="1:16" ht="30" hidden="1">
+    <row r="552" spans="1:16" ht="30">
       <c r="A552" s="6" t="s">
         <v>731</v>
       </c>
@@ -31157,7 +31156,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="553" spans="1:16" ht="15" hidden="1">
+    <row r="553" spans="1:16" ht="15">
       <c r="A553" s="6" t="s">
         <v>732</v>
       </c>
@@ -31189,7 +31188,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="554" spans="1:16" ht="15" hidden="1">
+    <row r="554" spans="1:16" ht="15">
       <c r="A554" s="6" t="s">
         <v>733</v>
       </c>
@@ -31221,7 +31220,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="555" spans="1:16" ht="15" hidden="1">
+    <row r="555" spans="1:16" ht="15">
       <c r="A555" s="6" t="s">
         <v>734</v>
       </c>
@@ -31253,7 +31252,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="556" spans="1:16" ht="15" hidden="1">
+    <row r="556" spans="1:16" ht="15">
       <c r="A556" s="6" t="s">
         <v>735</v>
       </c>
@@ -31285,7 +31284,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="557" spans="1:16" ht="15" hidden="1">
+    <row r="557" spans="1:16" ht="15">
       <c r="A557" s="6" t="s">
         <v>736</v>
       </c>
@@ -31317,7 +31316,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="558" spans="1:16" ht="15" hidden="1">
+    <row r="558" spans="1:16" ht="15">
       <c r="A558" s="6" t="s">
         <v>737</v>
       </c>
@@ -31349,7 +31348,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="559" spans="1:16" ht="15" hidden="1">
+    <row r="559" spans="1:16" ht="15">
       <c r="A559" s="6" t="s">
         <v>738</v>
       </c>
@@ -31381,7 +31380,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="560" spans="1:16" ht="30" hidden="1">
+    <row r="560" spans="1:16" ht="30">
       <c r="A560" s="6" t="s">
         <v>739</v>
       </c>
@@ -31413,7 +31412,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="561" spans="1:16" ht="15" hidden="1">
+    <row r="561" spans="1:16" ht="15">
       <c r="A561" s="6" t="s">
         <v>740</v>
       </c>
@@ -31445,7 +31444,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="562" spans="1:16" ht="30" hidden="1">
+    <row r="562" spans="1:16" ht="30">
       <c r="A562" s="6" t="s">
         <v>741</v>
       </c>
@@ -31477,7 +31476,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="563" spans="1:16" ht="15" hidden="1">
+    <row r="563" spans="1:16" ht="15">
       <c r="A563" s="6" t="s">
         <v>742</v>
       </c>
@@ -31509,7 +31508,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="564" spans="1:16" ht="15" hidden="1">
+    <row r="564" spans="1:16" ht="15">
       <c r="A564" s="6" t="s">
         <v>743</v>
       </c>
@@ -31541,7 +31540,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="565" spans="1:16" ht="15" hidden="1">
+    <row r="565" spans="1:16" ht="15">
       <c r="A565" s="6" t="s">
         <v>744</v>
       </c>
@@ -31573,7 +31572,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="566" spans="1:16" ht="15" hidden="1">
+    <row r="566" spans="1:16" ht="15">
       <c r="A566" s="6" t="s">
         <v>745</v>
       </c>
@@ -31605,7 +31604,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="567" spans="1:16" ht="30" hidden="1">
+    <row r="567" spans="1:16" ht="30">
       <c r="A567" s="21" t="s">
         <v>1186</v>
       </c>
@@ -31635,7 +31634,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="568" spans="1:16" ht="30" hidden="1">
+    <row r="568" spans="1:16" ht="30">
       <c r="A568" s="21" t="s">
         <v>1168</v>
       </c>
@@ -31665,7 +31664,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="569" spans="1:16" ht="15" hidden="1">
+    <row r="569" spans="1:16" ht="15">
       <c r="A569" s="6" t="s">
         <v>746</v>
       </c>
@@ -31699,7 +31698,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="570" spans="1:16" ht="15" hidden="1">
+    <row r="570" spans="1:16" ht="15">
       <c r="A570" s="6" t="s">
         <v>747</v>
       </c>
@@ -31733,7 +31732,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="571" spans="1:16" ht="15" hidden="1">
+    <row r="571" spans="1:16" ht="15">
       <c r="A571" s="6" t="s">
         <v>748</v>
       </c>
@@ -31767,7 +31766,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="572" spans="1:16" ht="30" hidden="1">
+    <row r="572" spans="1:16" ht="30">
       <c r="A572" s="6" t="s">
         <v>749</v>
       </c>
@@ -31801,7 +31800,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="573" spans="1:16" ht="15" hidden="1">
+    <row r="573" spans="1:16" ht="15">
       <c r="A573" s="6" t="s">
         <v>750</v>
       </c>
@@ -31835,7 +31834,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="574" spans="1:16" ht="30" hidden="1">
+    <row r="574" spans="1:16" ht="30">
       <c r="A574" s="6" t="s">
         <v>751</v>
       </c>
@@ -31869,7 +31868,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="575" spans="1:16" ht="15" hidden="1">
+    <row r="575" spans="1:16" ht="15">
       <c r="A575" s="6" t="s">
         <v>752</v>
       </c>
@@ -31903,7 +31902,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="576" spans="1:16" ht="15" hidden="1">
+    <row r="576" spans="1:16" ht="15">
       <c r="A576" s="6" t="s">
         <v>753</v>
       </c>
@@ -31937,7 +31936,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="577" spans="1:16" ht="15" hidden="1">
+    <row r="577" spans="1:16" ht="15">
       <c r="A577" s="6" t="s">
         <v>754</v>
       </c>
@@ -31971,7 +31970,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="578" spans="1:16" ht="15" hidden="1">
+    <row r="578" spans="1:16" ht="15">
       <c r="A578" s="6" t="s">
         <v>755</v>
       </c>
@@ -32005,7 +32004,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="579" spans="1:16" ht="15" hidden="1">
+    <row r="579" spans="1:16" ht="15">
       <c r="A579" s="6" t="s">
         <v>756</v>
       </c>
@@ -32039,7 +32038,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="580" spans="1:16" ht="15" hidden="1">
+    <row r="580" spans="1:16" ht="15">
       <c r="A580" s="6" t="s">
         <v>757</v>
       </c>
@@ -32073,7 +32072,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="581" spans="1:16" ht="15" hidden="1">
+    <row r="581" spans="1:16" ht="15">
       <c r="A581" s="6" t="s">
         <v>758</v>
       </c>
@@ -32107,7 +32106,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="582" spans="1:16" ht="30" hidden="1">
+    <row r="582" spans="1:16" ht="30">
       <c r="A582" s="6" t="s">
         <v>759</v>
       </c>
@@ -32141,7 +32140,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="583" spans="1:16" ht="15" hidden="1">
+    <row r="583" spans="1:16" ht="15">
       <c r="A583" s="6" t="s">
         <v>760</v>
       </c>
@@ -32175,7 +32174,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="584" spans="1:16" ht="30" hidden="1">
+    <row r="584" spans="1:16" ht="30">
       <c r="A584" s="6" t="s">
         <v>761</v>
       </c>
@@ -32209,7 +32208,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="585" spans="1:16" ht="15" hidden="1">
+    <row r="585" spans="1:16" ht="15">
       <c r="A585" s="6" t="s">
         <v>762</v>
       </c>
@@ -32243,7 +32242,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="586" spans="1:16" ht="15" hidden="1">
+    <row r="586" spans="1:16" ht="15">
       <c r="A586" s="6" t="s">
         <v>763</v>
       </c>
@@ -32277,7 +32276,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="587" spans="1:16" ht="15" hidden="1">
+    <row r="587" spans="1:16" ht="15">
       <c r="A587" s="6" t="s">
         <v>764</v>
       </c>
@@ -32311,7 +32310,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="588" spans="1:16" ht="15" hidden="1">
+    <row r="588" spans="1:16" ht="15">
       <c r="A588" s="6" t="s">
         <v>765</v>
       </c>
@@ -32345,7 +32344,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="589" spans="1:16" ht="30" hidden="1">
+    <row r="589" spans="1:16" ht="30">
       <c r="A589" s="6" t="s">
         <v>766</v>
       </c>
@@ -32379,7 +32378,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="590" spans="1:16" ht="30" hidden="1">
+    <row r="590" spans="1:16" ht="30">
       <c r="A590" s="6" t="s">
         <v>767</v>
       </c>
@@ -32413,7 +32412,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="591" spans="1:16" ht="30" hidden="1">
+    <row r="591" spans="1:16" ht="30">
       <c r="A591" s="6" t="s">
         <v>768</v>
       </c>
@@ -32447,7 +32446,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="592" spans="1:16" ht="30" hidden="1">
+    <row r="592" spans="1:16" ht="30">
       <c r="A592" s="6" t="s">
         <v>769</v>
       </c>
@@ -32481,7 +32480,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="593" spans="1:16" ht="30" hidden="1">
+    <row r="593" spans="1:16" ht="30">
       <c r="A593" s="6" t="s">
         <v>770</v>
       </c>
@@ -32515,7 +32514,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="594" spans="1:16" ht="30" hidden="1">
+    <row r="594" spans="1:16" ht="30">
       <c r="A594" s="6" t="s">
         <v>771</v>
       </c>
@@ -32549,7 +32548,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="595" spans="1:16" ht="30" hidden="1">
+    <row r="595" spans="1:16" ht="30">
       <c r="A595" s="6" t="s">
         <v>772</v>
       </c>
@@ -32583,7 +32582,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="596" spans="1:16" ht="30" hidden="1">
+    <row r="596" spans="1:16" ht="30">
       <c r="A596" s="6" t="s">
         <v>773</v>
       </c>
@@ -32617,7 +32616,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="597" spans="1:16" ht="30" hidden="1">
+    <row r="597" spans="1:16" ht="30">
       <c r="A597" s="6" t="s">
         <v>774</v>
       </c>
@@ -32651,7 +32650,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="598" spans="1:16" ht="30" hidden="1">
+    <row r="598" spans="1:16" ht="30">
       <c r="A598" s="6" t="s">
         <v>775</v>
       </c>
@@ -32685,7 +32684,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="599" spans="1:16" ht="15" hidden="1">
+    <row r="599" spans="1:16" ht="15">
       <c r="A599" s="6" t="s">
         <v>776</v>
       </c>
@@ -32719,7 +32718,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="600" spans="1:16" ht="15" hidden="1">
+    <row r="600" spans="1:16" ht="15">
       <c r="A600" s="6" t="s">
         <v>777</v>
       </c>
@@ -32753,7 +32752,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="601" spans="1:16" ht="15" hidden="1">
+    <row r="601" spans="1:16" ht="15">
       <c r="A601" s="6" t="s">
         <v>778</v>
       </c>
@@ -32787,7 +32786,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="602" spans="1:16" ht="30" hidden="1">
+    <row r="602" spans="1:16" ht="30">
       <c r="A602" s="6" t="s">
         <v>779</v>
       </c>
@@ -32821,7 +32820,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="603" spans="1:16" ht="15" hidden="1">
+    <row r="603" spans="1:16" ht="15">
       <c r="A603" s="6" t="s">
         <v>780</v>
       </c>
@@ -32855,7 +32854,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="604" spans="1:16" ht="30" hidden="1">
+    <row r="604" spans="1:16" ht="30">
       <c r="A604" s="6" t="s">
         <v>781</v>
       </c>
@@ -32889,7 +32888,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="605" spans="1:16" ht="15" hidden="1">
+    <row r="605" spans="1:16" ht="15">
       <c r="A605" s="6" t="s">
         <v>782</v>
       </c>
@@ -32923,7 +32922,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="606" spans="1:16" ht="15" hidden="1">
+    <row r="606" spans="1:16" ht="15">
       <c r="A606" s="6" t="s">
         <v>783</v>
       </c>
@@ -32957,7 +32956,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="607" spans="1:16" ht="15" hidden="1">
+    <row r="607" spans="1:16" ht="15">
       <c r="A607" s="6" t="s">
         <v>784</v>
       </c>
@@ -32991,7 +32990,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="608" spans="1:16" ht="15" hidden="1">
+    <row r="608" spans="1:16" ht="15">
       <c r="A608" s="6" t="s">
         <v>785</v>
       </c>
@@ -33025,7 +33024,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="609" spans="1:16" ht="15" hidden="1">
+    <row r="609" spans="1:16" ht="15">
       <c r="A609" s="6" t="s">
         <v>786</v>
       </c>
@@ -33059,7 +33058,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="610" spans="1:16" ht="15" hidden="1">
+    <row r="610" spans="1:16" ht="15">
       <c r="A610" s="6" t="s">
         <v>787</v>
       </c>
@@ -33093,7 +33092,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="611" spans="1:16" ht="15" hidden="1">
+    <row r="611" spans="1:16" ht="15">
       <c r="A611" s="6" t="s">
         <v>788</v>
       </c>
@@ -33127,7 +33126,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="612" spans="1:16" ht="30" hidden="1">
+    <row r="612" spans="1:16" ht="30">
       <c r="A612" s="6" t="s">
         <v>789</v>
       </c>
@@ -33161,7 +33160,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="613" spans="1:16" ht="15" hidden="1">
+    <row r="613" spans="1:16" ht="15">
       <c r="A613" s="6" t="s">
         <v>790</v>
       </c>
@@ -33195,7 +33194,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="614" spans="1:16" ht="30" hidden="1">
+    <row r="614" spans="1:16" ht="30">
       <c r="A614" s="6" t="s">
         <v>791</v>
       </c>
@@ -33229,7 +33228,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="615" spans="1:16" ht="15" hidden="1">
+    <row r="615" spans="1:16" ht="15">
       <c r="A615" s="6" t="s">
         <v>792</v>
       </c>
@@ -33263,7 +33262,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="616" spans="1:16" ht="15" hidden="1">
+    <row r="616" spans="1:16" ht="15">
       <c r="A616" s="6" t="s">
         <v>793</v>
       </c>
@@ -33297,7 +33296,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="617" spans="1:16" ht="15" hidden="1">
+    <row r="617" spans="1:16" ht="15">
       <c r="A617" s="6" t="s">
         <v>794</v>
       </c>
@@ -33331,7 +33330,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="618" spans="1:16" ht="15" hidden="1">
+    <row r="618" spans="1:16" ht="15">
       <c r="A618" s="6" t="s">
         <v>795</v>
       </c>
@@ -33365,7 +33364,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="619" spans="1:16" ht="30" hidden="1">
+    <row r="619" spans="1:16" ht="30">
       <c r="A619" s="6" t="s">
         <v>796</v>
       </c>
@@ -33399,7 +33398,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="620" spans="1:16" ht="30" hidden="1">
+    <row r="620" spans="1:16" ht="30">
       <c r="A620" s="6" t="s">
         <v>797</v>
       </c>
@@ -33433,7 +33432,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="621" spans="1:16" ht="30" hidden="1">
+    <row r="621" spans="1:16" ht="30">
       <c r="A621" s="6" t="s">
         <v>798</v>
       </c>
@@ -33467,7 +33466,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="622" spans="1:16" ht="30" hidden="1">
+    <row r="622" spans="1:16" ht="30">
       <c r="A622" s="6" t="s">
         <v>799</v>
       </c>
@@ -33501,7 +33500,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="623" spans="1:16" ht="30" hidden="1">
+    <row r="623" spans="1:16" ht="30">
       <c r="A623" s="6" t="s">
         <v>800</v>
       </c>
@@ -33535,7 +33534,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="624" spans="1:16" ht="30" hidden="1">
+    <row r="624" spans="1:16" ht="30">
       <c r="A624" s="6" t="s">
         <v>801</v>
       </c>
@@ -33569,7 +33568,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="625" spans="1:16" ht="30" hidden="1">
+    <row r="625" spans="1:16" ht="30">
       <c r="A625" s="6" t="s">
         <v>802</v>
       </c>
@@ -33603,7 +33602,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="626" spans="1:16" ht="30" hidden="1">
+    <row r="626" spans="1:16" ht="30">
       <c r="A626" s="6" t="s">
         <v>803</v>
       </c>
@@ -33637,7 +33636,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="627" spans="1:16" ht="30" hidden="1">
+    <row r="627" spans="1:16" ht="30">
       <c r="A627" s="6" t="s">
         <v>804</v>
       </c>
@@ -33671,7 +33670,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="628" spans="1:16" ht="30" hidden="1">
+    <row r="628" spans="1:16" ht="30">
       <c r="A628" s="6" t="s">
         <v>805</v>
       </c>
@@ -33705,7 +33704,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="629" spans="1:16" ht="15" hidden="1">
+    <row r="629" spans="1:16" ht="15">
       <c r="A629" s="6" t="s">
         <v>806</v>
       </c>
@@ -33739,7 +33738,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="630" spans="1:16" ht="15" hidden="1">
+    <row r="630" spans="1:16" ht="15">
       <c r="A630" s="6" t="s">
         <v>807</v>
       </c>
@@ -33773,7 +33772,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="631" spans="1:16" ht="15" hidden="1">
+    <row r="631" spans="1:16" ht="15">
       <c r="A631" s="6" t="s">
         <v>808</v>
       </c>
@@ -33807,7 +33806,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="632" spans="1:16" ht="30" hidden="1">
+    <row r="632" spans="1:16" ht="30">
       <c r="A632" s="6" t="s">
         <v>809</v>
       </c>
@@ -33841,7 +33840,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="633" spans="1:16" ht="15" hidden="1">
+    <row r="633" spans="1:16" ht="15">
       <c r="A633" s="6" t="s">
         <v>810</v>
       </c>
@@ -33875,7 +33874,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="634" spans="1:16" ht="30" hidden="1">
+    <row r="634" spans="1:16" ht="30">
       <c r="A634" s="6" t="s">
         <v>811</v>
       </c>
@@ -33909,7 +33908,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="635" spans="1:16" ht="15" hidden="1">
+    <row r="635" spans="1:16" ht="15">
       <c r="A635" s="6" t="s">
         <v>812</v>
       </c>
@@ -33943,7 +33942,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="636" spans="1:16" ht="15" hidden="1">
+    <row r="636" spans="1:16" ht="15">
       <c r="A636" s="6" t="s">
         <v>813</v>
       </c>
@@ -33977,7 +33976,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="637" spans="1:16" ht="15" hidden="1">
+    <row r="637" spans="1:16" ht="15">
       <c r="A637" s="6" t="s">
         <v>814</v>
       </c>
@@ -34011,7 +34010,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="638" spans="1:16" ht="15" hidden="1">
+    <row r="638" spans="1:16" ht="15">
       <c r="A638" s="6" t="s">
         <v>815</v>
       </c>
@@ -34045,7 +34044,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="639" spans="1:16" ht="15" hidden="1">
+    <row r="639" spans="1:16" ht="15">
       <c r="A639" s="6" t="s">
         <v>816</v>
       </c>
@@ -34079,7 +34078,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="640" spans="1:16" ht="15" hidden="1">
+    <row r="640" spans="1:16" ht="15">
       <c r="A640" s="6" t="s">
         <v>817</v>
       </c>
@@ -34113,7 +34112,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="641" spans="1:16" ht="15" hidden="1">
+    <row r="641" spans="1:16" ht="15">
       <c r="A641" s="6" t="s">
         <v>818</v>
       </c>
@@ -34147,7 +34146,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="642" spans="1:16" ht="30" hidden="1">
+    <row r="642" spans="1:16" ht="30">
       <c r="A642" s="6" t="s">
         <v>819</v>
       </c>
@@ -34181,7 +34180,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="643" spans="1:16" ht="15" hidden="1">
+    <row r="643" spans="1:16" ht="15">
       <c r="A643" s="6" t="s">
         <v>820</v>
       </c>
@@ -34215,7 +34214,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="644" spans="1:16" ht="30" hidden="1">
+    <row r="644" spans="1:16" ht="30">
       <c r="A644" s="6" t="s">
         <v>821</v>
       </c>
@@ -34249,7 +34248,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="645" spans="1:16" ht="15" hidden="1">
+    <row r="645" spans="1:16" ht="15">
       <c r="A645" s="6" t="s">
         <v>822</v>
       </c>
@@ -34283,7 +34282,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="646" spans="1:16" ht="15" hidden="1">
+    <row r="646" spans="1:16" ht="15">
       <c r="A646" s="6" t="s">
         <v>823</v>
       </c>
@@ -34317,7 +34316,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="647" spans="1:16" ht="15" hidden="1">
+    <row r="647" spans="1:16" ht="15">
       <c r="A647" s="6" t="s">
         <v>824</v>
       </c>
@@ -34351,7 +34350,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="648" spans="1:16" ht="15" hidden="1">
+    <row r="648" spans="1:16" ht="15">
       <c r="A648" s="6" t="s">
         <v>825</v>
       </c>
@@ -34385,7 +34384,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="649" spans="1:16" ht="30" hidden="1">
+    <row r="649" spans="1:16" ht="30">
       <c r="A649" s="6" t="s">
         <v>826</v>
       </c>
@@ -34419,7 +34418,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="650" spans="1:16" ht="30" hidden="1">
+    <row r="650" spans="1:16" ht="30">
       <c r="A650" s="6" t="s">
         <v>827</v>
       </c>
@@ -34453,7 +34452,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="651" spans="1:16" ht="30" hidden="1">
+    <row r="651" spans="1:16" ht="30">
       <c r="A651" s="6" t="s">
         <v>828</v>
       </c>
@@ -34487,7 +34486,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="652" spans="1:16" ht="30" hidden="1">
+    <row r="652" spans="1:16" ht="30">
       <c r="A652" s="6" t="s">
         <v>829</v>
       </c>
@@ -34521,7 +34520,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="653" spans="1:16" ht="30" hidden="1">
+    <row r="653" spans="1:16" ht="30">
       <c r="A653" s="6" t="s">
         <v>830</v>
       </c>
@@ -34555,7 +34554,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="654" spans="1:16" ht="30" hidden="1">
+    <row r="654" spans="1:16" ht="30">
       <c r="A654" s="6" t="s">
         <v>831</v>
       </c>
@@ -34589,7 +34588,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="655" spans="1:16" ht="30" hidden="1">
+    <row r="655" spans="1:16" ht="30">
       <c r="A655" s="6" t="s">
         <v>832</v>
       </c>
@@ -34623,7 +34622,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="656" spans="1:16" ht="30" hidden="1">
+    <row r="656" spans="1:16" ht="30">
       <c r="A656" s="6" t="s">
         <v>833</v>
       </c>
@@ -34657,7 +34656,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="657" spans="1:16" ht="30" hidden="1">
+    <row r="657" spans="1:16" ht="30">
       <c r="A657" s="6" t="s">
         <v>834</v>
       </c>
@@ -34691,7 +34690,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="658" spans="1:16" ht="30" hidden="1">
+    <row r="658" spans="1:16" ht="30">
       <c r="A658" s="6" t="s">
         <v>835</v>
       </c>
@@ -34725,7 +34724,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="659" spans="1:16" ht="15" hidden="1">
+    <row r="659" spans="1:16" ht="15">
       <c r="A659" s="6" t="s">
         <v>836</v>
       </c>
@@ -34759,7 +34758,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="660" spans="1:16" ht="15" hidden="1">
+    <row r="660" spans="1:16" ht="15">
       <c r="A660" s="6" t="s">
         <v>837</v>
       </c>
@@ -34793,7 +34792,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="661" spans="1:16" ht="15" hidden="1">
+    <row r="661" spans="1:16" ht="15">
       <c r="A661" s="6" t="s">
         <v>838</v>
       </c>
@@ -34827,7 +34826,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="662" spans="1:16" ht="30" hidden="1">
+    <row r="662" spans="1:16" ht="30">
       <c r="A662" s="6" t="s">
         <v>839</v>
       </c>
@@ -34861,7 +34860,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="663" spans="1:16" ht="15" hidden="1">
+    <row r="663" spans="1:16" ht="15">
       <c r="A663" s="6" t="s">
         <v>840</v>
       </c>
@@ -34895,7 +34894,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="664" spans="1:16" ht="30" hidden="1">
+    <row r="664" spans="1:16" ht="30">
       <c r="A664" s="6" t="s">
         <v>841</v>
       </c>
@@ -34929,7 +34928,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="665" spans="1:16" ht="15" hidden="1">
+    <row r="665" spans="1:16" ht="15">
       <c r="A665" s="6" t="s">
         <v>842</v>
       </c>
@@ -34963,7 +34962,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="666" spans="1:16" ht="15" hidden="1">
+    <row r="666" spans="1:16" ht="15">
       <c r="A666" s="6" t="s">
         <v>843</v>
       </c>
@@ -34997,7 +34996,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="667" spans="1:16" ht="15" hidden="1">
+    <row r="667" spans="1:16" ht="15">
       <c r="A667" s="6" t="s">
         <v>844</v>
       </c>
@@ -35031,7 +35030,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="668" spans="1:16" ht="15" hidden="1">
+    <row r="668" spans="1:16" ht="15">
       <c r="A668" s="6" t="s">
         <v>845</v>
       </c>
@@ -35065,7 +35064,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="669" spans="1:16" ht="15" hidden="1">
+    <row r="669" spans="1:16" ht="15">
       <c r="A669" s="6" t="s">
         <v>846</v>
       </c>
@@ -35099,7 +35098,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="670" spans="1:16" ht="15" hidden="1">
+    <row r="670" spans="1:16" ht="15">
       <c r="A670" s="6" t="s">
         <v>847</v>
       </c>
@@ -35133,7 +35132,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="671" spans="1:16" ht="15" hidden="1">
+    <row r="671" spans="1:16" ht="15">
       <c r="A671" s="6" t="s">
         <v>848</v>
       </c>
@@ -35167,7 +35166,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="672" spans="1:16" ht="30" hidden="1">
+    <row r="672" spans="1:16" ht="30">
       <c r="A672" s="6" t="s">
         <v>849</v>
       </c>
@@ -35201,7 +35200,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="673" spans="1:16" ht="15" hidden="1">
+    <row r="673" spans="1:16" ht="15">
       <c r="A673" s="6" t="s">
         <v>850</v>
       </c>
@@ -35235,7 +35234,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="674" spans="1:16" ht="30" hidden="1">
+    <row r="674" spans="1:16" ht="30">
       <c r="A674" s="6" t="s">
         <v>851</v>
       </c>
@@ -35269,7 +35268,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="675" spans="1:16" ht="15" hidden="1">
+    <row r="675" spans="1:16" ht="15">
       <c r="A675" s="6" t="s">
         <v>852</v>
       </c>
@@ -35303,7 +35302,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="676" spans="1:16" ht="15" hidden="1">
+    <row r="676" spans="1:16" ht="15">
       <c r="A676" s="6" t="s">
         <v>853</v>
       </c>
@@ -35337,7 +35336,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="677" spans="1:16" ht="15" hidden="1">
+    <row r="677" spans="1:16" ht="15">
       <c r="A677" s="6" t="s">
         <v>854</v>
       </c>
@@ -35371,7 +35370,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="678" spans="1:16" ht="15" hidden="1">
+    <row r="678" spans="1:16" ht="15">
       <c r="A678" s="6" t="s">
         <v>855</v>
       </c>
@@ -35405,7 +35404,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="679" spans="1:16" ht="30" hidden="1">
+    <row r="679" spans="1:16" ht="30">
       <c r="A679" s="6" t="s">
         <v>856</v>
       </c>
@@ -35439,7 +35438,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="680" spans="1:16" ht="30" hidden="1">
+    <row r="680" spans="1:16" ht="30">
       <c r="A680" s="6" t="s">
         <v>857</v>
       </c>
@@ -35473,7 +35472,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="681" spans="1:16" ht="30" hidden="1">
+    <row r="681" spans="1:16" ht="30">
       <c r="A681" s="6" t="s">
         <v>858</v>
       </c>
@@ -35507,7 +35506,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="682" spans="1:16" ht="30" hidden="1">
+    <row r="682" spans="1:16" ht="30">
       <c r="A682" s="6" t="s">
         <v>859</v>
       </c>
@@ -35541,7 +35540,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="683" spans="1:16" ht="30" hidden="1">
+    <row r="683" spans="1:16" ht="30">
       <c r="A683" s="6" t="s">
         <v>860</v>
       </c>
@@ -35575,7 +35574,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="684" spans="1:16" ht="30" hidden="1">
+    <row r="684" spans="1:16" ht="30">
       <c r="A684" s="6" t="s">
         <v>861</v>
       </c>
@@ -35609,7 +35608,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="685" spans="1:16" ht="30" hidden="1">
+    <row r="685" spans="1:16" ht="30">
       <c r="A685" s="6" t="s">
         <v>862</v>
       </c>
@@ -35643,7 +35642,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="686" spans="1:16" ht="30" hidden="1">
+    <row r="686" spans="1:16" ht="30">
       <c r="A686" s="6" t="s">
         <v>863</v>
       </c>
@@ -35677,7 +35676,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="687" spans="1:16" ht="30" hidden="1">
+    <row r="687" spans="1:16" ht="30">
       <c r="A687" s="6" t="s">
         <v>864</v>
       </c>
@@ -35711,7 +35710,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="688" spans="1:16" ht="30" hidden="1">
+    <row r="688" spans="1:16" ht="30">
       <c r="A688" s="6" t="s">
         <v>865</v>
       </c>
@@ -35745,7 +35744,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="689" spans="1:16" ht="15" hidden="1">
+    <row r="689" spans="1:16" ht="15">
       <c r="A689" s="6" t="s">
         <v>866</v>
       </c>
@@ -35779,7 +35778,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="690" spans="1:16" ht="15" hidden="1">
+    <row r="690" spans="1:16" ht="15">
       <c r="A690" s="6" t="s">
         <v>867</v>
       </c>
@@ -35813,7 +35812,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="691" spans="1:16" ht="15" hidden="1">
+    <row r="691" spans="1:16" ht="15">
       <c r="A691" s="6" t="s">
         <v>868</v>
       </c>
@@ -35847,7 +35846,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="692" spans="1:16" ht="30" hidden="1">
+    <row r="692" spans="1:16" ht="30">
       <c r="A692" s="6" t="s">
         <v>869</v>
       </c>
@@ -35881,7 +35880,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="693" spans="1:16" ht="15" hidden="1">
+    <row r="693" spans="1:16" ht="15">
       <c r="A693" s="6" t="s">
         <v>870</v>
       </c>
@@ -35915,7 +35914,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="694" spans="1:16" ht="30" hidden="1">
+    <row r="694" spans="1:16" ht="30">
       <c r="A694" s="6" t="s">
         <v>871</v>
       </c>
@@ -35949,7 +35948,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="695" spans="1:16" ht="15" hidden="1">
+    <row r="695" spans="1:16" ht="15">
       <c r="A695" s="6" t="s">
         <v>872</v>
       </c>
@@ -35983,7 +35982,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="696" spans="1:16" ht="15" hidden="1">
+    <row r="696" spans="1:16" ht="15">
       <c r="A696" s="6" t="s">
         <v>873</v>
       </c>
@@ -36017,7 +36016,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="697" spans="1:16" ht="15" hidden="1">
+    <row r="697" spans="1:16" ht="15">
       <c r="A697" s="6" t="s">
         <v>874</v>
       </c>
@@ -36051,7 +36050,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="698" spans="1:16" ht="15" hidden="1">
+    <row r="698" spans="1:16" ht="15">
       <c r="A698" s="6" t="s">
         <v>875</v>
       </c>
@@ -36085,7 +36084,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="699" spans="1:16" ht="15" hidden="1">
+    <row r="699" spans="1:16" ht="15">
       <c r="A699" s="6" t="s">
         <v>876</v>
       </c>
@@ -36119,7 +36118,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="700" spans="1:16" ht="15" hidden="1">
+    <row r="700" spans="1:16" ht="15">
       <c r="A700" s="6" t="s">
         <v>877</v>
       </c>
@@ -36153,7 +36152,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="701" spans="1:16" ht="15" hidden="1">
+    <row r="701" spans="1:16" ht="15">
       <c r="A701" s="6" t="s">
         <v>878</v>
       </c>
@@ -36187,7 +36186,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="702" spans="1:16" ht="30" hidden="1">
+    <row r="702" spans="1:16" ht="30">
       <c r="A702" s="6" t="s">
         <v>879</v>
       </c>
@@ -36221,7 +36220,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="703" spans="1:16" ht="15" hidden="1">
+    <row r="703" spans="1:16" ht="15">
       <c r="A703" s="6" t="s">
         <v>880</v>
       </c>
@@ -36255,7 +36254,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="704" spans="1:16" ht="30" hidden="1">
+    <row r="704" spans="1:16" ht="30">
       <c r="A704" s="6" t="s">
         <v>881</v>
       </c>
@@ -36289,7 +36288,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="705" spans="1:16" ht="15" hidden="1">
+    <row r="705" spans="1:16" ht="15">
       <c r="A705" s="6" t="s">
         <v>882</v>
       </c>
@@ -36323,7 +36322,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="706" spans="1:16" ht="15" hidden="1">
+    <row r="706" spans="1:16" ht="15">
       <c r="A706" s="6" t="s">
         <v>883</v>
       </c>
@@ -36357,7 +36356,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="707" spans="1:16" ht="15" hidden="1">
+    <row r="707" spans="1:16" ht="15">
       <c r="A707" s="6" t="s">
         <v>884</v>
       </c>
@@ -36391,7 +36390,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="708" spans="1:16" ht="15" hidden="1">
+    <row r="708" spans="1:16" ht="15">
       <c r="A708" s="6" t="s">
         <v>885</v>
       </c>
@@ -36425,7 +36424,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="709" spans="1:16" ht="15" hidden="1">
+    <row r="709" spans="1:16" ht="15">
       <c r="A709" s="6" t="s">
         <v>886</v>
       </c>
@@ -36459,7 +36458,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="710" spans="1:16" ht="15" hidden="1">
+    <row r="710" spans="1:16" ht="15">
       <c r="A710" s="6" t="s">
         <v>887</v>
       </c>
@@ -36493,7 +36492,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="711" spans="1:16" ht="15" hidden="1">
+    <row r="711" spans="1:16" ht="15">
       <c r="A711" s="6" t="s">
         <v>888</v>
       </c>
@@ -36527,7 +36526,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="712" spans="1:16" ht="30" hidden="1">
+    <row r="712" spans="1:16" ht="30">
       <c r="A712" s="6" t="s">
         <v>889</v>
       </c>
@@ -36561,7 +36560,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="713" spans="1:16" ht="15" hidden="1">
+    <row r="713" spans="1:16" ht="15">
       <c r="A713" s="6" t="s">
         <v>890</v>
       </c>
@@ -36595,7 +36594,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="714" spans="1:16" ht="30" hidden="1">
+    <row r="714" spans="1:16" ht="30">
       <c r="A714" s="6" t="s">
         <v>891</v>
       </c>
@@ -36629,7 +36628,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="715" spans="1:16" ht="15" hidden="1">
+    <row r="715" spans="1:16" ht="15">
       <c r="A715" s="6" t="s">
         <v>892</v>
       </c>
@@ -36663,7 +36662,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="716" spans="1:16" ht="15" hidden="1">
+    <row r="716" spans="1:16" ht="15">
       <c r="A716" s="6" t="s">
         <v>893</v>
       </c>
@@ -36697,7 +36696,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="717" spans="1:16" ht="15" hidden="1">
+    <row r="717" spans="1:16" ht="15">
       <c r="A717" s="6" t="s">
         <v>894</v>
       </c>
@@ -36731,7 +36730,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="718" spans="1:16" ht="15" hidden="1">
+    <row r="718" spans="1:16" ht="15">
       <c r="A718" s="6" t="s">
         <v>895</v>
       </c>
@@ -36765,7 +36764,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="719" spans="1:16" ht="30" hidden="1">
+    <row r="719" spans="1:16" ht="30">
       <c r="A719" s="6" t="s">
         <v>896</v>
       </c>
@@ -36799,7 +36798,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="720" spans="1:16" ht="30" hidden="1">
+    <row r="720" spans="1:16" ht="30">
       <c r="A720" s="6" t="s">
         <v>897</v>
       </c>
@@ -36833,7 +36832,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="721" spans="1:16" ht="30" hidden="1">
+    <row r="721" spans="1:16" ht="30">
       <c r="A721" s="6" t="s">
         <v>898</v>
       </c>
@@ -36867,7 +36866,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="722" spans="1:16" ht="30" hidden="1">
+    <row r="722" spans="1:16" ht="30">
       <c r="A722" s="6" t="s">
         <v>899</v>
       </c>
@@ -36901,7 +36900,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="723" spans="1:16" ht="30" hidden="1">
+    <row r="723" spans="1:16" ht="30">
       <c r="A723" s="6" t="s">
         <v>900</v>
       </c>
@@ -36935,7 +36934,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="724" spans="1:16" ht="30" hidden="1">
+    <row r="724" spans="1:16" ht="30">
       <c r="A724" s="6" t="s">
         <v>901</v>
       </c>
@@ -36969,7 +36968,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="725" spans="1:16" ht="30" hidden="1">
+    <row r="725" spans="1:16" ht="30">
       <c r="A725" s="6" t="s">
         <v>902</v>
       </c>
@@ -37003,7 +37002,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="726" spans="1:16" ht="30" hidden="1">
+    <row r="726" spans="1:16" ht="30">
       <c r="A726" s="6" t="s">
         <v>903</v>
       </c>
@@ -37037,7 +37036,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="727" spans="1:16" ht="30" hidden="1">
+    <row r="727" spans="1:16" ht="30">
       <c r="A727" s="6" t="s">
         <v>904</v>
       </c>
@@ -37071,7 +37070,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="728" spans="1:16" ht="30" hidden="1">
+    <row r="728" spans="1:16" ht="30">
       <c r="A728" s="6" t="s">
         <v>905</v>
       </c>
@@ -37105,7 +37104,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="729" spans="1:16" ht="15" hidden="1">
+    <row r="729" spans="1:16" ht="15">
       <c r="A729" s="6" t="s">
         <v>906</v>
       </c>
@@ -37139,7 +37138,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="730" spans="1:16" ht="15" hidden="1">
+    <row r="730" spans="1:16" ht="15">
       <c r="A730" s="6" t="s">
         <v>907</v>
       </c>
@@ -37173,7 +37172,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="731" spans="1:16" ht="15" hidden="1">
+    <row r="731" spans="1:16" ht="15">
       <c r="A731" s="6" t="s">
         <v>908</v>
       </c>
@@ -37207,7 +37206,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="732" spans="1:16" ht="30" hidden="1">
+    <row r="732" spans="1:16" ht="30">
       <c r="A732" s="6" t="s">
         <v>909</v>
       </c>
@@ -37241,7 +37240,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="733" spans="1:16" ht="15" hidden="1">
+    <row r="733" spans="1:16" ht="15">
       <c r="A733" s="6" t="s">
         <v>910</v>
       </c>
@@ -37275,7 +37274,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="734" spans="1:16" ht="30" hidden="1">
+    <row r="734" spans="1:16" ht="30">
       <c r="A734" s="6" t="s">
         <v>911</v>
       </c>
@@ -37309,7 +37308,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="735" spans="1:16" ht="15" hidden="1">
+    <row r="735" spans="1:16" ht="15">
       <c r="A735" s="6" t="s">
         <v>912</v>
       </c>
@@ -37343,7 +37342,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="736" spans="1:16" ht="15" hidden="1">
+    <row r="736" spans="1:16" ht="15">
       <c r="A736" s="6" t="s">
         <v>913</v>
       </c>
@@ -37377,7 +37376,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="737" spans="1:16" ht="15" hidden="1">
+    <row r="737" spans="1:16" ht="15">
       <c r="A737" s="6" t="s">
         <v>914</v>
       </c>
@@ -37411,7 +37410,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="738" spans="1:16" ht="15" hidden="1">
+    <row r="738" spans="1:16" ht="15">
       <c r="A738" s="6" t="s">
         <v>915</v>
       </c>
@@ -37445,7 +37444,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="739" spans="1:16" ht="15" hidden="1">
+    <row r="739" spans="1:16" ht="15">
       <c r="A739" s="6" t="s">
         <v>916</v>
       </c>
@@ -37479,7 +37478,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="740" spans="1:16" ht="15" hidden="1">
+    <row r="740" spans="1:16" ht="15">
       <c r="A740" s="6" t="s">
         <v>917</v>
       </c>
@@ -37513,7 +37512,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="741" spans="1:16" ht="15" hidden="1">
+    <row r="741" spans="1:16" ht="15">
       <c r="A741" s="6" t="s">
         <v>918</v>
       </c>
@@ -37547,7 +37546,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="742" spans="1:16" ht="30" hidden="1">
+    <row r="742" spans="1:16" ht="30">
       <c r="A742" s="6" t="s">
         <v>919</v>
       </c>
@@ -37581,7 +37580,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="743" spans="1:16" ht="15" hidden="1">
+    <row r="743" spans="1:16" ht="15">
       <c r="A743" s="6" t="s">
         <v>920</v>
       </c>
@@ -37615,7 +37614,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="744" spans="1:16" ht="30" hidden="1">
+    <row r="744" spans="1:16" ht="30">
       <c r="A744" s="6" t="s">
         <v>921</v>
       </c>
@@ -37649,7 +37648,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="745" spans="1:16" ht="15" hidden="1">
+    <row r="745" spans="1:16" ht="15">
       <c r="A745" s="6" t="s">
         <v>922</v>
       </c>
@@ -37683,7 +37682,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="746" spans="1:16" ht="15" hidden="1">
+    <row r="746" spans="1:16" ht="15">
       <c r="A746" s="6" t="s">
         <v>923</v>
       </c>
@@ -37717,7 +37716,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="747" spans="1:16" ht="15" hidden="1">
+    <row r="747" spans="1:16" ht="15">
       <c r="A747" s="6" t="s">
         <v>924</v>
       </c>
@@ -37751,7 +37750,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="748" spans="1:16" ht="15" hidden="1">
+    <row r="748" spans="1:16" ht="15">
       <c r="A748" s="6" t="s">
         <v>925</v>
       </c>
@@ -37785,7 +37784,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="749" spans="1:16" ht="15" hidden="1">
+    <row r="749" spans="1:16" ht="15">
       <c r="A749" s="6" t="s">
         <v>926</v>
       </c>
@@ -37819,7 +37818,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="750" spans="1:16" ht="15" hidden="1">
+    <row r="750" spans="1:16" ht="15">
       <c r="A750" s="6" t="s">
         <v>927</v>
       </c>
@@ -37853,7 +37852,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="751" spans="1:16" ht="15" hidden="1">
+    <row r="751" spans="1:16" ht="15">
       <c r="A751" s="6" t="s">
         <v>928</v>
       </c>
@@ -37887,7 +37886,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="752" spans="1:16" ht="30" hidden="1">
+    <row r="752" spans="1:16" ht="30">
       <c r="A752" s="6" t="s">
         <v>929</v>
       </c>
@@ -37921,7 +37920,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="753" spans="1:16" ht="15" hidden="1">
+    <row r="753" spans="1:16" ht="15">
       <c r="A753" s="6" t="s">
         <v>930</v>
       </c>
@@ -37955,7 +37954,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="754" spans="1:16" ht="30" hidden="1">
+    <row r="754" spans="1:16" ht="30">
       <c r="A754" s="6" t="s">
         <v>931</v>
       </c>
@@ -37989,7 +37988,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="755" spans="1:16" ht="15" hidden="1">
+    <row r="755" spans="1:16" ht="15">
       <c r="A755" s="6" t="s">
         <v>932</v>
       </c>
@@ -38023,7 +38022,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="756" spans="1:16" ht="15" hidden="1">
+    <row r="756" spans="1:16" ht="15">
       <c r="A756" s="6" t="s">
         <v>933</v>
       </c>
@@ -38057,7 +38056,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="757" spans="1:16" ht="15" hidden="1">
+    <row r="757" spans="1:16" ht="15">
       <c r="A757" s="6" t="s">
         <v>934</v>
       </c>
@@ -38091,7 +38090,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="758" spans="1:16" ht="15" hidden="1">
+    <row r="758" spans="1:16" ht="15">
       <c r="A758" s="6" t="s">
         <v>935</v>
       </c>
@@ -38125,7 +38124,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="759" spans="1:16" ht="30" hidden="1">
+    <row r="759" spans="1:16" ht="30">
       <c r="A759" s="6" t="s">
         <v>936</v>
       </c>
@@ -38159,7 +38158,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="760" spans="1:16" ht="30" hidden="1">
+    <row r="760" spans="1:16" ht="30">
       <c r="A760" s="6" t="s">
         <v>937</v>
       </c>
@@ -38193,7 +38192,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="761" spans="1:16" ht="30" hidden="1">
+    <row r="761" spans="1:16" ht="30">
       <c r="A761" s="6" t="s">
         <v>938</v>
       </c>
@@ -38227,7 +38226,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="762" spans="1:16" ht="30" hidden="1">
+    <row r="762" spans="1:16" ht="30">
       <c r="A762" s="6" t="s">
         <v>11</v>
       </c>
@@ -38261,7 +38260,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="763" spans="1:16" ht="30" hidden="1">
+    <row r="763" spans="1:16" ht="30">
       <c r="A763" s="6" t="s">
         <v>12</v>
       </c>
@@ -38295,7 +38294,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="764" spans="1:16" ht="30" hidden="1">
+    <row r="764" spans="1:16" ht="30">
       <c r="A764" s="6" t="s">
         <v>13</v>
       </c>
@@ -38329,7 +38328,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="765" spans="1:16" ht="30" hidden="1">
+    <row r="765" spans="1:16" ht="30">
       <c r="A765" s="6" t="s">
         <v>14</v>
       </c>
@@ -38363,7 +38362,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="766" spans="1:16" ht="30" hidden="1">
+    <row r="766" spans="1:16" ht="30">
       <c r="A766" s="6" t="s">
         <v>15</v>
       </c>
@@ -38397,7 +38396,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="767" spans="1:16" ht="30" hidden="1">
+    <row r="767" spans="1:16" ht="30">
       <c r="A767" s="6" t="s">
         <v>16</v>
       </c>
@@ -38431,7 +38430,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="768" spans="1:16" ht="30" hidden="1">
+    <row r="768" spans="1:16" ht="30">
       <c r="A768" s="6" t="s">
         <v>17</v>
       </c>
@@ -38465,7 +38464,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="769" spans="1:16" ht="15" hidden="1">
+    <row r="769" spans="1:16" ht="15">
       <c r="A769" s="6" t="s">
         <v>18</v>
       </c>
@@ -38499,7 +38498,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="770" spans="1:16" ht="15" hidden="1">
+    <row r="770" spans="1:16" ht="15">
       <c r="A770" s="6" t="s">
         <v>19</v>
       </c>
@@ -38533,7 +38532,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="771" spans="1:16" ht="15" hidden="1">
+    <row r="771" spans="1:16" ht="15">
       <c r="A771" s="6" t="s">
         <v>20</v>
       </c>
@@ -38567,7 +38566,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="772" spans="1:16" ht="30" hidden="1">
+    <row r="772" spans="1:16" ht="30">
       <c r="A772" s="6" t="s">
         <v>21</v>
       </c>
@@ -38601,7 +38600,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="773" spans="1:16" ht="15" hidden="1">
+    <row r="773" spans="1:16" ht="15">
       <c r="A773" s="6" t="s">
         <v>22</v>
       </c>
@@ -38635,7 +38634,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="774" spans="1:16" ht="15" hidden="1">
+    <row r="774" spans="1:16" ht="15">
       <c r="A774" s="6" t="s">
         <v>23</v>
       </c>
@@ -38669,7 +38668,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="775" spans="1:16" ht="15" hidden="1">
+    <row r="775" spans="1:16" ht="15">
       <c r="A775" s="6" t="s">
         <v>24</v>
       </c>
@@ -38703,7 +38702,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="776" spans="1:16" ht="30" hidden="1">
+    <row r="776" spans="1:16" ht="30">
       <c r="A776" s="6" t="s">
         <v>25</v>
       </c>
@@ -38737,7 +38736,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="777" spans="1:16" ht="15" hidden="1">
+    <row r="777" spans="1:16" ht="15">
       <c r="A777" s="6" t="s">
         <v>26</v>
       </c>
@@ -38771,7 +38770,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="778" spans="1:16" ht="15" hidden="1">
+    <row r="778" spans="1:16" ht="15">
       <c r="A778" s="6" t="s">
         <v>27</v>
       </c>
@@ -38805,7 +38804,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="779" spans="1:16" ht="15" hidden="1">
+    <row r="779" spans="1:16" ht="15">
       <c r="A779" s="6" t="s">
         <v>28</v>
       </c>
@@ -38839,7 +38838,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="780" spans="1:16" ht="30" hidden="1">
+    <row r="780" spans="1:16" ht="30">
       <c r="A780" s="6" t="s">
         <v>29</v>
       </c>
@@ -38873,7 +38872,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="781" spans="1:16" ht="15" hidden="1">
+    <row r="781" spans="1:16" ht="15">
       <c r="A781" s="6" t="s">
         <v>30</v>
       </c>
@@ -38907,7 +38906,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="782" spans="1:16" ht="15" hidden="1">
+    <row r="782" spans="1:16" ht="15">
       <c r="A782" s="6" t="s">
         <v>31</v>
       </c>
@@ -38941,7 +38940,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="783" spans="1:16" ht="15" hidden="1">
+    <row r="783" spans="1:16" ht="15">
       <c r="A783" s="6" t="s">
         <v>32</v>
       </c>
@@ -38975,7 +38974,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="784" spans="1:16" ht="30" hidden="1">
+    <row r="784" spans="1:16" ht="30">
       <c r="A784" s="6" t="s">
         <v>33</v>
       </c>
@@ -39009,7 +39008,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="785" spans="1:16" ht="15" hidden="1">
+    <row r="785" spans="1:16" ht="15">
       <c r="A785" s="6" t="s">
         <v>34</v>
       </c>
@@ -39043,7 +39042,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="786" spans="1:16" ht="15" hidden="1">
+    <row r="786" spans="1:16" ht="15">
       <c r="A786" s="6" t="s">
         <v>35</v>
       </c>
@@ -39077,7 +39076,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="787" spans="1:16" ht="15" hidden="1">
+    <row r="787" spans="1:16" ht="15">
       <c r="A787" s="6" t="s">
         <v>36</v>
       </c>
@@ -39111,7 +39110,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="788" spans="1:16" ht="30" hidden="1">
+    <row r="788" spans="1:16" ht="30">
       <c r="A788" s="6" t="s">
         <v>37</v>
       </c>
@@ -39145,7 +39144,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="789" spans="1:16" ht="15" hidden="1">
+    <row r="789" spans="1:16" ht="15">
       <c r="A789" s="6" t="s">
         <v>38</v>
       </c>
@@ -39177,7 +39176,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="790" spans="1:16" ht="15" hidden="1">
+    <row r="790" spans="1:16" ht="15">
       <c r="A790" s="6" t="s">
         <v>39</v>
       </c>
@@ -39209,7 +39208,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="791" spans="1:16" ht="15" hidden="1">
+    <row r="791" spans="1:16" ht="15">
       <c r="A791" s="6" t="s">
         <v>40</v>
       </c>
@@ -39241,7 +39240,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="792" spans="1:16" ht="30" hidden="1">
+    <row r="792" spans="1:16" ht="30">
       <c r="A792" s="6" t="s">
         <v>41</v>
       </c>
@@ -39273,7 +39272,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="793" spans="1:16" ht="15" hidden="1">
+    <row r="793" spans="1:16" ht="15">
       <c r="A793" s="6" t="s">
         <v>42</v>
       </c>
@@ -39309,7 +39308,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="794" spans="1:16" ht="15" hidden="1">
+    <row r="794" spans="1:16" ht="15">
       <c r="A794" s="6" t="s">
         <v>43</v>
       </c>
@@ -39345,7 +39344,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="795" spans="1:16" ht="15" hidden="1">
+    <row r="795" spans="1:16" ht="15">
       <c r="A795" s="6" t="s">
         <v>44</v>
       </c>
@@ -39381,7 +39380,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="796" spans="1:16" ht="30" hidden="1">
+    <row r="796" spans="1:16" ht="30">
       <c r="A796" s="6" t="s">
         <v>45</v>
       </c>
@@ -39417,7 +39416,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="797" spans="1:16" ht="15" hidden="1">
+    <row r="797" spans="1:16" ht="15">
       <c r="A797" s="6" t="s">
         <v>46</v>
       </c>
@@ -39453,7 +39452,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="798" spans="1:16" ht="15" hidden="1">
+    <row r="798" spans="1:16" ht="15">
       <c r="A798" s="6" t="s">
         <v>47</v>
       </c>
@@ -39489,7 +39488,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="799" spans="1:16" ht="15" hidden="1">
+    <row r="799" spans="1:16" ht="15">
       <c r="A799" s="6" t="s">
         <v>48</v>
       </c>
@@ -39525,7 +39524,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="800" spans="1:16" ht="30" hidden="1">
+    <row r="800" spans="1:16" ht="30">
       <c r="A800" s="6" t="s">
         <v>49</v>
       </c>
@@ -39561,7 +39560,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="801" spans="1:16" ht="15" hidden="1">
+    <row r="801" spans="1:16" ht="15">
       <c r="A801" s="6" t="s">
         <v>50</v>
       </c>
@@ -39597,7 +39596,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="802" spans="1:16" ht="15" hidden="1">
+    <row r="802" spans="1:16" ht="15">
       <c r="A802" s="6" t="s">
         <v>51</v>
       </c>
@@ -39633,7 +39632,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="803" spans="1:16" ht="15" hidden="1">
+    <row r="803" spans="1:16" ht="15">
       <c r="A803" s="6" t="s">
         <v>52</v>
       </c>
@@ -39669,7 +39668,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="804" spans="1:16" ht="30" hidden="1">
+    <row r="804" spans="1:16" ht="30">
       <c r="A804" s="6" t="s">
         <v>53</v>
       </c>
@@ -39705,7 +39704,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="805" spans="1:16" ht="15" hidden="1">
+    <row r="805" spans="1:16" ht="15">
       <c r="A805" s="6" t="s">
         <v>54</v>
       </c>
@@ -39741,7 +39740,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="806" spans="1:16" ht="15" hidden="1">
+    <row r="806" spans="1:16" ht="15">
       <c r="A806" s="6" t="s">
         <v>55</v>
       </c>
@@ -39777,7 +39776,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="807" spans="1:16" ht="15" hidden="1">
+    <row r="807" spans="1:16" ht="15">
       <c r="A807" s="6" t="s">
         <v>56</v>
       </c>
@@ -39811,7 +39810,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="808" spans="1:16" ht="15" hidden="1">
+    <row r="808" spans="1:16" ht="15">
       <c r="A808" s="6" t="s">
         <v>57</v>
       </c>
@@ -39845,7 +39844,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="809" spans="1:16" ht="15" hidden="1">
+    <row r="809" spans="1:16" ht="15">
       <c r="A809" s="6" t="s">
         <v>58</v>
       </c>
@@ -39879,7 +39878,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="810" spans="1:16" ht="30" hidden="1">
+    <row r="810" spans="1:16" ht="30">
       <c r="A810" s="6" t="s">
         <v>59</v>
       </c>
@@ -39913,7 +39912,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="811" spans="1:16" ht="15" hidden="1">
+    <row r="811" spans="1:16" ht="15">
       <c r="A811" s="6" t="s">
         <v>60</v>
       </c>
@@ -39947,7 +39946,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="812" spans="1:16" ht="15" hidden="1">
+    <row r="812" spans="1:16" ht="15">
       <c r="A812" s="6" t="s">
         <v>61</v>
       </c>
@@ -39981,7 +39980,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="813" spans="1:16" ht="30" hidden="1">
+    <row r="813" spans="1:16" ht="30">
       <c r="A813" s="6" t="s">
         <v>62</v>
       </c>
@@ -40015,7 +40014,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="814" spans="1:16" ht="15" hidden="1">
+    <row r="814" spans="1:16" ht="15">
       <c r="A814" s="6" t="s">
         <v>63</v>
       </c>
@@ -40049,7 +40048,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="815" spans="1:16" ht="30" hidden="1">
+    <row r="815" spans="1:16" ht="30">
       <c r="A815" s="6" t="s">
         <v>64</v>
       </c>
@@ -40083,7 +40082,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="816" spans="1:16" ht="15" hidden="1">
+    <row r="816" spans="1:16" ht="15">
       <c r="A816" s="6" t="s">
         <v>65</v>
       </c>
@@ -40117,7 +40116,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="817" spans="1:16" ht="15" hidden="1">
+    <row r="817" spans="1:16" ht="15">
       <c r="A817" s="6" t="s">
         <v>66</v>
       </c>
@@ -40152,7 +40151,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="818" spans="1:16" ht="30" hidden="1">
+    <row r="818" spans="1:16" ht="30">
       <c r="A818" s="6" t="s">
         <v>67</v>
       </c>
@@ -40186,7 +40185,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="819" spans="1:16" ht="15" hidden="1">
+    <row r="819" spans="1:16" ht="15">
       <c r="A819" s="6" t="s">
         <v>68</v>
       </c>
@@ -40220,7 +40219,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="820" spans="1:16" ht="30" hidden="1">
+    <row r="820" spans="1:16" ht="30">
       <c r="A820" s="6" t="s">
         <v>69</v>
       </c>
@@ -40254,7 +40253,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="821" spans="1:16" ht="240" hidden="1">
+    <row r="821" spans="1:16" ht="240">
       <c r="A821" s="6" t="s">
         <v>70</v>
       </c>
@@ -40291,7 +40290,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="822" spans="1:16" ht="30" hidden="1">
+    <row r="822" spans="1:16" ht="30">
       <c r="A822" s="6" t="s">
         <v>71</v>
       </c>
@@ -40325,7 +40324,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="823" spans="1:16" ht="15" hidden="1">
+    <row r="823" spans="1:16" ht="15">
       <c r="A823" s="6" t="s">
         <v>72</v>
       </c>
@@ -40359,7 +40358,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="824" spans="1:16" ht="30" hidden="1">
+    <row r="824" spans="1:16" ht="30">
       <c r="A824" s="6" t="s">
         <v>73</v>
       </c>
@@ -40393,7 +40392,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="825" spans="1:16" ht="15" hidden="1">
+    <row r="825" spans="1:16" ht="15">
       <c r="A825" s="6" t="s">
         <v>74</v>
       </c>
@@ -40423,7 +40422,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="826" spans="1:16" ht="30" hidden="1">
+    <row r="826" spans="1:16" ht="30">
       <c r="A826" s="6" t="s">
         <v>75</v>
       </c>
@@ -40453,7 +40452,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="827" spans="1:16" ht="15" hidden="1">
+    <row r="827" spans="1:16" ht="15">
       <c r="A827" s="6" t="s">
         <v>76</v>
       </c>
@@ -40488,7 +40487,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="828" spans="1:16" ht="15" hidden="1">
+    <row r="828" spans="1:16" ht="15">
       <c r="A828" s="6" t="s">
         <v>77</v>
       </c>
@@ -40520,7 +40519,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="829" spans="1:16" ht="30" hidden="1">
+    <row r="829" spans="1:16" ht="30">
       <c r="A829" s="6" t="s">
         <v>78</v>
       </c>
@@ -40552,7 +40551,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="830" spans="1:16" ht="15" hidden="1">
+    <row r="830" spans="1:16" ht="15">
       <c r="A830" s="6" t="s">
         <v>79</v>
       </c>
@@ -40584,7 +40583,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="831" spans="1:16" ht="15" hidden="1">
+    <row r="831" spans="1:16" ht="15">
       <c r="A831" s="6" t="s">
         <v>80</v>
       </c>
@@ -40616,7 +40615,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="832" spans="1:16" ht="30" hidden="1">
+    <row r="832" spans="1:16" ht="30">
       <c r="A832" s="6" t="s">
         <v>81</v>
       </c>
@@ -40648,7 +40647,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="833" spans="1:16" ht="15" hidden="1">
+    <row r="833" spans="1:16" ht="15">
       <c r="A833" s="6" t="s">
         <v>82</v>
       </c>
@@ -40680,7 +40679,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="834" spans="1:16" ht="15" hidden="1">
+    <row r="834" spans="1:16" ht="15">
       <c r="A834" s="6" t="s">
         <v>83</v>
       </c>
@@ -40712,7 +40711,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="835" spans="1:16" ht="30" hidden="1">
+    <row r="835" spans="1:16" ht="30">
       <c r="A835" s="6" t="s">
         <v>84</v>
       </c>
@@ -40744,7 +40743,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="836" spans="1:16" ht="15" hidden="1">
+    <row r="836" spans="1:16" ht="15">
       <c r="A836" s="21" t="s">
         <v>1246</v>
       </c>
@@ -40774,7 +40773,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="837" spans="1:16" ht="15" hidden="1">
+    <row r="837" spans="1:16" ht="15">
       <c r="A837" s="21" t="s">
         <v>1247</v>
       </c>
@@ -40804,7 +40803,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="838" spans="1:16" ht="30" hidden="1">
+    <row r="838" spans="1:16" ht="30">
       <c r="A838" s="21" t="s">
         <v>1248</v>
       </c>
@@ -40834,7 +40833,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="839" spans="1:16" ht="30" hidden="1">
+    <row r="839" spans="1:16" ht="30">
       <c r="A839" s="6" t="s">
         <v>88</v>
       </c>
@@ -40866,7 +40865,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="840" spans="1:16" ht="30" hidden="1">
+    <row r="840" spans="1:16" ht="30">
       <c r="A840" s="6" t="s">
         <v>89</v>
       </c>
@@ -40898,7 +40897,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="841" spans="1:16" ht="15" hidden="1">
+    <row r="841" spans="1:16" ht="15">
       <c r="A841" s="6" t="s">
         <v>90</v>
       </c>
@@ -40930,7 +40929,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="842" spans="1:16" ht="15" hidden="1">
+    <row r="842" spans="1:16" ht="15">
       <c r="A842" s="6" t="s">
         <v>91</v>
       </c>
@@ -40962,7 +40961,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="843" spans="1:16" ht="15" hidden="1">
+    <row r="843" spans="1:16" ht="15">
       <c r="A843" s="6" t="s">
         <v>92</v>
       </c>
@@ -40994,7 +40993,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="844" spans="1:16" ht="15" hidden="1">
+    <row r="844" spans="1:16" ht="15">
       <c r="A844" s="6" t="s">
         <v>93</v>
       </c>
@@ -41026,7 +41025,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="845" spans="1:16" ht="15" hidden="1">
+    <row r="845" spans="1:16" ht="15">
       <c r="A845" s="6" t="s">
         <v>94</v>
       </c>
@@ -41063,7 +41062,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="846" spans="1:16" ht="15" hidden="1">
+    <row r="846" spans="1:16" ht="15">
       <c r="A846" s="6" t="s">
         <v>95</v>
       </c>
@@ -41097,7 +41096,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="847" spans="1:16" ht="30" hidden="1">
+    <row r="847" spans="1:16" ht="30">
       <c r="A847" s="6" t="s">
         <v>96</v>
       </c>
@@ -41131,7 +41130,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="848" spans="1:16" ht="15" hidden="1">
+    <row r="848" spans="1:16" ht="15">
       <c r="A848" s="6" t="s">
         <v>97</v>
       </c>
@@ -41165,7 +41164,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="849" spans="1:16" ht="15" hidden="1">
+    <row r="849" spans="1:16" ht="15">
       <c r="A849" s="6" t="s">
         <v>98</v>
       </c>
@@ -41199,7 +41198,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="850" spans="1:16" ht="30" hidden="1">
+    <row r="850" spans="1:16" ht="30">
       <c r="A850" s="6" t="s">
         <v>99</v>
       </c>
@@ -41233,7 +41232,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="851" spans="1:16" ht="15" hidden="1">
+    <row r="851" spans="1:16" ht="15">
       <c r="A851" s="6" t="s">
         <v>100</v>
       </c>
@@ -41267,7 +41266,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="852" spans="1:16" ht="15" hidden="1">
+    <row r="852" spans="1:16" ht="15">
       <c r="A852" s="6" t="s">
         <v>101</v>
       </c>
@@ -41301,7 +41300,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="853" spans="1:16" ht="30" hidden="1">
+    <row r="853" spans="1:16" ht="30">
       <c r="A853" s="6" t="s">
         <v>102</v>
       </c>
@@ -41335,7 +41334,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="854" spans="1:16" ht="15" hidden="1">
+    <row r="854" spans="1:16" ht="15">
       <c r="A854" s="6" t="s">
         <v>103</v>
       </c>
@@ -41369,7 +41368,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="855" spans="1:16" ht="15" hidden="1">
+    <row r="855" spans="1:16" ht="15">
       <c r="A855" s="6" t="s">
         <v>104</v>
       </c>
@@ -41403,7 +41402,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="856" spans="1:16" ht="30" hidden="1">
+    <row r="856" spans="1:16" ht="30">
       <c r="A856" s="6" t="s">
         <v>105</v>
       </c>
@@ -41437,7 +41436,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="857" spans="1:16" ht="15" hidden="1">
+    <row r="857" spans="1:16" ht="15">
       <c r="A857" s="6" t="s">
         <v>106</v>
       </c>
@@ -41471,7 +41470,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="858" spans="1:16" ht="15" hidden="1">
+    <row r="858" spans="1:16" ht="15">
       <c r="A858" s="6" t="s">
         <v>107</v>
       </c>
@@ -41505,7 +41504,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="859" spans="1:16" ht="30" hidden="1">
+    <row r="859" spans="1:16" ht="30">
       <c r="A859" s="6" t="s">
         <v>108</v>
       </c>
@@ -41539,7 +41538,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="860" spans="1:16" ht="15" hidden="1">
+    <row r="860" spans="1:16" ht="15">
       <c r="A860" s="6" t="s">
         <v>109</v>
       </c>
@@ -41573,7 +41572,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="861" spans="1:16" ht="15" hidden="1">
+    <row r="861" spans="1:16" ht="15">
       <c r="A861" s="6" t="s">
         <v>110</v>
       </c>
@@ -41607,7 +41606,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="862" spans="1:16" ht="30" hidden="1">
+    <row r="862" spans="1:16" ht="30">
       <c r="A862" s="6" t="s">
         <v>111</v>
       </c>
@@ -41641,7 +41640,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="863" spans="1:16" ht="15" hidden="1">
+    <row r="863" spans="1:16" ht="15">
       <c r="A863" s="21" t="s">
         <v>1254</v>
       </c>
@@ -41671,7 +41670,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="864" spans="1:16" ht="15" hidden="1">
+    <row r="864" spans="1:16" ht="15">
       <c r="A864" s="21" t="s">
         <v>1255</v>
       </c>
@@ -41701,7 +41700,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="865" spans="1:16" ht="30" hidden="1">
+    <row r="865" spans="1:16" ht="30">
       <c r="A865" s="21" t="s">
         <v>1256</v>
       </c>
@@ -41731,7 +41730,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="866" spans="1:16" ht="30" hidden="1">
+    <row r="866" spans="1:16" ht="30">
       <c r="A866" s="6" t="s">
         <v>115</v>
       </c>
@@ -41763,7 +41762,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="867" spans="1:16" ht="15" hidden="1">
+    <row r="867" spans="1:16" ht="15">
       <c r="A867" s="6" t="s">
         <v>116</v>
       </c>
@@ -41795,7 +41794,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="868" spans="1:16" ht="15" hidden="1">
+    <row r="868" spans="1:16" ht="15">
       <c r="A868" s="6" t="s">
         <v>117</v>
       </c>
@@ -41827,7 +41826,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="869" spans="1:16" ht="30" hidden="1">
+    <row r="869" spans="1:16" ht="30">
       <c r="A869" s="6" t="s">
         <v>118</v>
       </c>
@@ -41859,7 +41858,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="870" spans="1:16" ht="15" hidden="1">
+    <row r="870" spans="1:16" ht="15">
       <c r="A870" s="6" t="s">
         <v>119</v>
       </c>
@@ -41891,7 +41890,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="871" spans="1:16" ht="15" hidden="1">
+    <row r="871" spans="1:16" ht="15">
       <c r="A871" s="6" t="s">
         <v>120</v>
       </c>
@@ -41923,7 +41922,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="872" spans="1:16" ht="30" hidden="1">
+    <row r="872" spans="1:16" ht="30">
       <c r="A872" s="22" t="s">
         <v>1260</v>
       </c>
@@ -41960,7 +41959,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="873" spans="1:16" ht="30" hidden="1">
+    <row r="873" spans="1:16" ht="30">
       <c r="A873" s="22" t="s">
         <v>1261</v>
       </c>
@@ -41997,7 +41996,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="874" spans="1:16" ht="30" hidden="1">
+    <row r="874" spans="1:16" ht="30">
       <c r="A874" s="22" t="s">
         <v>1262</v>
       </c>
@@ -42034,7 +42033,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="875" spans="1:16" ht="30" hidden="1">
+    <row r="875" spans="1:16" ht="30">
       <c r="A875" s="22" t="s">
         <v>1263</v>
       </c>
@@ -42071,7 +42070,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="876" spans="1:16" ht="30" hidden="1">
+    <row r="876" spans="1:16" ht="30">
       <c r="A876" s="22" t="s">
         <v>1264</v>
       </c>
@@ -42108,7 +42107,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="877" spans="1:16" ht="30" hidden="1">
+    <row r="877" spans="1:16" ht="30">
       <c r="A877" s="22" t="s">
         <v>1265</v>
       </c>
@@ -42145,7 +42144,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="878" spans="1:16" ht="30" hidden="1">
+    <row r="878" spans="1:16" ht="30">
       <c r="A878" s="22" t="s">
         <v>1266</v>
       </c>
@@ -42182,7 +42181,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="879" spans="1:16" ht="30" hidden="1">
+    <row r="879" spans="1:16" ht="30">
       <c r="A879" s="22" t="s">
         <v>1267</v>
       </c>
@@ -42219,7 +42218,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="880" spans="1:16" ht="30" hidden="1">
+    <row r="880" spans="1:16" ht="30">
       <c r="A880" s="22" t="s">
         <v>1268</v>
       </c>
@@ -42256,7 +42255,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="881" spans="1:16" ht="30" hidden="1">
+    <row r="881" spans="1:16" ht="30">
       <c r="A881" s="22" t="s">
         <v>1269</v>
       </c>
@@ -42293,7 +42292,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="882" spans="1:16" ht="30" hidden="1">
+    <row r="882" spans="1:16" ht="30">
       <c r="A882" s="22" t="s">
         <v>1270</v>
       </c>
@@ -42330,7 +42329,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="883" spans="1:16" ht="30" hidden="1">
+    <row r="883" spans="1:16" ht="30">
       <c r="A883" s="22" t="s">
         <v>1272</v>
       </c>
@@ -42367,7 +42366,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="884" spans="1:16" ht="30" hidden="1">
+    <row r="884" spans="1:16" ht="30">
       <c r="A884" s="22" t="s">
         <v>1273</v>
       </c>
@@ -42404,7 +42403,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="885" spans="1:16" ht="30" hidden="1">
+    <row r="885" spans="1:16" ht="30">
       <c r="A885" s="22" t="s">
         <v>1274</v>
       </c>
@@ -42441,7 +42440,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="886" spans="1:16" ht="30" hidden="1">
+    <row r="886" spans="1:16" ht="30">
       <c r="A886" s="22" t="s">
         <v>1275</v>
       </c>
@@ -42478,7 +42477,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="887" spans="1:16" ht="30" hidden="1">
+    <row r="887" spans="1:16" ht="30">
       <c r="A887" s="22" t="s">
         <v>1276</v>
       </c>
@@ -42515,7 +42514,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="888" spans="1:16" ht="30" hidden="1">
+    <row r="888" spans="1:16" ht="30">
       <c r="A888" s="22" t="s">
         <v>1277</v>
       </c>
@@ -42552,7 +42551,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="889" spans="1:16" ht="30" hidden="1">
+    <row r="889" spans="1:16" ht="30">
       <c r="A889" s="22" t="s">
         <v>1278</v>
       </c>
@@ -42589,7 +42588,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="890" spans="1:16" ht="30" hidden="1">
+    <row r="890" spans="1:16" ht="30">
       <c r="A890" s="22" t="s">
         <v>1279</v>
       </c>
@@ -42626,7 +42625,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="891" spans="1:16" ht="30" hidden="1">
+    <row r="891" spans="1:16" ht="30">
       <c r="A891" s="22" t="s">
         <v>1280</v>
       </c>
@@ -42663,7 +42662,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="892" spans="1:16" ht="30" hidden="1">
+    <row r="892" spans="1:16" ht="30">
       <c r="A892" s="22" t="s">
         <v>1281</v>
       </c>
@@ -42700,7 +42699,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="893" spans="1:16" ht="30" hidden="1">
+    <row r="893" spans="1:16" ht="30">
       <c r="A893" s="22" t="s">
         <v>1282</v>
       </c>
@@ -42737,7 +42736,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="894" spans="1:16" ht="30" hidden="1">
+    <row r="894" spans="1:16" ht="30">
       <c r="A894" s="22" t="s">
         <v>1283</v>
       </c>
@@ -42774,7 +42773,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="895" spans="1:16" ht="30" hidden="1">
+    <row r="895" spans="1:16" ht="30">
       <c r="A895" s="22" t="s">
         <v>1284</v>
       </c>
@@ -42811,7 +42810,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="896" spans="1:16" ht="30" hidden="1">
+    <row r="896" spans="1:16" ht="30">
       <c r="A896" s="22" t="s">
         <v>1285</v>
       </c>
@@ -42848,7 +42847,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="897" spans="1:16" ht="30" hidden="1">
+    <row r="897" spans="1:16" ht="30">
       <c r="A897" s="22" t="s">
         <v>1286</v>
       </c>
@@ -42885,7 +42884,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="898" spans="1:16" ht="30" hidden="1">
+    <row r="898" spans="1:16" ht="30">
       <c r="A898" s="22" t="s">
         <v>1287</v>
       </c>
@@ -42922,7 +42921,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="899" spans="1:16" ht="30" hidden="1">
+    <row r="899" spans="1:16" ht="30">
       <c r="A899" s="22" t="s">
         <v>1288</v>
       </c>
@@ -42959,7 +42958,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="900" spans="1:16" ht="30" hidden="1">
+    <row r="900" spans="1:16" ht="30">
       <c r="A900" s="22" t="s">
         <v>1289</v>
       </c>
@@ -42996,7 +42995,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="901" spans="1:16" ht="30" hidden="1">
+    <row r="901" spans="1:16" ht="30">
       <c r="A901" s="22" t="s">
         <v>1290</v>
       </c>
@@ -43033,7 +43032,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="902" spans="1:16" ht="30" hidden="1">
+    <row r="902" spans="1:16" ht="30">
       <c r="A902" s="22" t="s">
         <v>1291</v>
       </c>
@@ -43070,7 +43069,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="903" spans="1:16" ht="30" hidden="1">
+    <row r="903" spans="1:16" ht="30">
       <c r="A903" s="22" t="s">
         <v>1292</v>
       </c>
@@ -43107,7 +43106,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="904" spans="1:16" ht="30" hidden="1">
+    <row r="904" spans="1:16" ht="30">
       <c r="A904" s="22" t="s">
         <v>1296</v>
       </c>
@@ -43144,7 +43143,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="905" spans="1:16" ht="30" hidden="1">
+    <row r="905" spans="1:16" ht="30">
       <c r="A905" s="22" t="s">
         <v>1297</v>
       </c>
@@ -43181,7 +43180,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="906" spans="1:16" ht="30" hidden="1">
+    <row r="906" spans="1:16" ht="30">
       <c r="A906" s="22" t="s">
         <v>1298</v>
       </c>
@@ -43218,7 +43217,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="907" spans="1:16" ht="30" hidden="1">
+    <row r="907" spans="1:16" ht="30">
       <c r="A907" s="22" t="s">
         <v>1299</v>
       </c>
@@ -43255,7 +43254,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="908" spans="1:16" ht="30" hidden="1">
+    <row r="908" spans="1:16" ht="30">
       <c r="A908" s="22" t="s">
         <v>1300</v>
       </c>
@@ -43292,7 +43291,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="909" spans="1:16" ht="30" hidden="1">
+    <row r="909" spans="1:16" ht="30">
       <c r="A909" s="22" t="s">
         <v>1301</v>
       </c>
@@ -43329,7 +43328,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="910" spans="1:16" ht="30" hidden="1">
+    <row r="910" spans="1:16" ht="30">
       <c r="A910" s="22" t="s">
         <v>1302</v>
       </c>
@@ -43366,7 +43365,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="911" spans="1:16" ht="30" hidden="1">
+    <row r="911" spans="1:16" ht="30">
       <c r="A911" s="22" t="s">
         <v>1303</v>
       </c>
@@ -43403,7 +43402,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="912" spans="1:16" ht="30" hidden="1">
+    <row r="912" spans="1:16" ht="30">
       <c r="A912" s="22" t="s">
         <v>1304</v>
       </c>
@@ -43440,7 +43439,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="913" spans="1:16" ht="30" hidden="1">
+    <row r="913" spans="1:16" ht="30">
       <c r="A913" s="22" t="s">
         <v>1305</v>
       </c>
@@ -43477,7 +43476,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="914" spans="1:16" ht="30" hidden="1">
+    <row r="914" spans="1:16" ht="30">
       <c r="A914" s="22" t="s">
         <v>1309</v>
       </c>
@@ -43514,7 +43513,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="915" spans="1:16" ht="30" hidden="1">
+    <row r="915" spans="1:16" ht="30">
       <c r="A915" s="22" t="s">
         <v>1310</v>
       </c>
@@ -43551,7 +43550,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="916" spans="1:16" ht="30" hidden="1">
+    <row r="916" spans="1:16" ht="30">
       <c r="A916" s="22" t="s">
         <v>1311</v>
       </c>
@@ -43588,7 +43587,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="917" spans="1:16" ht="30" hidden="1">
+    <row r="917" spans="1:16" ht="30">
       <c r="A917" s="22" t="s">
         <v>1312</v>
       </c>
@@ -43625,7 +43624,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="918" spans="1:16" ht="30" hidden="1">
+    <row r="918" spans="1:16" ht="30">
       <c r="A918" s="22" t="s">
         <v>1313</v>
       </c>
@@ -43662,7 +43661,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="919" spans="1:16" ht="30" hidden="1">
+    <row r="919" spans="1:16" ht="30">
       <c r="A919" s="22" t="s">
         <v>1314</v>
       </c>
@@ -43699,7 +43698,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="920" spans="1:16" ht="30" hidden="1">
+    <row r="920" spans="1:16" ht="30">
       <c r="A920" s="22" t="s">
         <v>1315</v>
       </c>
@@ -43736,7 +43735,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="921" spans="1:16" ht="30" hidden="1">
+    <row r="921" spans="1:16" ht="30">
       <c r="A921" s="22" t="s">
         <v>1316</v>
       </c>
@@ -43773,7 +43772,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="922" spans="1:16" ht="30" hidden="1">
+    <row r="922" spans="1:16" ht="30">
       <c r="A922" s="22" t="s">
         <v>1317</v>
       </c>
@@ -43810,7 +43809,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="923" spans="1:16" ht="30" hidden="1">
+    <row r="923" spans="1:16" ht="30">
       <c r="A923" s="25" t="s">
         <v>172</v>
       </c>
@@ -43847,7 +43846,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="924" spans="1:16" ht="30" hidden="1">
+    <row r="924" spans="1:16" ht="30">
       <c r="A924" s="22" t="s">
         <v>1320</v>
       </c>
@@ -43884,7 +43883,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="925" spans="1:16" ht="30" hidden="1">
+    <row r="925" spans="1:16" ht="30">
       <c r="A925" s="22" t="s">
         <v>1321</v>
       </c>
@@ -43921,7 +43920,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="926" spans="1:16" ht="30" hidden="1">
+    <row r="926" spans="1:16" ht="30">
       <c r="A926" s="22" t="s">
         <v>1322</v>
       </c>
@@ -43958,7 +43957,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="927" spans="1:16" ht="30" hidden="1">
+    <row r="927" spans="1:16" ht="30">
       <c r="A927" s="22" t="s">
         <v>1323</v>
       </c>
@@ -43995,7 +43994,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="928" spans="1:16" ht="30" hidden="1">
+    <row r="928" spans="1:16" ht="30">
       <c r="A928" s="22" t="s">
         <v>1324</v>
       </c>
@@ -44032,7 +44031,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="929" spans="1:16" ht="30" hidden="1">
+    <row r="929" spans="1:16" ht="30">
       <c r="A929" s="22" t="s">
         <v>1325</v>
       </c>
@@ -44069,7 +44068,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="930" spans="1:16" ht="30" hidden="1">
+    <row r="930" spans="1:16" ht="30">
       <c r="A930" s="22" t="s">
         <v>1326</v>
       </c>
@@ -44106,7 +44105,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="931" spans="1:16" ht="30" hidden="1">
+    <row r="931" spans="1:16" ht="30">
       <c r="A931" s="22" t="s">
         <v>1327</v>
       </c>
@@ -44143,7 +44142,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="932" spans="1:16" ht="30" hidden="1">
+    <row r="932" spans="1:16" ht="30">
       <c r="A932" s="25" t="s">
         <v>181</v>
       </c>
@@ -44180,7 +44179,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="933" spans="1:16" ht="30" hidden="1">
+    <row r="933" spans="1:16" ht="30">
       <c r="A933" s="22" t="s">
         <v>1328</v>
       </c>
@@ -44218,15 +44217,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P933">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="C'hi Aplique"/>
-        <filter val="C'hi Sospensione"/>
-        <filter val="C'HI Tavolo"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/xls/penta/penta_originario.xlsx
+++ b/xls/penta/penta_originario.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8053" uniqueCount="1323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8053" uniqueCount="1324">
   <si>
     <t>Descrizione</t>
   </si>
@@ -11547,6 +11547,9 @@
   </si>
   <si>
     <t>mini</t>
+  </si>
+  <si>
+    <t>Lula Terra</t>
   </si>
 </sst>
 </file>
@@ -11761,10 +11764,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -11869,11 +11874,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Collegamento ipertestuale" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="2"/>
     <cellStyle name="Valuta" xfId="1" builtinId="4"/>
@@ -12180,7 +12187,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -12188,10 +12195,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P933"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="L869" sqref="L869:L871"/>
+      <selection activeCell="F939" sqref="F939"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -12262,7 +12270,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="36.75" customHeight="1">
+    <row r="2" spans="1:16" ht="36.75" hidden="1" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>182</v>
       </c>
@@ -12299,7 +12307,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15">
+    <row r="3" spans="1:16" ht="15" hidden="1">
       <c r="A3" s="6" t="s">
         <v>183</v>
       </c>
@@ -12333,7 +12341,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15">
+    <row r="4" spans="1:16" ht="15" hidden="1">
       <c r="A4" s="6" t="s">
         <v>184</v>
       </c>
@@ -12367,7 +12375,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15">
+    <row r="5" spans="1:16" ht="15" hidden="1">
       <c r="A5" s="6" t="s">
         <v>185</v>
       </c>
@@ -12401,7 +12409,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15">
+    <row r="6" spans="1:16" ht="15" hidden="1">
       <c r="A6" s="6" t="s">
         <v>186</v>
       </c>
@@ -12435,7 +12443,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15">
+    <row r="7" spans="1:16" ht="15" hidden="1">
       <c r="A7" s="6" t="s">
         <v>187</v>
       </c>
@@ -12469,7 +12477,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="30">
+    <row r="8" spans="1:16" ht="30" hidden="1">
       <c r="A8" s="6" t="s">
         <v>188</v>
       </c>
@@ -12501,7 +12509,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="30">
+    <row r="9" spans="1:16" ht="30" hidden="1">
       <c r="A9" s="19" t="s">
         <v>1108</v>
       </c>
@@ -12533,7 +12541,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15">
+    <row r="10" spans="1:16" ht="15" hidden="1">
       <c r="A10" s="6" t="s">
         <v>190</v>
       </c>
@@ -12567,7 +12575,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15">
+    <row r="11" spans="1:16" ht="15" hidden="1">
       <c r="A11" s="6" t="s">
         <v>191</v>
       </c>
@@ -12601,7 +12609,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15">
+    <row r="12" spans="1:16" ht="15" hidden="1">
       <c r="A12" s="6" t="s">
         <v>192</v>
       </c>
@@ -12635,7 +12643,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15">
+    <row r="13" spans="1:16" ht="15" hidden="1">
       <c r="A13" s="6" t="s">
         <v>193</v>
       </c>
@@ -12669,7 +12677,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15">
+    <row r="14" spans="1:16" ht="15" hidden="1">
       <c r="A14" s="6" t="s">
         <v>194</v>
       </c>
@@ -12703,7 +12711,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15">
+    <row r="15" spans="1:16" ht="15" hidden="1">
       <c r="A15" s="6" t="s">
         <v>195</v>
       </c>
@@ -12737,7 +12745,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15">
+    <row r="16" spans="1:16" ht="15" hidden="1">
       <c r="A16" s="6" t="s">
         <v>196</v>
       </c>
@@ -12771,7 +12779,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15">
+    <row r="17" spans="1:16" ht="15" hidden="1">
       <c r="A17" s="6" t="s">
         <v>197</v>
       </c>
@@ -12805,7 +12813,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15">
+    <row r="18" spans="1:16" ht="15" hidden="1">
       <c r="A18" s="6" t="s">
         <v>198</v>
       </c>
@@ -12839,7 +12847,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="30">
+    <row r="19" spans="1:16" ht="30" hidden="1">
       <c r="A19" s="6" t="s">
         <v>199</v>
       </c>
@@ -12873,7 +12881,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="30">
+    <row r="20" spans="1:16" ht="30" hidden="1">
       <c r="A20" s="6" t="s">
         <v>200</v>
       </c>
@@ -12907,7 +12915,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="30">
+    <row r="21" spans="1:16" ht="30" hidden="1">
       <c r="A21" s="6" t="s">
         <v>201</v>
       </c>
@@ -12941,7 +12949,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15">
+    <row r="22" spans="1:16" ht="15" hidden="1">
       <c r="A22" s="6" t="s">
         <v>202</v>
       </c>
@@ -12975,7 +12983,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15">
+    <row r="23" spans="1:16" ht="15" hidden="1">
       <c r="A23" s="6" t="s">
         <v>203</v>
       </c>
@@ -13009,7 +13017,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15">
+    <row r="24" spans="1:16" ht="15" hidden="1">
       <c r="A24" s="6" t="s">
         <v>204</v>
       </c>
@@ -13043,7 +13051,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15">
+    <row r="25" spans="1:16" ht="15" hidden="1">
       <c r="A25" s="6" t="s">
         <v>205</v>
       </c>
@@ -13077,7 +13085,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15">
+    <row r="26" spans="1:16" ht="15" hidden="1">
       <c r="A26" s="6" t="s">
         <v>206</v>
       </c>
@@ -13111,7 +13119,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15">
+    <row r="27" spans="1:16" ht="15" hidden="1">
       <c r="A27" s="6" t="s">
         <v>207</v>
       </c>
@@ -13145,7 +13153,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15">
+    <row r="28" spans="1:16" ht="15" hidden="1">
       <c r="A28" s="6" t="s">
         <v>208</v>
       </c>
@@ -13179,7 +13187,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15">
+    <row r="29" spans="1:16" ht="15" hidden="1">
       <c r="A29" s="6" t="s">
         <v>209</v>
       </c>
@@ -13213,7 +13221,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15">
+    <row r="30" spans="1:16" ht="15" hidden="1">
       <c r="A30" s="6" t="s">
         <v>210</v>
       </c>
@@ -13247,7 +13255,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15">
+    <row r="31" spans="1:16" ht="15" hidden="1">
       <c r="A31" s="6" t="s">
         <v>211</v>
       </c>
@@ -13281,7 +13289,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15">
+    <row r="32" spans="1:16" ht="15" hidden="1">
       <c r="A32" s="6" t="s">
         <v>212</v>
       </c>
@@ -13315,7 +13323,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="15">
+    <row r="33" spans="1:16" ht="15" hidden="1">
       <c r="A33" s="6" t="s">
         <v>213</v>
       </c>
@@ -13349,7 +13357,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="30">
+    <row r="34" spans="1:16" ht="30" hidden="1">
       <c r="A34" s="6" t="s">
         <v>214</v>
       </c>
@@ -13383,7 +13391,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="30">
+    <row r="35" spans="1:16" ht="30" hidden="1">
       <c r="A35" s="6" t="s">
         <v>215</v>
       </c>
@@ -13417,7 +13425,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="30">
+    <row r="36" spans="1:16" ht="30" hidden="1">
       <c r="A36" s="6" t="s">
         <v>216</v>
       </c>
@@ -13451,7 +13459,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15">
+    <row r="37" spans="1:16" ht="15" hidden="1">
       <c r="A37" s="6" t="s">
         <v>217</v>
       </c>
@@ -13485,7 +13493,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15">
+    <row r="38" spans="1:16" ht="15" hidden="1">
       <c r="A38" s="6" t="s">
         <v>218</v>
       </c>
@@ -13519,7 +13527,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="15">
+    <row r="39" spans="1:16" ht="15" hidden="1">
       <c r="A39" s="6" t="s">
         <v>219</v>
       </c>
@@ -13553,7 +13561,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="15">
+    <row r="40" spans="1:16" ht="15" hidden="1">
       <c r="A40" s="6" t="s">
         <v>220</v>
       </c>
@@ -13587,7 +13595,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="15">
+    <row r="41" spans="1:16" ht="15" hidden="1">
       <c r="A41" s="6" t="s">
         <v>221</v>
       </c>
@@ -13621,7 +13629,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="15">
+    <row r="42" spans="1:16" ht="15" hidden="1">
       <c r="A42" s="6" t="s">
         <v>222</v>
       </c>
@@ -13655,7 +13663,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="15">
+    <row r="43" spans="1:16" ht="15" hidden="1">
       <c r="A43" s="6" t="s">
         <v>223</v>
       </c>
@@ -13689,7 +13697,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15">
+    <row r="44" spans="1:16" ht="15" hidden="1">
       <c r="A44" s="6" t="s">
         <v>224</v>
       </c>
@@ -13723,7 +13731,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15">
+    <row r="45" spans="1:16" ht="15" hidden="1">
       <c r="A45" s="6" t="s">
         <v>225</v>
       </c>
@@ -13757,7 +13765,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="15">
+    <row r="46" spans="1:16" ht="15" hidden="1">
       <c r="A46" s="6" t="s">
         <v>226</v>
       </c>
@@ -13791,7 +13799,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="15">
+    <row r="47" spans="1:16" ht="15" hidden="1">
       <c r="A47" s="6" t="s">
         <v>227</v>
       </c>
@@ -13825,7 +13833,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="15">
+    <row r="48" spans="1:16" ht="15" hidden="1">
       <c r="A48" s="6" t="s">
         <v>228</v>
       </c>
@@ -13859,7 +13867,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="49" spans="1:16" ht="30">
+    <row r="49" spans="1:16" ht="30" hidden="1">
       <c r="A49" s="6" t="s">
         <v>229</v>
       </c>
@@ -13893,7 +13901,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="30">
+    <row r="50" spans="1:16" ht="30" hidden="1">
       <c r="A50" s="6" t="s">
         <v>230</v>
       </c>
@@ -13927,7 +13935,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="51" spans="1:16" ht="30">
+    <row r="51" spans="1:16" ht="30" hidden="1">
       <c r="A51" s="6" t="s">
         <v>231</v>
       </c>
@@ -13961,7 +13969,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="52" spans="1:16" ht="15">
+    <row r="52" spans="1:16" ht="15" hidden="1">
       <c r="A52" s="6" t="s">
         <v>232</v>
       </c>
@@ -13995,7 +14003,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="53" spans="1:16" ht="15">
+    <row r="53" spans="1:16" ht="15" hidden="1">
       <c r="A53" s="6" t="s">
         <v>233</v>
       </c>
@@ -14029,7 +14037,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="54" spans="1:16" ht="15">
+    <row r="54" spans="1:16" ht="15" hidden="1">
       <c r="A54" s="6" t="s">
         <v>234</v>
       </c>
@@ -14063,7 +14071,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="55" spans="1:16" ht="15">
+    <row r="55" spans="1:16" ht="15" hidden="1">
       <c r="A55" s="6" t="s">
         <v>235</v>
       </c>
@@ -14097,7 +14105,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="56" spans="1:16" ht="15">
+    <row r="56" spans="1:16" ht="15" hidden="1">
       <c r="A56" s="6" t="s">
         <v>236</v>
       </c>
@@ -14131,7 +14139,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="57" spans="1:16" ht="15">
+    <row r="57" spans="1:16" ht="15" hidden="1">
       <c r="A57" s="6" t="s">
         <v>237</v>
       </c>
@@ -14165,7 +14173,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="58" spans="1:16" ht="15">
+    <row r="58" spans="1:16" ht="15" hidden="1">
       <c r="A58" s="6" t="s">
         <v>238</v>
       </c>
@@ -14199,7 +14207,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="59" spans="1:16" ht="15">
+    <row r="59" spans="1:16" ht="15" hidden="1">
       <c r="A59" s="6" t="s">
         <v>239</v>
       </c>
@@ -14233,7 +14241,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15">
+    <row r="60" spans="1:16" ht="15" hidden="1">
       <c r="A60" s="6" t="s">
         <v>240</v>
       </c>
@@ -14267,7 +14275,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15">
+    <row r="61" spans="1:16" ht="15" hidden="1">
       <c r="A61" s="6" t="s">
         <v>241</v>
       </c>
@@ -14301,7 +14309,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="15">
+    <row r="62" spans="1:16" ht="15" hidden="1">
       <c r="A62" s="6" t="s">
         <v>242</v>
       </c>
@@ -14335,7 +14343,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="15">
+    <row r="63" spans="1:16" ht="15" hidden="1">
       <c r="A63" s="6" t="s">
         <v>243</v>
       </c>
@@ -14369,7 +14377,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="30">
+    <row r="64" spans="1:16" ht="30" hidden="1">
       <c r="A64" s="6" t="s">
         <v>244</v>
       </c>
@@ -14403,7 +14411,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="30">
+    <row r="65" spans="1:16" ht="30" hidden="1">
       <c r="A65" s="6" t="s">
         <v>245</v>
       </c>
@@ -14437,7 +14445,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="30">
+    <row r="66" spans="1:16" ht="30" hidden="1">
       <c r="A66" s="6" t="s">
         <v>246</v>
       </c>
@@ -14471,7 +14479,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15">
+    <row r="67" spans="1:16" ht="15" hidden="1">
       <c r="A67" s="6" t="s">
         <v>247</v>
       </c>
@@ -14505,7 +14513,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="15">
+    <row r="68" spans="1:16" ht="15" hidden="1">
       <c r="A68" s="6" t="s">
         <v>248</v>
       </c>
@@ -14539,7 +14547,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="15">
+    <row r="69" spans="1:16" ht="15" hidden="1">
       <c r="A69" s="6" t="s">
         <v>249</v>
       </c>
@@ -14573,7 +14581,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15">
+    <row r="70" spans="1:16" ht="15" hidden="1">
       <c r="A70" s="6" t="s">
         <v>250</v>
       </c>
@@ -14607,7 +14615,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15">
+    <row r="71" spans="1:16" ht="15" hidden="1">
       <c r="A71" s="6" t="s">
         <v>251</v>
       </c>
@@ -14641,7 +14649,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15">
+    <row r="72" spans="1:16" ht="15" hidden="1">
       <c r="A72" s="6" t="s">
         <v>252</v>
       </c>
@@ -14675,7 +14683,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="73" spans="1:16" ht="15">
+    <row r="73" spans="1:16" ht="15" hidden="1">
       <c r="A73" s="6" t="s">
         <v>253</v>
       </c>
@@ -14709,7 +14717,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="74" spans="1:16" ht="15">
+    <row r="74" spans="1:16" ht="15" hidden="1">
       <c r="A74" s="6" t="s">
         <v>254</v>
       </c>
@@ -14743,7 +14751,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="15">
+    <row r="75" spans="1:16" ht="15" hidden="1">
       <c r="A75" s="6" t="s">
         <v>255</v>
       </c>
@@ -14777,7 +14785,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="76" spans="1:16" ht="15">
+    <row r="76" spans="1:16" ht="15" hidden="1">
       <c r="A76" s="6" t="s">
         <v>256</v>
       </c>
@@ -14811,7 +14819,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="77" spans="1:16" ht="15">
+    <row r="77" spans="1:16" ht="15" hidden="1">
       <c r="A77" s="6" t="s">
         <v>257</v>
       </c>
@@ -14845,7 +14853,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="78" spans="1:16" ht="15">
+    <row r="78" spans="1:16" ht="15" hidden="1">
       <c r="A78" s="6" t="s">
         <v>258</v>
       </c>
@@ -14879,7 +14887,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="30">
+    <row r="79" spans="1:16" ht="30" hidden="1">
       <c r="A79" s="6" t="s">
         <v>259</v>
       </c>
@@ -14913,7 +14921,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="80" spans="1:16" ht="30">
+    <row r="80" spans="1:16" ht="30" hidden="1">
       <c r="A80" s="6" t="s">
         <v>260</v>
       </c>
@@ -14947,7 +14955,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="30">
+    <row r="81" spans="1:16" ht="30" hidden="1">
       <c r="A81" s="6" t="s">
         <v>261</v>
       </c>
@@ -14981,7 +14989,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="15">
+    <row r="82" spans="1:16" ht="15" hidden="1">
       <c r="A82" s="6" t="s">
         <v>262</v>
       </c>
@@ -15015,7 +15023,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="15">
+    <row r="83" spans="1:16" ht="15" hidden="1">
       <c r="A83" s="6" t="s">
         <v>263</v>
       </c>
@@ -15049,7 +15057,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="15">
+    <row r="84" spans="1:16" ht="15" hidden="1">
       <c r="A84" s="6" t="s">
         <v>264</v>
       </c>
@@ -15083,7 +15091,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="15">
+    <row r="85" spans="1:16" ht="15" hidden="1">
       <c r="A85" s="6" t="s">
         <v>265</v>
       </c>
@@ -15117,7 +15125,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="86" spans="1:16" ht="15">
+    <row r="86" spans="1:16" ht="15" hidden="1">
       <c r="A86" s="6" t="s">
         <v>266</v>
       </c>
@@ -15151,7 +15159,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="15">
+    <row r="87" spans="1:16" ht="15" hidden="1">
       <c r="A87" s="6" t="s">
         <v>267</v>
       </c>
@@ -15185,7 +15193,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="15">
+    <row r="88" spans="1:16" ht="15" hidden="1">
       <c r="A88" s="6" t="s">
         <v>268</v>
       </c>
@@ -15219,7 +15227,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="15">
+    <row r="89" spans="1:16" ht="15" hidden="1">
       <c r="A89" s="6" t="s">
         <v>269</v>
       </c>
@@ -15253,7 +15261,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="15">
+    <row r="90" spans="1:16" ht="15" hidden="1">
       <c r="A90" s="6" t="s">
         <v>270</v>
       </c>
@@ -15287,7 +15295,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="15">
+    <row r="91" spans="1:16" ht="15" hidden="1">
       <c r="A91" s="6" t="s">
         <v>271</v>
       </c>
@@ -15321,7 +15329,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="15">
+    <row r="92" spans="1:16" ht="15" hidden="1">
       <c r="A92" s="6" t="s">
         <v>272</v>
       </c>
@@ -15355,7 +15363,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="15">
+    <row r="93" spans="1:16" ht="15" hidden="1">
       <c r="A93" s="6" t="s">
         <v>273</v>
       </c>
@@ -15389,7 +15397,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="30">
+    <row r="94" spans="1:16" ht="30" hidden="1">
       <c r="A94" s="6" t="s">
         <v>274</v>
       </c>
@@ -15423,7 +15431,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="30">
+    <row r="95" spans="1:16" ht="30" hidden="1">
       <c r="A95" s="6" t="s">
         <v>275</v>
       </c>
@@ -15457,7 +15465,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="30">
+    <row r="96" spans="1:16" ht="30" hidden="1">
       <c r="A96" s="6" t="s">
         <v>276</v>
       </c>
@@ -15491,7 +15499,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="97" spans="1:16" ht="15">
+    <row r="97" spans="1:16" ht="15" hidden="1">
       <c r="A97" s="6" t="s">
         <v>277</v>
       </c>
@@ -15525,7 +15533,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="15">
+    <row r="98" spans="1:16" ht="15" hidden="1">
       <c r="A98" s="6" t="s">
         <v>278</v>
       </c>
@@ -15559,7 +15567,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="99" spans="1:16" ht="15">
+    <row r="99" spans="1:16" ht="15" hidden="1">
       <c r="A99" s="6" t="s">
         <v>279</v>
       </c>
@@ -15593,7 +15601,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="100" spans="1:16" ht="30">
+    <row r="100" spans="1:16" ht="30" hidden="1">
       <c r="A100" s="6" t="s">
         <v>280</v>
       </c>
@@ -15625,7 +15633,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="101" spans="1:16" ht="30">
+    <row r="101" spans="1:16" ht="30" hidden="1">
       <c r="A101" s="6" t="s">
         <v>281</v>
       </c>
@@ -15657,7 +15665,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="30">
+    <row r="102" spans="1:16" ht="30" hidden="1">
       <c r="A102" s="6" t="s">
         <v>282</v>
       </c>
@@ -15689,7 +15697,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="30">
+    <row r="103" spans="1:16" ht="30" hidden="1">
       <c r="A103" s="6" t="s">
         <v>283</v>
       </c>
@@ -15721,7 +15729,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="30">
+    <row r="104" spans="1:16" ht="30" hidden="1">
       <c r="A104" s="6" t="s">
         <v>284</v>
       </c>
@@ -15753,7 +15761,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="30">
+    <row r="105" spans="1:16" ht="30" hidden="1">
       <c r="A105" s="6" t="s">
         <v>285</v>
       </c>
@@ -15785,7 +15793,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="30">
+    <row r="106" spans="1:16" ht="30" hidden="1">
       <c r="A106" s="6" t="s">
         <v>286</v>
       </c>
@@ -15817,7 +15825,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="30">
+    <row r="107" spans="1:16" ht="30" hidden="1">
       <c r="A107" s="6" t="s">
         <v>287</v>
       </c>
@@ -15849,7 +15857,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="15">
+    <row r="108" spans="1:16" ht="15" hidden="1">
       <c r="A108" s="6" t="s">
         <v>288</v>
       </c>
@@ -15883,7 +15891,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="15">
+    <row r="109" spans="1:16" ht="15" hidden="1">
       <c r="A109" s="6" t="s">
         <v>289</v>
       </c>
@@ -15917,7 +15925,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="30">
+    <row r="110" spans="1:16" ht="30" hidden="1">
       <c r="A110" s="6" t="s">
         <v>290</v>
       </c>
@@ -15951,7 +15959,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="15">
+    <row r="111" spans="1:16" ht="15" hidden="1">
       <c r="A111" s="6" t="s">
         <v>291</v>
       </c>
@@ -15985,7 +15993,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="112" spans="1:16" ht="15">
+    <row r="112" spans="1:16" ht="15" hidden="1">
       <c r="A112" s="6" t="s">
         <v>292</v>
       </c>
@@ -16019,7 +16027,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="113" spans="1:16" ht="15">
+    <row r="113" spans="1:16" ht="15" hidden="1">
       <c r="A113" s="6" t="s">
         <v>293</v>
       </c>
@@ -16053,7 +16061,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="114" spans="1:16" ht="30">
+    <row r="114" spans="1:16" ht="30" hidden="1">
       <c r="A114" s="6" t="s">
         <v>294</v>
       </c>
@@ -16087,7 +16095,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="115" spans="1:16" ht="15">
+    <row r="115" spans="1:16" ht="15" hidden="1">
       <c r="A115" s="6" t="s">
         <v>295</v>
       </c>
@@ -16121,7 +16129,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="116" spans="1:16" ht="15">
+    <row r="116" spans="1:16" ht="15" hidden="1">
       <c r="A116" s="6" t="s">
         <v>296</v>
       </c>
@@ -16155,7 +16163,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="117" spans="1:16" ht="15">
+    <row r="117" spans="1:16" ht="15" hidden="1">
       <c r="A117" s="6" t="s">
         <v>297</v>
       </c>
@@ -16189,7 +16197,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="118" spans="1:16" ht="30">
+    <row r="118" spans="1:16" ht="30" hidden="1">
       <c r="A118" s="6" t="s">
         <v>298</v>
       </c>
@@ -16223,7 +16231,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="119" spans="1:16" ht="15">
+    <row r="119" spans="1:16" ht="15" hidden="1">
       <c r="A119" s="6" t="s">
         <v>299</v>
       </c>
@@ -16257,7 +16265,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="120" spans="1:16" ht="15">
+    <row r="120" spans="1:16" ht="15" hidden="1">
       <c r="A120" s="6" t="s">
         <v>300</v>
       </c>
@@ -16289,7 +16297,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="121" spans="1:16" ht="15">
+    <row r="121" spans="1:16" ht="15" hidden="1">
       <c r="A121" s="6" t="s">
         <v>301</v>
       </c>
@@ -16321,7 +16329,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="122" spans="1:16" ht="30">
+    <row r="122" spans="1:16" ht="30" hidden="1">
       <c r="A122" s="6" t="s">
         <v>302</v>
       </c>
@@ -16353,7 +16361,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="123" spans="1:16" ht="15">
+    <row r="123" spans="1:16" ht="15" hidden="1">
       <c r="A123" s="6" t="s">
         <v>303</v>
       </c>
@@ -16385,7 +16393,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="124" spans="1:16" ht="15">
+    <row r="124" spans="1:16" ht="15" hidden="1">
       <c r="A124" s="6" t="s">
         <v>304</v>
       </c>
@@ -16419,7 +16427,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="125" spans="1:16" ht="15">
+    <row r="125" spans="1:16" ht="15" hidden="1">
       <c r="A125" s="6" t="s">
         <v>305</v>
       </c>
@@ -16453,7 +16461,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="15">
+    <row r="126" spans="1:16" ht="15" hidden="1">
       <c r="A126" s="6" t="s">
         <v>306</v>
       </c>
@@ -16487,7 +16495,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="127" spans="1:16" ht="15">
+    <row r="127" spans="1:16" ht="15" hidden="1">
       <c r="A127" s="6" t="s">
         <v>307</v>
       </c>
@@ -16521,7 +16529,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="128" spans="1:16" ht="15">
+    <row r="128" spans="1:16" ht="15" hidden="1">
       <c r="A128" s="6" t="s">
         <v>308</v>
       </c>
@@ -16555,7 +16563,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="30">
+    <row r="129" spans="1:16" ht="30" hidden="1">
       <c r="A129" s="6" t="s">
         <v>309</v>
       </c>
@@ -16589,7 +16597,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="15">
+    <row r="130" spans="1:16" ht="15" hidden="1">
       <c r="A130" s="6" t="s">
         <v>310</v>
       </c>
@@ -16623,7 +16631,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="131" spans="1:16" ht="15">
+    <row r="131" spans="1:16" ht="15" hidden="1">
       <c r="A131" s="6" t="s">
         <v>311</v>
       </c>
@@ -16657,7 +16665,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="15">
+    <row r="132" spans="1:16" ht="15" hidden="1">
       <c r="A132" s="6" t="s">
         <v>312</v>
       </c>
@@ -16691,7 +16699,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="30">
+    <row r="133" spans="1:16" ht="30" hidden="1">
       <c r="A133" s="6" t="s">
         <v>313</v>
       </c>
@@ -16725,7 +16733,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="134" spans="1:16" ht="15">
+    <row r="134" spans="1:16" ht="15" hidden="1">
       <c r="A134" s="6" t="s">
         <v>314</v>
       </c>
@@ -16759,7 +16767,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="15">
+    <row r="135" spans="1:16" ht="15" hidden="1">
       <c r="A135" s="6" t="s">
         <v>315</v>
       </c>
@@ -16793,7 +16801,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="136" spans="1:16" ht="15">
+    <row r="136" spans="1:16" ht="15" hidden="1">
       <c r="A136" s="6" t="s">
         <v>316</v>
       </c>
@@ -16827,7 +16835,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="137" spans="1:16" ht="30">
+    <row r="137" spans="1:16" ht="30" hidden="1">
       <c r="A137" s="6" t="s">
         <v>317</v>
       </c>
@@ -16861,7 +16869,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="138" spans="1:16" ht="15">
+    <row r="138" spans="1:16" ht="15" hidden="1">
       <c r="A138" s="6" t="s">
         <v>318</v>
       </c>
@@ -16895,7 +16903,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="139" spans="1:16" ht="15">
+    <row r="139" spans="1:16" ht="15" hidden="1">
       <c r="A139" s="6" t="s">
         <v>319</v>
       </c>
@@ -16929,7 +16937,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="15">
+    <row r="140" spans="1:16" ht="15" hidden="1">
       <c r="A140" s="6" t="s">
         <v>320</v>
       </c>
@@ -16963,7 +16971,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="30">
+    <row r="141" spans="1:16" ht="30" hidden="1">
       <c r="A141" s="6" t="s">
         <v>321</v>
       </c>
@@ -16997,7 +17005,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="15">
+    <row r="142" spans="1:16" ht="15" hidden="1">
       <c r="A142" s="6" t="s">
         <v>322</v>
       </c>
@@ -17031,7 +17039,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="15">
+    <row r="143" spans="1:16" ht="15" hidden="1">
       <c r="A143" s="6" t="s">
         <v>323</v>
       </c>
@@ -17065,7 +17073,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="15">
+    <row r="144" spans="1:16" ht="15" hidden="1">
       <c r="A144" s="6" t="s">
         <v>324</v>
       </c>
@@ -17099,7 +17107,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="30">
+    <row r="145" spans="1:16" ht="30" hidden="1">
       <c r="A145" s="6" t="s">
         <v>325</v>
       </c>
@@ -17133,7 +17141,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="15">
+    <row r="146" spans="1:16" ht="15" hidden="1">
       <c r="A146" s="6" t="s">
         <v>326</v>
       </c>
@@ -17167,7 +17175,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="15">
+    <row r="147" spans="1:16" ht="15" hidden="1">
       <c r="A147" s="6" t="s">
         <v>327</v>
       </c>
@@ -17201,7 +17209,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="15">
+    <row r="148" spans="1:16" ht="15" hidden="1">
       <c r="A148" s="6" t="s">
         <v>328</v>
       </c>
@@ -17235,7 +17243,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="30">
+    <row r="149" spans="1:16" ht="30" hidden="1">
       <c r="A149" s="6" t="s">
         <v>329</v>
       </c>
@@ -17269,7 +17277,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="15">
+    <row r="150" spans="1:16" ht="15" hidden="1">
       <c r="A150" s="6" t="s">
         <v>330</v>
       </c>
@@ -17303,7 +17311,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="30">
+    <row r="151" spans="1:16" ht="30" hidden="1">
       <c r="A151" s="6" t="s">
         <v>331</v>
       </c>
@@ -17337,7 +17345,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="15">
+    <row r="152" spans="1:16" ht="15" hidden="1">
       <c r="A152" s="6" t="s">
         <v>332</v>
       </c>
@@ -17371,7 +17379,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="15">
+    <row r="153" spans="1:16" ht="15" hidden="1">
       <c r="A153" s="6" t="s">
         <v>333</v>
       </c>
@@ -17405,7 +17413,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="15">
+    <row r="154" spans="1:16" ht="15" hidden="1">
       <c r="A154" s="6" t="s">
         <v>334</v>
       </c>
@@ -17439,7 +17447,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="15">
+    <row r="155" spans="1:16" ht="15" hidden="1">
       <c r="A155" s="6" t="s">
         <v>335</v>
       </c>
@@ -17473,7 +17481,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="156" spans="1:16" ht="30">
+    <row r="156" spans="1:16" ht="30" hidden="1">
       <c r="A156" s="6" t="s">
         <v>336</v>
       </c>
@@ -17507,7 +17515,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="157" spans="1:16" ht="15">
+    <row r="157" spans="1:16" ht="15" hidden="1">
       <c r="A157" s="6" t="s">
         <v>337</v>
       </c>
@@ -17541,7 +17549,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="30">
+    <row r="158" spans="1:16" ht="30" hidden="1">
       <c r="A158" s="6" t="s">
         <v>338</v>
       </c>
@@ -17575,7 +17583,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="15">
+    <row r="159" spans="1:16" ht="15" hidden="1">
       <c r="A159" s="6" t="s">
         <v>339</v>
       </c>
@@ -17609,7 +17617,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="160" spans="1:16" ht="15">
+    <row r="160" spans="1:16" ht="15" hidden="1">
       <c r="A160" s="6" t="s">
         <v>340</v>
       </c>
@@ -17643,7 +17651,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="161" spans="1:16" ht="15">
+    <row r="161" spans="1:16" ht="15" hidden="1">
       <c r="A161" s="6" t="s">
         <v>341</v>
       </c>
@@ -17675,7 +17683,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="162" spans="1:16" ht="15">
+    <row r="162" spans="1:16" ht="15" hidden="1">
       <c r="A162" s="6" t="s">
         <v>342</v>
       </c>
@@ -17707,7 +17715,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="163" spans="1:16" ht="30">
+    <row r="163" spans="1:16" ht="30" hidden="1">
       <c r="A163" s="6" t="s">
         <v>343</v>
       </c>
@@ -17739,7 +17747,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="164" spans="1:16" ht="15">
+    <row r="164" spans="1:16" ht="15" hidden="1">
       <c r="A164" s="6" t="s">
         <v>344</v>
       </c>
@@ -17771,7 +17779,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="165" spans="1:16" ht="30">
+    <row r="165" spans="1:16" ht="30" hidden="1">
       <c r="A165" s="6" t="s">
         <v>345</v>
       </c>
@@ -17803,7 +17811,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="15">
+    <row r="166" spans="1:16" ht="15" hidden="1">
       <c r="A166" s="6" t="s">
         <v>346</v>
       </c>
@@ -17835,7 +17843,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="15">
+    <row r="167" spans="1:16" ht="15" hidden="1">
       <c r="A167" s="6" t="s">
         <v>347</v>
       </c>
@@ -17867,7 +17875,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="168" spans="1:16" ht="15">
+    <row r="168" spans="1:16" ht="15" hidden="1">
       <c r="A168" s="6" t="s">
         <v>348</v>
       </c>
@@ -17899,7 +17907,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="169" spans="1:16" ht="15">
+    <row r="169" spans="1:16" ht="15" hidden="1">
       <c r="A169" s="6" t="s">
         <v>349</v>
       </c>
@@ -17931,7 +17939,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="170" spans="1:16" ht="30">
+    <row r="170" spans="1:16" ht="30" hidden="1">
       <c r="A170" s="6" t="s">
         <v>350</v>
       </c>
@@ -17963,7 +17971,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="171" spans="1:16" ht="15">
+    <row r="171" spans="1:16" ht="15" hidden="1">
       <c r="A171" s="6" t="s">
         <v>351</v>
       </c>
@@ -17995,7 +18003,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="172" spans="1:16" ht="30">
+    <row r="172" spans="1:16" ht="30" hidden="1">
       <c r="A172" s="6" t="s">
         <v>352</v>
       </c>
@@ -18027,7 +18035,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="15">
+    <row r="173" spans="1:16" ht="15" hidden="1">
       <c r="A173" s="6" t="s">
         <v>353</v>
       </c>
@@ -18059,7 +18067,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="174" spans="1:16" ht="15">
+    <row r="174" spans="1:16" ht="15" hidden="1">
       <c r="A174" s="6" t="s">
         <v>354</v>
       </c>
@@ -18091,7 +18099,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="175" spans="1:16" ht="15">
+    <row r="175" spans="1:16" ht="15" hidden="1">
       <c r="A175" s="6" t="s">
         <v>355</v>
       </c>
@@ -18125,7 +18133,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="176" spans="1:16" ht="15">
+    <row r="176" spans="1:16" ht="15" hidden="1">
       <c r="A176" s="6" t="s">
         <v>356</v>
       </c>
@@ -18159,7 +18167,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="177" spans="1:16" ht="30">
+    <row r="177" spans="1:16" ht="30" hidden="1">
       <c r="A177" s="6" t="s">
         <v>357</v>
       </c>
@@ -18193,7 +18201,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="178" spans="1:16" ht="30">
+    <row r="178" spans="1:16" ht="30" hidden="1">
       <c r="A178" s="6" t="s">
         <v>358</v>
       </c>
@@ -18227,7 +18235,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="179" spans="1:16" ht="15">
+    <row r="179" spans="1:16" ht="15" hidden="1">
       <c r="A179" s="6" t="s">
         <v>359</v>
       </c>
@@ -18261,7 +18269,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="180" spans="1:16" ht="15">
+    <row r="180" spans="1:16" ht="15" hidden="1">
       <c r="A180" s="6" t="s">
         <v>360</v>
       </c>
@@ -18295,7 +18303,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="181" spans="1:16" ht="30">
+    <row r="181" spans="1:16" ht="30" hidden="1">
       <c r="A181" s="6" t="s">
         <v>361</v>
       </c>
@@ -18329,7 +18337,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="30">
+    <row r="182" spans="1:16" ht="30" hidden="1">
       <c r="A182" s="6" t="s">
         <v>362</v>
       </c>
@@ -18363,7 +18371,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="183" spans="1:16" ht="15">
+    <row r="183" spans="1:16" ht="15" hidden="1">
       <c r="A183" s="6" t="s">
         <v>363</v>
       </c>
@@ -18398,7 +18406,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="184" spans="1:16" ht="15">
+    <row r="184" spans="1:16" ht="15" hidden="1">
       <c r="A184" s="6" t="s">
         <v>364</v>
       </c>
@@ -18430,7 +18438,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="185" spans="1:16" ht="30">
+    <row r="185" spans="1:16" ht="30" hidden="1">
       <c r="A185" s="6" t="s">
         <v>365</v>
       </c>
@@ -18462,7 +18470,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="186" spans="1:16" ht="15">
+    <row r="186" spans="1:16" ht="15" hidden="1">
       <c r="A186" s="6" t="s">
         <v>366</v>
       </c>
@@ -18494,7 +18502,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="187" spans="1:16" ht="15">
+    <row r="187" spans="1:16" ht="15" hidden="1">
       <c r="A187" s="6" t="s">
         <v>367</v>
       </c>
@@ -18526,7 +18534,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="188" spans="1:16" ht="30">
+    <row r="188" spans="1:16" ht="30" hidden="1">
       <c r="A188" s="6" t="s">
         <v>368</v>
       </c>
@@ -18558,7 +18566,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="189" spans="1:16" ht="15">
+    <row r="189" spans="1:16" ht="15" hidden="1">
       <c r="A189" s="6" t="s">
         <v>369</v>
       </c>
@@ -18590,7 +18598,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="190" spans="1:16" ht="15">
+    <row r="190" spans="1:16" ht="15" hidden="1">
       <c r="A190" s="6" t="s">
         <v>370</v>
       </c>
@@ -18622,7 +18630,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="191" spans="1:16" ht="30">
+    <row r="191" spans="1:16" ht="30" hidden="1">
       <c r="A191" s="6" t="s">
         <v>371</v>
       </c>
@@ -18654,7 +18662,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="192" spans="1:16" ht="15">
+    <row r="192" spans="1:16" ht="15" hidden="1">
       <c r="A192" s="6" t="s">
         <v>372</v>
       </c>
@@ -18686,7 +18694,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="193" spans="1:16" ht="15">
+    <row r="193" spans="1:16" ht="15" hidden="1">
       <c r="A193" s="6" t="s">
         <v>373</v>
       </c>
@@ -18718,7 +18726,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="194" spans="1:16" ht="30">
+    <row r="194" spans="1:16" ht="30" hidden="1">
       <c r="A194" s="6" t="s">
         <v>374</v>
       </c>
@@ -18750,7 +18758,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="195" spans="1:16" ht="15">
+    <row r="195" spans="1:16" ht="15" hidden="1">
       <c r="A195" s="6" t="s">
         <v>375</v>
       </c>
@@ -18785,7 +18793,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="196" spans="1:16" ht="15">
+    <row r="196" spans="1:16" ht="15" hidden="1">
       <c r="A196" s="6" t="s">
         <v>376</v>
       </c>
@@ -18817,7 +18825,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="197" spans="1:16" ht="30">
+    <row r="197" spans="1:16" ht="30" hidden="1">
       <c r="A197" s="6" t="s">
         <v>377</v>
       </c>
@@ -18849,7 +18857,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="198" spans="1:16" ht="15">
+    <row r="198" spans="1:16" ht="15" hidden="1">
       <c r="A198" s="6" t="s">
         <v>378</v>
       </c>
@@ -18881,7 +18889,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="199" spans="1:16" ht="15">
+    <row r="199" spans="1:16" ht="15" hidden="1">
       <c r="A199" s="6" t="s">
         <v>379</v>
       </c>
@@ -18913,7 +18921,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="30">
+    <row r="200" spans="1:16" ht="30" hidden="1">
       <c r="A200" s="6" t="s">
         <v>380</v>
       </c>
@@ -18945,7 +18953,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="201" spans="1:16" ht="15">
+    <row r="201" spans="1:16" ht="15" hidden="1">
       <c r="A201" s="6" t="s">
         <v>381</v>
       </c>
@@ -18977,7 +18985,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="202" spans="1:16" ht="15">
+    <row r="202" spans="1:16" ht="15" hidden="1">
       <c r="A202" s="6" t="s">
         <v>382</v>
       </c>
@@ -19009,7 +19017,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="203" spans="1:16" ht="30">
+    <row r="203" spans="1:16" ht="30" hidden="1">
       <c r="A203" s="6" t="s">
         <v>383</v>
       </c>
@@ -19041,7 +19049,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="204" spans="1:16" ht="15">
+    <row r="204" spans="1:16" ht="15" hidden="1">
       <c r="A204" s="6" t="s">
         <v>384</v>
       </c>
@@ -19073,7 +19081,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="205" spans="1:16" ht="15">
+    <row r="205" spans="1:16" ht="15" hidden="1">
       <c r="A205" s="6" t="s">
         <v>385</v>
       </c>
@@ -19105,7 +19113,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="206" spans="1:16" ht="30">
+    <row r="206" spans="1:16" ht="30" hidden="1">
       <c r="A206" s="6" t="s">
         <v>386</v>
       </c>
@@ -19137,7 +19145,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="207" spans="1:16" ht="15">
+    <row r="207" spans="1:16" ht="15" hidden="1">
       <c r="A207" s="19" t="s">
         <v>1161</v>
       </c>
@@ -19169,7 +19177,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="208" spans="1:16" ht="15">
+    <row r="208" spans="1:16" ht="15" hidden="1">
       <c r="A208" s="19" t="s">
         <v>1162</v>
       </c>
@@ -19201,7 +19209,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="209" spans="1:16" ht="30">
+    <row r="209" spans="1:16" ht="30" hidden="1">
       <c r="A209" s="19" t="s">
         <v>1163</v>
       </c>
@@ -19233,7 +19241,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="210" spans="1:16" ht="15">
+    <row r="210" spans="1:16" ht="15" hidden="1">
       <c r="A210" s="19" t="s">
         <v>1164</v>
       </c>
@@ -19265,7 +19273,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="211" spans="1:16" ht="15">
+    <row r="211" spans="1:16" ht="15" hidden="1">
       <c r="A211" s="19" t="s">
         <v>1165</v>
       </c>
@@ -19297,7 +19305,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="212" spans="1:16" ht="30">
+    <row r="212" spans="1:16" ht="30" hidden="1">
       <c r="A212" s="19" t="s">
         <v>1166</v>
       </c>
@@ -19329,7 +19337,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="213" spans="1:16" ht="15">
+    <row r="213" spans="1:16" ht="15" hidden="1">
       <c r="A213" s="19" t="s">
         <v>1167</v>
       </c>
@@ -19361,7 +19369,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="214" spans="1:16" ht="15">
+    <row r="214" spans="1:16" ht="15" hidden="1">
       <c r="A214" s="19" t="s">
         <v>1168</v>
       </c>
@@ -19393,7 +19401,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="30">
+    <row r="215" spans="1:16" ht="30" hidden="1">
       <c r="A215" s="19" t="s">
         <v>1169</v>
       </c>
@@ -19425,7 +19433,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="216" spans="1:16" ht="15">
+    <row r="216" spans="1:16" ht="15" hidden="1">
       <c r="A216" s="19" t="s">
         <v>1170</v>
       </c>
@@ -19457,7 +19465,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="217" spans="1:16" ht="15">
+    <row r="217" spans="1:16" ht="15" hidden="1">
       <c r="A217" s="19" t="s">
         <v>1171</v>
       </c>
@@ -19489,7 +19497,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="218" spans="1:16" ht="30">
+    <row r="218" spans="1:16" ht="30" hidden="1">
       <c r="A218" s="19" t="s">
         <v>1172</v>
       </c>
@@ -19521,7 +19529,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="219" spans="1:16" ht="30">
+    <row r="219" spans="1:16" ht="30" hidden="1">
       <c r="A219" s="6" t="s">
         <v>399</v>
       </c>
@@ -19555,7 +19563,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="220" spans="1:16" ht="30">
+    <row r="220" spans="1:16" ht="30" hidden="1">
       <c r="A220" s="6" t="s">
         <v>400</v>
       </c>
@@ -19589,7 +19597,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="221" spans="1:16" ht="30">
+    <row r="221" spans="1:16" ht="30" hidden="1">
       <c r="A221" s="6" t="s">
         <v>401</v>
       </c>
@@ -19623,7 +19631,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="222" spans="1:16" ht="30">
+    <row r="222" spans="1:16" ht="30" hidden="1">
       <c r="A222" s="6" t="s">
         <v>402</v>
       </c>
@@ -19657,7 +19665,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="223" spans="1:16" ht="15">
+    <row r="223" spans="1:16" ht="15" hidden="1">
       <c r="A223" s="6" t="s">
         <v>403</v>
       </c>
@@ -19687,7 +19695,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="224" spans="1:16" ht="15">
+    <row r="224" spans="1:16" ht="15" hidden="1">
       <c r="A224" s="6" t="s">
         <v>404</v>
       </c>
@@ -19717,7 +19725,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="225" spans="1:16" ht="15">
+    <row r="225" spans="1:16" ht="15" hidden="1">
       <c r="A225" s="6" t="s">
         <v>405</v>
       </c>
@@ -19745,7 +19753,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="226" spans="1:16" ht="15">
+    <row r="226" spans="1:16" ht="15" hidden="1">
       <c r="A226" s="6" t="s">
         <v>406</v>
       </c>
@@ -19775,7 +19783,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="227" spans="1:16" ht="15">
+    <row r="227" spans="1:16" ht="15" hidden="1">
       <c r="A227" s="6" t="s">
         <v>407</v>
       </c>
@@ -19805,7 +19813,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="228" spans="1:16" ht="30">
+    <row r="228" spans="1:16" ht="30" hidden="1">
       <c r="A228" s="6" t="s">
         <v>408</v>
       </c>
@@ -19835,7 +19843,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="229" spans="1:16" ht="15">
+    <row r="229" spans="1:16" ht="15" hidden="1">
       <c r="A229" s="6" t="s">
         <v>409</v>
       </c>
@@ -19865,7 +19873,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="230" spans="1:16" ht="15">
+    <row r="230" spans="1:16" ht="15" hidden="1">
       <c r="A230" s="6" t="s">
         <v>410</v>
       </c>
@@ -19895,7 +19903,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="15">
+    <row r="231" spans="1:16" ht="15" hidden="1">
       <c r="A231" s="6" t="s">
         <v>411</v>
       </c>
@@ -19930,7 +19938,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="232" spans="1:16" ht="15">
+    <row r="232" spans="1:16" ht="15" hidden="1">
       <c r="A232" s="6" t="s">
         <v>412</v>
       </c>
@@ -19965,7 +19973,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="233" spans="1:16" ht="30">
+    <row r="233" spans="1:16" ht="30" hidden="1">
       <c r="A233" s="6" t="s">
         <v>413</v>
       </c>
@@ -20000,7 +20008,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="234" spans="1:16" ht="15">
+    <row r="234" spans="1:16" ht="15" hidden="1">
       <c r="A234" s="6" t="s">
         <v>414</v>
       </c>
@@ -20035,7 +20043,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="235" spans="1:16" ht="15">
+    <row r="235" spans="1:16" ht="15" hidden="1">
       <c r="A235" s="6" t="s">
         <v>415</v>
       </c>
@@ -20070,7 +20078,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="236" spans="1:16" ht="15">
+    <row r="236" spans="1:16" ht="15" hidden="1">
       <c r="A236" s="6" t="s">
         <v>416</v>
       </c>
@@ -20105,7 +20113,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="237" spans="1:16" ht="30">
+    <row r="237" spans="1:16" ht="30" hidden="1">
       <c r="A237" s="6" t="s">
         <v>417</v>
       </c>
@@ -20140,7 +20148,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="238" spans="1:16" ht="15">
+    <row r="238" spans="1:16" ht="15" hidden="1">
       <c r="A238" s="6" t="s">
         <v>418</v>
       </c>
@@ -20175,7 +20183,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="239" spans="1:16" ht="15">
+    <row r="239" spans="1:16" ht="15" hidden="1">
       <c r="A239" s="6" t="s">
         <v>419</v>
       </c>
@@ -20210,7 +20218,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="240" spans="1:16" ht="15">
+    <row r="240" spans="1:16" ht="15" hidden="1">
       <c r="A240" s="6" t="s">
         <v>420</v>
       </c>
@@ -20245,7 +20253,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="241" spans="1:16" ht="15">
+    <row r="241" spans="1:16" ht="15" hidden="1">
       <c r="A241" s="6" t="s">
         <v>421</v>
       </c>
@@ -20280,7 +20288,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="242" spans="1:16" ht="30">
+    <row r="242" spans="1:16" ht="30" hidden="1">
       <c r="A242" s="6" t="s">
         <v>422</v>
       </c>
@@ -20315,7 +20323,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="15">
+    <row r="243" spans="1:16" ht="15" hidden="1">
       <c r="A243" s="6" t="s">
         <v>423</v>
       </c>
@@ -20350,7 +20358,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="244" spans="1:16" ht="15">
+    <row r="244" spans="1:16" ht="15" hidden="1">
       <c r="A244" s="6" t="s">
         <v>424</v>
       </c>
@@ -20385,7 +20393,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="245" spans="1:16" ht="15">
+    <row r="245" spans="1:16" ht="15" hidden="1">
       <c r="A245" s="6" t="s">
         <v>425</v>
       </c>
@@ -20420,7 +20428,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="246" spans="1:16" ht="30">
+    <row r="246" spans="1:16" ht="30" hidden="1">
       <c r="A246" s="6" t="s">
         <v>426</v>
       </c>
@@ -20455,7 +20463,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="247" spans="1:16" ht="15">
+    <row r="247" spans="1:16" ht="15" hidden="1">
       <c r="A247" s="6" t="s">
         <v>427</v>
       </c>
@@ -20490,7 +20498,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="15">
+    <row r="248" spans="1:16" ht="15" hidden="1">
       <c r="A248" s="6" t="s">
         <v>428</v>
       </c>
@@ -20525,7 +20533,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="249" spans="1:16" ht="15">
+    <row r="249" spans="1:16" ht="15" hidden="1">
       <c r="A249" s="6" t="s">
         <v>429</v>
       </c>
@@ -20560,7 +20568,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="250" spans="1:16" ht="15">
+    <row r="250" spans="1:16" ht="15" hidden="1">
       <c r="A250" s="6" t="s">
         <v>430</v>
       </c>
@@ -20595,7 +20603,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="251" spans="1:16" ht="30">
+    <row r="251" spans="1:16" ht="30" hidden="1">
       <c r="A251" s="6" t="s">
         <v>431</v>
       </c>
@@ -20630,7 +20638,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="252" spans="1:16" ht="15">
+    <row r="252" spans="1:16" ht="15" hidden="1">
       <c r="A252" s="6" t="s">
         <v>432</v>
       </c>
@@ -20665,7 +20673,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="253" spans="1:16" ht="15">
+    <row r="253" spans="1:16" ht="15" hidden="1">
       <c r="A253" s="6" t="s">
         <v>433</v>
       </c>
@@ -20700,7 +20708,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="254" spans="1:16" ht="15">
+    <row r="254" spans="1:16" ht="15" hidden="1">
       <c r="A254" s="6" t="s">
         <v>434</v>
       </c>
@@ -20735,7 +20743,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="255" spans="1:16" ht="30">
+    <row r="255" spans="1:16" ht="30" hidden="1">
       <c r="A255" s="6" t="s">
         <v>435</v>
       </c>
@@ -20770,7 +20778,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="256" spans="1:16" ht="15">
+    <row r="256" spans="1:16" ht="15" hidden="1">
       <c r="A256" s="6" t="s">
         <v>436</v>
       </c>
@@ -20805,7 +20813,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="257" spans="1:16" ht="15">
+    <row r="257" spans="1:16" ht="15" hidden="1">
       <c r="A257" s="6" t="s">
         <v>437</v>
       </c>
@@ -20840,7 +20848,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="258" spans="1:16" ht="15">
+    <row r="258" spans="1:16" ht="15" hidden="1">
       <c r="A258" s="6" t="s">
         <v>438</v>
       </c>
@@ -20872,7 +20880,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="259" spans="1:16" ht="15">
+    <row r="259" spans="1:16" ht="15" hidden="1">
       <c r="A259" s="6" t="s">
         <v>439</v>
       </c>
@@ -20904,7 +20912,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="260" spans="1:16" ht="30">
+    <row r="260" spans="1:16" ht="30" hidden="1">
       <c r="A260" s="6" t="s">
         <v>440</v>
       </c>
@@ -20936,7 +20944,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="261" spans="1:16" ht="15">
+    <row r="261" spans="1:16" ht="15" hidden="1">
       <c r="A261" s="6" t="s">
         <v>441</v>
       </c>
@@ -20968,7 +20976,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="262" spans="1:16" ht="15">
+    <row r="262" spans="1:16" ht="15" hidden="1">
       <c r="A262" s="6" t="s">
         <v>442</v>
       </c>
@@ -21000,7 +21008,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="263" spans="1:16" ht="30">
+    <row r="263" spans="1:16" ht="30" hidden="1">
       <c r="A263" s="6" t="s">
         <v>443</v>
       </c>
@@ -21032,7 +21040,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="264" spans="1:16" ht="15">
+    <row r="264" spans="1:16" ht="15" hidden="1">
       <c r="A264" s="6" t="s">
         <v>444</v>
       </c>
@@ -21064,7 +21072,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="265" spans="1:16" ht="15">
+    <row r="265" spans="1:16" ht="15" hidden="1">
       <c r="A265" s="6" t="s">
         <v>445</v>
       </c>
@@ -21096,7 +21104,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="15">
+    <row r="266" spans="1:16" ht="15" hidden="1">
       <c r="A266" s="6" t="s">
         <v>446</v>
       </c>
@@ -21128,7 +21136,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="267" spans="1:16" ht="15">
+    <row r="267" spans="1:16" ht="15" hidden="1">
       <c r="A267" s="6" t="s">
         <v>447</v>
       </c>
@@ -21164,7 +21172,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="15">
+    <row r="268" spans="1:16" ht="15" hidden="1">
       <c r="A268" s="6" t="s">
         <v>448</v>
       </c>
@@ -21197,7 +21205,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="269" spans="1:16" ht="30">
+    <row r="269" spans="1:16" ht="30" hidden="1">
       <c r="A269" s="6" t="s">
         <v>449</v>
       </c>
@@ -21230,7 +21238,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="270" spans="1:16" ht="15">
+    <row r="270" spans="1:16" ht="15" hidden="1">
       <c r="A270" s="6" t="s">
         <v>450</v>
       </c>
@@ -21263,7 +21271,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="271" spans="1:16" ht="15">
+    <row r="271" spans="1:16" ht="15" hidden="1">
       <c r="A271" s="6" t="s">
         <v>451</v>
       </c>
@@ -21296,7 +21304,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="272" spans="1:16" ht="15">
+    <row r="272" spans="1:16" ht="15" hidden="1">
       <c r="A272" s="6" t="s">
         <v>452</v>
       </c>
@@ -21329,7 +21337,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="273" spans="1:16" ht="30">
+    <row r="273" spans="1:16" ht="30" hidden="1">
       <c r="A273" s="6" t="s">
         <v>453</v>
       </c>
@@ -21362,7 +21370,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="274" spans="1:16" ht="15">
+    <row r="274" spans="1:16" ht="15" hidden="1">
       <c r="A274" s="6" t="s">
         <v>454</v>
       </c>
@@ -21395,7 +21403,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="275" spans="1:16" ht="15">
+    <row r="275" spans="1:16" ht="15" hidden="1">
       <c r="A275" s="6" t="s">
         <v>455</v>
       </c>
@@ -21428,7 +21436,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="276" spans="1:16" ht="15">
+    <row r="276" spans="1:16" ht="15" hidden="1">
       <c r="A276" s="6" t="s">
         <v>456</v>
       </c>
@@ -21464,7 +21472,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="277" spans="1:16" ht="15">
+    <row r="277" spans="1:16" ht="15" hidden="1">
       <c r="A277" s="6" t="s">
         <v>457</v>
       </c>
@@ -21497,7 +21505,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="278" spans="1:16" ht="30">
+    <row r="278" spans="1:16" ht="30" hidden="1">
       <c r="A278" s="6" t="s">
         <v>458</v>
       </c>
@@ -21530,7 +21538,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="279" spans="1:16" ht="15">
+    <row r="279" spans="1:16" ht="15" hidden="1">
       <c r="A279" s="6" t="s">
         <v>459</v>
       </c>
@@ -21563,7 +21571,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="280" spans="1:16" ht="15">
+    <row r="280" spans="1:16" ht="15" hidden="1">
       <c r="A280" s="6" t="s">
         <v>460</v>
       </c>
@@ -21596,7 +21604,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="281" spans="1:16" ht="15">
+    <row r="281" spans="1:16" ht="15" hidden="1">
       <c r="A281" s="6" t="s">
         <v>461</v>
       </c>
@@ -21629,7 +21637,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="282" spans="1:16" ht="30">
+    <row r="282" spans="1:16" ht="30" hidden="1">
       <c r="A282" s="6" t="s">
         <v>462</v>
       </c>
@@ -21662,7 +21670,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="283" spans="1:16" ht="15">
+    <row r="283" spans="1:16" ht="15" hidden="1">
       <c r="A283" s="6" t="s">
         <v>463</v>
       </c>
@@ -21695,7 +21703,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="284" spans="1:16" ht="15">
+    <row r="284" spans="1:16" ht="15" hidden="1">
       <c r="A284" s="6" t="s">
         <v>464</v>
       </c>
@@ -21728,7 +21736,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="285" spans="1:16" ht="15">
+    <row r="285" spans="1:16" ht="15" hidden="1">
       <c r="A285" s="6" t="s">
         <v>465</v>
       </c>
@@ -21760,7 +21768,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="286" spans="1:16" ht="15">
+    <row r="286" spans="1:16" ht="15" hidden="1">
       <c r="A286" s="6" t="s">
         <v>466</v>
       </c>
@@ -21792,7 +21800,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="287" spans="1:16" ht="15">
+    <row r="287" spans="1:16" ht="15" hidden="1">
       <c r="A287" s="6" t="s">
         <v>467</v>
       </c>
@@ -21825,7 +21833,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="288" spans="1:16" ht="15">
+    <row r="288" spans="1:16" ht="15" hidden="1">
       <c r="A288" s="6" t="s">
         <v>468</v>
       </c>
@@ -21858,7 +21866,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="289" spans="1:16" ht="30">
+    <row r="289" spans="1:16" ht="30" hidden="1">
       <c r="A289" s="6" t="s">
         <v>469</v>
       </c>
@@ -21891,7 +21899,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="290" spans="1:16" ht="15">
+    <row r="290" spans="1:16" ht="15" hidden="1">
       <c r="A290" s="6" t="s">
         <v>470</v>
       </c>
@@ -21924,7 +21932,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="291" spans="1:16" ht="15">
+    <row r="291" spans="1:16" ht="15" hidden="1">
       <c r="A291" s="6" t="s">
         <v>471</v>
       </c>
@@ -21957,7 +21965,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="292" spans="1:16" ht="15">
+    <row r="292" spans="1:16" ht="15" hidden="1">
       <c r="A292" s="6" t="s">
         <v>472</v>
       </c>
@@ -21990,7 +21998,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="293" spans="1:16" ht="30">
+    <row r="293" spans="1:16" ht="30" hidden="1">
       <c r="A293" s="6" t="s">
         <v>473</v>
       </c>
@@ -22023,7 +22031,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="294" spans="1:16" ht="15">
+    <row r="294" spans="1:16" ht="15" hidden="1">
       <c r="A294" s="6" t="s">
         <v>474</v>
       </c>
@@ -22056,7 +22064,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="295" spans="1:16" ht="15">
+    <row r="295" spans="1:16" ht="15" hidden="1">
       <c r="A295" s="6" t="s">
         <v>475</v>
       </c>
@@ -22089,7 +22097,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="296" spans="1:16" ht="15">
+    <row r="296" spans="1:16" ht="15" hidden="1">
       <c r="A296" s="6" t="s">
         <v>476</v>
       </c>
@@ -22118,7 +22126,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="297" spans="1:16" ht="15">
+    <row r="297" spans="1:16" ht="15" hidden="1">
       <c r="A297" s="6" t="s">
         <v>477</v>
       </c>
@@ -22147,7 +22155,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="298" spans="1:16" ht="15">
+    <row r="298" spans="1:16" ht="15" hidden="1">
       <c r="A298" s="6" t="s">
         <v>478</v>
       </c>
@@ -22182,7 +22190,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="299" spans="1:16" ht="15">
+    <row r="299" spans="1:16" ht="15" hidden="1">
       <c r="A299" s="6" t="s">
         <v>479</v>
       </c>
@@ -22217,7 +22225,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="300" spans="1:16" ht="30">
+    <row r="300" spans="1:16" ht="30" hidden="1">
       <c r="A300" s="6" t="s">
         <v>480</v>
       </c>
@@ -22252,7 +22260,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="301" spans="1:16" ht="15">
+    <row r="301" spans="1:16" ht="15" hidden="1">
       <c r="A301" s="6" t="s">
         <v>481</v>
       </c>
@@ -22287,7 +22295,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="302" spans="1:16" ht="15">
+    <row r="302" spans="1:16" ht="15" hidden="1">
       <c r="A302" s="6" t="s">
         <v>482</v>
       </c>
@@ -22322,7 +22330,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="303" spans="1:16" ht="15">
+    <row r="303" spans="1:16" ht="15" hidden="1">
       <c r="A303" s="6" t="s">
         <v>483</v>
       </c>
@@ -22357,7 +22365,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="304" spans="1:16" ht="30">
+    <row r="304" spans="1:16" ht="30" hidden="1">
       <c r="A304" s="6" t="s">
         <v>484</v>
       </c>
@@ -22392,7 +22400,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="305" spans="1:16" ht="15">
+    <row r="305" spans="1:16" ht="15" hidden="1">
       <c r="A305" s="6" t="s">
         <v>485</v>
       </c>
@@ -22427,7 +22435,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="306" spans="1:16" ht="15">
+    <row r="306" spans="1:16" ht="15" hidden="1">
       <c r="A306" s="6" t="s">
         <v>486</v>
       </c>
@@ -22462,7 +22470,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="307" spans="1:16" ht="15">
+    <row r="307" spans="1:16" ht="15" hidden="1">
       <c r="A307" s="6" t="s">
         <v>487</v>
       </c>
@@ -22497,7 +22505,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="308" spans="1:16" ht="15">
+    <row r="308" spans="1:16" ht="15" hidden="1">
       <c r="A308" s="6" t="s">
         <v>488</v>
       </c>
@@ -22532,7 +22540,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="309" spans="1:16" ht="30">
+    <row r="309" spans="1:16" ht="30" hidden="1">
       <c r="A309" s="6" t="s">
         <v>489</v>
       </c>
@@ -22567,7 +22575,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="310" spans="1:16" ht="15">
+    <row r="310" spans="1:16" ht="15" hidden="1">
       <c r="A310" s="6" t="s">
         <v>490</v>
       </c>
@@ -22602,7 +22610,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="311" spans="1:16" ht="15">
+    <row r="311" spans="1:16" ht="15" hidden="1">
       <c r="A311" s="6" t="s">
         <v>491</v>
       </c>
@@ -22637,7 +22645,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="312" spans="1:16" ht="15">
+    <row r="312" spans="1:16" ht="15" hidden="1">
       <c r="A312" s="6" t="s">
         <v>492</v>
       </c>
@@ -22672,7 +22680,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="313" spans="1:16" ht="30">
+    <row r="313" spans="1:16" ht="30" hidden="1">
       <c r="A313" s="6" t="s">
         <v>493</v>
       </c>
@@ -22707,7 +22715,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="314" spans="1:16" ht="15">
+    <row r="314" spans="1:16" ht="15" hidden="1">
       <c r="A314" s="6" t="s">
         <v>494</v>
       </c>
@@ -22742,7 +22750,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="315" spans="1:16" ht="15">
+    <row r="315" spans="1:16" ht="15" hidden="1">
       <c r="A315" s="6" t="s">
         <v>495</v>
       </c>
@@ -22777,7 +22785,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="316" spans="1:16" ht="15">
+    <row r="316" spans="1:16" ht="15" hidden="1">
       <c r="A316" s="6" t="s">
         <v>496</v>
       </c>
@@ -22812,7 +22820,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="317" spans="1:16" ht="15">
+    <row r="317" spans="1:16" ht="15" hidden="1">
       <c r="A317" s="6" t="s">
         <v>497</v>
       </c>
@@ -22847,7 +22855,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="318" spans="1:16" ht="30">
+    <row r="318" spans="1:16" ht="30" hidden="1">
       <c r="A318" s="6" t="s">
         <v>498</v>
       </c>
@@ -22882,7 +22890,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="319" spans="1:16" ht="15">
+    <row r="319" spans="1:16" ht="15" hidden="1">
       <c r="A319" s="6" t="s">
         <v>499</v>
       </c>
@@ -22917,7 +22925,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="320" spans="1:16" ht="15">
+    <row r="320" spans="1:16" ht="15" hidden="1">
       <c r="A320" s="6" t="s">
         <v>500</v>
       </c>
@@ -22952,7 +22960,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="321" spans="1:16" ht="15">
+    <row r="321" spans="1:16" ht="15" hidden="1">
       <c r="A321" s="6" t="s">
         <v>501</v>
       </c>
@@ -22987,7 +22995,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="322" spans="1:16" ht="30">
+    <row r="322" spans="1:16" ht="30" hidden="1">
       <c r="A322" s="6" t="s">
         <v>502</v>
       </c>
@@ -23022,7 +23030,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="323" spans="1:16" ht="15">
+    <row r="323" spans="1:16" ht="15" hidden="1">
       <c r="A323" s="6" t="s">
         <v>503</v>
       </c>
@@ -23057,7 +23065,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="324" spans="1:16" ht="15">
+    <row r="324" spans="1:16" ht="15" hidden="1">
       <c r="A324" s="6" t="s">
         <v>504</v>
       </c>
@@ -23092,7 +23100,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="325" spans="1:16" ht="30">
+    <row r="325" spans="1:16" ht="30" hidden="1">
       <c r="A325" s="6" t="s">
         <v>505</v>
       </c>
@@ -23127,7 +23135,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="326" spans="1:16" ht="30">
+    <row r="326" spans="1:16" ht="30" hidden="1">
       <c r="A326" s="6" t="s">
         <v>506</v>
       </c>
@@ -23162,7 +23170,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="327" spans="1:16" ht="30">
+    <row r="327" spans="1:16" ht="30" hidden="1">
       <c r="A327" s="6" t="s">
         <v>507</v>
       </c>
@@ -23197,7 +23205,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="328" spans="1:16" ht="30">
+    <row r="328" spans="1:16" ht="30" hidden="1">
       <c r="A328" s="6" t="s">
         <v>508</v>
       </c>
@@ -23232,7 +23240,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="329" spans="1:16" ht="30">
+    <row r="329" spans="1:16" ht="30" hidden="1">
       <c r="A329" s="6" t="s">
         <v>509</v>
       </c>
@@ -23267,7 +23275,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="330" spans="1:16" ht="30">
+    <row r="330" spans="1:16" ht="30" hidden="1">
       <c r="A330" s="6" t="s">
         <v>510</v>
       </c>
@@ -23302,7 +23310,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="331" spans="1:16" ht="30">
+    <row r="331" spans="1:16" ht="30" hidden="1">
       <c r="A331" s="6" t="s">
         <v>511</v>
       </c>
@@ -23337,7 +23345,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="332" spans="1:16" ht="30">
+    <row r="332" spans="1:16" ht="30" hidden="1">
       <c r="A332" s="6" t="s">
         <v>512</v>
       </c>
@@ -23372,7 +23380,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="333" spans="1:16" ht="30">
+    <row r="333" spans="1:16" ht="30" hidden="1">
       <c r="A333" s="6" t="s">
         <v>513</v>
       </c>
@@ -23407,7 +23415,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="334" spans="1:16" ht="15">
+    <row r="334" spans="1:16" ht="15" hidden="1">
       <c r="A334" s="6" t="s">
         <v>514</v>
       </c>
@@ -23442,7 +23450,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="335" spans="1:16" ht="15">
+    <row r="335" spans="1:16" ht="15" hidden="1">
       <c r="A335" s="6" t="s">
         <v>515</v>
       </c>
@@ -23477,7 +23485,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="336" spans="1:16" ht="30">
+    <row r="336" spans="1:16" ht="30" hidden="1">
       <c r="A336" s="6" t="s">
         <v>516</v>
       </c>
@@ -23512,7 +23520,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="337" spans="1:16" ht="15">
+    <row r="337" spans="1:16" ht="15" hidden="1">
       <c r="A337" s="6" t="s">
         <v>517</v>
       </c>
@@ -23547,7 +23555,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="338" spans="1:16" ht="15">
+    <row r="338" spans="1:16" ht="15" hidden="1">
       <c r="A338" s="6" t="s">
         <v>518</v>
       </c>
@@ -23582,7 +23590,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="339" spans="1:16" ht="15">
+    <row r="339" spans="1:16" ht="15" hidden="1">
       <c r="A339" s="6" t="s">
         <v>519</v>
       </c>
@@ -23617,7 +23625,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="340" spans="1:16" ht="30">
+    <row r="340" spans="1:16" ht="30" hidden="1">
       <c r="A340" s="6" t="s">
         <v>520</v>
       </c>
@@ -23652,7 +23660,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="341" spans="1:16" ht="15">
+    <row r="341" spans="1:16" ht="15" hidden="1">
       <c r="A341" s="6" t="s">
         <v>521</v>
       </c>
@@ -23687,7 +23695,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="342" spans="1:16" ht="15">
+    <row r="342" spans="1:16" ht="15" hidden="1">
       <c r="A342" s="6" t="s">
         <v>522</v>
       </c>
@@ -23722,7 +23730,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="343" spans="1:16" ht="15">
+    <row r="343" spans="1:16" ht="15" hidden="1">
       <c r="A343" s="6" t="s">
         <v>523</v>
       </c>
@@ -23757,7 +23765,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="344" spans="1:16" ht="15">
+    <row r="344" spans="1:16" ht="15" hidden="1">
       <c r="A344" s="6" t="s">
         <v>524</v>
       </c>
@@ -23792,7 +23800,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="345" spans="1:16" ht="30">
+    <row r="345" spans="1:16" ht="30" hidden="1">
       <c r="A345" s="6" t="s">
         <v>525</v>
       </c>
@@ -23827,7 +23835,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="346" spans="1:16" ht="15">
+    <row r="346" spans="1:16" ht="15" hidden="1">
       <c r="A346" s="6" t="s">
         <v>526</v>
       </c>
@@ -23862,7 +23870,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="347" spans="1:16" ht="15">
+    <row r="347" spans="1:16" ht="15" hidden="1">
       <c r="A347" s="6" t="s">
         <v>527</v>
       </c>
@@ -23897,7 +23905,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="348" spans="1:16" ht="15">
+    <row r="348" spans="1:16" ht="15" hidden="1">
       <c r="A348" s="6" t="s">
         <v>528</v>
       </c>
@@ -23932,7 +23940,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="349" spans="1:16" ht="30">
+    <row r="349" spans="1:16" ht="30" hidden="1">
       <c r="A349" s="6" t="s">
         <v>529</v>
       </c>
@@ -23967,7 +23975,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="350" spans="1:16" ht="15">
+    <row r="350" spans="1:16" ht="15" hidden="1">
       <c r="A350" s="6" t="s">
         <v>530</v>
       </c>
@@ -24002,7 +24010,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="351" spans="1:16" ht="15">
+    <row r="351" spans="1:16" ht="15" hidden="1">
       <c r="A351" s="6" t="s">
         <v>531</v>
       </c>
@@ -24037,7 +24045,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="352" spans="1:16" ht="15">
+    <row r="352" spans="1:16" ht="15" hidden="1">
       <c r="A352" s="6" t="s">
         <v>532</v>
       </c>
@@ -24072,7 +24080,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="353" spans="1:16" ht="15">
+    <row r="353" spans="1:16" ht="15" hidden="1">
       <c r="A353" s="6" t="s">
         <v>533</v>
       </c>
@@ -24107,7 +24115,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="354" spans="1:16" ht="30">
+    <row r="354" spans="1:16" ht="30" hidden="1">
       <c r="A354" s="6" t="s">
         <v>534</v>
       </c>
@@ -24142,7 +24150,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="355" spans="1:16" ht="15">
+    <row r="355" spans="1:16" ht="15" hidden="1">
       <c r="A355" s="6" t="s">
         <v>535</v>
       </c>
@@ -24177,7 +24185,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="356" spans="1:16" ht="15">
+    <row r="356" spans="1:16" ht="15" hidden="1">
       <c r="A356" s="6" t="s">
         <v>536</v>
       </c>
@@ -24212,7 +24220,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="357" spans="1:16" ht="15">
+    <row r="357" spans="1:16" ht="15" hidden="1">
       <c r="A357" s="6" t="s">
         <v>537</v>
       </c>
@@ -24247,7 +24255,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="358" spans="1:16" ht="30">
+    <row r="358" spans="1:16" ht="30" hidden="1">
       <c r="A358" s="6" t="s">
         <v>538</v>
       </c>
@@ -24282,7 +24290,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="359" spans="1:16" ht="15">
+    <row r="359" spans="1:16" ht="15" hidden="1">
       <c r="A359" s="6" t="s">
         <v>539</v>
       </c>
@@ -24317,7 +24325,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="360" spans="1:16" ht="15">
+    <row r="360" spans="1:16" ht="15" hidden="1">
       <c r="A360" s="6" t="s">
         <v>540</v>
       </c>
@@ -24352,7 +24360,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="361" spans="1:16" ht="30">
+    <row r="361" spans="1:16" ht="30" hidden="1">
       <c r="A361" s="6" t="s">
         <v>541</v>
       </c>
@@ -24387,7 +24395,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="362" spans="1:16" ht="30">
+    <row r="362" spans="1:16" ht="30" hidden="1">
       <c r="A362" s="6" t="s">
         <v>542</v>
       </c>
@@ -24422,7 +24430,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="363" spans="1:16" ht="30">
+    <row r="363" spans="1:16" ht="30" hidden="1">
       <c r="A363" s="6" t="s">
         <v>543</v>
       </c>
@@ -24457,7 +24465,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="364" spans="1:16" ht="30">
+    <row r="364" spans="1:16" ht="30" hidden="1">
       <c r="A364" s="6" t="s">
         <v>544</v>
       </c>
@@ -24492,7 +24500,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="365" spans="1:16" ht="30">
+    <row r="365" spans="1:16" ht="30" hidden="1">
       <c r="A365" s="6" t="s">
         <v>545</v>
       </c>
@@ -24527,7 +24535,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="366" spans="1:16" ht="30">
+    <row r="366" spans="1:16" ht="30" hidden="1">
       <c r="A366" s="6" t="s">
         <v>546</v>
       </c>
@@ -24562,7 +24570,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="367" spans="1:16" ht="30">
+    <row r="367" spans="1:16" ht="30" hidden="1">
       <c r="A367" s="6" t="s">
         <v>547</v>
       </c>
@@ -24597,7 +24605,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="368" spans="1:16" ht="30">
+    <row r="368" spans="1:16" ht="30" hidden="1">
       <c r="A368" s="6" t="s">
         <v>548</v>
       </c>
@@ -24632,7 +24640,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="369" spans="1:16" ht="30">
+    <row r="369" spans="1:16" ht="30" hidden="1">
       <c r="A369" s="6" t="s">
         <v>549</v>
       </c>
@@ -24667,7 +24675,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="370" spans="1:16" ht="30">
+    <row r="370" spans="1:16" ht="30" hidden="1">
       <c r="A370" s="6" t="s">
         <v>550</v>
       </c>
@@ -24702,7 +24710,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="371" spans="1:16" ht="30">
+    <row r="371" spans="1:16" ht="30" hidden="1">
       <c r="A371" s="6" t="s">
         <v>551</v>
       </c>
@@ -24737,7 +24745,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="372" spans="1:16" ht="30">
+    <row r="372" spans="1:16" ht="30" hidden="1">
       <c r="A372" s="6" t="s">
         <v>552</v>
       </c>
@@ -24772,7 +24780,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="373" spans="1:16" ht="30">
+    <row r="373" spans="1:16" ht="30" hidden="1">
       <c r="A373" s="6" t="s">
         <v>553</v>
       </c>
@@ -24807,7 +24815,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="374" spans="1:16" ht="30">
+    <row r="374" spans="1:16" ht="30" hidden="1">
       <c r="A374" s="6" t="s">
         <v>554</v>
       </c>
@@ -24842,7 +24850,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="375" spans="1:16" ht="30">
+    <row r="375" spans="1:16" ht="30" hidden="1">
       <c r="A375" s="6" t="s">
         <v>555</v>
       </c>
@@ -24877,7 +24885,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="376" spans="1:16" ht="30">
+    <row r="376" spans="1:16" ht="30" hidden="1">
       <c r="A376" s="6" t="s">
         <v>556</v>
       </c>
@@ -24912,7 +24920,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="377" spans="1:16" ht="30">
+    <row r="377" spans="1:16" ht="30" hidden="1">
       <c r="A377" s="6" t="s">
         <v>557</v>
       </c>
@@ -24947,7 +24955,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="378" spans="1:16" ht="30">
+    <row r="378" spans="1:16" ht="30" hidden="1">
       <c r="A378" s="6" t="s">
         <v>558</v>
       </c>
@@ -24982,7 +24990,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="379" spans="1:16" ht="30">
+    <row r="379" spans="1:16" ht="30" hidden="1">
       <c r="A379" s="6" t="s">
         <v>559</v>
       </c>
@@ -25017,7 +25025,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="380" spans="1:16" ht="30">
+    <row r="380" spans="1:16" ht="30" hidden="1">
       <c r="A380" s="6" t="s">
         <v>560</v>
       </c>
@@ -25052,7 +25060,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="381" spans="1:16" ht="30">
+    <row r="381" spans="1:16" ht="30" hidden="1">
       <c r="A381" s="6" t="s">
         <v>561</v>
       </c>
@@ -25087,7 +25095,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="382" spans="1:16" ht="30">
+    <row r="382" spans="1:16" ht="30" hidden="1">
       <c r="A382" s="6" t="s">
         <v>562</v>
       </c>
@@ -25122,7 +25130,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="383" spans="1:16" ht="30">
+    <row r="383" spans="1:16" ht="30" hidden="1">
       <c r="A383" s="6" t="s">
         <v>563</v>
       </c>
@@ -25157,7 +25165,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="384" spans="1:16" ht="30">
+    <row r="384" spans="1:16" ht="30" hidden="1">
       <c r="A384" s="6" t="s">
         <v>564</v>
       </c>
@@ -25192,7 +25200,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="385" spans="1:16" ht="30">
+    <row r="385" spans="1:16" ht="30" hidden="1">
       <c r="A385" s="6" t="s">
         <v>565</v>
       </c>
@@ -25227,7 +25235,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="386" spans="1:16" ht="30">
+    <row r="386" spans="1:16" ht="30" hidden="1">
       <c r="A386" s="6" t="s">
         <v>566</v>
       </c>
@@ -25262,7 +25270,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="387" spans="1:16" ht="30">
+    <row r="387" spans="1:16" ht="30" hidden="1">
       <c r="A387" s="6" t="s">
         <v>567</v>
       </c>
@@ -25297,7 +25305,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="388" spans="1:16" ht="30">
+    <row r="388" spans="1:16" ht="30" hidden="1">
       <c r="A388" s="6" t="s">
         <v>568</v>
       </c>
@@ -25332,7 +25340,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="389" spans="1:16" ht="30">
+    <row r="389" spans="1:16" ht="30" hidden="1">
       <c r="A389" s="6" t="s">
         <v>569</v>
       </c>
@@ -25367,7 +25375,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="390" spans="1:16" ht="15">
+    <row r="390" spans="1:16" ht="15" hidden="1">
       <c r="A390" s="6" t="s">
         <v>570</v>
       </c>
@@ -25405,7 +25413,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="391" spans="1:16" ht="15">
+    <row r="391" spans="1:16" ht="15" hidden="1">
       <c r="A391" s="6" t="s">
         <v>571</v>
       </c>
@@ -25440,7 +25448,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="392" spans="1:16" ht="15">
+    <row r="392" spans="1:16" ht="15" hidden="1">
       <c r="A392" s="6" t="s">
         <v>572</v>
       </c>
@@ -25475,7 +25483,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="393" spans="1:16" ht="15">
+    <row r="393" spans="1:16" ht="15" hidden="1">
       <c r="A393" s="6" t="s">
         <v>573</v>
       </c>
@@ -25510,7 +25518,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="394" spans="1:16" ht="15">
+    <row r="394" spans="1:16" ht="15" hidden="1">
       <c r="A394" s="6" t="s">
         <v>574</v>
       </c>
@@ -25545,7 +25553,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="395" spans="1:16" ht="15">
+    <row r="395" spans="1:16" ht="15" hidden="1">
       <c r="A395" s="6" t="s">
         <v>575</v>
       </c>
@@ -25580,7 +25588,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="396" spans="1:16" ht="15">
+    <row r="396" spans="1:16" ht="15" hidden="1">
       <c r="A396" s="6" t="s">
         <v>576</v>
       </c>
@@ -25615,7 +25623,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="397" spans="1:16" ht="15">
+    <row r="397" spans="1:16" ht="15" hidden="1">
       <c r="A397" s="6" t="s">
         <v>577</v>
       </c>
@@ -25650,7 +25658,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="398" spans="1:16" ht="15">
+    <row r="398" spans="1:16" ht="15" hidden="1">
       <c r="A398" s="6" t="s">
         <v>578</v>
       </c>
@@ -25685,7 +25693,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="399" spans="1:16" ht="15">
+    <row r="399" spans="1:16" ht="15" hidden="1">
       <c r="A399" s="6" t="s">
         <v>579</v>
       </c>
@@ -25720,7 +25728,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="400" spans="1:16" ht="15">
+    <row r="400" spans="1:16" ht="15" hidden="1">
       <c r="A400" s="6" t="s">
         <v>580</v>
       </c>
@@ -25755,7 +25763,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="401" spans="1:16" ht="15">
+    <row r="401" spans="1:16" ht="15" hidden="1">
       <c r="A401" s="6" t="s">
         <v>581</v>
       </c>
@@ -25790,7 +25798,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="402" spans="1:16" ht="15">
+    <row r="402" spans="1:16" ht="15" hidden="1">
       <c r="A402" s="6" t="s">
         <v>582</v>
       </c>
@@ -25825,7 +25833,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="403" spans="1:16" ht="15">
+    <row r="403" spans="1:16" ht="15" hidden="1">
       <c r="A403" s="6" t="s">
         <v>583</v>
       </c>
@@ -25860,7 +25868,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="404" spans="1:16" ht="15">
+    <row r="404" spans="1:16" ht="15" hidden="1">
       <c r="A404" s="6" t="s">
         <v>584</v>
       </c>
@@ -25895,7 +25903,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="405" spans="1:16" ht="15">
+    <row r="405" spans="1:16" ht="15" hidden="1">
       <c r="A405" s="6" t="s">
         <v>585</v>
       </c>
@@ -25930,7 +25938,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="406" spans="1:16" ht="15">
+    <row r="406" spans="1:16" ht="15" hidden="1">
       <c r="A406" s="6" t="s">
         <v>586</v>
       </c>
@@ -25965,7 +25973,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="407" spans="1:16" ht="15">
+    <row r="407" spans="1:16" ht="15" hidden="1">
       <c r="A407" s="6" t="s">
         <v>587</v>
       </c>
@@ -25999,7 +26007,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="408" spans="1:16" ht="15">
+    <row r="408" spans="1:16" ht="15" hidden="1">
       <c r="A408" s="6" t="s">
         <v>588</v>
       </c>
@@ -26033,7 +26041,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="409" spans="1:16" ht="15">
+    <row r="409" spans="1:16" ht="15" hidden="1">
       <c r="A409" s="6" t="s">
         <v>589</v>
       </c>
@@ -26067,7 +26075,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="410" spans="1:16" ht="15">
+    <row r="410" spans="1:16" ht="15" hidden="1">
       <c r="A410" s="6" t="s">
         <v>590</v>
       </c>
@@ -26101,7 +26109,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="411" spans="1:16" ht="15">
+    <row r="411" spans="1:16" ht="15" hidden="1">
       <c r="A411" s="6" t="s">
         <v>591</v>
       </c>
@@ -26135,7 +26143,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="412" spans="1:16" ht="15">
+    <row r="412" spans="1:16" ht="15" hidden="1">
       <c r="A412" s="6" t="s">
         <v>592</v>
       </c>
@@ -26169,7 +26177,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="413" spans="1:16" ht="15">
+    <row r="413" spans="1:16" ht="15" hidden="1">
       <c r="A413" s="6" t="s">
         <v>593</v>
       </c>
@@ -26203,7 +26211,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="414" spans="1:16" ht="15">
+    <row r="414" spans="1:16" ht="15" hidden="1">
       <c r="A414" s="6" t="s">
         <v>594</v>
       </c>
@@ -26237,7 +26245,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="415" spans="1:16" ht="15">
+    <row r="415" spans="1:16" ht="15" hidden="1">
       <c r="A415" s="6" t="s">
         <v>595</v>
       </c>
@@ -26271,7 +26279,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="416" spans="1:16" ht="15">
+    <row r="416" spans="1:16" ht="15" hidden="1">
       <c r="A416" s="6" t="s">
         <v>596</v>
       </c>
@@ -26305,7 +26313,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="417" spans="1:16" ht="15">
+    <row r="417" spans="1:16" ht="15" hidden="1">
       <c r="A417" s="6" t="s">
         <v>597</v>
       </c>
@@ -26339,7 +26347,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="418" spans="1:16" ht="15">
+    <row r="418" spans="1:16" ht="15" hidden="1">
       <c r="A418" s="6" t="s">
         <v>598</v>
       </c>
@@ -26373,7 +26381,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="419" spans="1:16" ht="15">
+    <row r="419" spans="1:16" ht="15" hidden="1">
       <c r="A419" s="6" t="s">
         <v>599</v>
       </c>
@@ -26407,7 +26415,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="420" spans="1:16" ht="15">
+    <row r="420" spans="1:16" ht="15" hidden="1">
       <c r="A420" s="6" t="s">
         <v>600</v>
       </c>
@@ -26441,7 +26449,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="421" spans="1:16" ht="15">
+    <row r="421" spans="1:16" ht="15" hidden="1">
       <c r="A421" s="6" t="s">
         <v>601</v>
       </c>
@@ -26475,7 +26483,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="422" spans="1:16" ht="15">
+    <row r="422" spans="1:16" ht="15" hidden="1">
       <c r="A422" s="6" t="s">
         <v>602</v>
       </c>
@@ -26512,7 +26520,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="423" spans="1:16" ht="15">
+    <row r="423" spans="1:16" ht="15" hidden="1">
       <c r="A423" s="6" t="s">
         <v>603</v>
       </c>
@@ -26546,7 +26554,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="424" spans="1:16" ht="15">
+    <row r="424" spans="1:16" ht="15" hidden="1">
       <c r="A424" s="6" t="s">
         <v>604</v>
       </c>
@@ -26580,7 +26588,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="425" spans="1:16" ht="15">
+    <row r="425" spans="1:16" ht="15" hidden="1">
       <c r="A425" s="6" t="s">
         <v>605</v>
       </c>
@@ -26614,7 +26622,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="426" spans="1:16" ht="15">
+    <row r="426" spans="1:16" ht="15" hidden="1">
       <c r="A426" s="6" t="s">
         <v>606</v>
       </c>
@@ -26648,7 +26656,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="427" spans="1:16" ht="15">
+    <row r="427" spans="1:16" ht="15" hidden="1">
       <c r="A427" s="6" t="s">
         <v>607</v>
       </c>
@@ -26682,7 +26690,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="428" spans="1:16" ht="15">
+    <row r="428" spans="1:16" ht="15" hidden="1">
       <c r="A428" s="6" t="s">
         <v>608</v>
       </c>
@@ -26716,7 +26724,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="429" spans="1:16" ht="15">
+    <row r="429" spans="1:16" ht="15" hidden="1">
       <c r="A429" s="6" t="s">
         <v>609</v>
       </c>
@@ -26750,7 +26758,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="430" spans="1:16" ht="15">
+    <row r="430" spans="1:16" ht="15" hidden="1">
       <c r="A430" s="6" t="s">
         <v>610</v>
       </c>
@@ -26784,7 +26792,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="431" spans="1:16" ht="15">
+    <row r="431" spans="1:16" ht="15" hidden="1">
       <c r="A431" s="6" t="s">
         <v>611</v>
       </c>
@@ -26818,7 +26826,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="432" spans="1:16" ht="15">
+    <row r="432" spans="1:16" ht="15" hidden="1">
       <c r="A432" s="6" t="s">
         <v>612</v>
       </c>
@@ -26852,7 +26860,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="433" spans="1:16" ht="15">
+    <row r="433" spans="1:16" ht="15" hidden="1">
       <c r="A433" s="6" t="s">
         <v>613</v>
       </c>
@@ -26886,7 +26894,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="434" spans="1:16" ht="15">
+    <row r="434" spans="1:16" ht="15" hidden="1">
       <c r="A434" s="6" t="s">
         <v>614</v>
       </c>
@@ -26920,7 +26928,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="435" spans="1:16" ht="15">
+    <row r="435" spans="1:16" ht="15" hidden="1">
       <c r="A435" s="6" t="s">
         <v>615</v>
       </c>
@@ -26954,7 +26962,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="436" spans="1:16" ht="15">
+    <row r="436" spans="1:16" ht="15" hidden="1">
       <c r="A436" s="6" t="s">
         <v>616</v>
       </c>
@@ -26988,7 +26996,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="437" spans="1:16" ht="15">
+    <row r="437" spans="1:16" ht="15" hidden="1">
       <c r="A437" s="6" t="s">
         <v>617</v>
       </c>
@@ -27022,7 +27030,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="438" spans="1:16" ht="15">
+    <row r="438" spans="1:16" ht="15" hidden="1">
       <c r="A438" s="19" t="s">
         <v>1131</v>
       </c>
@@ -27048,7 +27056,7 @@
       </c>
       <c r="P438" s="10"/>
     </row>
-    <row r="439" spans="1:16" ht="15">
+    <row r="439" spans="1:16" ht="15" hidden="1">
       <c r="A439" s="6" t="s">
         <v>619</v>
       </c>
@@ -27080,7 +27088,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="440" spans="1:16" ht="15">
+    <row r="440" spans="1:16" ht="15" hidden="1">
       <c r="A440" s="6" t="s">
         <v>620</v>
       </c>
@@ -27112,7 +27120,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="441" spans="1:16" ht="15">
+    <row r="441" spans="1:16" ht="15" hidden="1">
       <c r="A441" s="6" t="s">
         <v>621</v>
       </c>
@@ -27144,7 +27152,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="442" spans="1:16" ht="30">
+    <row r="442" spans="1:16" ht="30" hidden="1">
       <c r="A442" s="6" t="s">
         <v>622</v>
       </c>
@@ -27176,7 +27184,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="443" spans="1:16" ht="15">
+    <row r="443" spans="1:16" ht="15" hidden="1">
       <c r="A443" s="6" t="s">
         <v>623</v>
       </c>
@@ -27208,7 +27216,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="444" spans="1:16" ht="15">
+    <row r="444" spans="1:16" ht="15" hidden="1">
       <c r="A444" s="6" t="s">
         <v>624</v>
       </c>
@@ -27240,7 +27248,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="445" spans="1:16" ht="15">
+    <row r="445" spans="1:16" ht="15" hidden="1">
       <c r="A445" s="6" t="s">
         <v>625</v>
       </c>
@@ -27272,7 +27280,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="446" spans="1:16" ht="30">
+    <row r="446" spans="1:16" ht="30" hidden="1">
       <c r="A446" s="6" t="s">
         <v>626</v>
       </c>
@@ -27304,7 +27312,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="447" spans="1:16" ht="30">
+    <row r="447" spans="1:16" ht="30" hidden="1">
       <c r="A447" s="7" t="s">
         <v>627</v>
       </c>
@@ -27336,7 +27344,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="448" spans="1:16" ht="15">
+    <row r="448" spans="1:16" ht="15" hidden="1">
       <c r="A448" s="30" t="s">
         <v>628</v>
       </c>
@@ -27374,7 +27382,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="449" spans="1:16" ht="15">
+    <row r="449" spans="1:16" ht="15" hidden="1">
       <c r="A449" s="30" t="s">
         <v>629</v>
       </c>
@@ -27412,7 +27420,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="450" spans="1:16" ht="15">
+    <row r="450" spans="1:16" ht="15" hidden="1">
       <c r="A450" s="30" t="s">
         <v>630</v>
       </c>
@@ -27450,7 +27458,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="451" spans="1:16" ht="15">
+    <row r="451" spans="1:16" ht="15" hidden="1">
       <c r="A451" s="30" t="s">
         <v>631</v>
       </c>
@@ -27488,7 +27496,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="452" spans="1:16" ht="15">
+    <row r="452" spans="1:16" ht="15" hidden="1">
       <c r="A452" s="30" t="s">
         <v>632</v>
       </c>
@@ -27526,7 +27534,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="453" spans="1:16" ht="15">
+    <row r="453" spans="1:16" ht="15" hidden="1">
       <c r="A453" s="30" t="s">
         <v>633</v>
       </c>
@@ -27564,7 +27572,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="454" spans="1:16" ht="15">
+    <row r="454" spans="1:16" ht="15" hidden="1">
       <c r="A454" s="30" t="s">
         <v>634</v>
       </c>
@@ -27602,7 +27610,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="455" spans="1:16" ht="15">
+    <row r="455" spans="1:16" ht="15" hidden="1">
       <c r="A455" s="30" t="s">
         <v>635</v>
       </c>
@@ -27640,7 +27648,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="456" spans="1:16" ht="30">
+    <row r="456" spans="1:16" ht="30" hidden="1">
       <c r="A456" s="6" t="s">
         <v>636</v>
       </c>
@@ -27675,7 +27683,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="457" spans="1:16" ht="15">
+    <row r="457" spans="1:16" ht="15" hidden="1">
       <c r="A457" s="6" t="s">
         <v>637</v>
       </c>
@@ -27707,7 +27715,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="458" spans="1:16" ht="15">
+    <row r="458" spans="1:16" ht="15" hidden="1">
       <c r="A458" s="6" t="s">
         <v>638</v>
       </c>
@@ -27739,7 +27747,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="459" spans="1:16" ht="30">
+    <row r="459" spans="1:16" ht="30" hidden="1">
       <c r="A459" s="6" t="s">
         <v>639</v>
       </c>
@@ -27771,7 +27779,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="460" spans="1:16" ht="30">
+    <row r="460" spans="1:16" ht="30" hidden="1">
       <c r="A460" s="6" t="s">
         <v>640</v>
       </c>
@@ -27803,7 +27811,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="461" spans="1:16" ht="15">
+    <row r="461" spans="1:16" ht="15" hidden="1">
       <c r="A461" s="6" t="s">
         <v>641</v>
       </c>
@@ -27835,7 +27843,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="462" spans="1:16" ht="15">
+    <row r="462" spans="1:16" ht="15" hidden="1">
       <c r="A462" s="6" t="s">
         <v>642</v>
       </c>
@@ -27867,7 +27875,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="463" spans="1:16" ht="30">
+    <row r="463" spans="1:16" ht="30" hidden="1">
       <c r="A463" s="6" t="s">
         <v>643</v>
       </c>
@@ -27899,7 +27907,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="464" spans="1:16" ht="30">
+    <row r="464" spans="1:16" ht="30" hidden="1">
       <c r="A464" s="6" t="s">
         <v>644</v>
       </c>
@@ -27931,7 +27939,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="465" spans="1:16" ht="15">
+    <row r="465" spans="1:16" ht="15" hidden="1">
       <c r="A465" s="6" t="s">
         <v>645</v>
       </c>
@@ -27963,7 +27971,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="466" spans="1:16" ht="15">
+    <row r="466" spans="1:16" ht="15" hidden="1">
       <c r="A466" s="6" t="s">
         <v>646</v>
       </c>
@@ -27995,7 +28003,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="467" spans="1:16" ht="30">
+    <row r="467" spans="1:16" ht="30" hidden="1">
       <c r="A467" s="6" t="s">
         <v>647</v>
       </c>
@@ -28027,7 +28035,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="468" spans="1:16" ht="30">
+    <row r="468" spans="1:16" ht="30" hidden="1">
       <c r="A468" s="19" t="s">
         <v>1125</v>
       </c>
@@ -28059,7 +28067,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="469" spans="1:16" ht="30">
+    <row r="469" spans="1:16" ht="30" hidden="1">
       <c r="A469" s="19" t="s">
         <v>1108</v>
       </c>
@@ -28300,7 +28308,7 @@
         <v>654</v>
       </c>
       <c r="D476" t="s">
-        <v>1128</v>
+        <v>1323</v>
       </c>
       <c r="E476" s="15" t="s">
         <v>1049</v>
@@ -28330,7 +28338,7 @@
         <v>655</v>
       </c>
       <c r="D477" t="s">
-        <v>1128</v>
+        <v>1323</v>
       </c>
       <c r="E477" s="15" t="s">
         <v>1050</v>
@@ -28360,7 +28368,7 @@
         <v>656</v>
       </c>
       <c r="D478" t="s">
-        <v>1128</v>
+        <v>1323</v>
       </c>
       <c r="E478" s="15" t="s">
         <v>1035</v>
@@ -28385,7 +28393,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="479" spans="1:16" ht="30">
+    <row r="479" spans="1:16" ht="30" hidden="1">
       <c r="A479" s="6" t="s">
         <v>657</v>
       </c>
@@ -28415,7 +28423,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="480" spans="1:16" ht="15">
+    <row r="480" spans="1:16" ht="15" hidden="1">
       <c r="A480" s="6" t="s">
         <v>658</v>
       </c>
@@ -28445,7 +28453,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="481" spans="1:16" ht="30">
+    <row r="481" spans="1:16" ht="30" hidden="1">
       <c r="A481" s="6" t="s">
         <v>659</v>
       </c>
@@ -28477,7 +28485,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="482" spans="1:16" ht="15">
+    <row r="482" spans="1:16" ht="15" hidden="1">
       <c r="A482" s="6" t="s">
         <v>660</v>
       </c>
@@ -28509,7 +28517,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="483" spans="1:16" ht="30">
+    <row r="483" spans="1:16" ht="30" hidden="1">
       <c r="A483" s="6" t="s">
         <v>661</v>
       </c>
@@ -28541,7 +28549,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="484" spans="1:16" ht="15">
+    <row r="484" spans="1:16" ht="15" hidden="1">
       <c r="A484" s="6" t="s">
         <v>662</v>
       </c>
@@ -28573,7 +28581,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="485" spans="1:16" ht="30">
+    <row r="485" spans="1:16" ht="30" hidden="1">
       <c r="A485" s="6" t="s">
         <v>663</v>
       </c>
@@ -28605,7 +28613,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="486" spans="1:16" ht="15">
+    <row r="486" spans="1:16" ht="15" hidden="1">
       <c r="A486" s="6" t="s">
         <v>664</v>
       </c>
@@ -28637,7 +28645,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="487" spans="1:16" ht="30">
+    <row r="487" spans="1:16" ht="30" hidden="1">
       <c r="A487" s="6" t="s">
         <v>665</v>
       </c>
@@ -28669,7 +28677,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="488" spans="1:16" ht="15">
+    <row r="488" spans="1:16" ht="15" hidden="1">
       <c r="A488" s="6" t="s">
         <v>666</v>
       </c>
@@ -28701,7 +28709,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="489" spans="1:16" ht="30">
+    <row r="489" spans="1:16" ht="30" hidden="1">
       <c r="A489" s="6" t="s">
         <v>667</v>
       </c>
@@ -28733,7 +28741,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="490" spans="1:16" ht="15">
+    <row r="490" spans="1:16" ht="15" hidden="1">
       <c r="A490" s="6" t="s">
         <v>668</v>
       </c>
@@ -28765,7 +28773,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="491" spans="1:16" ht="30">
+    <row r="491" spans="1:16" ht="30" hidden="1">
       <c r="A491" s="6" t="s">
         <v>669</v>
       </c>
@@ -28797,7 +28805,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="492" spans="1:16" ht="15">
+    <row r="492" spans="1:16" ht="15" hidden="1">
       <c r="A492" s="6" t="s">
         <v>670</v>
       </c>
@@ -28829,7 +28837,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="493" spans="1:16" ht="30">
+    <row r="493" spans="1:16" ht="30" hidden="1">
       <c r="A493" s="6" t="s">
         <v>671</v>
       </c>
@@ -28859,7 +28867,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="494" spans="1:16" ht="15">
+    <row r="494" spans="1:16" ht="15" hidden="1">
       <c r="A494" s="6" t="s">
         <v>672</v>
       </c>
@@ -28889,7 +28897,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="495" spans="1:16" ht="30">
+    <row r="495" spans="1:16" ht="30" hidden="1">
       <c r="A495" s="6" t="s">
         <v>673</v>
       </c>
@@ -28919,7 +28927,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="496" spans="1:16" ht="15">
+    <row r="496" spans="1:16" ht="15" hidden="1">
       <c r="A496" s="6" t="s">
         <v>674</v>
       </c>
@@ -28949,7 +28957,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="497" spans="1:16" ht="30">
+    <row r="497" spans="1:16" ht="30" hidden="1">
       <c r="A497" s="6" t="s">
         <v>675</v>
       </c>
@@ -28981,7 +28989,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="498" spans="1:16" ht="15">
+    <row r="498" spans="1:16" ht="15" hidden="1">
       <c r="A498" s="6" t="s">
         <v>676</v>
       </c>
@@ -29013,7 +29021,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="499" spans="1:16" ht="30">
+    <row r="499" spans="1:16" ht="30" hidden="1">
       <c r="A499" s="6" t="s">
         <v>677</v>
       </c>
@@ -29045,7 +29053,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="500" spans="1:16" ht="15">
+    <row r="500" spans="1:16" ht="15" hidden="1">
       <c r="A500" s="6" t="s">
         <v>678</v>
       </c>
@@ -29077,7 +29085,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="501" spans="1:16" ht="30">
+    <row r="501" spans="1:16" ht="30" hidden="1">
       <c r="A501" s="6" t="s">
         <v>679</v>
       </c>
@@ -29109,7 +29117,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="502" spans="1:16" ht="15">
+    <row r="502" spans="1:16" ht="15" hidden="1">
       <c r="A502" s="6" t="s">
         <v>680</v>
       </c>
@@ -29141,7 +29149,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="503" spans="1:16" ht="30">
+    <row r="503" spans="1:16" ht="30" hidden="1">
       <c r="A503" s="6" t="s">
         <v>681</v>
       </c>
@@ -29173,7 +29181,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="504" spans="1:16" ht="15">
+    <row r="504" spans="1:16" ht="15" hidden="1">
       <c r="A504" s="6" t="s">
         <v>682</v>
       </c>
@@ -29205,7 +29213,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="505" spans="1:16" ht="30">
+    <row r="505" spans="1:16" ht="30" hidden="1">
       <c r="A505" s="6" t="s">
         <v>683</v>
       </c>
@@ -29240,7 +29248,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="506" spans="1:16" ht="15">
+    <row r="506" spans="1:16" ht="15" hidden="1">
       <c r="A506" s="6" t="s">
         <v>684</v>
       </c>
@@ -29275,7 +29283,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="507" spans="1:16" ht="30">
+    <row r="507" spans="1:16" ht="30" hidden="1">
       <c r="A507" s="6" t="s">
         <v>685</v>
       </c>
@@ -29310,7 +29318,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="508" spans="1:16" ht="15">
+    <row r="508" spans="1:16" ht="15" hidden="1">
       <c r="A508" s="6" t="s">
         <v>686</v>
       </c>
@@ -29345,7 +29353,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="509" spans="1:16" ht="30">
+    <row r="509" spans="1:16" ht="30" hidden="1">
       <c r="A509" s="6" t="s">
         <v>687</v>
       </c>
@@ -29380,7 +29388,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="510" spans="1:16" ht="15">
+    <row r="510" spans="1:16" ht="15" hidden="1">
       <c r="A510" s="6" t="s">
         <v>688</v>
       </c>
@@ -29415,7 +29423,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="511" spans="1:16" ht="30">
+    <row r="511" spans="1:16" ht="30" hidden="1">
       <c r="A511" s="6" t="s">
         <v>689</v>
       </c>
@@ -29450,7 +29458,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="512" spans="1:16" ht="15">
+    <row r="512" spans="1:16" ht="15" hidden="1">
       <c r="A512" s="6" t="s">
         <v>690</v>
       </c>
@@ -29485,7 +29493,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="513" spans="1:16" ht="30">
+    <row r="513" spans="1:16" ht="30" hidden="1">
       <c r="A513" s="6" t="s">
         <v>691</v>
       </c>
@@ -29517,7 +29525,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="514" spans="1:16" ht="15">
+    <row r="514" spans="1:16" ht="15" hidden="1">
       <c r="A514" s="6" t="s">
         <v>692</v>
       </c>
@@ -29549,7 +29557,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="515" spans="1:16" ht="30">
+    <row r="515" spans="1:16" ht="30" hidden="1">
       <c r="A515" s="6" t="s">
         <v>693</v>
       </c>
@@ -29581,7 +29589,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="516" spans="1:16" ht="15">
+    <row r="516" spans="1:16" ht="15" hidden="1">
       <c r="A516" s="6" t="s">
         <v>694</v>
       </c>
@@ -29613,7 +29621,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="517" spans="1:16" ht="15">
+    <row r="517" spans="1:16" ht="15" hidden="1">
       <c r="A517" s="6" t="s">
         <v>695</v>
       </c>
@@ -29648,7 +29656,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="518" spans="1:16" ht="15">
+    <row r="518" spans="1:16" ht="15" hidden="1">
       <c r="A518" s="6" t="s">
         <v>696</v>
       </c>
@@ -29680,7 +29688,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="519" spans="1:16" ht="15">
+    <row r="519" spans="1:16" ht="15" hidden="1">
       <c r="A519" s="6" t="s">
         <v>697</v>
       </c>
@@ -29712,7 +29720,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="520" spans="1:16" ht="30">
+    <row r="520" spans="1:16" ht="30" hidden="1">
       <c r="A520" s="6" t="s">
         <v>698</v>
       </c>
@@ -29744,7 +29752,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="521" spans="1:16" ht="15">
+    <row r="521" spans="1:16" ht="15" hidden="1">
       <c r="A521" s="6" t="s">
         <v>699</v>
       </c>
@@ -29776,7 +29784,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="522" spans="1:16" ht="30">
+    <row r="522" spans="1:16" ht="30" hidden="1">
       <c r="A522" s="6" t="s">
         <v>700</v>
       </c>
@@ -29808,7 +29816,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="523" spans="1:16" ht="15">
+    <row r="523" spans="1:16" ht="15" hidden="1">
       <c r="A523" s="6" t="s">
         <v>701</v>
       </c>
@@ -29840,7 +29848,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="524" spans="1:16" ht="15">
+    <row r="524" spans="1:16" ht="15" hidden="1">
       <c r="A524" s="6" t="s">
         <v>702</v>
       </c>
@@ -29872,7 +29880,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="525" spans="1:16" ht="15">
+    <row r="525" spans="1:16" ht="15" hidden="1">
       <c r="A525" s="6" t="s">
         <v>703</v>
       </c>
@@ -29904,7 +29912,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="526" spans="1:16" ht="15">
+    <row r="526" spans="1:16" ht="15" hidden="1">
       <c r="A526" s="6" t="s">
         <v>704</v>
       </c>
@@ -29936,7 +29944,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="527" spans="1:16" ht="15">
+    <row r="527" spans="1:16" ht="15" hidden="1">
       <c r="A527" s="6" t="s">
         <v>705</v>
       </c>
@@ -29968,7 +29976,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="528" spans="1:16" ht="15">
+    <row r="528" spans="1:16" ht="15" hidden="1">
       <c r="A528" s="6" t="s">
         <v>706</v>
       </c>
@@ -30000,7 +30008,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="529" spans="1:16" ht="15">
+    <row r="529" spans="1:16" ht="15" hidden="1">
       <c r="A529" s="6" t="s">
         <v>707</v>
       </c>
@@ -30032,7 +30040,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="530" spans="1:16" ht="30">
+    <row r="530" spans="1:16" ht="30" hidden="1">
       <c r="A530" s="6" t="s">
         <v>708</v>
       </c>
@@ -30064,7 +30072,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="531" spans="1:16" ht="15">
+    <row r="531" spans="1:16" ht="15" hidden="1">
       <c r="A531" s="6" t="s">
         <v>709</v>
       </c>
@@ -30096,7 +30104,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="532" spans="1:16" ht="30">
+    <row r="532" spans="1:16" ht="30" hidden="1">
       <c r="A532" s="6" t="s">
         <v>710</v>
       </c>
@@ -30128,7 +30136,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="533" spans="1:16" ht="15">
+    <row r="533" spans="1:16" ht="15" hidden="1">
       <c r="A533" s="6" t="s">
         <v>711</v>
       </c>
@@ -30160,7 +30168,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="534" spans="1:16" ht="15">
+    <row r="534" spans="1:16" ht="15" hidden="1">
       <c r="A534" s="6" t="s">
         <v>712</v>
       </c>
@@ -30192,7 +30200,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="535" spans="1:16" ht="15">
+    <row r="535" spans="1:16" ht="15" hidden="1">
       <c r="A535" s="6" t="s">
         <v>713</v>
       </c>
@@ -30224,7 +30232,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="536" spans="1:16" ht="15">
+    <row r="536" spans="1:16" ht="15" hidden="1">
       <c r="A536" s="6" t="s">
         <v>714</v>
       </c>
@@ -30256,7 +30264,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="537" spans="1:16" ht="15">
+    <row r="537" spans="1:16" ht="15" hidden="1">
       <c r="A537" s="6" t="s">
         <v>715</v>
       </c>
@@ -30288,7 +30296,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="538" spans="1:16" ht="15">
+    <row r="538" spans="1:16" ht="15" hidden="1">
       <c r="A538" s="6" t="s">
         <v>716</v>
       </c>
@@ -30320,7 +30328,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="539" spans="1:16" ht="15">
+    <row r="539" spans="1:16" ht="15" hidden="1">
       <c r="A539" s="6" t="s">
         <v>717</v>
       </c>
@@ -30352,7 +30360,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="540" spans="1:16" ht="30">
+    <row r="540" spans="1:16" ht="30" hidden="1">
       <c r="A540" s="6" t="s">
         <v>718</v>
       </c>
@@ -30384,7 +30392,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="541" spans="1:16" ht="15">
+    <row r="541" spans="1:16" ht="15" hidden="1">
       <c r="A541" s="6" t="s">
         <v>719</v>
       </c>
@@ -30416,7 +30424,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="542" spans="1:16" ht="30">
+    <row r="542" spans="1:16" ht="30" hidden="1">
       <c r="A542" s="6" t="s">
         <v>720</v>
       </c>
@@ -30448,7 +30456,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="543" spans="1:16" ht="15">
+    <row r="543" spans="1:16" ht="15" hidden="1">
       <c r="A543" s="6" t="s">
         <v>721</v>
       </c>
@@ -30480,7 +30488,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="544" spans="1:16" ht="15">
+    <row r="544" spans="1:16" ht="15" hidden="1">
       <c r="A544" s="6" t="s">
         <v>722</v>
       </c>
@@ -30512,7 +30520,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="545" spans="1:16" ht="15">
+    <row r="545" spans="1:16" ht="15" hidden="1">
       <c r="A545" s="6" t="s">
         <v>723</v>
       </c>
@@ -30544,7 +30552,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="546" spans="1:16" ht="15">
+    <row r="546" spans="1:16" ht="15" hidden="1">
       <c r="A546" s="6" t="s">
         <v>724</v>
       </c>
@@ -30576,7 +30584,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="547" spans="1:16" ht="15">
+    <row r="547" spans="1:16" ht="15" hidden="1">
       <c r="A547" s="6" t="s">
         <v>725</v>
       </c>
@@ -30608,7 +30616,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="548" spans="1:16" ht="15">
+    <row r="548" spans="1:16" ht="15" hidden="1">
       <c r="A548" s="6" t="s">
         <v>726</v>
       </c>
@@ -30640,7 +30648,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="549" spans="1:16" ht="15">
+    <row r="549" spans="1:16" ht="15" hidden="1">
       <c r="A549" s="6" t="s">
         <v>727</v>
       </c>
@@ -30672,7 +30680,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="550" spans="1:16" ht="30">
+    <row r="550" spans="1:16" ht="30" hidden="1">
       <c r="A550" s="6" t="s">
         <v>728</v>
       </c>
@@ -30704,7 +30712,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="551" spans="1:16" ht="15">
+    <row r="551" spans="1:16" ht="15" hidden="1">
       <c r="A551" s="6" t="s">
         <v>729</v>
       </c>
@@ -30736,7 +30744,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="552" spans="1:16" ht="30">
+    <row r="552" spans="1:16" ht="30" hidden="1">
       <c r="A552" s="6" t="s">
         <v>730</v>
       </c>
@@ -30768,7 +30776,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="553" spans="1:16" ht="15">
+    <row r="553" spans="1:16" ht="15" hidden="1">
       <c r="A553" s="6" t="s">
         <v>731</v>
       </c>
@@ -30800,7 +30808,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="554" spans="1:16" ht="15">
+    <row r="554" spans="1:16" ht="15" hidden="1">
       <c r="A554" s="6" t="s">
         <v>732</v>
       </c>
@@ -30832,7 +30840,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="555" spans="1:16" ht="15">
+    <row r="555" spans="1:16" ht="15" hidden="1">
       <c r="A555" s="6" t="s">
         <v>733</v>
       </c>
@@ -30864,7 +30872,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="556" spans="1:16" ht="15">
+    <row r="556" spans="1:16" ht="15" hidden="1">
       <c r="A556" s="6" t="s">
         <v>734</v>
       </c>
@@ -30896,7 +30904,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="557" spans="1:16" ht="15">
+    <row r="557" spans="1:16" ht="15" hidden="1">
       <c r="A557" s="6" t="s">
         <v>735</v>
       </c>
@@ -30928,7 +30936,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="558" spans="1:16" ht="15">
+    <row r="558" spans="1:16" ht="15" hidden="1">
       <c r="A558" s="6" t="s">
         <v>736</v>
       </c>
@@ -30960,7 +30968,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="559" spans="1:16" ht="15">
+    <row r="559" spans="1:16" ht="15" hidden="1">
       <c r="A559" s="6" t="s">
         <v>737</v>
       </c>
@@ -30992,7 +31000,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="560" spans="1:16" ht="30">
+    <row r="560" spans="1:16" ht="30" hidden="1">
       <c r="A560" s="6" t="s">
         <v>738</v>
       </c>
@@ -31024,7 +31032,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="561" spans="1:16" ht="15">
+    <row r="561" spans="1:16" ht="15" hidden="1">
       <c r="A561" s="6" t="s">
         <v>739</v>
       </c>
@@ -31056,7 +31064,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="562" spans="1:16" ht="30">
+    <row r="562" spans="1:16" ht="30" hidden="1">
       <c r="A562" s="6" t="s">
         <v>740</v>
       </c>
@@ -31088,7 +31096,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="563" spans="1:16" ht="15">
+    <row r="563" spans="1:16" ht="15" hidden="1">
       <c r="A563" s="6" t="s">
         <v>741</v>
       </c>
@@ -31120,7 +31128,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="564" spans="1:16" ht="15">
+    <row r="564" spans="1:16" ht="15" hidden="1">
       <c r="A564" s="6" t="s">
         <v>742</v>
       </c>
@@ -31152,7 +31160,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="565" spans="1:16" ht="15">
+    <row r="565" spans="1:16" ht="15" hidden="1">
       <c r="A565" s="6" t="s">
         <v>743</v>
       </c>
@@ -31184,7 +31192,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="566" spans="1:16" ht="15">
+    <row r="566" spans="1:16" ht="15" hidden="1">
       <c r="A566" s="6" t="s">
         <v>744</v>
       </c>
@@ -31216,7 +31224,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="567" spans="1:16" ht="30">
+    <row r="567" spans="1:16" ht="30" hidden="1">
       <c r="A567" s="19" t="s">
         <v>1125</v>
       </c>
@@ -31248,7 +31256,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="568" spans="1:16" ht="30">
+    <row r="568" spans="1:16" ht="30" hidden="1">
       <c r="A568" s="19" t="s">
         <v>1108</v>
       </c>
@@ -31280,7 +31288,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="569" spans="1:16" ht="15">
+    <row r="569" spans="1:16" ht="15" hidden="1">
       <c r="A569" s="6" t="s">
         <v>745</v>
       </c>
@@ -31314,7 +31322,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="570" spans="1:16" ht="15">
+    <row r="570" spans="1:16" ht="15" hidden="1">
       <c r="A570" s="6" t="s">
         <v>746</v>
       </c>
@@ -31348,7 +31356,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="571" spans="1:16" ht="15">
+    <row r="571" spans="1:16" ht="15" hidden="1">
       <c r="A571" s="6" t="s">
         <v>747</v>
       </c>
@@ -31382,7 +31390,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="572" spans="1:16" ht="30">
+    <row r="572" spans="1:16" ht="30" hidden="1">
       <c r="A572" s="6" t="s">
         <v>748</v>
       </c>
@@ -31416,7 +31424,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="573" spans="1:16" ht="15">
+    <row r="573" spans="1:16" ht="15" hidden="1">
       <c r="A573" s="6" t="s">
         <v>749</v>
       </c>
@@ -31450,7 +31458,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="574" spans="1:16" ht="30">
+    <row r="574" spans="1:16" ht="30" hidden="1">
       <c r="A574" s="6" t="s">
         <v>750</v>
       </c>
@@ -31484,7 +31492,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="575" spans="1:16" ht="15">
+    <row r="575" spans="1:16" ht="15" hidden="1">
       <c r="A575" s="6" t="s">
         <v>751</v>
       </c>
@@ -31518,7 +31526,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="576" spans="1:16" ht="15">
+    <row r="576" spans="1:16" ht="15" hidden="1">
       <c r="A576" s="6" t="s">
         <v>752</v>
       </c>
@@ -31552,7 +31560,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="577" spans="1:16" ht="15">
+    <row r="577" spans="1:16" ht="15" hidden="1">
       <c r="A577" s="6" t="s">
         <v>753</v>
       </c>
@@ -31586,7 +31594,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="578" spans="1:16" ht="15">
+    <row r="578" spans="1:16" ht="15" hidden="1">
       <c r="A578" s="6" t="s">
         <v>754</v>
       </c>
@@ -31620,7 +31628,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="579" spans="1:16" ht="15">
+    <row r="579" spans="1:16" ht="15" hidden="1">
       <c r="A579" s="6" t="s">
         <v>755</v>
       </c>
@@ -31654,7 +31662,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="580" spans="1:16" ht="15">
+    <row r="580" spans="1:16" ht="15" hidden="1">
       <c r="A580" s="6" t="s">
         <v>756</v>
       </c>
@@ -31688,7 +31696,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="581" spans="1:16" ht="15">
+    <row r="581" spans="1:16" ht="15" hidden="1">
       <c r="A581" s="6" t="s">
         <v>757</v>
       </c>
@@ -31722,7 +31730,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="582" spans="1:16" ht="30">
+    <row r="582" spans="1:16" ht="30" hidden="1">
       <c r="A582" s="6" t="s">
         <v>758</v>
       </c>
@@ -31756,7 +31764,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="583" spans="1:16" ht="15">
+    <row r="583" spans="1:16" ht="15" hidden="1">
       <c r="A583" s="6" t="s">
         <v>759</v>
       </c>
@@ -31790,7 +31798,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="584" spans="1:16" ht="30">
+    <row r="584" spans="1:16" ht="30" hidden="1">
       <c r="A584" s="6" t="s">
         <v>760</v>
       </c>
@@ -31824,7 +31832,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="585" spans="1:16" ht="15">
+    <row r="585" spans="1:16" ht="15" hidden="1">
       <c r="A585" s="6" t="s">
         <v>761</v>
       </c>
@@ -31858,7 +31866,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="586" spans="1:16" ht="15">
+    <row r="586" spans="1:16" ht="15" hidden="1">
       <c r="A586" s="6" t="s">
         <v>762</v>
       </c>
@@ -31892,7 +31900,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="587" spans="1:16" ht="15">
+    <row r="587" spans="1:16" ht="15" hidden="1">
       <c r="A587" s="6" t="s">
         <v>763</v>
       </c>
@@ -31926,7 +31934,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="588" spans="1:16" ht="15">
+    <row r="588" spans="1:16" ht="15" hidden="1">
       <c r="A588" s="6" t="s">
         <v>764</v>
       </c>
@@ -31960,7 +31968,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="589" spans="1:16" ht="30">
+    <row r="589" spans="1:16" ht="30" hidden="1">
       <c r="A589" s="6" t="s">
         <v>765</v>
       </c>
@@ -31994,7 +32002,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="590" spans="1:16" ht="30">
+    <row r="590" spans="1:16" ht="30" hidden="1">
       <c r="A590" s="6" t="s">
         <v>766</v>
       </c>
@@ -32028,7 +32036,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="591" spans="1:16" ht="30">
+    <row r="591" spans="1:16" ht="30" hidden="1">
       <c r="A591" s="6" t="s">
         <v>767</v>
       </c>
@@ -32062,7 +32070,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="592" spans="1:16" ht="30">
+    <row r="592" spans="1:16" ht="30" hidden="1">
       <c r="A592" s="6" t="s">
         <v>768</v>
       </c>
@@ -32096,7 +32104,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="593" spans="1:16" ht="30">
+    <row r="593" spans="1:16" ht="30" hidden="1">
       <c r="A593" s="6" t="s">
         <v>769</v>
       </c>
@@ -32130,7 +32138,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="594" spans="1:16" ht="30">
+    <row r="594" spans="1:16" ht="30" hidden="1">
       <c r="A594" s="6" t="s">
         <v>770</v>
       </c>
@@ -32164,7 +32172,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="595" spans="1:16" ht="30">
+    <row r="595" spans="1:16" ht="30" hidden="1">
       <c r="A595" s="6" t="s">
         <v>771</v>
       </c>
@@ -32198,7 +32206,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="596" spans="1:16" ht="30">
+    <row r="596" spans="1:16" ht="30" hidden="1">
       <c r="A596" s="6" t="s">
         <v>772</v>
       </c>
@@ -32232,7 +32240,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="597" spans="1:16" ht="30">
+    <row r="597" spans="1:16" ht="30" hidden="1">
       <c r="A597" s="6" t="s">
         <v>773</v>
       </c>
@@ -32266,7 +32274,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="598" spans="1:16" ht="30">
+    <row r="598" spans="1:16" ht="30" hidden="1">
       <c r="A598" s="6" t="s">
         <v>774</v>
       </c>
@@ -32300,7 +32308,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="599" spans="1:16" ht="15">
+    <row r="599" spans="1:16" ht="15" hidden="1">
       <c r="A599" s="6" t="s">
         <v>775</v>
       </c>
@@ -32334,7 +32342,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="600" spans="1:16" ht="15">
+    <row r="600" spans="1:16" ht="15" hidden="1">
       <c r="A600" s="6" t="s">
         <v>776</v>
       </c>
@@ -32368,7 +32376,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="601" spans="1:16" ht="15">
+    <row r="601" spans="1:16" ht="15" hidden="1">
       <c r="A601" s="6" t="s">
         <v>777</v>
       </c>
@@ -32402,7 +32410,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="602" spans="1:16" ht="30">
+    <row r="602" spans="1:16" ht="30" hidden="1">
       <c r="A602" s="6" t="s">
         <v>778</v>
       </c>
@@ -32436,7 +32444,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="603" spans="1:16" ht="15">
+    <row r="603" spans="1:16" ht="15" hidden="1">
       <c r="A603" s="6" t="s">
         <v>779</v>
       </c>
@@ -32470,7 +32478,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="604" spans="1:16" ht="30">
+    <row r="604" spans="1:16" ht="30" hidden="1">
       <c r="A604" s="6" t="s">
         <v>780</v>
       </c>
@@ -32504,7 +32512,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="605" spans="1:16" ht="15">
+    <row r="605" spans="1:16" ht="15" hidden="1">
       <c r="A605" s="6" t="s">
         <v>781</v>
       </c>
@@ -32538,7 +32546,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="606" spans="1:16" ht="15">
+    <row r="606" spans="1:16" ht="15" hidden="1">
       <c r="A606" s="6" t="s">
         <v>782</v>
       </c>
@@ -32572,7 +32580,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="607" spans="1:16" ht="15">
+    <row r="607" spans="1:16" ht="15" hidden="1">
       <c r="A607" s="6" t="s">
         <v>783</v>
       </c>
@@ -32606,7 +32614,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="608" spans="1:16" ht="15">
+    <row r="608" spans="1:16" ht="15" hidden="1">
       <c r="A608" s="6" t="s">
         <v>784</v>
       </c>
@@ -32640,7 +32648,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="609" spans="1:16" ht="15">
+    <row r="609" spans="1:16" ht="15" hidden="1">
       <c r="A609" s="6" t="s">
         <v>785</v>
       </c>
@@ -32674,7 +32682,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="610" spans="1:16" ht="15">
+    <row r="610" spans="1:16" ht="15" hidden="1">
       <c r="A610" s="6" t="s">
         <v>786</v>
       </c>
@@ -32708,7 +32716,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="611" spans="1:16" ht="15">
+    <row r="611" spans="1:16" ht="15" hidden="1">
       <c r="A611" s="6" t="s">
         <v>787</v>
       </c>
@@ -32742,7 +32750,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="612" spans="1:16" ht="30">
+    <row r="612" spans="1:16" ht="30" hidden="1">
       <c r="A612" s="6" t="s">
         <v>788</v>
       </c>
@@ -32776,7 +32784,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="613" spans="1:16" ht="15">
+    <row r="613" spans="1:16" ht="15" hidden="1">
       <c r="A613" s="6" t="s">
         <v>789</v>
       </c>
@@ -32810,7 +32818,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="614" spans="1:16" ht="30">
+    <row r="614" spans="1:16" ht="30" hidden="1">
       <c r="A614" s="6" t="s">
         <v>790</v>
       </c>
@@ -32844,7 +32852,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="615" spans="1:16" ht="15">
+    <row r="615" spans="1:16" ht="15" hidden="1">
       <c r="A615" s="6" t="s">
         <v>791</v>
       </c>
@@ -32878,7 +32886,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="616" spans="1:16" ht="15">
+    <row r="616" spans="1:16" ht="15" hidden="1">
       <c r="A616" s="6" t="s">
         <v>792</v>
       </c>
@@ -32912,7 +32920,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="617" spans="1:16" ht="15">
+    <row r="617" spans="1:16" ht="15" hidden="1">
       <c r="A617" s="6" t="s">
         <v>793</v>
       </c>
@@ -32946,7 +32954,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="618" spans="1:16" ht="15">
+    <row r="618" spans="1:16" ht="15" hidden="1">
       <c r="A618" s="6" t="s">
         <v>794</v>
       </c>
@@ -32980,7 +32988,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="619" spans="1:16" ht="30">
+    <row r="619" spans="1:16" ht="30" hidden="1">
       <c r="A619" s="6" t="s">
         <v>795</v>
       </c>
@@ -33014,7 +33022,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="620" spans="1:16" ht="30">
+    <row r="620" spans="1:16" ht="30" hidden="1">
       <c r="A620" s="6" t="s">
         <v>796</v>
       </c>
@@ -33048,7 +33056,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="621" spans="1:16" ht="30">
+    <row r="621" spans="1:16" ht="30" hidden="1">
       <c r="A621" s="6" t="s">
         <v>797</v>
       </c>
@@ -33082,7 +33090,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="622" spans="1:16" ht="30">
+    <row r="622" spans="1:16" ht="30" hidden="1">
       <c r="A622" s="6" t="s">
         <v>798</v>
       </c>
@@ -33116,7 +33124,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="623" spans="1:16" ht="30">
+    <row r="623" spans="1:16" ht="30" hidden="1">
       <c r="A623" s="6" t="s">
         <v>799</v>
       </c>
@@ -33150,7 +33158,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="624" spans="1:16" ht="30">
+    <row r="624" spans="1:16" ht="30" hidden="1">
       <c r="A624" s="6" t="s">
         <v>800</v>
       </c>
@@ -33184,7 +33192,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="625" spans="1:16" ht="30">
+    <row r="625" spans="1:16" ht="30" hidden="1">
       <c r="A625" s="6" t="s">
         <v>801</v>
       </c>
@@ -33218,7 +33226,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="626" spans="1:16" ht="30">
+    <row r="626" spans="1:16" ht="30" hidden="1">
       <c r="A626" s="6" t="s">
         <v>802</v>
       </c>
@@ -33252,7 +33260,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="627" spans="1:16" ht="30">
+    <row r="627" spans="1:16" ht="30" hidden="1">
       <c r="A627" s="6" t="s">
         <v>803</v>
       </c>
@@ -33286,7 +33294,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="628" spans="1:16" ht="30">
+    <row r="628" spans="1:16" ht="30" hidden="1">
       <c r="A628" s="6" t="s">
         <v>804</v>
       </c>
@@ -33320,7 +33328,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="629" spans="1:16" ht="15">
+    <row r="629" spans="1:16" ht="15" hidden="1">
       <c r="A629" s="6" t="s">
         <v>805</v>
       </c>
@@ -33354,7 +33362,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="630" spans="1:16" ht="15">
+    <row r="630" spans="1:16" ht="15" hidden="1">
       <c r="A630" s="6" t="s">
         <v>806</v>
       </c>
@@ -33388,7 +33396,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="631" spans="1:16" ht="15">
+    <row r="631" spans="1:16" ht="15" hidden="1">
       <c r="A631" s="6" t="s">
         <v>807</v>
       </c>
@@ -33422,7 +33430,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="632" spans="1:16" ht="30">
+    <row r="632" spans="1:16" ht="30" hidden="1">
       <c r="A632" s="6" t="s">
         <v>808</v>
       </c>
@@ -33456,7 +33464,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="633" spans="1:16" ht="15">
+    <row r="633" spans="1:16" ht="15" hidden="1">
       <c r="A633" s="6" t="s">
         <v>809</v>
       </c>
@@ -33490,7 +33498,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="634" spans="1:16" ht="30">
+    <row r="634" spans="1:16" ht="30" hidden="1">
       <c r="A634" s="6" t="s">
         <v>810</v>
       </c>
@@ -33524,7 +33532,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="635" spans="1:16" ht="15">
+    <row r="635" spans="1:16" ht="15" hidden="1">
       <c r="A635" s="6" t="s">
         <v>811</v>
       </c>
@@ -33558,7 +33566,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="636" spans="1:16" ht="15">
+    <row r="636" spans="1:16" ht="15" hidden="1">
       <c r="A636" s="6" t="s">
         <v>812</v>
       </c>
@@ -33592,7 +33600,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="637" spans="1:16" ht="15">
+    <row r="637" spans="1:16" ht="15" hidden="1">
       <c r="A637" s="6" t="s">
         <v>813</v>
       </c>
@@ -33626,7 +33634,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="638" spans="1:16" ht="15">
+    <row r="638" spans="1:16" ht="15" hidden="1">
       <c r="A638" s="6" t="s">
         <v>814</v>
       </c>
@@ -33660,7 +33668,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="639" spans="1:16" ht="15">
+    <row r="639" spans="1:16" ht="15" hidden="1">
       <c r="A639" s="6" t="s">
         <v>815</v>
       </c>
@@ -33694,7 +33702,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="640" spans="1:16" ht="15">
+    <row r="640" spans="1:16" ht="15" hidden="1">
       <c r="A640" s="6" t="s">
         <v>816</v>
       </c>
@@ -33728,7 +33736,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="641" spans="1:16" ht="15">
+    <row r="641" spans="1:16" ht="15" hidden="1">
       <c r="A641" s="6" t="s">
         <v>817</v>
       </c>
@@ -33762,7 +33770,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="642" spans="1:16" ht="30">
+    <row r="642" spans="1:16" ht="30" hidden="1">
       <c r="A642" s="6" t="s">
         <v>818</v>
       </c>
@@ -33796,7 +33804,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="643" spans="1:16" ht="15">
+    <row r="643" spans="1:16" ht="15" hidden="1">
       <c r="A643" s="6" t="s">
         <v>819</v>
       </c>
@@ -33830,7 +33838,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="644" spans="1:16" ht="30">
+    <row r="644" spans="1:16" ht="30" hidden="1">
       <c r="A644" s="6" t="s">
         <v>820</v>
       </c>
@@ -33864,7 +33872,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="645" spans="1:16" ht="15">
+    <row r="645" spans="1:16" ht="15" hidden="1">
       <c r="A645" s="6" t="s">
         <v>821</v>
       </c>
@@ -33898,7 +33906,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="646" spans="1:16" ht="15">
+    <row r="646" spans="1:16" ht="15" hidden="1">
       <c r="A646" s="6" t="s">
         <v>822</v>
       </c>
@@ -33932,7 +33940,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="647" spans="1:16" ht="15">
+    <row r="647" spans="1:16" ht="15" hidden="1">
       <c r="A647" s="6" t="s">
         <v>823</v>
       </c>
@@ -33966,7 +33974,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="648" spans="1:16" ht="15">
+    <row r="648" spans="1:16" ht="15" hidden="1">
       <c r="A648" s="6" t="s">
         <v>824</v>
       </c>
@@ -34000,7 +34008,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="649" spans="1:16" ht="30">
+    <row r="649" spans="1:16" ht="30" hidden="1">
       <c r="A649" s="6" t="s">
         <v>825</v>
       </c>
@@ -34034,7 +34042,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="650" spans="1:16" ht="30">
+    <row r="650" spans="1:16" ht="30" hidden="1">
       <c r="A650" s="6" t="s">
         <v>826</v>
       </c>
@@ -34068,7 +34076,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="651" spans="1:16" ht="30">
+    <row r="651" spans="1:16" ht="30" hidden="1">
       <c r="A651" s="6" t="s">
         <v>827</v>
       </c>
@@ -34102,7 +34110,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="652" spans="1:16" ht="30">
+    <row r="652" spans="1:16" ht="30" hidden="1">
       <c r="A652" s="6" t="s">
         <v>828</v>
       </c>
@@ -34136,7 +34144,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="653" spans="1:16" ht="30">
+    <row r="653" spans="1:16" ht="30" hidden="1">
       <c r="A653" s="6" t="s">
         <v>829</v>
       </c>
@@ -34170,7 +34178,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="654" spans="1:16" ht="30">
+    <row r="654" spans="1:16" ht="30" hidden="1">
       <c r="A654" s="6" t="s">
         <v>830</v>
       </c>
@@ -34204,7 +34212,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="655" spans="1:16" ht="30">
+    <row r="655" spans="1:16" ht="30" hidden="1">
       <c r="A655" s="6" t="s">
         <v>831</v>
       </c>
@@ -34238,7 +34246,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="656" spans="1:16" ht="30">
+    <row r="656" spans="1:16" ht="30" hidden="1">
       <c r="A656" s="6" t="s">
         <v>832</v>
       </c>
@@ -34272,7 +34280,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="657" spans="1:16" ht="30">
+    <row r="657" spans="1:16" ht="30" hidden="1">
       <c r="A657" s="6" t="s">
         <v>833</v>
       </c>
@@ -34306,7 +34314,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="658" spans="1:16" ht="30">
+    <row r="658" spans="1:16" ht="30" hidden="1">
       <c r="A658" s="6" t="s">
         <v>834</v>
       </c>
@@ -34340,7 +34348,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="659" spans="1:16" ht="15">
+    <row r="659" spans="1:16" ht="15" hidden="1">
       <c r="A659" s="6" t="s">
         <v>835</v>
       </c>
@@ -34374,7 +34382,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="660" spans="1:16" ht="15">
+    <row r="660" spans="1:16" ht="15" hidden="1">
       <c r="A660" s="6" t="s">
         <v>836</v>
       </c>
@@ -34408,7 +34416,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="661" spans="1:16" ht="15">
+    <row r="661" spans="1:16" ht="15" hidden="1">
       <c r="A661" s="6" t="s">
         <v>837</v>
       </c>
@@ -34442,7 +34450,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="662" spans="1:16" ht="30">
+    <row r="662" spans="1:16" ht="30" hidden="1">
       <c r="A662" s="6" t="s">
         <v>838</v>
       </c>
@@ -34476,7 +34484,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="663" spans="1:16" ht="15">
+    <row r="663" spans="1:16" ht="15" hidden="1">
       <c r="A663" s="6" t="s">
         <v>839</v>
       </c>
@@ -34510,7 +34518,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="664" spans="1:16" ht="30">
+    <row r="664" spans="1:16" ht="30" hidden="1">
       <c r="A664" s="6" t="s">
         <v>840</v>
       </c>
@@ -34544,7 +34552,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="665" spans="1:16" ht="15">
+    <row r="665" spans="1:16" ht="15" hidden="1">
       <c r="A665" s="6" t="s">
         <v>841</v>
       </c>
@@ -34578,7 +34586,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="666" spans="1:16" ht="15">
+    <row r="666" spans="1:16" ht="15" hidden="1">
       <c r="A666" s="6" t="s">
         <v>842</v>
       </c>
@@ -34612,7 +34620,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="667" spans="1:16" ht="15">
+    <row r="667" spans="1:16" ht="15" hidden="1">
       <c r="A667" s="6" t="s">
         <v>843</v>
       </c>
@@ -34646,7 +34654,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="668" spans="1:16" ht="15">
+    <row r="668" spans="1:16" ht="15" hidden="1">
       <c r="A668" s="6" t="s">
         <v>844</v>
       </c>
@@ -34680,7 +34688,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="669" spans="1:16" ht="15">
+    <row r="669" spans="1:16" ht="15" hidden="1">
       <c r="A669" s="6" t="s">
         <v>845</v>
       </c>
@@ -34714,7 +34722,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="670" spans="1:16" ht="15">
+    <row r="670" spans="1:16" ht="15" hidden="1">
       <c r="A670" s="6" t="s">
         <v>846</v>
       </c>
@@ -34748,7 +34756,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="671" spans="1:16" ht="15">
+    <row r="671" spans="1:16" ht="15" hidden="1">
       <c r="A671" s="6" t="s">
         <v>847</v>
       </c>
@@ -34782,7 +34790,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="672" spans="1:16" ht="30">
+    <row r="672" spans="1:16" ht="30" hidden="1">
       <c r="A672" s="6" t="s">
         <v>848</v>
       </c>
@@ -34816,7 +34824,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="673" spans="1:16" ht="15">
+    <row r="673" spans="1:16" ht="15" hidden="1">
       <c r="A673" s="6" t="s">
         <v>849</v>
       </c>
@@ -34850,7 +34858,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="674" spans="1:16" ht="30">
+    <row r="674" spans="1:16" ht="30" hidden="1">
       <c r="A674" s="6" t="s">
         <v>850</v>
       </c>
@@ -34884,7 +34892,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="675" spans="1:16" ht="15">
+    <row r="675" spans="1:16" ht="15" hidden="1">
       <c r="A675" s="6" t="s">
         <v>851</v>
       </c>
@@ -34918,7 +34926,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="676" spans="1:16" ht="15">
+    <row r="676" spans="1:16" ht="15" hidden="1">
       <c r="A676" s="6" t="s">
         <v>852</v>
       </c>
@@ -34952,7 +34960,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="677" spans="1:16" ht="15">
+    <row r="677" spans="1:16" ht="15" hidden="1">
       <c r="A677" s="6" t="s">
         <v>853</v>
       </c>
@@ -34986,7 +34994,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="678" spans="1:16" ht="15">
+    <row r="678" spans="1:16" ht="15" hidden="1">
       <c r="A678" s="6" t="s">
         <v>854</v>
       </c>
@@ -35020,7 +35028,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="679" spans="1:16" ht="30">
+    <row r="679" spans="1:16" ht="30" hidden="1">
       <c r="A679" s="6" t="s">
         <v>855</v>
       </c>
@@ -35054,7 +35062,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="680" spans="1:16" ht="30">
+    <row r="680" spans="1:16" ht="30" hidden="1">
       <c r="A680" s="6" t="s">
         <v>856</v>
       </c>
@@ -35088,7 +35096,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="681" spans="1:16" ht="30">
+    <row r="681" spans="1:16" ht="30" hidden="1">
       <c r="A681" s="6" t="s">
         <v>857</v>
       </c>
@@ -35122,7 +35130,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="682" spans="1:16" ht="30">
+    <row r="682" spans="1:16" ht="30" hidden="1">
       <c r="A682" s="6" t="s">
         <v>858</v>
       </c>
@@ -35156,7 +35164,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="683" spans="1:16" ht="30">
+    <row r="683" spans="1:16" ht="30" hidden="1">
       <c r="A683" s="6" t="s">
         <v>859</v>
       </c>
@@ -35190,7 +35198,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="684" spans="1:16" ht="30">
+    <row r="684" spans="1:16" ht="30" hidden="1">
       <c r="A684" s="6" t="s">
         <v>860</v>
       </c>
@@ -35224,7 +35232,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="685" spans="1:16" ht="30">
+    <row r="685" spans="1:16" ht="30" hidden="1">
       <c r="A685" s="6" t="s">
         <v>861</v>
       </c>
@@ -35258,7 +35266,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="686" spans="1:16" ht="30">
+    <row r="686" spans="1:16" ht="30" hidden="1">
       <c r="A686" s="6" t="s">
         <v>862</v>
       </c>
@@ -35292,7 +35300,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="687" spans="1:16" ht="30">
+    <row r="687" spans="1:16" ht="30" hidden="1">
       <c r="A687" s="6" t="s">
         <v>863</v>
       </c>
@@ -35326,7 +35334,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="688" spans="1:16" ht="30">
+    <row r="688" spans="1:16" ht="30" hidden="1">
       <c r="A688" s="6" t="s">
         <v>864</v>
       </c>
@@ -35360,7 +35368,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="689" spans="1:16" ht="15">
+    <row r="689" spans="1:16" ht="15" hidden="1">
       <c r="A689" s="6" t="s">
         <v>865</v>
       </c>
@@ -35394,7 +35402,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="690" spans="1:16" ht="15">
+    <row r="690" spans="1:16" ht="15" hidden="1">
       <c r="A690" s="6" t="s">
         <v>866</v>
       </c>
@@ -35428,7 +35436,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="691" spans="1:16" ht="15">
+    <row r="691" spans="1:16" ht="15" hidden="1">
       <c r="A691" s="6" t="s">
         <v>867</v>
       </c>
@@ -35462,7 +35470,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="692" spans="1:16" ht="30">
+    <row r="692" spans="1:16" ht="30" hidden="1">
       <c r="A692" s="6" t="s">
         <v>868</v>
       </c>
@@ -35496,7 +35504,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="693" spans="1:16" ht="15">
+    <row r="693" spans="1:16" ht="15" hidden="1">
       <c r="A693" s="6" t="s">
         <v>869</v>
       </c>
@@ -35530,7 +35538,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="694" spans="1:16" ht="30">
+    <row r="694" spans="1:16" ht="30" hidden="1">
       <c r="A694" s="6" t="s">
         <v>870</v>
       </c>
@@ -35564,7 +35572,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="695" spans="1:16" ht="15">
+    <row r="695" spans="1:16" ht="15" hidden="1">
       <c r="A695" s="6" t="s">
         <v>871</v>
       </c>
@@ -35598,7 +35606,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="696" spans="1:16" ht="15">
+    <row r="696" spans="1:16" ht="15" hidden="1">
       <c r="A696" s="6" t="s">
         <v>872</v>
       </c>
@@ -35632,7 +35640,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="697" spans="1:16" ht="15">
+    <row r="697" spans="1:16" ht="15" hidden="1">
       <c r="A697" s="6" t="s">
         <v>873</v>
       </c>
@@ -35666,7 +35674,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="698" spans="1:16" ht="15">
+    <row r="698" spans="1:16" ht="15" hidden="1">
       <c r="A698" s="6" t="s">
         <v>874</v>
       </c>
@@ -35700,7 +35708,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="699" spans="1:16" ht="15">
+    <row r="699" spans="1:16" ht="15" hidden="1">
       <c r="A699" s="6" t="s">
         <v>875</v>
       </c>
@@ -35734,7 +35742,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="700" spans="1:16" ht="15">
+    <row r="700" spans="1:16" ht="15" hidden="1">
       <c r="A700" s="6" t="s">
         <v>876</v>
       </c>
@@ -35768,7 +35776,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="701" spans="1:16" ht="15">
+    <row r="701" spans="1:16" ht="15" hidden="1">
       <c r="A701" s="6" t="s">
         <v>877</v>
       </c>
@@ -35802,7 +35810,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="702" spans="1:16" ht="30">
+    <row r="702" spans="1:16" ht="30" hidden="1">
       <c r="A702" s="6" t="s">
         <v>878</v>
       </c>
@@ -35836,7 +35844,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="703" spans="1:16" ht="15">
+    <row r="703" spans="1:16" ht="15" hidden="1">
       <c r="A703" s="6" t="s">
         <v>879</v>
       </c>
@@ -35870,7 +35878,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="704" spans="1:16" ht="30">
+    <row r="704" spans="1:16" ht="30" hidden="1">
       <c r="A704" s="6" t="s">
         <v>880</v>
       </c>
@@ -35904,7 +35912,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="705" spans="1:16" ht="15">
+    <row r="705" spans="1:16" ht="15" hidden="1">
       <c r="A705" s="6" t="s">
         <v>881</v>
       </c>
@@ -35938,7 +35946,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="706" spans="1:16" ht="15">
+    <row r="706" spans="1:16" ht="15" hidden="1">
       <c r="A706" s="6" t="s">
         <v>882</v>
       </c>
@@ -35972,7 +35980,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="707" spans="1:16" ht="15">
+    <row r="707" spans="1:16" ht="15" hidden="1">
       <c r="A707" s="6" t="s">
         <v>883</v>
       </c>
@@ -36006,7 +36014,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="708" spans="1:16" ht="15">
+    <row r="708" spans="1:16" ht="15" hidden="1">
       <c r="A708" s="6" t="s">
         <v>884</v>
       </c>
@@ -36040,7 +36048,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="709" spans="1:16" ht="15">
+    <row r="709" spans="1:16" ht="15" hidden="1">
       <c r="A709" s="6" t="s">
         <v>885</v>
       </c>
@@ -36074,7 +36082,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="710" spans="1:16" ht="15">
+    <row r="710" spans="1:16" ht="15" hidden="1">
       <c r="A710" s="6" t="s">
         <v>886</v>
       </c>
@@ -36108,7 +36116,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="711" spans="1:16" ht="15">
+    <row r="711" spans="1:16" ht="15" hidden="1">
       <c r="A711" s="6" t="s">
         <v>887</v>
       </c>
@@ -36142,7 +36150,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="712" spans="1:16" ht="30">
+    <row r="712" spans="1:16" ht="30" hidden="1">
       <c r="A712" s="6" t="s">
         <v>888</v>
       </c>
@@ -36176,7 +36184,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="713" spans="1:16" ht="15">
+    <row r="713" spans="1:16" ht="15" hidden="1">
       <c r="A713" s="6" t="s">
         <v>889</v>
       </c>
@@ -36210,7 +36218,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="714" spans="1:16" ht="30">
+    <row r="714" spans="1:16" ht="30" hidden="1">
       <c r="A714" s="6" t="s">
         <v>890</v>
       </c>
@@ -36244,7 +36252,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="715" spans="1:16" ht="15">
+    <row r="715" spans="1:16" ht="15" hidden="1">
       <c r="A715" s="6" t="s">
         <v>891</v>
       </c>
@@ -36278,7 +36286,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="716" spans="1:16" ht="15">
+    <row r="716" spans="1:16" ht="15" hidden="1">
       <c r="A716" s="6" t="s">
         <v>892</v>
       </c>
@@ -36312,7 +36320,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="717" spans="1:16" ht="15">
+    <row r="717" spans="1:16" ht="15" hidden="1">
       <c r="A717" s="6" t="s">
         <v>893</v>
       </c>
@@ -36346,7 +36354,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="718" spans="1:16" ht="15">
+    <row r="718" spans="1:16" ht="15" hidden="1">
       <c r="A718" s="6" t="s">
         <v>894</v>
       </c>
@@ -36380,7 +36388,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="719" spans="1:16" ht="30">
+    <row r="719" spans="1:16" ht="30" hidden="1">
       <c r="A719" s="6" t="s">
         <v>895</v>
       </c>
@@ -36414,7 +36422,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="720" spans="1:16" ht="30">
+    <row r="720" spans="1:16" ht="30" hidden="1">
       <c r="A720" s="6" t="s">
         <v>896</v>
       </c>
@@ -36448,7 +36456,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="721" spans="1:16" ht="30">
+    <row r="721" spans="1:16" ht="30" hidden="1">
       <c r="A721" s="6" t="s">
         <v>897</v>
       </c>
@@ -36482,7 +36490,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="722" spans="1:16" ht="30">
+    <row r="722" spans="1:16" ht="30" hidden="1">
       <c r="A722" s="6" t="s">
         <v>898</v>
       </c>
@@ -36516,7 +36524,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="723" spans="1:16" ht="30">
+    <row r="723" spans="1:16" ht="30" hidden="1">
       <c r="A723" s="6" t="s">
         <v>899</v>
       </c>
@@ -36550,7 +36558,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="724" spans="1:16" ht="30">
+    <row r="724" spans="1:16" ht="30" hidden="1">
       <c r="A724" s="6" t="s">
         <v>900</v>
       </c>
@@ -36584,7 +36592,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="725" spans="1:16" ht="30">
+    <row r="725" spans="1:16" ht="30" hidden="1">
       <c r="A725" s="6" t="s">
         <v>901</v>
       </c>
@@ -36618,7 +36626,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="726" spans="1:16" ht="30">
+    <row r="726" spans="1:16" ht="30" hidden="1">
       <c r="A726" s="6" t="s">
         <v>902</v>
       </c>
@@ -36652,7 +36660,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="727" spans="1:16" ht="30">
+    <row r="727" spans="1:16" ht="30" hidden="1">
       <c r="A727" s="6" t="s">
         <v>903</v>
       </c>
@@ -36686,7 +36694,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="728" spans="1:16" ht="30">
+    <row r="728" spans="1:16" ht="30" hidden="1">
       <c r="A728" s="6" t="s">
         <v>904</v>
       </c>
@@ -36720,7 +36728,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="729" spans="1:16" ht="15">
+    <row r="729" spans="1:16" ht="15" hidden="1">
       <c r="A729" s="6" t="s">
         <v>905</v>
       </c>
@@ -36754,7 +36762,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="730" spans="1:16" ht="15">
+    <row r="730" spans="1:16" ht="15" hidden="1">
       <c r="A730" s="6" t="s">
         <v>906</v>
       </c>
@@ -36788,7 +36796,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="731" spans="1:16" ht="15">
+    <row r="731" spans="1:16" ht="15" hidden="1">
       <c r="A731" s="6" t="s">
         <v>907</v>
       </c>
@@ -36822,7 +36830,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="732" spans="1:16" ht="30">
+    <row r="732" spans="1:16" ht="30" hidden="1">
       <c r="A732" s="6" t="s">
         <v>908</v>
       </c>
@@ -36856,7 +36864,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="733" spans="1:16" ht="15">
+    <row r="733" spans="1:16" ht="15" hidden="1">
       <c r="A733" s="6" t="s">
         <v>909</v>
       </c>
@@ -36890,7 +36898,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="734" spans="1:16" ht="30">
+    <row r="734" spans="1:16" ht="30" hidden="1">
       <c r="A734" s="6" t="s">
         <v>910</v>
       </c>
@@ -36924,7 +36932,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="735" spans="1:16" ht="15">
+    <row r="735" spans="1:16" ht="15" hidden="1">
       <c r="A735" s="6" t="s">
         <v>911</v>
       </c>
@@ -36958,7 +36966,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="736" spans="1:16" ht="15">
+    <row r="736" spans="1:16" ht="15" hidden="1">
       <c r="A736" s="6" t="s">
         <v>912</v>
       </c>
@@ -36992,7 +37000,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="737" spans="1:16" ht="15">
+    <row r="737" spans="1:16" ht="15" hidden="1">
       <c r="A737" s="6" t="s">
         <v>913</v>
       </c>
@@ -37026,7 +37034,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="738" spans="1:16" ht="15">
+    <row r="738" spans="1:16" ht="15" hidden="1">
       <c r="A738" s="6" t="s">
         <v>914</v>
       </c>
@@ -37060,7 +37068,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="739" spans="1:16" ht="15">
+    <row r="739" spans="1:16" ht="15" hidden="1">
       <c r="A739" s="6" t="s">
         <v>915</v>
       </c>
@@ -37094,7 +37102,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="740" spans="1:16" ht="15">
+    <row r="740" spans="1:16" ht="15" hidden="1">
       <c r="A740" s="6" t="s">
         <v>916</v>
       </c>
@@ -37128,7 +37136,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="741" spans="1:16" ht="15">
+    <row r="741" spans="1:16" ht="15" hidden="1">
       <c r="A741" s="6" t="s">
         <v>917</v>
       </c>
@@ -37162,7 +37170,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="742" spans="1:16" ht="30">
+    <row r="742" spans="1:16" ht="30" hidden="1">
       <c r="A742" s="6" t="s">
         <v>918</v>
       </c>
@@ -37196,7 +37204,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="743" spans="1:16" ht="15">
+    <row r="743" spans="1:16" ht="15" hidden="1">
       <c r="A743" s="6" t="s">
         <v>919</v>
       </c>
@@ -37230,7 +37238,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="744" spans="1:16" ht="30">
+    <row r="744" spans="1:16" ht="30" hidden="1">
       <c r="A744" s="6" t="s">
         <v>920</v>
       </c>
@@ -37264,7 +37272,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="745" spans="1:16" ht="15">
+    <row r="745" spans="1:16" ht="15" hidden="1">
       <c r="A745" s="6" t="s">
         <v>921</v>
       </c>
@@ -37298,7 +37306,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="746" spans="1:16" ht="15">
+    <row r="746" spans="1:16" ht="15" hidden="1">
       <c r="A746" s="6" t="s">
         <v>922</v>
       </c>
@@ -37332,7 +37340,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="747" spans="1:16" ht="15">
+    <row r="747" spans="1:16" ht="15" hidden="1">
       <c r="A747" s="6" t="s">
         <v>923</v>
       </c>
@@ -37366,7 +37374,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="748" spans="1:16" ht="15">
+    <row r="748" spans="1:16" ht="15" hidden="1">
       <c r="A748" s="6" t="s">
         <v>924</v>
       </c>
@@ -37400,7 +37408,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="749" spans="1:16" ht="15">
+    <row r="749" spans="1:16" ht="15" hidden="1">
       <c r="A749" s="6" t="s">
         <v>925</v>
       </c>
@@ -37434,7 +37442,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="750" spans="1:16" ht="15">
+    <row r="750" spans="1:16" ht="15" hidden="1">
       <c r="A750" s="6" t="s">
         <v>926</v>
       </c>
@@ -37468,7 +37476,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="751" spans="1:16" ht="15">
+    <row r="751" spans="1:16" ht="15" hidden="1">
       <c r="A751" s="6" t="s">
         <v>927</v>
       </c>
@@ -37502,7 +37510,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="752" spans="1:16" ht="30">
+    <row r="752" spans="1:16" ht="30" hidden="1">
       <c r="A752" s="6" t="s">
         <v>928</v>
       </c>
@@ -37536,7 +37544,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="753" spans="1:16" ht="15">
+    <row r="753" spans="1:16" ht="15" hidden="1">
       <c r="A753" s="6" t="s">
         <v>929</v>
       </c>
@@ -37570,7 +37578,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="754" spans="1:16" ht="30">
+    <row r="754" spans="1:16" ht="30" hidden="1">
       <c r="A754" s="6" t="s">
         <v>930</v>
       </c>
@@ -37604,7 +37612,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="755" spans="1:16" ht="15">
+    <row r="755" spans="1:16" ht="15" hidden="1">
       <c r="A755" s="6" t="s">
         <v>931</v>
       </c>
@@ -37638,7 +37646,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="756" spans="1:16" ht="15">
+    <row r="756" spans="1:16" ht="15" hidden="1">
       <c r="A756" s="6" t="s">
         <v>932</v>
       </c>
@@ -37672,7 +37680,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="757" spans="1:16" ht="15">
+    <row r="757" spans="1:16" ht="15" hidden="1">
       <c r="A757" s="6" t="s">
         <v>933</v>
       </c>
@@ -37706,7 +37714,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="758" spans="1:16" ht="15">
+    <row r="758" spans="1:16" ht="15" hidden="1">
       <c r="A758" s="6" t="s">
         <v>934</v>
       </c>
@@ -37740,7 +37748,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="759" spans="1:16" ht="30">
+    <row r="759" spans="1:16" ht="30" hidden="1">
       <c r="A759" s="6" t="s">
         <v>935</v>
       </c>
@@ -37774,7 +37782,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="760" spans="1:16" ht="30">
+    <row r="760" spans="1:16" ht="30" hidden="1">
       <c r="A760" s="6" t="s">
         <v>936</v>
       </c>
@@ -37808,7 +37816,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="761" spans="1:16" ht="30">
+    <row r="761" spans="1:16" ht="30" hidden="1">
       <c r="A761" s="6" t="s">
         <v>937</v>
       </c>
@@ -37842,7 +37850,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="762" spans="1:16" ht="30">
+    <row r="762" spans="1:16" ht="30" hidden="1">
       <c r="A762" s="6" t="s">
         <v>10</v>
       </c>
@@ -37876,7 +37884,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="763" spans="1:16" ht="30">
+    <row r="763" spans="1:16" ht="30" hidden="1">
       <c r="A763" s="6" t="s">
         <v>11</v>
       </c>
@@ -37910,7 +37918,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="764" spans="1:16" ht="30">
+    <row r="764" spans="1:16" ht="30" hidden="1">
       <c r="A764" s="6" t="s">
         <v>12</v>
       </c>
@@ -37944,7 +37952,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="765" spans="1:16" ht="30">
+    <row r="765" spans="1:16" ht="30" hidden="1">
       <c r="A765" s="6" t="s">
         <v>13</v>
       </c>
@@ -37978,7 +37986,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="766" spans="1:16" ht="30">
+    <row r="766" spans="1:16" ht="30" hidden="1">
       <c r="A766" s="6" t="s">
         <v>14</v>
       </c>
@@ -38012,7 +38020,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="767" spans="1:16" ht="30">
+    <row r="767" spans="1:16" ht="30" hidden="1">
       <c r="A767" s="6" t="s">
         <v>15</v>
       </c>
@@ -38046,7 +38054,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="768" spans="1:16" ht="30">
+    <row r="768" spans="1:16" ht="30" hidden="1">
       <c r="A768" s="6" t="s">
         <v>16</v>
       </c>
@@ -38080,7 +38088,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="769" spans="1:16" ht="15">
+    <row r="769" spans="1:16" ht="15" hidden="1">
       <c r="A769" s="6" t="s">
         <v>17</v>
       </c>
@@ -38112,7 +38120,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="770" spans="1:16" ht="15">
+    <row r="770" spans="1:16" ht="15" hidden="1">
       <c r="A770" s="6" t="s">
         <v>18</v>
       </c>
@@ -38144,7 +38152,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="771" spans="1:16" ht="15">
+    <row r="771" spans="1:16" ht="15" hidden="1">
       <c r="A771" s="6" t="s">
         <v>19</v>
       </c>
@@ -38176,7 +38184,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="772" spans="1:16" ht="30">
+    <row r="772" spans="1:16" ht="30" hidden="1">
       <c r="A772" s="6" t="s">
         <v>20</v>
       </c>
@@ -38208,7 +38216,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="773" spans="1:16" ht="15">
+    <row r="773" spans="1:16" ht="15" hidden="1">
       <c r="A773" s="6" t="s">
         <v>21</v>
       </c>
@@ -38240,7 +38248,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="774" spans="1:16" ht="15">
+    <row r="774" spans="1:16" ht="15" hidden="1">
       <c r="A774" s="6" t="s">
         <v>22</v>
       </c>
@@ -38272,7 +38280,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="775" spans="1:16" ht="15">
+    <row r="775" spans="1:16" ht="15" hidden="1">
       <c r="A775" s="6" t="s">
         <v>23</v>
       </c>
@@ -38304,7 +38312,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="776" spans="1:16" ht="30">
+    <row r="776" spans="1:16" ht="30" hidden="1">
       <c r="A776" s="6" t="s">
         <v>24</v>
       </c>
@@ -38336,7 +38344,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="777" spans="1:16" ht="15">
+    <row r="777" spans="1:16" ht="15" hidden="1">
       <c r="A777" s="6" t="s">
         <v>25</v>
       </c>
@@ -38368,7 +38376,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="778" spans="1:16" ht="15">
+    <row r="778" spans="1:16" ht="15" hidden="1">
       <c r="A778" s="6" t="s">
         <v>26</v>
       </c>
@@ -38400,7 +38408,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="779" spans="1:16" ht="15">
+    <row r="779" spans="1:16" ht="15" hidden="1">
       <c r="A779" s="6" t="s">
         <v>27</v>
       </c>
@@ -38432,7 +38440,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="780" spans="1:16" ht="30">
+    <row r="780" spans="1:16" ht="30" hidden="1">
       <c r="A780" s="6" t="s">
         <v>28</v>
       </c>
@@ -38464,7 +38472,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="781" spans="1:16" ht="15">
+    <row r="781" spans="1:16" ht="15" hidden="1">
       <c r="A781" s="6" t="s">
         <v>29</v>
       </c>
@@ -38496,7 +38504,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="782" spans="1:16" ht="15">
+    <row r="782" spans="1:16" ht="15" hidden="1">
       <c r="A782" s="6" t="s">
         <v>30</v>
       </c>
@@ -38528,7 +38536,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="783" spans="1:16" ht="15">
+    <row r="783" spans="1:16" ht="15" hidden="1">
       <c r="A783" s="6" t="s">
         <v>31</v>
       </c>
@@ -38560,7 +38568,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="784" spans="1:16" ht="30">
+    <row r="784" spans="1:16" ht="30" hidden="1">
       <c r="A784" s="6" t="s">
         <v>32</v>
       </c>
@@ -38592,7 +38600,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="785" spans="1:16" ht="15">
+    <row r="785" spans="1:16" ht="15" hidden="1">
       <c r="A785" s="6" t="s">
         <v>33</v>
       </c>
@@ -38624,7 +38632,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="786" spans="1:16" ht="15">
+    <row r="786" spans="1:16" ht="15" hidden="1">
       <c r="A786" s="6" t="s">
         <v>34</v>
       </c>
@@ -38656,7 +38664,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="787" spans="1:16" ht="15">
+    <row r="787" spans="1:16" ht="15" hidden="1">
       <c r="A787" s="6" t="s">
         <v>35</v>
       </c>
@@ -38688,7 +38696,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="788" spans="1:16" ht="30">
+    <row r="788" spans="1:16" ht="30" hidden="1">
       <c r="A788" s="6" t="s">
         <v>36</v>
       </c>
@@ -38720,7 +38728,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="789" spans="1:16" ht="15">
+    <row r="789" spans="1:16" ht="15" hidden="1">
       <c r="A789" s="6" t="s">
         <v>37</v>
       </c>
@@ -38750,7 +38758,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="790" spans="1:16" ht="15">
+    <row r="790" spans="1:16" ht="15" hidden="1">
       <c r="A790" s="6" t="s">
         <v>38</v>
       </c>
@@ -38780,7 +38788,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="791" spans="1:16" ht="15">
+    <row r="791" spans="1:16" ht="15" hidden="1">
       <c r="A791" s="6" t="s">
         <v>39</v>
       </c>
@@ -38810,7 +38818,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="792" spans="1:16" ht="30">
+    <row r="792" spans="1:16" ht="30" hidden="1">
       <c r="A792" s="6" t="s">
         <v>40</v>
       </c>
@@ -38840,7 +38848,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="793" spans="1:16" ht="15">
+    <row r="793" spans="1:16" ht="15" hidden="1">
       <c r="A793" s="6" t="s">
         <v>41</v>
       </c>
@@ -38872,7 +38880,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="794" spans="1:16" ht="15">
+    <row r="794" spans="1:16" ht="15" hidden="1">
       <c r="A794" s="6" t="s">
         <v>42</v>
       </c>
@@ -38904,7 +38912,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="795" spans="1:16" ht="15">
+    <row r="795" spans="1:16" ht="15" hidden="1">
       <c r="A795" s="6" t="s">
         <v>43</v>
       </c>
@@ -38936,7 +38944,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="796" spans="1:16" ht="30">
+    <row r="796" spans="1:16" ht="30" hidden="1">
       <c r="A796" s="6" t="s">
         <v>44</v>
       </c>
@@ -38968,7 +38976,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="797" spans="1:16" ht="15">
+    <row r="797" spans="1:16" ht="15" hidden="1">
       <c r="A797" s="6" t="s">
         <v>45</v>
       </c>
@@ -39000,7 +39008,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="798" spans="1:16" ht="15">
+    <row r="798" spans="1:16" ht="15" hidden="1">
       <c r="A798" s="6" t="s">
         <v>46</v>
       </c>
@@ -39032,7 +39040,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="799" spans="1:16" ht="15">
+    <row r="799" spans="1:16" ht="15" hidden="1">
       <c r="A799" s="6" t="s">
         <v>47</v>
       </c>
@@ -39064,7 +39072,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="800" spans="1:16" ht="30">
+    <row r="800" spans="1:16" ht="30" hidden="1">
       <c r="A800" s="6" t="s">
         <v>48</v>
       </c>
@@ -39096,7 +39104,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="801" spans="1:16" ht="15">
+    <row r="801" spans="1:16" ht="15" hidden="1">
       <c r="A801" s="6" t="s">
         <v>49</v>
       </c>
@@ -39126,7 +39134,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="802" spans="1:16" ht="15">
+    <row r="802" spans="1:16" ht="15" hidden="1">
       <c r="A802" s="6" t="s">
         <v>50</v>
       </c>
@@ -39156,7 +39164,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="803" spans="1:16" ht="15">
+    <row r="803" spans="1:16" ht="15" hidden="1">
       <c r="A803" s="6" t="s">
         <v>51</v>
       </c>
@@ -39186,7 +39194,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="804" spans="1:16" ht="30">
+    <row r="804" spans="1:16" ht="30" hidden="1">
       <c r="A804" s="6" t="s">
         <v>52</v>
       </c>
@@ -39216,7 +39224,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="805" spans="1:16" ht="15">
+    <row r="805" spans="1:16" ht="15" hidden="1">
       <c r="A805" s="6" t="s">
         <v>53</v>
       </c>
@@ -39246,7 +39254,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="806" spans="1:16" ht="15">
+    <row r="806" spans="1:16" ht="15" hidden="1">
       <c r="A806" s="6" t="s">
         <v>54</v>
       </c>
@@ -39276,7 +39284,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="807" spans="1:16" ht="15">
+    <row r="807" spans="1:16" ht="15" hidden="1">
       <c r="A807" s="6" t="s">
         <v>55</v>
       </c>
@@ -39306,7 +39314,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="808" spans="1:16" ht="15">
+    <row r="808" spans="1:16" ht="15" hidden="1">
       <c r="A808" s="6" t="s">
         <v>56</v>
       </c>
@@ -39336,7 +39344,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="809" spans="1:16" ht="15">
+    <row r="809" spans="1:16" ht="15" hidden="1">
       <c r="A809" s="6" t="s">
         <v>57</v>
       </c>
@@ -39366,7 +39374,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="810" spans="1:16" ht="30">
+    <row r="810" spans="1:16" ht="30" hidden="1">
       <c r="A810" s="6" t="s">
         <v>58</v>
       </c>
@@ -39396,7 +39404,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="811" spans="1:16" ht="15">
+    <row r="811" spans="1:16" ht="15" hidden="1">
       <c r="A811" s="6" t="s">
         <v>59</v>
       </c>
@@ -39426,7 +39434,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="812" spans="1:16" ht="15">
+    <row r="812" spans="1:16" ht="15" hidden="1">
       <c r="A812" s="6" t="s">
         <v>60</v>
       </c>
@@ -39456,7 +39464,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="813" spans="1:16" ht="30">
+    <row r="813" spans="1:16" ht="30" hidden="1">
       <c r="A813" s="6" t="s">
         <v>61</v>
       </c>
@@ -39486,7 +39494,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="814" spans="1:16" ht="15">
+    <row r="814" spans="1:16" ht="15" hidden="1">
       <c r="A814" s="6" t="s">
         <v>62</v>
       </c>
@@ -39516,7 +39524,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="815" spans="1:16" ht="30">
+    <row r="815" spans="1:16" ht="30" hidden="1">
       <c r="A815" s="6" t="s">
         <v>63</v>
       </c>
@@ -39546,7 +39554,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="816" spans="1:16" ht="15">
+    <row r="816" spans="1:16" ht="15" hidden="1">
       <c r="A816" s="6" t="s">
         <v>64</v>
       </c>
@@ -39576,7 +39584,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="817" spans="1:16" ht="15">
+    <row r="817" spans="1:16" ht="15" hidden="1">
       <c r="A817" s="6" t="s">
         <v>65</v>
       </c>
@@ -39609,7 +39617,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="818" spans="1:16" ht="30">
+    <row r="818" spans="1:16" ht="30" hidden="1">
       <c r="A818" s="6" t="s">
         <v>66</v>
       </c>
@@ -39641,7 +39649,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="819" spans="1:16" ht="15">
+    <row r="819" spans="1:16" ht="15" hidden="1">
       <c r="A819" s="6" t="s">
         <v>67</v>
       </c>
@@ -39673,7 +39681,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="820" spans="1:16" ht="30">
+    <row r="820" spans="1:16" ht="30" hidden="1">
       <c r="A820" s="6" t="s">
         <v>68</v>
       </c>
@@ -39705,7 +39713,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="821" spans="1:16" ht="240">
+    <row r="821" spans="1:16" ht="240" hidden="1">
       <c r="A821" s="6" t="s">
         <v>69</v>
       </c>
@@ -39740,7 +39748,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="822" spans="1:16" ht="30">
+    <row r="822" spans="1:16" ht="30" hidden="1">
       <c r="A822" s="6" t="s">
         <v>70</v>
       </c>
@@ -39772,7 +39780,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="823" spans="1:16" ht="15">
+    <row r="823" spans="1:16" ht="15" hidden="1">
       <c r="A823" s="6" t="s">
         <v>71</v>
       </c>
@@ -39804,7 +39812,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="824" spans="1:16" ht="30">
+    <row r="824" spans="1:16" ht="30" hidden="1">
       <c r="A824" s="6" t="s">
         <v>72</v>
       </c>
@@ -39836,7 +39844,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="825" spans="1:16" ht="15">
+    <row r="825" spans="1:16" ht="15" hidden="1">
       <c r="A825" s="6" t="s">
         <v>73</v>
       </c>
@@ -39866,7 +39874,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="826" spans="1:16" ht="30">
+    <row r="826" spans="1:16" ht="30" hidden="1">
       <c r="A826" s="6" t="s">
         <v>74</v>
       </c>
@@ -39896,7 +39904,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="827" spans="1:16" ht="15">
+    <row r="827" spans="1:16" ht="15" hidden="1">
       <c r="A827" s="6" t="s">
         <v>75</v>
       </c>
@@ -39931,7 +39939,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="828" spans="1:16" ht="15">
+    <row r="828" spans="1:16" ht="15" hidden="1">
       <c r="A828" s="6" t="s">
         <v>76</v>
       </c>
@@ -39963,7 +39971,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="829" spans="1:16" ht="30">
+    <row r="829" spans="1:16" ht="30" hidden="1">
       <c r="A829" s="6" t="s">
         <v>77</v>
       </c>
@@ -39995,7 +40003,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="830" spans="1:16" ht="15">
+    <row r="830" spans="1:16" ht="15" hidden="1">
       <c r="A830" s="6" t="s">
         <v>78</v>
       </c>
@@ -40027,7 +40035,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="831" spans="1:16" ht="15">
+    <row r="831" spans="1:16" ht="15" hidden="1">
       <c r="A831" s="6" t="s">
         <v>79</v>
       </c>
@@ -40059,7 +40067,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="832" spans="1:16" ht="30">
+    <row r="832" spans="1:16" ht="30" hidden="1">
       <c r="A832" s="6" t="s">
         <v>80</v>
       </c>
@@ -40091,7 +40099,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="833" spans="1:16" ht="15">
+    <row r="833" spans="1:16" ht="15" hidden="1">
       <c r="A833" s="6" t="s">
         <v>81</v>
       </c>
@@ -40123,7 +40131,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="834" spans="1:16" ht="15">
+    <row r="834" spans="1:16" ht="15" hidden="1">
       <c r="A834" s="6" t="s">
         <v>82</v>
       </c>
@@ -40155,7 +40163,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="835" spans="1:16" ht="30">
+    <row r="835" spans="1:16" ht="30" hidden="1">
       <c r="A835" s="6" t="s">
         <v>83</v>
       </c>
@@ -40187,7 +40195,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="836" spans="1:16" ht="15">
+    <row r="836" spans="1:16" ht="15" hidden="1">
       <c r="A836" s="19" t="s">
         <v>1181</v>
       </c>
@@ -40217,7 +40225,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="837" spans="1:16" ht="15">
+    <row r="837" spans="1:16" ht="15" hidden="1">
       <c r="A837" s="19" t="s">
         <v>1182</v>
       </c>
@@ -40247,7 +40255,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="838" spans="1:16" ht="30">
+    <row r="838" spans="1:16" ht="30" hidden="1">
       <c r="A838" s="19" t="s">
         <v>1183</v>
       </c>
@@ -40277,7 +40285,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="839" spans="1:16" ht="30">
+    <row r="839" spans="1:16" ht="30" hidden="1">
       <c r="A839" s="6" t="s">
         <v>87</v>
       </c>
@@ -40307,7 +40315,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="840" spans="1:16" ht="30">
+    <row r="840" spans="1:16" ht="30" hidden="1">
       <c r="A840" s="6" t="s">
         <v>88</v>
       </c>
@@ -40337,7 +40345,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="841" spans="1:16" ht="15">
+    <row r="841" spans="1:16" ht="15" hidden="1">
       <c r="A841" s="6" t="s">
         <v>89</v>
       </c>
@@ -40367,7 +40375,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="842" spans="1:16" ht="15">
+    <row r="842" spans="1:16" ht="15" hidden="1">
       <c r="A842" s="6" t="s">
         <v>90</v>
       </c>
@@ -40397,7 +40405,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="843" spans="1:16" ht="15">
+    <row r="843" spans="1:16" ht="15" hidden="1">
       <c r="A843" s="6" t="s">
         <v>91</v>
       </c>
@@ -40427,7 +40435,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="844" spans="1:16" ht="15">
+    <row r="844" spans="1:16" ht="15" hidden="1">
       <c r="A844" s="6" t="s">
         <v>92</v>
       </c>
@@ -40457,7 +40465,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="845" spans="1:16" ht="15">
+    <row r="845" spans="1:16" ht="15" hidden="1">
       <c r="A845" s="6" t="s">
         <v>93</v>
       </c>
@@ -40494,7 +40502,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="846" spans="1:16" ht="15">
+    <row r="846" spans="1:16" ht="15" hidden="1">
       <c r="A846" s="6" t="s">
         <v>94</v>
       </c>
@@ -40528,7 +40536,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="847" spans="1:16" ht="30">
+    <row r="847" spans="1:16" ht="30" hidden="1">
       <c r="A847" s="6" t="s">
         <v>95</v>
       </c>
@@ -40562,7 +40570,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="848" spans="1:16" ht="15">
+    <row r="848" spans="1:16" ht="15" hidden="1">
       <c r="A848" s="6" t="s">
         <v>96</v>
       </c>
@@ -40596,7 +40604,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="849" spans="1:16" ht="15">
+    <row r="849" spans="1:16" ht="15" hidden="1">
       <c r="A849" s="6" t="s">
         <v>97</v>
       </c>
@@ -40630,7 +40638,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="850" spans="1:16" ht="30">
+    <row r="850" spans="1:16" ht="30" hidden="1">
       <c r="A850" s="6" t="s">
         <v>98</v>
       </c>
@@ -40664,7 +40672,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="851" spans="1:16" ht="15">
+    <row r="851" spans="1:16" ht="15" hidden="1">
       <c r="A851" s="6" t="s">
         <v>99</v>
       </c>
@@ -40698,7 +40706,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="852" spans="1:16" ht="15">
+    <row r="852" spans="1:16" ht="15" hidden="1">
       <c r="A852" s="6" t="s">
         <v>100</v>
       </c>
@@ -40732,7 +40740,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="853" spans="1:16" ht="30">
+    <row r="853" spans="1:16" ht="30" hidden="1">
       <c r="A853" s="6" t="s">
         <v>101</v>
       </c>
@@ -40766,7 +40774,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="854" spans="1:16" ht="15">
+    <row r="854" spans="1:16" ht="15" hidden="1">
       <c r="A854" s="6" t="s">
         <v>102</v>
       </c>
@@ -40800,7 +40808,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="855" spans="1:16" ht="15">
+    <row r="855" spans="1:16" ht="15" hidden="1">
       <c r="A855" s="6" t="s">
         <v>103</v>
       </c>
@@ -40834,7 +40842,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="856" spans="1:16" ht="30">
+    <row r="856" spans="1:16" ht="30" hidden="1">
       <c r="A856" s="6" t="s">
         <v>104</v>
       </c>
@@ -40868,7 +40876,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="857" spans="1:16" ht="15">
+    <row r="857" spans="1:16" ht="15" hidden="1">
       <c r="A857" s="6" t="s">
         <v>105</v>
       </c>
@@ -40902,7 +40910,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="858" spans="1:16" ht="15">
+    <row r="858" spans="1:16" ht="15" hidden="1">
       <c r="A858" s="6" t="s">
         <v>106</v>
       </c>
@@ -40936,7 +40944,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="859" spans="1:16" ht="30">
+    <row r="859" spans="1:16" ht="30" hidden="1">
       <c r="A859" s="6" t="s">
         <v>107</v>
       </c>
@@ -40970,7 +40978,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="860" spans="1:16" ht="15">
+    <row r="860" spans="1:16" ht="15" hidden="1">
       <c r="A860" s="6" t="s">
         <v>108</v>
       </c>
@@ -41004,7 +41012,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="861" spans="1:16" ht="15">
+    <row r="861" spans="1:16" ht="15" hidden="1">
       <c r="A861" s="6" t="s">
         <v>109</v>
       </c>
@@ -41038,7 +41046,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="862" spans="1:16" ht="30">
+    <row r="862" spans="1:16" ht="30" hidden="1">
       <c r="A862" s="6" t="s">
         <v>110</v>
       </c>
@@ -41072,7 +41080,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="863" spans="1:16" ht="15">
+    <row r="863" spans="1:16" ht="15" hidden="1">
       <c r="A863" s="19" t="s">
         <v>1189</v>
       </c>
@@ -41102,7 +41110,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="864" spans="1:16" ht="15">
+    <row r="864" spans="1:16" ht="15" hidden="1">
       <c r="A864" s="19" t="s">
         <v>1190</v>
       </c>
@@ -41132,7 +41140,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="865" spans="1:16" ht="30">
+    <row r="865" spans="1:16" ht="30" hidden="1">
       <c r="A865" s="19" t="s">
         <v>1191</v>
       </c>
@@ -41162,7 +41170,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="866" spans="1:16" ht="30">
+    <row r="866" spans="1:16" ht="30" hidden="1">
       <c r="A866" s="6" t="s">
         <v>114</v>
       </c>
@@ -41194,7 +41202,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="867" spans="1:16" ht="15">
+    <row r="867" spans="1:16" ht="15" hidden="1">
       <c r="A867" s="6" t="s">
         <v>115</v>
       </c>
@@ -41226,7 +41234,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="868" spans="1:16" ht="15">
+    <row r="868" spans="1:16" ht="15" hidden="1">
       <c r="A868" s="6" t="s">
         <v>116</v>
       </c>
@@ -41258,7 +41266,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="869" spans="1:16" ht="30">
+    <row r="869" spans="1:16" ht="30" hidden="1">
       <c r="A869" s="6" t="s">
         <v>117</v>
       </c>
@@ -41290,7 +41298,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="870" spans="1:16" ht="15">
+    <row r="870" spans="1:16" ht="15" hidden="1">
       <c r="A870" s="6" t="s">
         <v>118</v>
       </c>
@@ -41322,7 +41330,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="871" spans="1:16" ht="15">
+    <row r="871" spans="1:16" ht="15" hidden="1">
       <c r="A871" s="6" t="s">
         <v>119</v>
       </c>
@@ -41354,7 +41362,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="872" spans="1:16" ht="30">
+    <row r="872" spans="1:16" ht="30" hidden="1">
       <c r="A872" s="20" t="s">
         <v>1195</v>
       </c>
@@ -41391,7 +41399,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="873" spans="1:16" ht="30">
+    <row r="873" spans="1:16" ht="30" hidden="1">
       <c r="A873" s="20" t="s">
         <v>1196</v>
       </c>
@@ -41428,7 +41436,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="874" spans="1:16" ht="30">
+    <row r="874" spans="1:16" ht="30" hidden="1">
       <c r="A874" s="20" t="s">
         <v>1197</v>
       </c>
@@ -41465,7 +41473,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="875" spans="1:16" ht="30">
+    <row r="875" spans="1:16" ht="30" hidden="1">
       <c r="A875" s="20" t="s">
         <v>1198</v>
       </c>
@@ -41502,7 +41510,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="876" spans="1:16" ht="30">
+    <row r="876" spans="1:16" ht="30" hidden="1">
       <c r="A876" s="20" t="s">
         <v>1199</v>
       </c>
@@ -41539,7 +41547,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="877" spans="1:16" ht="30">
+    <row r="877" spans="1:16" ht="30" hidden="1">
       <c r="A877" s="20" t="s">
         <v>1200</v>
       </c>
@@ -41576,7 +41584,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="878" spans="1:16" ht="30">
+    <row r="878" spans="1:16" ht="30" hidden="1">
       <c r="A878" s="20" t="s">
         <v>1201</v>
       </c>
@@ -41613,7 +41621,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="879" spans="1:16" ht="30">
+    <row r="879" spans="1:16" ht="30" hidden="1">
       <c r="A879" s="20" t="s">
         <v>1202</v>
       </c>
@@ -41650,7 +41658,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="880" spans="1:16" ht="30">
+    <row r="880" spans="1:16" ht="30" hidden="1">
       <c r="A880" s="20" t="s">
         <v>1203</v>
       </c>
@@ -41687,7 +41695,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="881" spans="1:16" ht="30">
+    <row r="881" spans="1:16" ht="30" hidden="1">
       <c r="A881" s="20" t="s">
         <v>1204</v>
       </c>
@@ -41724,7 +41732,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="882" spans="1:16" ht="30">
+    <row r="882" spans="1:16" ht="30" hidden="1">
       <c r="A882" s="20" t="s">
         <v>1205</v>
       </c>
@@ -41761,7 +41769,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="883" spans="1:16" ht="30">
+    <row r="883" spans="1:16" ht="30" hidden="1">
       <c r="A883" s="20" t="s">
         <v>1207</v>
       </c>
@@ -41798,7 +41806,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="884" spans="1:16" ht="30">
+    <row r="884" spans="1:16" ht="30" hidden="1">
       <c r="A884" s="20" t="s">
         <v>1208</v>
       </c>
@@ -41835,7 +41843,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="885" spans="1:16" ht="30">
+    <row r="885" spans="1:16" ht="30" hidden="1">
       <c r="A885" s="20" t="s">
         <v>1209</v>
       </c>
@@ -41872,7 +41880,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="886" spans="1:16" ht="30">
+    <row r="886" spans="1:16" ht="30" hidden="1">
       <c r="A886" s="20" t="s">
         <v>1210</v>
       </c>
@@ -41909,7 +41917,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="887" spans="1:16" ht="30">
+    <row r="887" spans="1:16" ht="30" hidden="1">
       <c r="A887" s="20" t="s">
         <v>1211</v>
       </c>
@@ -41946,7 +41954,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="888" spans="1:16" ht="30">
+    <row r="888" spans="1:16" ht="30" hidden="1">
       <c r="A888" s="20" t="s">
         <v>1212</v>
       </c>
@@ -41983,7 +41991,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="889" spans="1:16" ht="30">
+    <row r="889" spans="1:16" ht="30" hidden="1">
       <c r="A889" s="20" t="s">
         <v>1213</v>
       </c>
@@ -42020,7 +42028,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="890" spans="1:16" ht="30">
+    <row r="890" spans="1:16" ht="30" hidden="1">
       <c r="A890" s="20" t="s">
         <v>1214</v>
       </c>
@@ -42057,7 +42065,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="891" spans="1:16" ht="30">
+    <row r="891" spans="1:16" ht="30" hidden="1">
       <c r="A891" s="20" t="s">
         <v>1215</v>
       </c>
@@ -42094,7 +42102,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="892" spans="1:16" ht="30">
+    <row r="892" spans="1:16" ht="30" hidden="1">
       <c r="A892" s="20" t="s">
         <v>1216</v>
       </c>
@@ -42131,7 +42139,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="893" spans="1:16" ht="30">
+    <row r="893" spans="1:16" ht="30" hidden="1">
       <c r="A893" s="20" t="s">
         <v>1217</v>
       </c>
@@ -42168,7 +42176,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="894" spans="1:16" ht="30">
+    <row r="894" spans="1:16" ht="30" hidden="1">
       <c r="A894" s="20" t="s">
         <v>1218</v>
       </c>
@@ -42205,7 +42213,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="895" spans="1:16" ht="30">
+    <row r="895" spans="1:16" ht="30" hidden="1">
       <c r="A895" s="20" t="s">
         <v>1219</v>
       </c>
@@ -42242,7 +42250,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="896" spans="1:16" ht="30">
+    <row r="896" spans="1:16" ht="30" hidden="1">
       <c r="A896" s="20" t="s">
         <v>1220</v>
       </c>
@@ -42279,7 +42287,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="897" spans="1:16" ht="30">
+    <row r="897" spans="1:16" ht="30" hidden="1">
       <c r="A897" s="20" t="s">
         <v>1221</v>
       </c>
@@ -42316,7 +42324,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="898" spans="1:16" ht="30">
+    <row r="898" spans="1:16" ht="30" hidden="1">
       <c r="A898" s="20" t="s">
         <v>1222</v>
       </c>
@@ -42353,7 +42361,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="899" spans="1:16" ht="30">
+    <row r="899" spans="1:16" ht="30" hidden="1">
       <c r="A899" s="20" t="s">
         <v>1223</v>
       </c>
@@ -42390,7 +42398,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="900" spans="1:16" ht="30">
+    <row r="900" spans="1:16" ht="30" hidden="1">
       <c r="A900" s="20" t="s">
         <v>1224</v>
       </c>
@@ -42427,7 +42435,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="901" spans="1:16" ht="30">
+    <row r="901" spans="1:16" ht="30" hidden="1">
       <c r="A901" s="20" t="s">
         <v>1225</v>
       </c>
@@ -42464,7 +42472,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="902" spans="1:16" ht="30">
+    <row r="902" spans="1:16" ht="30" hidden="1">
       <c r="A902" s="20" t="s">
         <v>1226</v>
       </c>
@@ -42501,7 +42509,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="903" spans="1:16" ht="30">
+    <row r="903" spans="1:16" ht="30" hidden="1">
       <c r="A903" s="20" t="s">
         <v>1227</v>
       </c>
@@ -42538,7 +42546,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="904" spans="1:16" ht="30">
+    <row r="904" spans="1:16" ht="30" hidden="1">
       <c r="A904" s="20" t="s">
         <v>1231</v>
       </c>
@@ -42575,7 +42583,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="905" spans="1:16" ht="30">
+    <row r="905" spans="1:16" ht="30" hidden="1">
       <c r="A905" s="20" t="s">
         <v>1232</v>
       </c>
@@ -42612,7 +42620,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="906" spans="1:16" ht="30">
+    <row r="906" spans="1:16" ht="30" hidden="1">
       <c r="A906" s="20" t="s">
         <v>1233</v>
       </c>
@@ -42649,7 +42657,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="907" spans="1:16" ht="30">
+    <row r="907" spans="1:16" ht="30" hidden="1">
       <c r="A907" s="20" t="s">
         <v>1234</v>
       </c>
@@ -42686,7 +42694,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="908" spans="1:16" ht="30">
+    <row r="908" spans="1:16" ht="30" hidden="1">
       <c r="A908" s="20" t="s">
         <v>1235</v>
       </c>
@@ -42723,7 +42731,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="909" spans="1:16" ht="30">
+    <row r="909" spans="1:16" ht="30" hidden="1">
       <c r="A909" s="20" t="s">
         <v>1236</v>
       </c>
@@ -42760,7 +42768,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="910" spans="1:16" ht="30">
+    <row r="910" spans="1:16" ht="30" hidden="1">
       <c r="A910" s="20" t="s">
         <v>1237</v>
       </c>
@@ -42797,7 +42805,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="911" spans="1:16" ht="30">
+    <row r="911" spans="1:16" ht="30" hidden="1">
       <c r="A911" s="20" t="s">
         <v>1238</v>
       </c>
@@ -42834,7 +42842,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="912" spans="1:16" ht="30">
+    <row r="912" spans="1:16" ht="30" hidden="1">
       <c r="A912" s="20" t="s">
         <v>1239</v>
       </c>
@@ -42871,7 +42879,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="913" spans="1:16" ht="30">
+    <row r="913" spans="1:16" ht="30" hidden="1">
       <c r="A913" s="20" t="s">
         <v>1240</v>
       </c>
@@ -42908,7 +42916,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="914" spans="1:16" ht="30">
+    <row r="914" spans="1:16" ht="30" hidden="1">
       <c r="A914" s="20" t="s">
         <v>1244</v>
       </c>
@@ -42945,7 +42953,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="915" spans="1:16" ht="30">
+    <row r="915" spans="1:16" ht="30" hidden="1">
       <c r="A915" s="20" t="s">
         <v>1245</v>
       </c>
@@ -42982,7 +42990,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="916" spans="1:16" ht="30">
+    <row r="916" spans="1:16" ht="30" hidden="1">
       <c r="A916" s="20" t="s">
         <v>1246</v>
       </c>
@@ -43019,7 +43027,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="917" spans="1:16" ht="30">
+    <row r="917" spans="1:16" ht="30" hidden="1">
       <c r="A917" s="20" t="s">
         <v>1247</v>
       </c>
@@ -43056,7 +43064,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="918" spans="1:16" ht="30">
+    <row r="918" spans="1:16" ht="30" hidden="1">
       <c r="A918" s="20" t="s">
         <v>1248</v>
       </c>
@@ -43093,7 +43101,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="919" spans="1:16" ht="30">
+    <row r="919" spans="1:16" ht="30" hidden="1">
       <c r="A919" s="20" t="s">
         <v>1249</v>
       </c>
@@ -43130,7 +43138,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="920" spans="1:16" ht="30">
+    <row r="920" spans="1:16" ht="30" hidden="1">
       <c r="A920" s="20" t="s">
         <v>1250</v>
       </c>
@@ -43167,7 +43175,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="921" spans="1:16" ht="30">
+    <row r="921" spans="1:16" ht="30" hidden="1">
       <c r="A921" s="20" t="s">
         <v>1251</v>
       </c>
@@ -43204,7 +43212,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="922" spans="1:16" ht="30">
+    <row r="922" spans="1:16" ht="30" hidden="1">
       <c r="A922" s="20" t="s">
         <v>1252</v>
       </c>
@@ -43241,7 +43249,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="923" spans="1:16" ht="30">
+    <row r="923" spans="1:16" ht="30" hidden="1">
       <c r="A923" s="23" t="s">
         <v>171</v>
       </c>
@@ -43278,7 +43286,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="924" spans="1:16" ht="30">
+    <row r="924" spans="1:16" ht="30" hidden="1">
       <c r="A924" s="20" t="s">
         <v>1255</v>
       </c>
@@ -43315,7 +43323,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="925" spans="1:16" ht="30">
+    <row r="925" spans="1:16" ht="30" hidden="1">
       <c r="A925" s="20" t="s">
         <v>1256</v>
       </c>
@@ -43352,7 +43360,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="926" spans="1:16" ht="30">
+    <row r="926" spans="1:16" ht="30" hidden="1">
       <c r="A926" s="20" t="s">
         <v>1257</v>
       </c>
@@ -43389,7 +43397,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="927" spans="1:16" ht="30">
+    <row r="927" spans="1:16" ht="30" hidden="1">
       <c r="A927" s="20" t="s">
         <v>1258</v>
       </c>
@@ -43426,7 +43434,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="928" spans="1:16" ht="30">
+    <row r="928" spans="1:16" ht="30" hidden="1">
       <c r="A928" s="20" t="s">
         <v>1259</v>
       </c>
@@ -43463,7 +43471,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="929" spans="1:16" ht="30">
+    <row r="929" spans="1:16" ht="30" hidden="1">
       <c r="A929" s="20" t="s">
         <v>1260</v>
       </c>
@@ -43500,7 +43508,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="930" spans="1:16" ht="30">
+    <row r="930" spans="1:16" ht="30" hidden="1">
       <c r="A930" s="20" t="s">
         <v>1261</v>
       </c>
@@ -43537,7 +43545,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="931" spans="1:16" ht="30">
+    <row r="931" spans="1:16" ht="30" hidden="1">
       <c r="A931" s="20" t="s">
         <v>1262</v>
       </c>
@@ -43574,7 +43582,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="932" spans="1:16" ht="30">
+    <row r="932" spans="1:16" ht="30" hidden="1">
       <c r="A932" s="23" t="s">
         <v>180</v>
       </c>
@@ -43611,7 +43619,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="933" spans="1:16" ht="30">
+    <row r="933" spans="1:16" ht="30" hidden="1">
       <c r="A933" s="20" t="s">
         <v>1263</v>
       </c>
@@ -43649,8 +43657,17 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P933">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Lula Tavolo"/>
+        <filter val="Lula Terra"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
